--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -6,33 +6,33 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Run0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Run1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Run2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Run3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Run4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Run5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Run6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Run7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Run8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Run9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Run10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Run11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Run12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Run13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Run14" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Run15" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Run16" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Run17" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Run18" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Run19" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Run20" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Run21" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Run22" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Run23" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Run24" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Run25" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Run26" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Trace1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Trace2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Trace3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Trace4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Trace5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Trace6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Trace7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Trace8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Trace9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Trace10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Trace11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Trace12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Trace13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Trace14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Trace15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Trace16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Trace17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Trace18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Trace19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Trace20" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Trace21" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Trace22" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Trace23" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Trace24" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Trace25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Trace26" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Trace27" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
 </workbook>
 </file>
@@ -570,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>9486.72529647823</v>
       </c>
     </row>
     <row r="21">
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>29220.3138371678</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>10082.4086083518</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>8568.62572563951</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>5998.03800794766</v>
       </c>
     </row>
     <row r="8">
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>20659.9086940419</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>6161.47192732613</v>
       </c>
     </row>
     <row r="10">
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>10282.3508707674</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1428.10428760659</v>
       </c>
     </row>
     <row r="12">
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>78259.243705319</v>
       </c>
     </row>
     <row r="13">
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>54675.4761327229</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>22022.498747763</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>25227.2653565792</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>19146.4261501074</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>60315.3510479777</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>15612.9655301305</v>
       </c>
     </row>
     <row r="19">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>49714.969188047</v>
       </c>
     </row>
     <row r="20">
@@ -744,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>3021.45598464353</v>
       </c>
     </row>
     <row r="21">
@@ -752,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>14955.5775078092</v>
       </c>
     </row>
     <row r="22">
@@ -789,109 +789,145 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>26676.6582696399</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>9204.72553712817</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="n">
+        <v>8259.50443503033</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>5781.65310452124</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>19914.5829155732</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>5625.11005046721</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="n">
+        <v>9911.40532203641</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>1376.58407250506</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>61727.0559070917</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>43125.3358989727</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="n">
+        <v>18279.6333167374</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>20939.7292098446</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>15892.3677716411</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>50064.3688600195</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>12959.4415305227</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>41265.5901366646</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>3004.19024225961</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>12413.7808345008</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -928,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>25312.0361840563</v>
       </c>
     </row>
     <row r="5">
@@ -936,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>8733.86552037727</v>
       </c>
     </row>
     <row r="6">
@@ -944,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>8124.7879232097</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>5687.35154624679</v>
       </c>
     </row>
     <row r="8">
@@ -960,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>19589.7664370723</v>
       </c>
     </row>
     <row r="9">
@@ -968,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>5337.36226245277</v>
       </c>
     </row>
     <row r="10">
@@ -976,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>9749.74550785165</v>
       </c>
     </row>
     <row r="11">
@@ -984,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1354.13132053495</v>
       </c>
     </row>
     <row r="12">
@@ -992,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>54576.0362582984</v>
       </c>
     </row>
     <row r="13">
@@ -1000,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>38129.3074987435</v>
       </c>
     </row>
     <row r="14">
@@ -1008,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>16689.6888278555</v>
       </c>
     </row>
     <row r="15">
@@ -1016,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>19118.4122020582</v>
       </c>
     </row>
     <row r="16">
@@ -1024,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>14510.0652869042</v>
       </c>
     </row>
     <row r="17">
@@ -1032,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>45709.8194016637</v>
       </c>
     </row>
     <row r="18">
@@ -1040,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>11832.2420794497</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>37676.3497793005</v>
       </c>
     </row>
     <row r="20">
@@ -1056,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>2994.48900720748</v>
       </c>
     </row>
     <row r="21">
@@ -1064,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>11334.0424129466</v>
       </c>
     </row>
     <row r="22">
@@ -1093,115 +1129,153 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>35500</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>29957.2097633829</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>10336.6730173973</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="n">
+        <v>8677.62871238235</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>6074.34009866765</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>20922.7270065219</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>6316.85573285392</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="n">
+        <v>10413.1544548588</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>1446.27145206373</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>84122.4737987153</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>58771.7960286736</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="n">
+        <v>23368.0743366028</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>26768.6523184218</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>20316.2735836883</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>64000.6215039792</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>16566.9183729646</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>52752.5558718085</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>3026.1838017259</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>15869.3639151556</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1229,115 +1303,153 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>35500</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>27163.0095809419</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>9372.54004709819</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="n">
+        <v>8331.44640628061</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>5832.01248439643</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>20088.0430018099</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>5727.66336211555</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="n">
+        <v>9997.73568753674</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>1388.57440104677</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>65596.7877687332</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>45828.9070303001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="n">
+        <v>19167.7132053717</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>21957.0446046607</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>16664.4670778045</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>52496.6473609805</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>13589.0504067933</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>43270.3973479471</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>3007.31060153398</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>13016.8798633494</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1374,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>25724.6979027368</v>
       </c>
     </row>
     <row r="5">
@@ -1382,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>8876.25358944274</v>
       </c>
     </row>
     <row r="6">
@@ -1390,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>8185.82959578569</v>
       </c>
     </row>
     <row r="7">
@@ -1398,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>5730.08071704999</v>
       </c>
     </row>
     <row r="8">
@@ -1406,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>19736.9446920611</v>
       </c>
     </row>
     <row r="9">
@@ -1414,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10516.5211610347</v>
+        <v>5424.37719354833</v>
       </c>
     </row>
     <row r="10">
@@ -1422,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12868.8714578556</v>
+        <v>9822.99551494283</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1779.45436914661</v>
+        <v>1364.30493263095</v>
       </c>
     </row>
     <row r="12">
@@ -1438,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>158940.870349548</v>
+        <v>57859.4451106003</v>
       </c>
     </row>
     <row r="13">
@@ -1446,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>111039.325898838</v>
+        <v>40423.2466404758</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>41630.9061437134</v>
+        <v>17443.2111576058</v>
       </c>
     </row>
     <row r="15">
@@ -1462,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>47689.8812914926</v>
+        <v>19981.58890069</v>
       </c>
     </row>
     <row r="16">
@@ -1470,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>36190.4669085269</v>
+        <v>15165.1798497095</v>
       </c>
     </row>
     <row r="17">
@@ -1478,7 +1590,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>114036.839960767</v>
+        <v>47773.5708570245</v>
       </c>
     </row>
     <row r="18">
@@ -1486,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>29506.955848155</v>
+        <v>12366.4556714368</v>
       </c>
     </row>
     <row r="19">
@@ -1494,7 +1606,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>93990.3067796515</v>
+        <v>39377.3983222069</v>
       </c>
     </row>
     <row r="20">
@@ -1502,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>19871.1492029676</v>
+        <v>2997.13658477361</v>
       </c>
     </row>
     <row r="21">
@@ -1510,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>28260.8840229695</v>
+        <v>11845.7628010606</v>
       </c>
     </row>
     <row r="22">
@@ -1540,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -1548,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>38300.5911112495</v>
+        <v>28483.4179109526</v>
       </c>
     </row>
     <row r="5">
@@ -1556,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>13213.2295208145</v>
+        <v>9828.14419930636</v>
       </c>
     </row>
     <row r="6">
@@ -1564,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9337.4005314114</v>
+        <v>8459.62273889667</v>
       </c>
     </row>
     <row r="7">
@@ -1572,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6533.98037198798</v>
+        <v>5921.73591722767</v>
       </c>
     </row>
     <row r="8">
@@ -1580,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22517.1546146253</v>
+        <v>20397.090381562</v>
       </c>
     </row>
     <row r="9">
@@ -1588,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8069.58470716443</v>
+        <v>6006.08812179833</v>
       </c>
     </row>
     <row r="10">
@@ -1596,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11201.6806376937</v>
+        <v>10151.547286676</v>
       </c>
     </row>
     <row r="11">
@@ -1604,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1547.90008856857</v>
+        <v>1409.93712314945</v>
       </c>
     </row>
     <row r="12">
@@ -1612,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>121171.27813143</v>
+        <v>72396.0136119228</v>
       </c>
     </row>
     <row r="13">
@@ -1620,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>84651.7665500623</v>
+        <v>50579.1562367723</v>
       </c>
     </row>
     <row r="14">
@@ -1628,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>31125.018013154</v>
+        <v>20676.9231589232</v>
       </c>
     </row>
     <row r="15">
@@ -1636,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>35655.1512314861</v>
+        <v>23685.8783947366</v>
       </c>
     </row>
     <row r="16">
@@ -1644,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>27056.6164069585</v>
+        <v>17976.5787165266</v>
       </c>
     </row>
     <row r="17">
@@ -1652,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>85263.250827071</v>
+        <v>56630.0805919762</v>
       </c>
     </row>
     <row r="18">
@@ -1660,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>22058.7515764898</v>
+        <v>14659.0126872963</v>
       </c>
     </row>
     <row r="19">
@@ -1668,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>70273.6563356648</v>
+        <v>46677.3825042856</v>
       </c>
     </row>
     <row r="20">
@@ -1676,7 +1788,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14853.411588372</v>
+        <v>3016.72816756117</v>
       </c>
     </row>
     <row r="21">
@@ -1684,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>21126.2883522165</v>
+        <v>14041.7911004628</v>
       </c>
     </row>
     <row r="22">
@@ -1714,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -1722,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>42460.6086600741</v>
+        <v>26190.3069583379</v>
       </c>
     </row>
     <row r="5">
@@ -1730,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14648.6349370224</v>
+        <v>9036.91102715814</v>
       </c>
     </row>
     <row r="6">
@@ -1738,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10110.0664234794</v>
+        <v>8187.56246378006</v>
       </c>
     </row>
     <row r="7">
@@ -1746,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7074.84649643555</v>
+        <v>5731.29372464605</v>
       </c>
     </row>
     <row r="8">
@@ -1754,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>24380.1379321669</v>
+        <v>19741.1228293364</v>
       </c>
     </row>
     <row r="9">
@@ -1762,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8946.77690595811</v>
+        <v>5522.55673881886</v>
       </c>
     </row>
     <row r="10">
@@ -1770,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12128.8797081752</v>
+        <v>9825.07495653608</v>
       </c>
     </row>
     <row r="11">
@@ -1778,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1676.67773724656</v>
+        <v>1364.59374396334</v>
       </c>
     </row>
     <row r="12">
@@ -1786,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>147752.567221479</v>
+        <v>57857.3240454502</v>
       </c>
     </row>
     <row r="13">
@@ -1794,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>103222.667167151</v>
+        <v>40421.7647676452</v>
       </c>
     </row>
     <row r="14">
@@ -1802,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>39956.0811073356</v>
+        <v>17391.5534281032</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>45771.3317162389</v>
+        <v>19922.4138150285</v>
       </c>
     </row>
     <row r="16">
@@ -1818,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>34734.3690224223</v>
+        <v>15120.2684654777</v>
       </c>
     </row>
     <row r="17">
@@ -1826,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>109449.81915218</v>
+        <v>47632.0903590585</v>
       </c>
     </row>
     <row r="18">
@@ -1834,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28319.5798895289</v>
+        <v>12329.8326542521</v>
       </c>
     </row>
     <row r="19">
@@ -1842,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>90209.4517535</v>
+        <v>39260.782925382</v>
       </c>
     </row>
     <row r="20">
@@ -1850,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>19071.2327676826</v>
+        <v>3001.06988298525</v>
       </c>
     </row>
     <row r="21">
@@ -1858,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>27123.5028415488</v>
+        <v>11810.6818056521</v>
       </c>
     </row>
     <row r="22">
@@ -1888,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -1896,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>47663.0617903981</v>
+        <v>24899.3744653758</v>
       </c>
     </row>
     <row r="5">
@@ -1904,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>16443.7305858243</v>
+        <v>8591.4774513118</v>
       </c>
     </row>
     <row r="6">
@@ -1912,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10613.8005340383</v>
+        <v>8063.74625063371</v>
       </c>
     </row>
     <row r="7">
@@ -1920,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7427.46037382684</v>
+        <v>5644.6223754436</v>
       </c>
     </row>
     <row r="8">
@@ -1928,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>25594.6968431813</v>
+        <v>19442.5881820835</v>
       </c>
     </row>
     <row r="9">
@@ -1936,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10043.7798024482</v>
+        <v>5250.3473313572</v>
       </c>
     </row>
     <row r="10">
@@ -1944,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12733.360640846</v>
+        <v>9676.49550076046</v>
       </c>
     </row>
     <row r="11">
@@ -1952,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1760.63342233972</v>
+        <v>1343.95770843895</v>
       </c>
     </row>
     <row r="12">
@@ -1960,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>154527.753117341</v>
+        <v>51292.6274059965</v>
       </c>
     </row>
     <row r="13">
@@ -1968,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>107956.120970242</v>
+        <v>35835.3683570111</v>
       </c>
     </row>
     <row r="14">
@@ -1976,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>40792.9075756615</v>
+        <v>15936.1664981052</v>
       </c>
     </row>
     <row r="15">
@@ -1984,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>46729.9351706272</v>
+        <v>18255.2355034263</v>
       </c>
     </row>
     <row r="16">
@@ -1992,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>35461.9084519744</v>
+        <v>13854.9507240989</v>
       </c>
     </row>
     <row r="17">
@@ -2000,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>111741.72447961</v>
+        <v>43646.0679463028</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28912.8523857302</v>
+        <v>11298.0284874625</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>92098.5562808777</v>
+        <v>35975.3012363941</v>
       </c>
     </row>
     <row r="20">
@@ -2024,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>19470.911080913</v>
+        <v>2991.84142964136</v>
       </c>
     </row>
     <row r="21">
@@ -2032,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>27691.7954431731</v>
+        <v>10822.3220248326</v>
       </c>
     </row>
     <row r="22">
@@ -2062,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -2070,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>41463.6901328307</v>
+        <v>24219.6853754445</v>
       </c>
     </row>
     <row r="5">
@@ -2078,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14304.6502694751</v>
+        <v>8356.95214232596</v>
       </c>
     </row>
     <row r="6">
@@ -2086,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9586.22324417753</v>
+        <v>7994.88414185826</v>
       </c>
     </row>
     <row r="7">
@@ -2094,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6708.15627092427</v>
+        <v>5596.41889930079</v>
       </c>
     </row>
     <row r="8">
@@ -2102,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>23117.0938220725</v>
+        <v>19276.5539864805</v>
       </c>
     </row>
     <row r="9">
@@ -2110,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8736.56405356813</v>
+        <v>5107.02630919919</v>
       </c>
     </row>
     <row r="10">
@@ -2118,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11500.267893013</v>
+        <v>9593.86097022991</v>
       </c>
     </row>
     <row r="11">
@@ -2126,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1589.37054069626</v>
+        <v>1332.48069030971</v>
       </c>
     </row>
     <row r="12">
@@ -2134,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>145184.578180598</v>
+        <v>63678.2745377785</v>
       </c>
     </row>
     <row r="13">
@@ -2142,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>101428.552927529</v>
+        <v>44488.5462064164</v>
       </c>
     </row>
     <row r="14">
@@ -2150,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>34409.6351731602</v>
+        <v>19236.7608538959</v>
       </c>
     </row>
     <row r="15">
@@ -2158,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>39417.7537244783</v>
+        <v>22036.1402318882</v>
       </c>
     </row>
     <row r="16">
@@ -2166,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>29912.2723706952</v>
+        <v>16724.4973095438</v>
       </c>
     </row>
     <row r="17">
@@ -2174,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>94259.1799145507</v>
+        <v>52685.7554729836</v>
       </c>
     </row>
     <row r="18">
@@ -2182,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>24387.398070524</v>
+        <v>13638.0020979113</v>
       </c>
     </row>
     <row r="19">
@@ -2190,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>77688.557014037</v>
+        <v>43426.2698380859</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>16422.1839633004</v>
+        <v>-748.410183419322</v>
       </c>
     </row>
     <row r="21">
@@ -2206,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>23356.8865728177</v>
+        <v>13063.7704306308</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>29710.8156176215</v>
       </c>
     </row>
     <row r="5">
@@ -2252,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>10251.6552290834</v>
       </c>
     </row>
     <row r="6">
@@ -2260,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>8874.70500804984</v>
       </c>
     </row>
     <row r="7">
@@ -2268,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>6212.29350563489</v>
       </c>
     </row>
     <row r="8">
@@ -2276,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>21397.8998527424</v>
       </c>
     </row>
     <row r="9">
@@ -2284,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>6264.90041777322</v>
       </c>
     </row>
     <row r="10">
@@ -2292,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>10649.6460096598</v>
       </c>
     </row>
     <row r="11">
@@ -2300,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1479.11750134164</v>
       </c>
     </row>
     <row r="12">
@@ -2308,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>76507.5771077602</v>
       </c>
     </row>
     <row r="13">
@@ -2316,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>53451.6819748347</v>
       </c>
     </row>
     <row r="14">
@@ -2324,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>25145.7975677984</v>
       </c>
     </row>
     <row r="15">
@@ -2332,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>28805.0740795303</v>
       </c>
     </row>
     <row r="16">
@@ -2340,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>21861.8314675262</v>
       </c>
     </row>
     <row r="17">
@@ -2348,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>68869.4605028509</v>
       </c>
     </row>
     <row r="18">
@@ -2356,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>17827.2445443347</v>
       </c>
     </row>
     <row r="19">
@@ -2364,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>56765.6997332763</v>
       </c>
     </row>
     <row r="20">
@@ -2372,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>9479.09428158313</v>
       </c>
     </row>
     <row r="21">
@@ -2380,7 +2492,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>17076.6237214153</v>
       </c>
     </row>
     <row r="22">
@@ -2410,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -2418,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>45681.1167820514</v>
+        <v>19944.955109567</v>
       </c>
     </row>
     <row r="5">
@@ -2426,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>15759.8645765545</v>
+        <v>6881.96534132029</v>
       </c>
     </row>
     <row r="6">
@@ -2434,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10452.1681049492</v>
+        <v>7441.26799376222</v>
       </c>
     </row>
     <row r="7">
@@ -2442,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7314.31767346443</v>
+        <v>5208.88759563356</v>
       </c>
     </row>
     <row r="8">
@@ -2450,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>25204.9830974886</v>
+        <v>17941.7239405156</v>
       </c>
     </row>
     <row r="9">
@@ -2458,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9625.86168567219</v>
+        <v>4205.64548636239</v>
       </c>
     </row>
     <row r="10">
@@ -2466,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12539.401725939</v>
+        <v>8929.52159251466</v>
       </c>
     </row>
     <row r="11">
@@ -2474,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1733.6946841582</v>
+        <v>1240.2113322937</v>
       </c>
     </row>
     <row r="12">
@@ -2482,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>165963.42658133</v>
+        <v>40885.8023502333</v>
       </c>
     </row>
     <row r="13">
@@ -2490,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>115945.603898243</v>
+        <v>28564.6858406258</v>
       </c>
     </row>
     <row r="14">
@@ -2498,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>44033.0204776593</v>
+        <v>14276.0061212992</v>
       </c>
     </row>
     <row r="15">
@@ -2506,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>50441.5570397068</v>
+        <v>16353.4846240255</v>
       </c>
     </row>
     <row r="16">
@@ -2514,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>38278.8722809501</v>
+        <v>12411.6023368011</v>
       </c>
     </row>
     <row r="17">
@@ -2522,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>120615.765039559</v>
+        <v>39099.2107949015</v>
       </c>
     </row>
     <row r="18">
@@ -2530,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>31209.9473535644</v>
+        <v>10121.0491158464</v>
       </c>
     </row>
     <row r="19">
@@ -2538,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>99412.9902574026</v>
+        <v>32227.5511320373</v>
       </c>
     </row>
     <row r="20">
@@ -2546,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>21018.4276908224</v>
+        <v>-771.294089164634</v>
       </c>
     </row>
     <row r="21">
@@ -2554,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>29892.170622888</v>
+        <v>9694.89967938968</v>
       </c>
     </row>
     <row r="22">
@@ -2584,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -2592,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>55469.4898081273</v>
+        <v>17651.6448810919</v>
       </c>
     </row>
     <row r="5">
@@ -2600,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>19137.3223619097</v>
+        <v>6090.6634094503</v>
       </c>
     </row>
     <row r="6">
@@ -2608,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11603.9024697833</v>
+        <v>7199.99947352507</v>
       </c>
     </row>
     <row r="7">
@@ -2616,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8120.53172884834</v>
+        <v>5039.99963146756</v>
       </c>
     </row>
     <row r="8">
@@ -2624,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>27981.9426215887</v>
+        <v>17359.9987306104</v>
       </c>
     </row>
     <row r="9">
@@ -2632,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>11689.8636656115</v>
+        <v>3722.07208355295</v>
       </c>
     </row>
     <row r="10">
@@ -2640,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>13921.48296374</v>
+        <v>8639.99936823008</v>
       </c>
     </row>
     <row r="11">
@@ -2648,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1925.65041163056</v>
+        <v>1199.99991225418</v>
       </c>
     </row>
     <row r="12">
@@ -2656,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>195262.613143139</v>
+        <v>31026.8884274681</v>
       </c>
     </row>
     <row r="13">
@@ -2664,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>136415.351620319</v>
+        <v>21676.7990255111</v>
       </c>
     </row>
     <row r="14">
@@ -2672,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>49644.369945642</v>
+        <v>12168.7103092705</v>
       </c>
     </row>
     <row r="15">
@@ -2680,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>56869.4834825078</v>
+        <v>13939.5300930822</v>
       </c>
     </row>
     <row r="16">
@@ -2688,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>43157.3962587111</v>
+        <v>10579.5130673881</v>
       </c>
     </row>
     <row r="17">
@@ -2696,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>135984.162463064</v>
+        <v>33327.7364440468</v>
       </c>
     </row>
     <row r="18">
@@ -2704,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>35188.1428719103</v>
+        <v>8627.07074164694</v>
       </c>
     </row>
     <row r="19">
@@ -2712,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>112080.402302662</v>
+        <v>27470.4094668233</v>
       </c>
     </row>
     <row r="20">
@@ -2720,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>23698.4751979185</v>
+        <v>-784.15204473988</v>
       </c>
     </row>
     <row r="21">
@@ -2728,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>33702.8631720404</v>
+        <v>8263.8256577881</v>
       </c>
     </row>
     <row r="22">
@@ -2758,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -2766,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>39744.7129334572</v>
+        <v>25458.0728988211</v>
       </c>
     </row>
     <row r="5">
@@ -2774,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>13711.5207565923</v>
+        <v>8784.25518553576</v>
       </c>
     </row>
     <row r="6">
@@ -2782,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9445.90644758669</v>
+        <v>8190.10140927007</v>
       </c>
     </row>
     <row r="7">
@@ -2790,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6609.93451331068</v>
+        <v>5733.07098648906</v>
       </c>
     </row>
     <row r="8">
@@ -2798,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22778.7744347368</v>
+        <v>19747.2445090178</v>
       </c>
     </row>
     <row r="9">
@@ -2806,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8374.09601791749</v>
+        <v>5368.15594671628</v>
       </c>
     </row>
     <row r="10">
@@ -2814,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11331.887737104</v>
+        <v>9828.12169112407</v>
       </c>
     </row>
     <row r="11">
@@ -2822,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1565.98440793111</v>
+        <v>1365.01690154501</v>
       </c>
     </row>
     <row r="12">
@@ -2830,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>131634.016538211</v>
+        <v>71761.748453266</v>
       </c>
     </row>
     <row r="13">
@@ -2838,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>91961.5126830165</v>
+        <v>50136.0296755888</v>
       </c>
     </row>
     <row r="14">
@@ -2846,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>32553.2372535845</v>
+        <v>21020.172679251</v>
       </c>
     </row>
     <row r="15">
@@ -2854,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>37291.2083464569</v>
+        <v>24079.0784049628</v>
       </c>
     </row>
     <row r="16">
@@ -2862,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>28298.3144779298</v>
+        <v>18275.0008741248</v>
       </c>
     </row>
     <row r="17">
@@ -2870,7 +2982,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>89174.8662094442</v>
+        <v>57570.1744275007</v>
       </c>
     </row>
     <row r="18">
@@ -2878,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>23071.2950678398</v>
+        <v>14902.3612278271</v>
       </c>
     </row>
     <row r="19">
@@ -2886,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>73497.8079791741</v>
+        <v>47452.2554886075</v>
       </c>
     </row>
     <row r="20">
@@ -2894,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15535.5461509658</v>
+        <v>-742.143964563031</v>
       </c>
     </row>
     <row r="21">
@@ -2902,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>22096.1984334044</v>
+        <v>14274.8933866554</v>
       </c>
     </row>
     <row r="22">
@@ -2932,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -2940,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>42886.9165996104</v>
+        <v>20762.2908749955</v>
       </c>
     </row>
     <row r="5">
@@ -2948,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14795.7316062553</v>
+        <v>7163.98534983876</v>
       </c>
     </row>
     <row r="6">
@@ -2956,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10105.9857988475</v>
+        <v>7570.11139025401</v>
       </c>
     </row>
     <row r="7">
@@ -2964,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7071.99005919321</v>
+        <v>5299.07797317781</v>
       </c>
     </row>
     <row r="8">
@@ -2972,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>24370.2990927766</v>
+        <v>18252.3796853902</v>
       </c>
     </row>
     <row r="9">
@@ -2980,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9036.66931493382</v>
+        <v>4377.99104712367</v>
       </c>
     </row>
     <row r="10">
@@ -2988,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12123.9829586169</v>
+        <v>9084.13366830481</v>
       </c>
     </row>
     <row r="11">
@@ -2996,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1675.99763314124</v>
+        <v>1261.685231709</v>
       </c>
     </row>
     <row r="12">
@@ -3004,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>147437.740551348</v>
+        <v>46220.895134455</v>
       </c>
     </row>
     <row r="13">
@@ -3012,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>103002.714899869</v>
+        <v>32292.0249302796</v>
       </c>
     </row>
     <row r="14">
@@ -3020,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>39832.6593464282</v>
+        <v>15453.0579260335</v>
       </c>
     </row>
     <row r="15">
@@ -3028,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>45629.9493259457</v>
+        <v>17701.8238182547</v>
       </c>
     </row>
     <row r="16">
@@ -3036,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>34627.0657750663</v>
+        <v>13434.9346894246</v>
       </c>
     </row>
     <row r="17">
@@ -3044,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>109111.790896561</v>
+        <v>42322.9273048828</v>
       </c>
     </row>
     <row r="18">
@@ -3052,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28232.0793873931</v>
+        <v>10955.5261415909</v>
       </c>
     </row>
     <row r="19">
@@ -3060,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>89930.8317335412</v>
+        <v>34884.7016613816</v>
       </c>
     </row>
     <row r="20">
@@ -3068,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>19012.2850609806</v>
+        <v>-767.158384719482</v>
       </c>
     </row>
     <row r="21">
@@ -3076,7 +3188,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>27039.6865710818</v>
+        <v>10494.240830366</v>
       </c>
     </row>
     <row r="22">
@@ -3106,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -3114,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>50773.7077843017</v>
+        <v>18345.1418941828</v>
       </c>
     </row>
     <row r="5">
@@ -3122,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>17517.0525262127</v>
+        <v>6329.95311364778</v>
       </c>
     </row>
     <row r="6">
@@ -3130,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10983.9124507673</v>
+        <v>7309.32114327568</v>
       </c>
     </row>
     <row r="7">
@@ -3138,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7686.5387155371</v>
+        <v>5116.52480029297</v>
       </c>
     </row>
     <row r="8">
@@ -3146,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>26487.0777979611</v>
+        <v>17623.5854232314</v>
       </c>
     </row>
     <row r="9">
@@ -3154,7 +3266,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10699.6987660189</v>
+        <v>3868.30468056252</v>
       </c>
     </row>
     <row r="10">
@@ -3162,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>13177.4949409207</v>
+        <v>8771.18537193081</v>
       </c>
     </row>
     <row r="11">
@@ -3170,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1822.31874179455</v>
+        <v>1218.22019054595</v>
       </c>
     </row>
     <row r="12">
@@ -3178,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>169721.759824328</v>
+        <v>35553.6338201411</v>
       </c>
     </row>
     <row r="13">
@@ -3186,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>118571.34687501</v>
+        <v>24839.3897682477</v>
       </c>
     </row>
     <row r="14">
@@ -3194,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>44077.2551924245</v>
+        <v>13167.4209314693</v>
       </c>
     </row>
     <row r="15">
@@ -3202,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>50492.2288957997</v>
+        <v>15083.575470004</v>
       </c>
     </row>
     <row r="16">
@@ -3210,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>38317.3300740109</v>
+        <v>11447.7950635535</v>
       </c>
     </row>
     <row r="17">
@@ -3218,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>120736.915340446</v>
+        <v>36063.0110585764</v>
       </c>
     </row>
     <row r="18">
@@ -3226,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>31241.3077856741</v>
+        <v>9335.11185439986</v>
       </c>
     </row>
     <row r="19">
@@ -3234,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>99512.848475436</v>
+        <v>29724.9614311154</v>
       </c>
     </row>
     <row r="20">
@@ -3242,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>21039.5547187699</v>
+        <v>-780.642962180357</v>
       </c>
     </row>
     <row r="21">
@@ -3250,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>29922.210615751</v>
+        <v>8942.05451316188</v>
       </c>
     </row>
     <row r="22">
@@ -3280,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -3288,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>38728.1439201741</v>
+        <v>22981.297852068</v>
       </c>
     </row>
     <row r="5">
@@ -3296,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>13360.7557296447</v>
+        <v>7929.64909911616</v>
       </c>
     </row>
     <row r="6">
@@ -3304,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9386.88412316893</v>
+        <v>7799.66687444646</v>
       </c>
     </row>
     <row r="7">
@@ -3312,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6568.61888621826</v>
+        <v>5459.76681211253</v>
       </c>
     </row>
     <row r="8">
@@ -3320,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22636.4650525295</v>
+        <v>18805.8634639431</v>
       </c>
     </row>
     <row r="9">
@@ -3328,7 +3440,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8159.73961256067</v>
+        <v>4845.89667168209</v>
       </c>
     </row>
     <row r="10">
@@ -3336,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11261.0609478027</v>
+        <v>9359.60024933574</v>
       </c>
     </row>
     <row r="11">
@@ -3344,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1556.14735386149</v>
+        <v>1299.94447907441</v>
       </c>
     </row>
     <row r="12">
@@ -3352,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>125974.558720151</v>
+        <v>55594.8006222909</v>
       </c>
     </row>
     <row r="13">
@@ -3360,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>88007.5573902636</v>
+        <v>38841.062737244</v>
       </c>
     </row>
     <row r="14">
@@ -3368,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>31791.0737362685</v>
+        <v>17453.3490285409</v>
       </c>
     </row>
     <row r="15">
@@ -3376,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>36418.1329740091</v>
+        <v>19993.2020588136</v>
       </c>
     </row>
     <row r="16">
@@ -3384,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>27635.6872408603</v>
+        <v>15173.9937449627</v>
       </c>
     </row>
     <row r="17">
@@ -3392,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>87087.4482179892</v>
+        <v>47801.3365184664</v>
       </c>
     </row>
     <row r="18">
@@ -3400,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>22530.9552607874</v>
+        <v>12373.6429679954</v>
       </c>
     </row>
     <row r="19">
@@ -3408,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>71777.2522777704</v>
+        <v>39400.2841875643</v>
       </c>
     </row>
     <row r="20">
@@ -3416,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15171.5277546357</v>
+        <v>-754.676402275613</v>
       </c>
     </row>
     <row r="21">
@@ -3424,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>21578.6097761227</v>
+        <v>11852.6474746061</v>
       </c>
     </row>
     <row r="22">
@@ -3462,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>19127.6193441385</v>
       </c>
     </row>
     <row r="5">
@@ -3470,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>6599.94533280182</v>
       </c>
     </row>
     <row r="6">
@@ -3478,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>7312.42459727043</v>
       </c>
     </row>
     <row r="7">
@@ -3486,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>5118.69721808931</v>
       </c>
     </row>
     <row r="8">
@@ -3494,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>17631.0681956409</v>
       </c>
     </row>
     <row r="9">
@@ -3502,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>4033.2999256011</v>
       </c>
     </row>
     <row r="10">
@@ -3510,7 +3622,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>8774.90951672451</v>
       </c>
     </row>
     <row r="11">
@@ -3518,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1218.73743287841</v>
       </c>
     </row>
     <row r="12">
@@ -3526,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>35550.7095660115</v>
       </c>
     </row>
     <row r="13">
@@ -3534,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>24837.346750972</v>
       </c>
     </row>
     <row r="14">
@@ -3542,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>13098.9543165649</v>
       </c>
     </row>
     <row r="15">
@@ -3550,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>15005.1454297963</v>
       </c>
     </row>
     <row r="16">
@@ -3558,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>11388.2699841776</v>
       </c>
     </row>
     <row r="17">
@@ -3566,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>35875.4942849202</v>
       </c>
     </row>
     <row r="18">
@@ -3574,7 +3686,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>9286.57209010186</v>
       </c>
     </row>
     <row r="19">
@@ -3582,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>29570.400602693</v>
       </c>
     </row>
     <row r="20">
@@ -3590,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>-775.429793609786</v>
       </c>
     </row>
     <row r="21">
@@ -3598,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>8895.55852841338</v>
       </c>
     </row>
     <row r="22">
@@ -3636,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>16958.1478680011</v>
       </c>
     </row>
     <row r="5">
@@ -3644,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>5851.37370525281</v>
       </c>
     </row>
     <row r="6">
@@ -3652,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>7090.67780377446</v>
       </c>
     </row>
     <row r="7">
@@ -3660,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>4963.47446264213</v>
       </c>
     </row>
     <row r="8">
@@ -3668,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>17096.4120379895</v>
       </c>
     </row>
     <row r="9">
@@ -3676,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>3575.83948654337</v>
       </c>
     </row>
     <row r="10">
@@ -3684,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>8508.81336452934</v>
       </c>
     </row>
     <row r="11">
@@ -3692,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1181.77963396241</v>
       </c>
     </row>
     <row r="12">
@@ -3700,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>26500.1430347951</v>
       </c>
     </row>
     <row r="13">
@@ -3708,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>18514.2082827745</v>
       </c>
     </row>
     <row r="14">
@@ -3716,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>11169.9996870717</v>
       </c>
     </row>
     <row r="15">
@@ -3724,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>12795.4847161604</v>
       </c>
     </row>
     <row r="16">
@@ -3732,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>9711.23107122271</v>
       </c>
     </row>
     <row r="17">
@@ -3740,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>30592.4618295172</v>
       </c>
     </row>
     <row r="18">
@@ -3748,7 +3860,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>7919.02962889405</v>
       </c>
     </row>
     <row r="19">
@@ -3756,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>25215.8575025312</v>
       </c>
     </row>
     <row r="20">
@@ -3764,7 +3876,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>-787.661127299403</v>
       </c>
     </row>
     <row r="21">
@@ -3772,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>7585.59680241428</v>
       </c>
     </row>
     <row r="22">
@@ -3810,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>28732.4209622781</v>
       </c>
     </row>
     <row r="5">
@@ -3818,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>9914.0621850672</v>
       </c>
     </row>
     <row r="6">
@@ -3826,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>8820.10086146758</v>
       </c>
     </row>
     <row r="7">
@@ -3834,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>6174.0706030273</v>
       </c>
     </row>
     <row r="8">
@@ -3842,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>21266.2431882052</v>
       </c>
     </row>
     <row r="9">
@@ -3850,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>6058.59355754107</v>
       </c>
     </row>
     <row r="10">
@@ -3858,7 +3970,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>10584.1210337611</v>
       </c>
     </row>
     <row r="11">
@@ -3866,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1470.0168102446</v>
       </c>
     </row>
     <row r="12">
@@ -3874,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>71276.983627979</v>
       </c>
     </row>
     <row r="13">
@@ -3882,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>49797.3508642427</v>
       </c>
     </row>
     <row r="14">
@@ -3890,7 +4002,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>24443.1033114748</v>
       </c>
     </row>
     <row r="15">
@@ -3898,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>28000.1220769506</v>
       </c>
     </row>
     <row r="16">
@@ -3906,7 +4018,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>21250.9069834837</v>
       </c>
     </row>
     <row r="17">
@@ -3914,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>66944.9172784421</v>
       </c>
     </row>
     <row r="18">
@@ -3922,7 +4034,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>17329.0657805231</v>
       </c>
     </row>
     <row r="19">
@@ -3930,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>55179.3936695606</v>
       </c>
     </row>
     <row r="20">
@@ -3938,7 +4050,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>9474.80658473595</v>
       </c>
     </row>
     <row r="21">
@@ -3946,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>16599.4209055538</v>
       </c>
     </row>
     <row r="22">
@@ -3976,116 +4088,152 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>31681.743579397</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>10931.7198293127</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="n">
+        <v>9044.18177835494</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>6330.92724484846</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>21806.5271767002</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>6680.49545124665</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="n">
+        <v>10853.0181340259</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>1507.36362972582</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>92888.6433827867</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>64896.2418216083</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="n">
+        <v>27394.6926099237</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>31381.2336986813</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>23817.0275302695</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>75028.7476704627</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>19421.6104324086</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>61842.49637688</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>9488.81487025818</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>18603.8584142019</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4114,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -4122,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>44070.8627210627</v>
+        <v>29962.7663800235</v>
       </c>
     </row>
     <row r="5">
@@ -4130,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>15204.2497567884</v>
+        <v>10338.5903164298</v>
       </c>
     </row>
     <row r="6">
@@ -4138,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10281.1172642143</v>
+        <v>8903.8649817641</v>
       </c>
     </row>
     <row r="7">
@@ -4146,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7194.58208494999</v>
+        <v>6232.70548723487</v>
       </c>
     </row>
     <row r="8">
@@ -4154,7 +4302,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>24792.5605148277</v>
+        <v>21468.2077893645</v>
       </c>
     </row>
     <row r="9">
@@ -4162,7 +4310,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9286.31929581515</v>
+        <v>6318.02741559601</v>
       </c>
     </row>
     <row r="10">
@@ -4170,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12334.1407170571</v>
+        <v>10684.6379781169</v>
       </c>
     </row>
     <row r="11">
@@ -4178,7 +4326,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1705.18621070238</v>
+        <v>1483.97749696068</v>
       </c>
     </row>
     <row r="12">
@@ -4186,7 +4334,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>156857.996901404</v>
+        <v>79338.0817403994</v>
       </c>
     </row>
     <row r="13">
@@ -4194,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>109584.135532697</v>
+        <v>55429.2015770962</v>
       </c>
     </row>
     <row r="14">
@@ -4202,7 +4350,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>41994.5507924974</v>
+        <v>25538.2946903481</v>
       </c>
     </row>
     <row r="15">
@@ -4210,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>48106.4443779728</v>
+        <v>29254.6883206599</v>
       </c>
     </row>
     <row r="16">
@@ -4218,7 +4366,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>36506.6206516862</v>
+        <v>22203.0696375041</v>
       </c>
     </row>
     <row r="17">
@@ -4226,7 +4374,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>115032.79209587</v>
+        <v>69944.4339653562</v>
       </c>
     </row>
     <row r="18">
@@ -4234,7 +4382,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>29764.7636215467</v>
+        <v>18105.5074297244</v>
       </c>
     </row>
     <row r="19">
@@ -4242,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>94811.2210054513</v>
+        <v>57651.7473420171</v>
       </c>
     </row>
     <row r="20">
@@ -4250,7 +4398,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>20044.8302292525</v>
+        <v>9480.4734002779</v>
       </c>
     </row>
     <row r="21">
@@ -4258,7 +4406,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>28507.8367322184</v>
+        <v>17343.1702747886</v>
       </c>
     </row>
     <row r="22">
@@ -4288,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -4296,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>52763.3837385267</v>
+        <v>28946.1973667404</v>
       </c>
     </row>
     <row r="5">
@@ -4304,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>18203.5860823031</v>
+        <v>9987.82528948231</v>
       </c>
     </row>
     <row r="6">
@@ -4312,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11297.5615270756</v>
+        <v>8844.84265734634</v>
       </c>
     </row>
     <row r="7">
@@ -4320,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7906.09306895291</v>
+        <v>6191.38986014244</v>
       </c>
     </row>
     <row r="8">
@@ -4328,7 +4476,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>27243.3205708378</v>
+        <v>21325.8984071573</v>
       </c>
     </row>
     <row r="9">
@@ -4336,7 +4484,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>11119.2470502964</v>
+        <v>6103.67101023919</v>
       </c>
     </row>
     <row r="10">
@@ -4344,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>13553.8738324907</v>
+        <v>10613.8111888156</v>
       </c>
     </row>
     <row r="11">
@@ -4352,7 +4500,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1874.59358784593</v>
+        <v>1474.14044289106</v>
       </c>
     </row>
     <row r="12">
@@ -4360,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>182709.207915211</v>
+        <v>73678.6239223396</v>
       </c>
     </row>
     <row r="13">
@@ -4368,7 +4516,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>127644.970315481</v>
+        <v>51475.2462843433</v>
       </c>
     </row>
     <row r="14">
@@ -4376,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>46942.6035251616</v>
+        <v>24776.1311730321</v>
       </c>
     </row>
     <row r="15">
@@ -4384,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>53774.5495605396</v>
+        <v>28381.6129482121</v>
       </c>
     </row>
     <row r="16">
@@ -4392,7 +4540,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>40808.4724677711</v>
+        <v>21540.4424004346</v>
       </c>
     </row>
     <row r="17">
@@ -4400,7 +4548,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>128584.548460704</v>
+        <v>67857.0159739012</v>
       </c>
     </row>
     <row r="18">
@@ -4408,7 +4556,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>33272.7114544056</v>
+        <v>17565.167622672</v>
       </c>
     </row>
     <row r="19">
@@ -4416,7 +4564,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>105981.265420607</v>
+        <v>55931.1916406134</v>
       </c>
     </row>
     <row r="20">
@@ -4424,7 +4572,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>22408.0792955996</v>
+        <v>9475.97674605272</v>
       </c>
     </row>
     <row r="21">
@@ -4432,7 +4580,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>31868.0814984306</v>
+        <v>16825.5816175068</v>
       </c>
     </row>
     <row r="22">
@@ -4462,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -4470,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>52763.3837385267</v>
+        <v>30918.256420603</v>
       </c>
     </row>
     <row r="5">
@@ -4478,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>18203.5860823031</v>
+        <v>10668.2801706873</v>
       </c>
     </row>
     <row r="6">
@@ -4486,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11297.5615270756</v>
+        <v>8955.81822164506</v>
       </c>
     </row>
     <row r="7">
@@ -4494,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7906.09306895291</v>
+        <v>6269.07275515154</v>
       </c>
     </row>
     <row r="8">
@@ -4502,7 +4650,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>27243.3205708378</v>
+        <v>21593.4728232997</v>
       </c>
     </row>
     <row r="9">
@@ -4510,7 +4658,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>11119.2470502964</v>
+        <v>6519.50454875336</v>
       </c>
     </row>
     <row r="10">
@@ -4518,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>13553.8738324907</v>
+        <v>10746.9818659741</v>
       </c>
     </row>
     <row r="11">
@@ -4526,7 +4674,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1874.59358784593</v>
+        <v>1492.63637027418</v>
       </c>
     </row>
     <row r="12">
@@ -4534,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>182709.207915211</v>
+        <v>84311.3566172133</v>
       </c>
     </row>
     <row r="13">
@@ -4542,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>127644.970315481</v>
+        <v>58903.7581783917</v>
       </c>
     </row>
     <row r="14">
@@ -4550,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>46942.6035251616</v>
+        <v>26205.3073900763</v>
       </c>
     </row>
     <row r="15">
@@ -4558,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>53774.5495605396</v>
+        <v>30018.7663013187</v>
       </c>
     </row>
     <row r="16">
@@ -4566,7 +4714,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>40808.4724677711</v>
+        <v>22782.9724697305</v>
       </c>
     </row>
     <row r="17">
@@ -4574,7 +4722,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>128584.548460704</v>
+        <v>71771.2523295373</v>
       </c>
     </row>
     <row r="18">
@@ -4582,7 +4730,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>33272.7114544056</v>
+        <v>18578.3895675914</v>
       </c>
     </row>
     <row r="19">
@@ -4590,7 +4738,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>105981.265420607</v>
+        <v>59157.50362312</v>
       </c>
     </row>
     <row r="20">
@@ -4598,7 +4746,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>22408.0792955996</v>
+        <v>9484.63572269828</v>
       </c>
     </row>
     <row r="21">
@@ -4606,7 +4754,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>31868.0814984306</v>
+        <v>17796.1415857981</v>
       </c>
     </row>
     <row r="22">
@@ -4644,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>29458.8648552195</v>
       </c>
     </row>
     <row r="5">
@@ -4652,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>10164.7201417371</v>
       </c>
     </row>
     <row r="6">
@@ -4660,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>8845.54503433558</v>
       </c>
     </row>
     <row r="7">
@@ -4668,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>6191.8815240349</v>
       </c>
     </row>
     <row r="8">
@@ -4676,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>21327.5919161202</v>
       </c>
     </row>
     <row r="9">
@@ -4684,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>6211.77341995043</v>
       </c>
     </row>
     <row r="10">
@@ -4692,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>10614.6540412027</v>
       </c>
     </row>
     <row r="11">
@@ -4700,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1474.2575057226</v>
       </c>
     </row>
     <row r="12">
@@ -4708,7 +4856,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>73677.072475121</v>
       </c>
     </row>
     <row r="13">
@@ -4716,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>51474.1623725732</v>
       </c>
     </row>
     <row r="14">
@@ -4724,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>24753.3004452488</v>
       </c>
     </row>
     <row r="15">
@@ -4732,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>28355.4598384006</v>
       </c>
     </row>
     <row r="16">
@@ -4740,7 +4888,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>21520.5932975484</v>
       </c>
     </row>
     <row r="17">
@@ -4748,7 +4896,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>67794.4870403455</v>
       </c>
     </row>
     <row r="18">
@@ -4756,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>17548.981658945</v>
       </c>
     </row>
     <row r="19">
@@ -4764,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>55879.6521245354</v>
       </c>
     </row>
     <row r="20">
@@ -4772,7 +4920,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12800</v>
+        <v>9477.71516288836</v>
       </c>
     </row>
     <row r="21">
@@ -4780,7 +4928,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>16810.0771680421</v>
       </c>
     </row>
     <row r="22">
@@ -4810,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70999</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="4">
@@ -4818,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>41035.9432027248</v>
+        <v>28518.6445578158</v>
       </c>
     </row>
     <row r="5">
@@ -4826,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14157.0570795344</v>
+        <v>9840.29908065209</v>
       </c>
     </row>
     <row r="6">
@@ -4834,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9899.32731577654</v>
+        <v>8795.35906558881</v>
       </c>
     </row>
     <row r="7">
@@ -4842,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6927.32912104358</v>
+        <v>6156.75134591217</v>
       </c>
     </row>
     <row r="8">
@@ -4850,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>23872.022528039</v>
+        <v>21206.587969253</v>
       </c>
     </row>
     <row r="9">
@@ -4858,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8646.36821527104</v>
+        <v>6013.51610484295</v>
       </c>
     </row>
     <row r="10">
@@ -4866,7 +5014,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11875.9927789318</v>
+        <v>10554.4308787066</v>
       </c>
     </row>
     <row r="11">
@@ -4874,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1641.55455262942</v>
+        <v>1465.89317759814</v>
       </c>
     </row>
     <row r="12">
@@ -4882,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>136416.989040913</v>
+        <v>68875.3433336185</v>
       </c>
     </row>
     <row r="13">
@@ -4890,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>95303.1153683127</v>
+        <v>48119.455444142</v>
       </c>
     </row>
     <row r="14">
@@ -4898,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>37354.634968912</v>
+        <v>24110.0754499175</v>
       </c>
     </row>
     <row r="15">
@@ -4906,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>42791.3169233432</v>
+        <v>27618.6312056891</v>
       </c>
     </row>
     <row r="16">
@@ -4914,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>32472.663984166</v>
+        <v>20961.3715665327</v>
       </c>
     </row>
     <row r="17">
@@ -4922,7 +5070,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>102324.962937244</v>
+        <v>66032.818582983</v>
       </c>
     </row>
     <row r="18">
@@ -4930,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>26475.2710600495</v>
+        <v>17092.9639383743</v>
       </c>
     </row>
     <row r="19">
@@ -4938,7 +5086,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>84336.7841648946</v>
+        <v>54427.5956985078</v>
       </c>
     </row>
     <row r="20">
@@ -4946,7 +5094,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>17828.7510299281</v>
+        <v>9473.63642341918</v>
       </c>
     </row>
     <row r="21">
@@ -4954,7 +5102,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>25356.849120679</v>
+        <v>16373.2601936007</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24219.6853754445</v>
+        <v>29798.0044379545</v>
       </c>
     </row>
     <row r="5">
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8356.95214232596</v>
+        <v>10281.7395504763</v>
       </c>
     </row>
     <row r="6">
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7994.88414185826</v>
+        <v>8688.45191296187</v>
       </c>
     </row>
     <row r="7">
@@ -2206,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5596.41889930079</v>
+        <v>6081.91633907331</v>
       </c>
     </row>
     <row r="8">
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19276.5539864805</v>
+        <v>20948.822945697</v>
       </c>
     </row>
     <row r="9">
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5107.02630919919</v>
+        <v>6283.28528084665</v>
       </c>
     </row>
     <row r="10">
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9593.86097022991</v>
+        <v>10426.1422955542</v>
       </c>
     </row>
     <row r="11">
@@ -2238,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1332.48069030971</v>
+        <v>1448.07531882698</v>
       </c>
     </row>
     <row r="12">
@@ -2246,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>63678.2745377785</v>
+        <v>81131.6760093971</v>
       </c>
     </row>
     <row r="13">
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44488.5462064164</v>
+        <v>56682.2883180776</v>
       </c>
     </row>
     <row r="14">
@@ -2262,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19236.7608538959</v>
+        <v>23349.5824289399</v>
       </c>
     </row>
     <row r="15">
@@ -2270,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22036.1402318882</v>
+        <v>26747.4694241961</v>
       </c>
     </row>
     <row r="16">
@@ -2278,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16724.4973095438</v>
+        <v>20300.1966639664</v>
       </c>
     </row>
     <row r="17">
@@ -2286,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52685.7554729836</v>
+        <v>63949.9757568728</v>
       </c>
     </row>
     <row r="18">
@@ -2294,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13638.0020979113</v>
+        <v>16553.8084384275</v>
       </c>
     </row>
     <row r="19">
@@ -2302,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43426.2698380859</v>
+        <v>52710.8110802562</v>
       </c>
     </row>
     <row r="20">
@@ -2310,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-748.410183419322</v>
+        <v>3655.28699654894</v>
       </c>
     </row>
     <row r="21">
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13063.7704306308</v>
+        <v>15856.8059778622</v>
       </c>
     </row>
     <row r="22">
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19944.955109567</v>
+        <v>27254.3488704266</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6881.96534132029</v>
+        <v>9404.05647925265</v>
       </c>
     </row>
     <row r="6">
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7441.26799376222</v>
+        <v>8379.33062235269</v>
       </c>
     </row>
     <row r="7">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5208.88759563356</v>
+        <v>5865.53143564689</v>
       </c>
     </row>
     <row r="8">
@@ -2562,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17941.7239405156</v>
+        <v>20203.4971672282</v>
       </c>
     </row>
     <row r="9">
@@ -2570,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4205.64548636239</v>
+        <v>5746.92340398774</v>
       </c>
     </row>
     <row r="10">
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8929.52159251466</v>
+        <v>10055.1967468232</v>
       </c>
     </row>
     <row r="11">
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1240.2113322937</v>
+        <v>1396.55510372545</v>
       </c>
     </row>
     <row r="12">
@@ -2594,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>40885.8023502333</v>
+        <v>64599.4882111698</v>
       </c>
     </row>
     <row r="13">
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>28564.6858406258</v>
+        <v>45132.1480843274</v>
       </c>
     </row>
     <row r="14">
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14276.0061212992</v>
+        <v>19606.7169979143</v>
       </c>
     </row>
     <row r="15">
@@ -2618,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16353.4846240255</v>
+        <v>22459.9332774615</v>
       </c>
     </row>
     <row r="16">
@@ -2626,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12411.6023368011</v>
+        <v>17046.1382855001</v>
       </c>
     </row>
     <row r="17">
@@ -2634,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>39099.2107949015</v>
+        <v>53698.9935689146</v>
       </c>
     </row>
     <row r="18">
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10121.0491158464</v>
+        <v>13900.2844388198</v>
       </c>
     </row>
     <row r="19">
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>32227.5511320373</v>
+        <v>44261.4320288738</v>
       </c>
     </row>
     <row r="20">
@@ -2658,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-771.294089164634</v>
+        <v>3638.02125416503</v>
       </c>
     </row>
     <row r="21">
@@ -2666,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9694.89967938968</v>
+        <v>13315.0093045538</v>
       </c>
     </row>
     <row r="22">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17651.6448810919</v>
+        <v>25889.726784843</v>
       </c>
     </row>
     <row r="5">
@@ -2712,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6090.6634094503</v>
+        <v>8933.19646250175</v>
       </c>
     </row>
     <row r="6">
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7199.99947352507</v>
+        <v>8244.61411053206</v>
       </c>
     </row>
     <row r="7">
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5039.99963146756</v>
+        <v>5771.22987737244</v>
       </c>
     </row>
     <row r="8">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17359.9987306104</v>
+        <v>19878.6806887273</v>
       </c>
     </row>
     <row r="9">
@@ -2744,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3722.07208355295</v>
+        <v>5459.1756159733</v>
       </c>
     </row>
     <row r="10">
@@ -2752,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8639.99936823008</v>
+        <v>9893.53693263848</v>
       </c>
     </row>
     <row r="11">
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1199.99991225418</v>
+        <v>1374.10235175534</v>
       </c>
     </row>
     <row r="12">
@@ -2768,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>31026.8884274681</v>
+        <v>57448.4685623765</v>
       </c>
     </row>
     <row r="13">
@@ -2776,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>21676.7990255111</v>
+        <v>40136.1196840982</v>
       </c>
     </row>
     <row r="14">
@@ -2784,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>12168.7103092705</v>
+        <v>18016.7725090324</v>
       </c>
     </row>
     <row r="15">
@@ -2792,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>13939.5300930822</v>
+        <v>20638.6162696751</v>
       </c>
     </row>
     <row r="16">
@@ -2800,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>10579.5130673881</v>
+        <v>15663.8358007632</v>
       </c>
     </row>
     <row r="17">
@@ -2808,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>33327.7364440468</v>
+        <v>49344.4441105588</v>
       </c>
     </row>
     <row r="18">
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>8627.07074164694</v>
+        <v>12773.0849877468</v>
       </c>
     </row>
     <row r="19">
@@ -2824,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>27470.4094668233</v>
+        <v>40672.1916715097</v>
       </c>
     </row>
     <row r="20">
@@ -2832,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-784.15204473988</v>
+        <v>3628.3200191129</v>
       </c>
     </row>
     <row r="21">
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>8263.8256577881</v>
+        <v>12235.2708829996</v>
       </c>
     </row>
     <row r="22">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25458.0728988211</v>
+        <v>30534.9003641696</v>
       </c>
     </row>
     <row r="5">
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8784.25518553576</v>
+        <v>10536.0039595218</v>
       </c>
     </row>
     <row r="6">
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8190.10140927007</v>
+        <v>8797.45489970471</v>
       </c>
     </row>
     <row r="7">
@@ -2902,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5733.07098648906</v>
+        <v>6158.2184297933</v>
       </c>
     </row>
     <row r="8">
@@ -2910,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19747.2445090178</v>
+        <v>21211.6412581769</v>
       </c>
     </row>
     <row r="9">
@@ -2918,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5368.15594671628</v>
+        <v>6438.66908637445</v>
       </c>
     </row>
     <row r="10">
@@ -2926,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9828.12169112407</v>
+        <v>10556.9458796456</v>
       </c>
     </row>
     <row r="11">
@@ -2934,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1365.01690154501</v>
+        <v>1466.24248328412</v>
       </c>
     </row>
     <row r="12">
@@ -2942,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>71761.748453266</v>
+        <v>86994.9061027934</v>
       </c>
     </row>
     <row r="13">
@@ -2950,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>50136.0296755888</v>
+        <v>60778.6082140283</v>
       </c>
     </row>
     <row r="14">
@@ -2958,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21020.172679251</v>
+        <v>24695.1580177797</v>
       </c>
     </row>
     <row r="15">
@@ -2966,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24079.0784049628</v>
+        <v>28288.8563860387</v>
       </c>
     </row>
     <row r="16">
@@ -2974,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18275.0008741248</v>
+        <v>21470.0440975473</v>
       </c>
     </row>
     <row r="17">
@@ -2982,7 +2982,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>57570.1744275007</v>
+        <v>67635.2462128743</v>
       </c>
     </row>
     <row r="18">
@@ -2990,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14902.3612278271</v>
+        <v>17507.7612812616</v>
       </c>
     </row>
     <row r="19">
@@ -2998,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>47452.2554886075</v>
+        <v>55748.3977640177</v>
       </c>
     </row>
     <row r="20">
@@ -3006,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-742.143964563031</v>
+        <v>3660.01481363131</v>
       </c>
     </row>
     <row r="21">
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14274.8933866554</v>
+        <v>16770.5923852086</v>
       </c>
     </row>
     <row r="22">
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20762.2908749955</v>
+        <v>27740.7001817286</v>
       </c>
     </row>
     <row r="5">
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7163.98534983876</v>
+        <v>9571.87098922267</v>
       </c>
     </row>
     <row r="6">
@@ -3068,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7570.11139025401</v>
+        <v>8451.27259360297</v>
       </c>
     </row>
     <row r="7">
@@ -3076,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5299.07797317781</v>
+        <v>5915.89081552208</v>
       </c>
     </row>
     <row r="8">
@@ -3084,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18252.3796853902</v>
+        <v>20376.9572534649</v>
       </c>
     </row>
     <row r="9">
@@ -3092,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4377.99104712367</v>
+        <v>5849.47671563608</v>
       </c>
     </row>
     <row r="10">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9084.13366830481</v>
+        <v>10141.5271123236</v>
       </c>
     </row>
     <row r="11">
@@ -3108,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1261.685231709</v>
+        <v>1408.54543226716</v>
       </c>
     </row>
     <row r="12">
@@ -3116,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>46220.895134455</v>
+        <v>68469.2200728113</v>
       </c>
     </row>
     <row r="13">
@@ -3124,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>32292.0249302796</v>
+        <v>47835.7192156548</v>
       </c>
     </row>
     <row r="14">
@@ -3132,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15453.0579260335</v>
+        <v>20494.7968865486</v>
       </c>
     </row>
     <row r="15">
@@ -3140,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>17701.8238182547</v>
+        <v>23477.2486722776</v>
       </c>
     </row>
     <row r="16">
@@ -3148,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13434.9346894246</v>
+        <v>17818.2375916635</v>
       </c>
     </row>
     <row r="17">
@@ -3156,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>42322.9273048828</v>
+        <v>56131.2720698756</v>
       </c>
     </row>
     <row r="18">
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10955.5261415909</v>
+        <v>14529.8933150904</v>
       </c>
     </row>
     <row r="19">
@@ -3172,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>34884.7016613816</v>
+        <v>46266.2392401563</v>
       </c>
     </row>
     <row r="20">
@@ -3180,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-767.158384719482</v>
+        <v>3641.14161343939</v>
       </c>
     </row>
     <row r="21">
@@ -3188,7 +3188,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10494.240830366</v>
+        <v>13918.1083334024</v>
       </c>
     </row>
     <row r="22">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>18345.1418941828</v>
+        <v>26302.3885035235</v>
       </c>
     </row>
     <row r="5">
@@ -3234,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6329.95311364778</v>
+        <v>9075.58453156722</v>
       </c>
     </row>
     <row r="6">
@@ -3242,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7309.32114327568</v>
+        <v>8305.65578310805</v>
       </c>
     </row>
     <row r="7">
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5116.52480029297</v>
+        <v>5813.95904817564</v>
       </c>
     </row>
     <row r="8">
@@ -3258,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17623.5854232314</v>
+        <v>20025.8589437161</v>
       </c>
     </row>
     <row r="9">
@@ -3266,7 +3266,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3868.30468056252</v>
+        <v>5546.19054706886</v>
       </c>
     </row>
     <row r="10">
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8771.18537193081</v>
+        <v>9966.78693972966</v>
       </c>
     </row>
     <row r="11">
@@ -3282,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1218.22019054595</v>
+        <v>1384.27596385134</v>
       </c>
     </row>
     <row r="12">
@@ -3290,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>35553.6338201411</v>
+        <v>60731.8774146784</v>
       </c>
     </row>
     <row r="13">
@@ -3298,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>24839.3897682477</v>
+        <v>42430.0588258305</v>
       </c>
     </row>
     <row r="14">
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>13167.4209314693</v>
+        <v>18770.2948387827</v>
       </c>
     </row>
     <row r="15">
@@ -3314,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>15083.575470004</v>
+        <v>21501.7929683069</v>
       </c>
     </row>
     <row r="16">
@@ -3322,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>11447.7950635535</v>
+        <v>16318.9503635685</v>
       </c>
     </row>
     <row r="17">
@@ -3330,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>36063.0110585764</v>
+        <v>51408.1955659196</v>
       </c>
     </row>
     <row r="18">
@@ -3338,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>9335.11185439986</v>
+        <v>13307.2985797339</v>
       </c>
     </row>
     <row r="19">
@@ -3346,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>29724.9614311154</v>
+        <v>42373.2402144161</v>
       </c>
     </row>
     <row r="20">
@@ -3354,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-780.642962180357</v>
+        <v>3630.96759667902</v>
       </c>
     </row>
     <row r="21">
@@ -3362,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>8942.05451316188</v>
+        <v>12746.9912711136</v>
       </c>
     </row>
     <row r="22">
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22981.297852068</v>
+        <v>29061.1085117393</v>
       </c>
     </row>
     <row r="5">
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7929.64909911616</v>
+        <v>10027.4751414308</v>
       </c>
     </row>
     <row r="6">
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7799.66687444646</v>
+        <v>8579.44892621903</v>
       </c>
     </row>
     <row r="7">
@@ -3424,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5459.76681211253</v>
+        <v>6005.61424835332</v>
       </c>
     </row>
     <row r="8">
@@ -3432,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18805.8634639431</v>
+        <v>20686.004633217</v>
       </c>
     </row>
     <row r="9">
@@ -3440,7 +3440,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4845.89667168209</v>
+        <v>6127.90147531885</v>
       </c>
     </row>
     <row r="10">
@@ -3448,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9359.60024933574</v>
+        <v>10295.3387114628</v>
       </c>
     </row>
     <row r="11">
@@ -3456,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1299.94447907441</v>
+        <v>1429.90815436984</v>
       </c>
     </row>
     <row r="12">
@@ -3464,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>55594.8006222909</v>
+        <v>75268.4459160009</v>
       </c>
     </row>
     <row r="13">
@@ -3472,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38841.062737244</v>
+        <v>52585.968422127</v>
       </c>
     </row>
     <row r="14">
@@ -3480,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17453.3490285409</v>
+        <v>22004.0068401001</v>
       </c>
     </row>
     <row r="15">
@@ -3488,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19993.2020588136</v>
+        <v>25206.0824623535</v>
       </c>
     </row>
     <row r="16">
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15173.9937449627</v>
+        <v>19130.3492303856</v>
       </c>
     </row>
     <row r="17">
@@ -3504,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47801.3365184664</v>
+        <v>60264.7053008713</v>
       </c>
     </row>
     <row r="18">
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12373.6429679954</v>
+        <v>15599.8555955933</v>
       </c>
     </row>
     <row r="19">
@@ -3520,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39400.2841875643</v>
+        <v>49673.2243964948</v>
       </c>
     </row>
     <row r="20">
@@ -3528,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-754.676402275613</v>
+        <v>3650.55917946658</v>
       </c>
     </row>
     <row r="21">
@@ -3536,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11852.6474746061</v>
+        <v>14943.0195705158</v>
       </c>
     </row>
     <row r="22">
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19127.6193441385</v>
+        <v>26767.9975591246</v>
       </c>
     </row>
     <row r="5">
@@ -3582,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6599.94533280182</v>
+        <v>9236.24196928263</v>
       </c>
     </row>
     <row r="6">
@@ -3590,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7312.42459727043</v>
+        <v>8307.38865110242</v>
       </c>
     </row>
     <row r="7">
@@ -3598,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5118.69721808931</v>
+        <v>5815.1720557717</v>
       </c>
     </row>
     <row r="8">
@@ -3606,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17631.0681956409</v>
+        <v>20030.0370809914</v>
       </c>
     </row>
     <row r="9">
@@ -3614,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4033.2999256011</v>
+        <v>5644.37009233939</v>
       </c>
     </row>
     <row r="10">
@@ -3622,7 +3622,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8774.90951672451</v>
+        <v>9968.8663813229</v>
       </c>
     </row>
     <row r="11">
@@ -3630,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1218.73743287841</v>
+        <v>1384.56477518374</v>
       </c>
     </row>
     <row r="12">
@@ -3638,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>35550.7095660115</v>
+        <v>60729.7563495283</v>
       </c>
     </row>
     <row r="13">
@@ -3646,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>24837.346750972</v>
+        <v>42428.5769529999</v>
       </c>
     </row>
     <row r="14">
@@ -3654,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>13098.9543165649</v>
+        <v>18718.6371092801</v>
       </c>
     </row>
     <row r="15">
@@ -3662,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>15005.1454297963</v>
+        <v>21442.6178826454</v>
       </c>
     </row>
     <row r="16">
@@ -3670,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>11388.2699841776</v>
+        <v>16274.0389793368</v>
       </c>
     </row>
     <row r="17">
@@ -3678,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>35875.4942849202</v>
+        <v>51266.7150679536</v>
       </c>
     </row>
     <row r="18">
@@ -3686,7 +3686,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>9286.57209010186</v>
+        <v>13270.6755625492</v>
       </c>
     </row>
     <row r="19">
@@ -3694,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>29570.400602693</v>
+        <v>42256.6248175912</v>
       </c>
     </row>
     <row r="20">
@@ -3702,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-775.429793609786</v>
+        <v>3634.90089489066</v>
       </c>
     </row>
     <row r="21">
@@ -3710,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>8895.55852841338</v>
+        <v>12711.9102757051</v>
       </c>
     </row>
     <row r="22">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16958.1478680011</v>
+        <v>25477.0650661625</v>
       </c>
     </row>
     <row r="5">
@@ -3756,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5851.37370525281</v>
+        <v>8790.80839343628</v>
       </c>
     </row>
     <row r="6">
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7090.67780377446</v>
+        <v>8183.57243795607</v>
       </c>
     </row>
     <row r="7">
@@ -3772,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>4963.47446264213</v>
+        <v>5728.50070656925</v>
       </c>
     </row>
     <row r="8">
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17096.4120379895</v>
+        <v>19731.5024337385</v>
       </c>
     </row>
     <row r="9">
@@ -3788,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3575.83948654337</v>
+        <v>5372.16068487773</v>
       </c>
     </row>
     <row r="10">
@@ -3796,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8508.81336452934</v>
+        <v>9820.28692554729</v>
       </c>
     </row>
     <row r="11">
@@ -3804,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1181.77963396241</v>
+        <v>1363.92873965935</v>
       </c>
     </row>
     <row r="12">
@@ -3812,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>26500.1430347951</v>
+        <v>54165.0597100746</v>
       </c>
     </row>
     <row r="13">
@@ -3820,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>18514.2082827745</v>
+        <v>37842.1805423658</v>
       </c>
     </row>
     <row r="14">
@@ -3828,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>11169.9996870717</v>
+        <v>17263.2501792821</v>
       </c>
     </row>
     <row r="15">
@@ -3836,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>12795.4847161604</v>
+        <v>19775.4395710432</v>
       </c>
     </row>
     <row r="16">
@@ -3844,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>9711.23107122271</v>
+        <v>15008.721237958</v>
       </c>
     </row>
     <row r="17">
@@ -3852,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>30592.4618295172</v>
+        <v>47280.6926551979</v>
       </c>
     </row>
     <row r="18">
@@ -3860,7 +3860,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>7919.02962889405</v>
+        <v>12238.8713957596</v>
       </c>
     </row>
     <row r="19">
@@ -3868,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>25215.8575025312</v>
+        <v>38971.1431286033</v>
       </c>
     </row>
     <row r="20">
@@ -3876,7 +3876,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-787.661127299403</v>
+        <v>3625.67244154677</v>
       </c>
     </row>
     <row r="21">
@@ -3884,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>7585.59680241428</v>
+        <v>11723.5504948856</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29220.3138371678</v>
+        <v>29999.0184862344</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10082.4086083518</v>
+        <v>10351.099030394</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8568.62572563951</v>
+        <v>8929.69875601117</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5998.03800794766</v>
+        <v>6250.78912920782</v>
       </c>
     </row>
     <row r="8">
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20659.9086940419</v>
+        <v>21530.4958894936</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6161.47192732613</v>
+        <v>6325.67162968521</v>
       </c>
     </row>
     <row r="10">
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10282.3508707674</v>
+        <v>10715.6385072134</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1428.10428760659</v>
+        <v>1488.28312600186</v>
       </c>
     </row>
     <row r="12">
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>78259.243705319</v>
+        <v>78596.6960661883</v>
       </c>
     </row>
     <row r="13">
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54675.4761327229</v>
+        <v>54911.2357392444</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22022.498747763</v>
+        <v>22328.6514407102</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25227.2653565792</v>
+        <v>25577.970120515</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19146.4261501074</v>
+        <v>19412.5962152443</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>60315.3510479777</v>
+        <v>61153.8438711987</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15612.9655301305</v>
+        <v>15830.0140811005</v>
       </c>
     </row>
     <row r="19">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>49714.969188047</v>
+        <v>50406.0974687673</v>
       </c>
     </row>
     <row r="20">
@@ -744,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3021.45598464353</v>
+        <v>3167.67816634964</v>
       </c>
     </row>
     <row r="21">
@@ -752,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14955.5775078092</v>
+        <v>15163.4871724226</v>
       </c>
     </row>
     <row r="22">
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26676.6582696399</v>
+        <v>27455.3629187065</v>
       </c>
     </row>
     <row r="5">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9204.72553712817</v>
+        <v>9473.41595917031</v>
       </c>
     </row>
     <row r="6">
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8259.50443503033</v>
+        <v>8620.57746540199</v>
       </c>
     </row>
     <row r="7">
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5781.65310452124</v>
+        <v>6034.4042257814</v>
       </c>
     </row>
     <row r="8">
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19914.5829155732</v>
+        <v>20785.1701110248</v>
       </c>
     </row>
     <row r="9">
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5625.11005046721</v>
+        <v>5789.3097528263</v>
       </c>
     </row>
     <row r="10">
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9911.40532203641</v>
+        <v>10344.6929584824</v>
       </c>
     </row>
     <row r="11">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1376.58407250506</v>
+        <v>1436.76291090033</v>
       </c>
     </row>
     <row r="12">
@@ -854,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>61727.0559070917</v>
+        <v>62064.508267961</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>43125.3358989727</v>
+        <v>43361.0955054942</v>
       </c>
     </row>
     <row r="14">
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18279.6333167374</v>
+        <v>18585.7860096846</v>
       </c>
     </row>
     <row r="15">
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20939.7292098446</v>
+        <v>21290.4339737804</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15892.3677716411</v>
+        <v>16158.537836778</v>
       </c>
     </row>
     <row r="17">
@@ -894,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50064.3688600195</v>
+        <v>50902.8616832405</v>
       </c>
     </row>
     <row r="18">
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12959.4415305227</v>
+        <v>13176.4900814927</v>
       </c>
     </row>
     <row r="19">
@@ -910,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41265.5901366646</v>
+        <v>41956.7184173849</v>
       </c>
     </row>
     <row r="20">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3004.19024225961</v>
+        <v>3150.41242396573</v>
       </c>
     </row>
     <row r="21">
@@ -926,7 +926,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12413.7808345008</v>
+        <v>12621.6904991142</v>
       </c>
     </row>
     <row r="22">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25312.0361840563</v>
+        <v>26090.7408331229</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8733.86552037727</v>
+        <v>9002.55594241941</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8124.7879232097</v>
+        <v>8485.86095358136</v>
       </c>
     </row>
     <row r="7">
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5687.35154624679</v>
+        <v>5940.10266750696</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19589.7664370723</v>
+        <v>20460.353632524</v>
       </c>
     </row>
     <row r="9">
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5337.36226245277</v>
+        <v>5501.56196481186</v>
       </c>
     </row>
     <row r="10">
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9749.74550785165</v>
+        <v>10183.0331442976</v>
       </c>
     </row>
     <row r="11">
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1354.13132053495</v>
+        <v>1414.31015893023</v>
       </c>
     </row>
     <row r="12">
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54576.0362582984</v>
+        <v>54913.4886191677</v>
       </c>
     </row>
     <row r="13">
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38129.3074987435</v>
+        <v>38365.067105265</v>
       </c>
     </row>
     <row r="14">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16689.6888278555</v>
+        <v>16995.8415208027</v>
       </c>
     </row>
     <row r="15">
@@ -1052,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19118.4122020582</v>
+        <v>19469.116965994</v>
       </c>
     </row>
     <row r="16">
@@ -1060,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14510.0652869042</v>
+        <v>14776.2353520411</v>
       </c>
     </row>
     <row r="17">
@@ -1068,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>45709.8194016637</v>
+        <v>46548.3122248847</v>
       </c>
     </row>
     <row r="18">
@@ -1076,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11832.2420794497</v>
+        <v>12049.2906304197</v>
       </c>
     </row>
     <row r="19">
@@ -1084,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>37676.3497793005</v>
+        <v>38367.4780600208</v>
       </c>
     </row>
     <row r="20">
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>2994.48900720748</v>
+        <v>3140.7111889136</v>
       </c>
     </row>
     <row r="21">
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11334.0424129466</v>
+        <v>11541.95207756</v>
       </c>
     </row>
     <row r="22">
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29957.2097633829</v>
+        <v>30735.9144124495</v>
       </c>
     </row>
     <row r="5">
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10336.6730173973</v>
+        <v>10605.3634394395</v>
       </c>
     </row>
     <row r="6">
@@ -1154,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8677.62871238235</v>
+        <v>9038.70174275401</v>
       </c>
     </row>
     <row r="7">
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6074.34009866765</v>
+        <v>6327.09121992781</v>
       </c>
     </row>
     <row r="8">
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20922.7270065219</v>
+        <v>21793.3142019736</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6316.85573285392</v>
+        <v>6481.05543521301</v>
       </c>
     </row>
     <row r="10">
@@ -1186,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10413.1544548588</v>
+        <v>10846.4420913048</v>
       </c>
     </row>
     <row r="11">
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1446.27145206373</v>
+        <v>1506.450290459</v>
       </c>
     </row>
     <row r="12">
@@ -1202,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>84122.4737987153</v>
+        <v>84459.9261595846</v>
       </c>
     </row>
     <row r="13">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58771.7960286736</v>
+        <v>59007.5556351951</v>
       </c>
     </row>
     <row r="14">
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23368.0743366028</v>
+        <v>23674.22702955</v>
       </c>
     </row>
     <row r="15">
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26768.6523184218</v>
+        <v>27119.3570823576</v>
       </c>
     </row>
     <row r="16">
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20316.2735836883</v>
+        <v>20582.4436488252</v>
       </c>
     </row>
     <row r="17">
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64000.6215039792</v>
+        <v>64839.1143272002</v>
       </c>
     </row>
     <row r="18">
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16566.9183729646</v>
+        <v>16783.9669239346</v>
       </c>
     </row>
     <row r="19">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>52752.5558718085</v>
+        <v>53443.6841525288</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3026.1838017259</v>
+        <v>3172.40598343201</v>
       </c>
     </row>
     <row r="21">
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15869.3639151556</v>
+        <v>16077.273579769</v>
       </c>
     </row>
     <row r="22">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27163.0095809419</v>
+        <v>27941.7142300085</v>
       </c>
     </row>
     <row r="5">
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9372.54004709819</v>
+        <v>9641.23046914033</v>
       </c>
     </row>
     <row r="6">
@@ -1328,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8331.44640628061</v>
+        <v>8692.51943665227</v>
       </c>
     </row>
     <row r="7">
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5832.01248439643</v>
+        <v>6084.76360565659</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20088.0430018099</v>
+        <v>20958.6301972616</v>
       </c>
     </row>
     <row r="9">
@@ -1352,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5727.66336211555</v>
+        <v>5891.86306447464</v>
       </c>
     </row>
     <row r="10">
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9997.73568753674</v>
+        <v>10431.0233239827</v>
       </c>
     </row>
     <row r="11">
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1388.57440104677</v>
+        <v>1448.75323944205</v>
       </c>
     </row>
     <row r="12">
@@ -1376,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65596.7877687332</v>
+        <v>65934.2401296025</v>
       </c>
     </row>
     <row r="13">
@@ -1384,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45828.9070303001</v>
+        <v>46064.6666368216</v>
       </c>
     </row>
     <row r="14">
@@ -1392,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19167.7132053717</v>
+        <v>19473.8658983189</v>
       </c>
     </row>
     <row r="15">
@@ -1400,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21957.0446046607</v>
+        <v>22307.7493685965</v>
       </c>
     </row>
     <row r="16">
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16664.4670778045</v>
+        <v>16930.6371429414</v>
       </c>
     </row>
     <row r="17">
@@ -1416,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52496.6473609805</v>
+        <v>53335.1401842015</v>
       </c>
     </row>
     <row r="18">
@@ -1424,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13589.0504067933</v>
+        <v>13806.0989577633</v>
       </c>
     </row>
     <row r="19">
@@ -1432,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43270.3973479471</v>
+        <v>43961.5256286674</v>
       </c>
     </row>
     <row r="20">
@@ -1440,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3007.31060153398</v>
+        <v>3153.53278324009</v>
       </c>
     </row>
     <row r="21">
@@ -1448,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13016.8798633494</v>
+        <v>13224.7895279628</v>
       </c>
     </row>
     <row r="22">
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25724.6979027368</v>
+        <v>26503.4025518034</v>
       </c>
     </row>
     <row r="5">
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8876.25358944274</v>
+        <v>9144.94401148488</v>
       </c>
     </row>
     <row r="6">
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8185.82959578569</v>
+        <v>8546.90262615735</v>
       </c>
     </row>
     <row r="7">
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5730.08071704999</v>
+        <v>5982.83183831015</v>
       </c>
     </row>
     <row r="8">
@@ -1518,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19736.9446920611</v>
+        <v>20607.5318875127</v>
       </c>
     </row>
     <row r="9">
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5424.37719354833</v>
+        <v>5588.57689590742</v>
       </c>
     </row>
     <row r="10">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9822.99551494283</v>
+        <v>10256.2831513888</v>
       </c>
     </row>
     <row r="11">
@@ -1542,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1364.30493263095</v>
+        <v>1424.48377102623</v>
       </c>
     </row>
     <row r="12">
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57859.4451106003</v>
+        <v>58196.8974714696</v>
       </c>
     </row>
     <row r="13">
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40423.2466404758</v>
+        <v>40659.0062469973</v>
       </c>
     </row>
     <row r="14">
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17443.2111576058</v>
+        <v>17749.363850553</v>
       </c>
     </row>
     <row r="15">
@@ -1574,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19981.58890069</v>
+        <v>20332.2936646258</v>
       </c>
     </row>
     <row r="16">
@@ -1582,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15165.1798497095</v>
+        <v>15431.3499148464</v>
       </c>
     </row>
     <row r="17">
@@ -1590,7 +1590,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47773.5708570245</v>
+        <v>48612.0636802455</v>
       </c>
     </row>
     <row r="18">
@@ -1598,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12366.4556714368</v>
+        <v>12583.5042224068</v>
       </c>
     </row>
     <row r="19">
@@ -1606,7 +1606,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39377.3983222069</v>
+        <v>40068.5266029272</v>
       </c>
     </row>
     <row r="20">
@@ -1614,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>2997.13658477361</v>
+        <v>3143.35876647972</v>
       </c>
     </row>
     <row r="21">
@@ -1622,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11845.7628010606</v>
+        <v>12053.672465674</v>
       </c>
     </row>
     <row r="22">
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28483.4179109526</v>
+        <v>30293.7768567204</v>
       </c>
     </row>
     <row r="5">
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9828.14419930636</v>
+        <v>10452.8047940122</v>
       </c>
     </row>
     <row r="6">
@@ -1676,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8459.62273889667</v>
+        <v>8973.2999507083</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5921.73591722767</v>
+        <v>6281.30996549582</v>
       </c>
     </row>
     <row r="8">
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20397.090381562</v>
+        <v>21635.6232144856</v>
       </c>
     </row>
     <row r="9">
@@ -1700,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6006.08812179833</v>
+        <v>6387.82515189633</v>
       </c>
     </row>
     <row r="10">
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10151.547286676</v>
+        <v>10767.95994085</v>
       </c>
     </row>
     <row r="11">
@@ -1716,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1409.93712314945</v>
+        <v>1495.54999178472</v>
       </c>
     </row>
     <row r="12">
@@ -1724,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>72396.0136119228</v>
+        <v>80941.9881035468</v>
       </c>
     </row>
     <row r="13">
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>50579.1562367723</v>
+        <v>56549.7636976247</v>
       </c>
     </row>
     <row r="14">
@@ -1740,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20676.9231589232</v>
+        <v>22866.8816762461</v>
       </c>
     </row>
     <row r="15">
@@ -1748,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23685.8783947366</v>
+        <v>26194.524905252</v>
       </c>
     </row>
     <row r="16">
@@ -1756,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17976.5787165266</v>
+        <v>19880.5351886767</v>
       </c>
     </row>
     <row r="17">
@@ -1764,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>56630.0805919762</v>
+        <v>62627.9520535993</v>
       </c>
     </row>
     <row r="18">
@@ -1772,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14659.0126872963</v>
+        <v>16211.5952182341</v>
       </c>
     </row>
     <row r="19">
@@ -1780,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>46677.3825042856</v>
+        <v>51621.1321422719</v>
       </c>
     </row>
     <row r="20">
@@ -1788,7 +1788,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3016.72816756117</v>
+        <v>3169.56929318259</v>
       </c>
     </row>
     <row r="21">
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14041.7911004628</v>
+        <v>15529.0017353612</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26190.3069583379</v>
+        <v>27649.9034432273</v>
       </c>
     </row>
     <row r="5">
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9036.91102715814</v>
+        <v>9540.54176315832</v>
       </c>
     </row>
     <row r="6">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8187.56246378006</v>
+        <v>8649.3542539021</v>
       </c>
     </row>
     <row r="7">
@@ -1858,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5731.29372464605</v>
+        <v>6054.54797773148</v>
       </c>
     </row>
     <row r="8">
@@ -1866,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19741.1228293364</v>
+        <v>20854.5541455195</v>
       </c>
     </row>
     <row r="9">
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5522.55673881886</v>
+        <v>5830.33107748563</v>
       </c>
     </row>
     <row r="10">
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9825.07495653608</v>
+        <v>10379.2251046825</v>
       </c>
     </row>
     <row r="11">
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1364.59374396334</v>
+        <v>1441.55904231702</v>
       </c>
     </row>
     <row r="12">
@@ -1898,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57857.3240454502</v>
+        <v>63612.4010126176</v>
       </c>
     </row>
     <row r="13">
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40421.7647676452</v>
+        <v>44442.5239580251</v>
       </c>
     </row>
     <row r="14">
@@ -1914,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17391.5534281032</v>
+        <v>18941.0179651383</v>
       </c>
     </row>
     <row r="15">
@@ -1922,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19922.4138150285</v>
+        <v>21697.3601317069</v>
       </c>
     </row>
     <row r="16">
@@ -1930,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15120.2684654777</v>
+        <v>16467.3775592434</v>
       </c>
     </row>
     <row r="17">
@@ -1938,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47632.0903590585</v>
+        <v>51875.7730836249</v>
       </c>
     </row>
     <row r="18">
@@ -1946,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12329.8326542521</v>
+        <v>13428.3336320009</v>
       </c>
     </row>
     <row r="19">
@@ -1954,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39260.782925382</v>
+        <v>42758.6413018979</v>
       </c>
     </row>
     <row r="20">
@@ -1962,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3001.06988298525</v>
+        <v>3151.66056767547</v>
       </c>
     </row>
     <row r="21">
@@ -1970,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11810.6818056521</v>
+        <v>12862.9301106536</v>
       </c>
     </row>
     <row r="22">
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24899.3744653758</v>
+        <v>26255.8055205951</v>
       </c>
     </row>
     <row r="5">
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8591.4774513118</v>
+        <v>9059.5111700456</v>
       </c>
     </row>
     <row r="6">
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8063.74625063371</v>
+        <v>8510.27762261176</v>
       </c>
     </row>
     <row r="7">
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5644.6223754436</v>
+        <v>5957.19433582823</v>
       </c>
     </row>
     <row r="8">
@@ -2040,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19442.5881820835</v>
+        <v>20519.2249345195</v>
       </c>
     </row>
     <row r="9">
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5250.3473313572</v>
+        <v>5536.36793725008</v>
       </c>
     </row>
     <row r="10">
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9676.49550076046</v>
+        <v>10212.3331471341</v>
       </c>
     </row>
     <row r="11">
@@ -2064,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1343.95770843895</v>
+        <v>1418.37960376863</v>
       </c>
     </row>
     <row r="12">
@@ -2072,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>51292.6274059965</v>
+        <v>56226.8521600884</v>
       </c>
     </row>
     <row r="13">
@@ -2080,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>35835.3683570111</v>
+        <v>39282.6427619579</v>
       </c>
     </row>
     <row r="14">
@@ -2088,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15936.1664981052</v>
+        <v>17297.2504527028</v>
       </c>
     </row>
     <row r="15">
@@ -2096,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18255.2355034263</v>
+        <v>19814.3876454467</v>
       </c>
     </row>
     <row r="16">
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13854.9507240989</v>
+        <v>15038.2811771632</v>
       </c>
     </row>
     <row r="17">
@@ -2112,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>43646.0679463028</v>
+        <v>47373.812807029</v>
       </c>
     </row>
     <row r="18">
@@ -2120,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11298.0284874625</v>
+        <v>12262.9760672145</v>
       </c>
     </row>
     <row r="19">
@@ -2128,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>35975.3012363941</v>
+        <v>39047.8974771833</v>
       </c>
     </row>
     <row r="20">
@@ -2136,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>2991.84142964136</v>
+        <v>3141.77021994005</v>
       </c>
     </row>
     <row r="21">
@@ -2144,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10822.3220248326</v>
+        <v>11746.6402328056</v>
       </c>
     </row>
     <row r="22">
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29798.0044379545</v>
+        <v>30605.5936170605</v>
       </c>
     </row>
     <row r="5">
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10281.7395504763</v>
+        <v>10560.3965196247</v>
       </c>
     </row>
     <row r="6">
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8688.45191296187</v>
+        <v>9055.51625269965</v>
       </c>
     </row>
     <row r="7">
@@ -2206,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6081.91633907331</v>
+        <v>6338.86137688975</v>
       </c>
     </row>
     <row r="8">
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20948.822945697</v>
+        <v>21833.8558537314</v>
       </c>
     </row>
     <row r="9">
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6283.28528084665</v>
+        <v>6453.57565088176</v>
       </c>
     </row>
     <row r="10">
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10426.1422955542</v>
+        <v>10866.6195032396</v>
       </c>
     </row>
     <row r="11">
@@ -2238,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1448.07531882698</v>
+        <v>1509.25270878327</v>
       </c>
     </row>
     <row r="12">
@@ -2246,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81131.6760093971</v>
+        <v>81612.7499854703</v>
       </c>
     </row>
     <row r="13">
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56682.2883180776</v>
+        <v>57018.3885338669</v>
       </c>
     </row>
     <row r="14">
@@ -2262,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23349.5824289399</v>
+        <v>23722.089305946</v>
       </c>
     </row>
     <row r="15">
@@ -2270,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26747.4694241961</v>
+        <v>27174.1843915127</v>
       </c>
     </row>
     <row r="16">
@@ -2278,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20300.1966639664</v>
+        <v>20624.0552547963</v>
       </c>
     </row>
     <row r="17">
@@ -2286,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>63949.9757568728</v>
+        <v>64970.1998155385</v>
       </c>
     </row>
     <row r="18">
@@ -2294,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16553.8084384275</v>
+        <v>16817.8991348124</v>
       </c>
     </row>
     <row r="19">
@@ -2302,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>52710.8110802562</v>
+        <v>53551.7314555869</v>
       </c>
     </row>
     <row r="20">
@@ -2310,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3655.28699654894</v>
+        <v>3833.20072885033</v>
       </c>
     </row>
     <row r="21">
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15856.8059778622</v>
+        <v>16109.7770659782</v>
       </c>
     </row>
     <row r="22">
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27254.3488704266</v>
+        <v>28061.9380495326</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9404.05647925265</v>
+        <v>9682.71344840102</v>
       </c>
     </row>
     <row r="6">
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8379.33062235269</v>
+        <v>8746.39496209047</v>
       </c>
     </row>
     <row r="7">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5865.53143564689</v>
+        <v>6122.47647346333</v>
       </c>
     </row>
     <row r="8">
@@ -2562,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20203.4971672282</v>
+        <v>21088.5300752626</v>
       </c>
     </row>
     <row r="9">
@@ -2570,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5746.92340398774</v>
+        <v>5917.21377402285</v>
       </c>
     </row>
     <row r="10">
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10055.1967468232</v>
+        <v>10495.6739545086</v>
       </c>
     </row>
     <row r="11">
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1396.55510372545</v>
+        <v>1457.73249368175</v>
       </c>
     </row>
     <row r="12">
@@ -2594,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>64599.4882111698</v>
+        <v>65080.562187243</v>
       </c>
     </row>
     <row r="13">
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45132.1480843274</v>
+        <v>45468.2483001167</v>
       </c>
     </row>
     <row r="14">
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19606.7169979143</v>
+        <v>19979.2238749204</v>
       </c>
     </row>
     <row r="15">
@@ -2618,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22459.9332774615</v>
+        <v>22886.6482447781</v>
       </c>
     </row>
     <row r="16">
@@ -2626,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17046.1382855001</v>
+        <v>17369.99687633</v>
       </c>
     </row>
     <row r="17">
@@ -2634,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>53698.9935689146</v>
+        <v>54719.2176275803</v>
       </c>
     </row>
     <row r="18">
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13900.2844388198</v>
+        <v>14164.3751352047</v>
       </c>
     </row>
     <row r="19">
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>44261.4320288738</v>
+        <v>45102.3524042045</v>
       </c>
     </row>
     <row r="20">
@@ -2658,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3638.02125416503</v>
+        <v>3815.93498646641</v>
       </c>
     </row>
     <row r="21">
@@ -2666,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13315.0093045538</v>
+        <v>13567.9803926698</v>
       </c>
     </row>
     <row r="22">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25889.726784843</v>
+        <v>26697.3159639489</v>
       </c>
     </row>
     <row r="5">
@@ -2712,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8933.19646250175</v>
+        <v>9211.85343165012</v>
       </c>
     </row>
     <row r="6">
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8244.61411053206</v>
+        <v>8611.67845026984</v>
       </c>
     </row>
     <row r="7">
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5771.22987737244</v>
+        <v>6028.17491518889</v>
       </c>
     </row>
     <row r="8">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19878.6806887273</v>
+        <v>20763.7135967617</v>
       </c>
     </row>
     <row r="9">
@@ -2744,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5459.1756159733</v>
+        <v>5629.46598600841</v>
       </c>
     </row>
     <row r="10">
@@ -2752,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9893.53693263848</v>
+        <v>10334.0141403238</v>
       </c>
     </row>
     <row r="11">
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1374.10235175534</v>
+        <v>1435.27974171164</v>
       </c>
     </row>
     <row r="12">
@@ -2768,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57448.4685623765</v>
+        <v>57929.5425384497</v>
       </c>
     </row>
     <row r="13">
@@ -2776,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40136.1196840982</v>
+        <v>40472.2198998875</v>
       </c>
     </row>
     <row r="14">
@@ -2784,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18016.7725090324</v>
+        <v>18389.2793860385</v>
       </c>
     </row>
     <row r="15">
@@ -2792,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20638.6162696751</v>
+        <v>21065.3312369917</v>
       </c>
     </row>
     <row r="16">
@@ -2800,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15663.8358007632</v>
+        <v>15987.6943915931</v>
       </c>
     </row>
     <row r="17">
@@ -2808,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>49344.4441105588</v>
+        <v>50364.6681692245</v>
       </c>
     </row>
     <row r="18">
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12773.0849877468</v>
+        <v>13037.1756841316</v>
       </c>
     </row>
     <row r="19">
@@ -2824,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>40672.1916715097</v>
+        <v>41513.1120468404</v>
       </c>
     </row>
     <row r="20">
@@ -2832,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3628.3200191129</v>
+        <v>3806.23375141428</v>
       </c>
     </row>
     <row r="21">
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12235.2708829996</v>
+        <v>12488.2419711156</v>
       </c>
     </row>
     <row r="22">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30534.9003641696</v>
+        <v>31342.4895432756</v>
       </c>
     </row>
     <row r="5">
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10536.0039595218</v>
+        <v>10814.6609286702</v>
       </c>
     </row>
     <row r="6">
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8797.45489970471</v>
+        <v>9164.51923944249</v>
       </c>
     </row>
     <row r="7">
@@ -2902,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6158.2184297933</v>
+        <v>6415.16346760974</v>
       </c>
     </row>
     <row r="8">
@@ -2910,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21211.6412581769</v>
+        <v>22096.6741662113</v>
       </c>
     </row>
     <row r="9">
@@ -2918,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6438.66908637445</v>
+        <v>6608.95945640956</v>
       </c>
     </row>
     <row r="10">
@@ -2926,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10556.9458796456</v>
+        <v>10997.423087331</v>
       </c>
     </row>
     <row r="11">
@@ -2934,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1466.24248328412</v>
+        <v>1527.41987324041</v>
       </c>
     </row>
     <row r="12">
@@ -2942,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>86994.9061027934</v>
+        <v>87475.9800788666</v>
       </c>
     </row>
     <row r="13">
@@ -2950,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>60778.6082140283</v>
+        <v>61114.7084298176</v>
       </c>
     </row>
     <row r="14">
@@ -2958,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24695.1580177797</v>
+        <v>25067.6648947858</v>
       </c>
     </row>
     <row r="15">
@@ -2966,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28288.8563860387</v>
+        <v>28715.5713533553</v>
       </c>
     </row>
     <row r="16">
@@ -2974,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21470.0440975473</v>
+        <v>21793.9026883772</v>
       </c>
     </row>
     <row r="17">
@@ -2982,7 +2982,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67635.2462128743</v>
+        <v>68655.47027154</v>
       </c>
     </row>
     <row r="18">
@@ -2990,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17507.7612812616</v>
+        <v>17771.8519776465</v>
       </c>
     </row>
     <row r="19">
@@ -2998,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55748.3977640177</v>
+        <v>56589.3181393484</v>
       </c>
     </row>
     <row r="20">
@@ -3006,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3660.01481363131</v>
+        <v>3837.92854593269</v>
       </c>
     </row>
     <row r="21">
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16770.5923852086</v>
+        <v>17023.5634733246</v>
       </c>
     </row>
     <row r="22">
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27740.7001817286</v>
+        <v>28548.2893608346</v>
       </c>
     </row>
     <row r="5">
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9571.87098922267</v>
+        <v>9850.52795837104</v>
       </c>
     </row>
     <row r="6">
@@ -3068,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8451.27259360297</v>
+        <v>8818.33693334075</v>
       </c>
     </row>
     <row r="7">
@@ -3076,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5915.89081552208</v>
+        <v>6172.83585333852</v>
       </c>
     </row>
     <row r="8">
@@ -3084,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20376.9572534649</v>
+        <v>21261.9901614994</v>
       </c>
     </row>
     <row r="9">
@@ -3092,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5849.47671563608</v>
+        <v>6019.76708567119</v>
       </c>
     </row>
     <row r="10">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10141.5271123236</v>
+        <v>10582.0043200089</v>
       </c>
     </row>
     <row r="11">
@@ -3108,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1408.54543226716</v>
+        <v>1469.72282222346</v>
       </c>
     </row>
     <row r="12">
@@ -3116,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68469.2200728113</v>
+        <v>68950.2940488845</v>
       </c>
     </row>
     <row r="13">
@@ -3124,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>47835.7192156548</v>
+        <v>48171.8194314441</v>
       </c>
     </row>
     <row r="14">
@@ -3132,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20494.7968865486</v>
+        <v>20867.3037635547</v>
       </c>
     </row>
     <row r="15">
@@ -3140,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23477.2486722776</v>
+        <v>23903.9636395942</v>
       </c>
     </row>
     <row r="16">
@@ -3148,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17818.2375916635</v>
+        <v>18142.0961824934</v>
       </c>
     </row>
     <row r="17">
@@ -3156,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>56131.2720698756</v>
+        <v>57151.4961285413</v>
       </c>
     </row>
     <row r="18">
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14529.8933150904</v>
+        <v>14793.9840114752</v>
       </c>
     </row>
     <row r="19">
@@ -3172,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>46266.2392401563</v>
+        <v>47107.159615487</v>
       </c>
     </row>
     <row r="20">
@@ -3180,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3641.14161343939</v>
+        <v>3819.05534574077</v>
       </c>
     </row>
     <row r="21">
@@ -3188,7 +3188,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13918.1083334024</v>
+        <v>14171.0794215185</v>
       </c>
     </row>
     <row r="22">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26302.3885035235</v>
+        <v>27109.9776826295</v>
       </c>
     </row>
     <row r="5">
@@ -3234,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9075.58453156722</v>
+        <v>9354.24150071559</v>
       </c>
     </row>
     <row r="6">
@@ -3242,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8305.65578310805</v>
+        <v>8672.72012284583</v>
       </c>
     </row>
     <row r="7">
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5813.95904817564</v>
+        <v>6070.90408599208</v>
       </c>
     </row>
     <row r="8">
@@ -3258,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20025.8589437161</v>
+        <v>20910.8918517505</v>
       </c>
     </row>
     <row r="9">
@@ -3266,7 +3266,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5546.19054706886</v>
+        <v>5716.48091710397</v>
       </c>
     </row>
     <row r="10">
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9966.78693972966</v>
+        <v>10407.264147415</v>
       </c>
     </row>
     <row r="11">
@@ -3282,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1384.27596385134</v>
+        <v>1445.45335380764</v>
       </c>
     </row>
     <row r="12">
@@ -3290,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>60731.8774146784</v>
+        <v>61212.9513907516</v>
       </c>
     </row>
     <row r="13">
@@ -3298,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42430.0588258305</v>
+        <v>42766.1590416198</v>
       </c>
     </row>
     <row r="14">
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18770.2948387827</v>
+        <v>19142.8017157888</v>
       </c>
     </row>
     <row r="15">
@@ -3314,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21501.7929683069</v>
+        <v>21928.5079356235</v>
       </c>
     </row>
     <row r="16">
@@ -3322,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16318.9503635685</v>
+        <v>16642.8089543984</v>
       </c>
     </row>
     <row r="17">
@@ -3330,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51408.1955659196</v>
+        <v>52428.4196245853</v>
       </c>
     </row>
     <row r="18">
@@ -3338,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13307.2985797339</v>
+        <v>13571.3892761188</v>
       </c>
     </row>
     <row r="19">
@@ -3346,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42373.2402144161</v>
+        <v>43214.1605897468</v>
       </c>
     </row>
     <row r="20">
@@ -3354,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3630.96759667902</v>
+        <v>3808.8813289804</v>
       </c>
     </row>
     <row r="21">
@@ -3362,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12746.9912711136</v>
+        <v>12999.9623592296</v>
       </c>
     </row>
     <row r="22">
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29061.1085117393</v>
+        <v>30900.3519875465</v>
       </c>
     </row>
     <row r="5">
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10027.4751414308</v>
+        <v>10662.1022832429</v>
       </c>
     </row>
     <row r="6">
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8579.44892621903</v>
+        <v>9099.11744739678</v>
       </c>
     </row>
     <row r="7">
@@ -3424,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6005.61424835332</v>
+        <v>6369.38221317775</v>
       </c>
     </row>
     <row r="8">
@@ -3432,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20686.004633217</v>
+        <v>21938.9831787234</v>
       </c>
     </row>
     <row r="9">
@@ -3440,7 +3440,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6127.90147531885</v>
+        <v>6515.72917309288</v>
       </c>
     </row>
     <row r="10">
@@ -3448,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10295.3387114628</v>
+        <v>10918.9409368761</v>
       </c>
     </row>
     <row r="11">
@@ -3456,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1429.90815436984</v>
+        <v>1516.51957456613</v>
       </c>
     </row>
     <row r="12">
@@ -3464,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>75268.4459160009</v>
+        <v>83958.0420228288</v>
       </c>
     </row>
     <row r="13">
@@ -3472,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>52585.968422127</v>
+        <v>58656.9164922472</v>
       </c>
     </row>
     <row r="14">
@@ -3480,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22004.0068401001</v>
+        <v>24260.3195414819</v>
       </c>
     </row>
     <row r="15">
@@ -3488,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25206.0824623535</v>
+        <v>27790.7391762497</v>
       </c>
     </row>
     <row r="16">
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19130.3492303856</v>
+        <v>21091.9942282287</v>
       </c>
     </row>
     <row r="17">
@@ -3504,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>60264.7053008713</v>
+        <v>66444.3079979391</v>
       </c>
     </row>
     <row r="18">
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15599.8555955933</v>
+        <v>17199.480271946</v>
       </c>
     </row>
     <row r="19">
@@ -3520,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>49673.2243964948</v>
+        <v>54766.7661290915</v>
       </c>
     </row>
     <row r="20">
@@ -3528,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3650.55917946658</v>
+        <v>3835.09185568327</v>
       </c>
     </row>
     <row r="21">
@@ -3536,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14943.0195705158</v>
+        <v>16475.2916289168</v>
       </c>
     </row>
     <row r="22">
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26767.9975591246</v>
+        <v>28256.4785740534</v>
       </c>
     </row>
     <row r="5">
@@ -3582,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9236.24196928263</v>
+        <v>9749.83925238903</v>
       </c>
     </row>
     <row r="6">
@@ -3590,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8307.38865110242</v>
+        <v>8775.17175059058</v>
       </c>
     </row>
     <row r="7">
@@ -3598,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5815.1720557717</v>
+        <v>6142.62022541341</v>
       </c>
     </row>
     <row r="8">
@@ -3606,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20030.0370809914</v>
+        <v>21157.9141097573</v>
       </c>
     </row>
     <row r="9">
@@ -3614,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5644.37009233939</v>
+        <v>5958.23509868218</v>
       </c>
     </row>
     <row r="10">
@@ -3622,7 +3622,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9968.8663813229</v>
+        <v>10530.2061007087</v>
       </c>
     </row>
     <row r="11">
@@ -3630,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1384.56477518374</v>
+        <v>1462.52862509843</v>
       </c>
     </row>
     <row r="12">
@@ -3638,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>60729.7563495283</v>
+        <v>66628.4549318996</v>
       </c>
     </row>
     <row r="13">
@@ -3646,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42428.5769529999</v>
+        <v>46549.6767526476</v>
       </c>
     </row>
     <row r="14">
@@ -3654,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18718.6371092801</v>
+        <v>20334.4558303741</v>
       </c>
     </row>
     <row r="15">
@@ -3662,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21442.6178826454</v>
+        <v>23293.5744027046</v>
       </c>
     </row>
     <row r="16">
@@ -3670,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16274.0389793368</v>
+        <v>17678.8365987954</v>
       </c>
     </row>
     <row r="17">
@@ -3678,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51266.7150679536</v>
+        <v>55692.1290279647</v>
       </c>
     </row>
     <row r="18">
@@ -3686,7 +3686,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13270.6755625492</v>
+        <v>14416.2186857129</v>
       </c>
     </row>
     <row r="19">
@@ -3694,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42256.6248175912</v>
+        <v>45904.2752887175</v>
       </c>
     </row>
     <row r="20">
@@ -3702,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3634.90089489066</v>
+        <v>3817.18313017615</v>
       </c>
     </row>
     <row r="21">
@@ -3710,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12711.9102757051</v>
+        <v>13809.2200042093</v>
       </c>
     </row>
     <row r="22">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25477.0650661625</v>
+        <v>26862.3806514211</v>
       </c>
     </row>
     <row r="5">
@@ -3756,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8790.80839343628</v>
+        <v>9268.80865927631</v>
       </c>
     </row>
     <row r="6">
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8183.57243795607</v>
+        <v>8636.09511930023</v>
       </c>
     </row>
     <row r="7">
@@ -3772,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5728.50070656925</v>
+        <v>6045.26658351017</v>
       </c>
     </row>
     <row r="8">
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19731.5024337385</v>
+        <v>20822.5848987572</v>
       </c>
     </row>
     <row r="9">
@@ -3788,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5372.16068487773</v>
+        <v>5664.27195844663</v>
       </c>
     </row>
     <row r="10">
@@ -3796,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9820.28692554729</v>
+        <v>10363.3141431603</v>
       </c>
     </row>
     <row r="11">
@@ -3804,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1363.92873965935</v>
+        <v>1439.34918655004</v>
       </c>
     </row>
     <row r="12">
@@ -3812,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54165.0597100746</v>
+        <v>59242.9060793704</v>
       </c>
     </row>
     <row r="13">
@@ -3820,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>37842.1805423658</v>
+        <v>41389.7955565804</v>
       </c>
     </row>
     <row r="14">
@@ -3828,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17263.2501792821</v>
+        <v>18690.6883179386</v>
       </c>
     </row>
     <row r="15">
@@ -3836,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19775.4395710432</v>
+        <v>21410.6019164444</v>
       </c>
     </row>
     <row r="16">
@@ -3844,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15008.721237958</v>
+        <v>16249.7402167152</v>
       </c>
     </row>
     <row r="17">
@@ -3852,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47280.6926551979</v>
+        <v>51190.1687513688</v>
       </c>
     </row>
     <row r="18">
@@ -3860,7 +3860,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12238.8713957596</v>
+        <v>13250.8611209265</v>
       </c>
     </row>
     <row r="19">
@@ -3868,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38971.1431286033</v>
+        <v>42193.5314640029</v>
       </c>
     </row>
     <row r="20">
@@ -3876,7 +3876,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3625.67244154677</v>
+        <v>3807.29278244073</v>
       </c>
     </row>
     <row r="21">
@@ -3884,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11723.5504948856</v>
+        <v>12692.9301263612</v>
       </c>
     </row>
     <row r="22">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30918.256420603</v>
+        <v>31452.6974317588</v>
       </c>
     </row>
     <row r="5">
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10668.2801706873</v>
+        <v>10852.6879317251</v>
       </c>
     </row>
     <row r="6">
@@ -4634,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8955.81822164506</v>
+        <v>9017.67271134198</v>
       </c>
     </row>
     <row r="7">
@@ -4642,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6269.07275515154</v>
+        <v>6312.37089793938</v>
       </c>
     </row>
     <row r="8">
@@ -4650,7 +4650,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21593.4728232997</v>
+        <v>21742.6108706801</v>
       </c>
     </row>
     <row r="9">
@@ -4658,7 +4658,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6519.50454875336</v>
+        <v>6632.19818049866</v>
       </c>
     </row>
     <row r="10">
@@ -4666,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10746.9818659741</v>
+        <v>10821.2072536104</v>
       </c>
     </row>
     <row r="11">
@@ -4674,7 +4674,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1492.63637027418</v>
+        <v>1502.94545189033</v>
       </c>
     </row>
     <row r="12">
@@ -4682,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>84311.3566172133</v>
+        <v>90315.4573531147</v>
       </c>
     </row>
     <row r="13">
@@ -4690,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58903.7581783917</v>
+        <v>63098.4967286433</v>
       </c>
     </row>
     <row r="14">
@@ -4698,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26205.3073900763</v>
+        <v>27037.8770439695</v>
       </c>
     </row>
     <row r="15">
@@ -4706,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30018.7663013187</v>
+        <v>30972.4934794725</v>
       </c>
     </row>
     <row r="16">
@@ -4714,7 +4714,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22782.9724697305</v>
+        <v>23506.8110121078</v>
       </c>
     </row>
     <row r="17">
@@ -4722,7 +4722,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>71771.2523295373</v>
+        <v>74051.4990681851</v>
       </c>
     </row>
     <row r="18">
@@ -4730,7 +4730,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18578.3895675914</v>
+        <v>19168.6441729634</v>
       </c>
     </row>
     <row r="19">
@@ -4738,7 +4738,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>59157.50362312</v>
+        <v>61036.998550752</v>
       </c>
     </row>
     <row r="20">
@@ -4746,7 +4746,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9484.63572269828</v>
+        <v>9487.56112599021</v>
       </c>
     </row>
     <row r="21">
@@ -4754,7 +4754,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17796.1415857981</v>
+        <v>18361.5433656808</v>
       </c>
     </row>
     <row r="22">
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29458.8648552195</v>
+        <v>29811.5959225823</v>
       </c>
     </row>
     <row r="5">
@@ -4800,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10164.7201417371</v>
+        <v>10286.429264022</v>
       </c>
     </row>
     <row r="6">
@@ -4808,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8845.54503433558</v>
+        <v>8886.36899753554</v>
       </c>
     </row>
     <row r="7">
@@ -4816,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6191.8815240349</v>
+        <v>6220.45829827488</v>
       </c>
     </row>
     <row r="8">
@@ -4824,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21327.5919161202</v>
+        <v>21426.0230273912</v>
       </c>
     </row>
     <row r="9">
@@ -4832,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6211.77341995043</v>
+        <v>6286.15121690233</v>
       </c>
     </row>
     <row r="10">
@@ -4840,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10614.6540412027</v>
+        <v>10663.6427970426</v>
       </c>
     </row>
     <row r="11">
@@ -4848,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1474.2575057226</v>
+        <v>1481.06149958926</v>
       </c>
     </row>
     <row r="12">
@@ -4856,7 +4856,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>73677.072475121</v>
+        <v>77639.7789608158</v>
       </c>
     </row>
     <row r="13">
@@ -4864,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>51474.1623725732</v>
+        <v>54242.6898157393</v>
       </c>
     </row>
     <row r="14">
@@ -4872,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24753.3004452488</v>
+        <v>25302.7964168183</v>
       </c>
     </row>
     <row r="15">
@@ -4880,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28355.4598384006</v>
+        <v>28984.9197759821</v>
       </c>
     </row>
     <row r="16">
@@ -4888,7 +4888,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21520.5932975484</v>
+        <v>21998.3267355174</v>
       </c>
     </row>
     <row r="17">
@@ -4896,7 +4896,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67794.4870403455</v>
+        <v>69299.449887853</v>
       </c>
     </row>
     <row r="18">
@@ -4904,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17548.981658945</v>
+        <v>17938.5496984906</v>
       </c>
     </row>
     <row r="19">
@@ -4912,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55879.6521245354</v>
+        <v>57120.1187767726</v>
       </c>
     </row>
     <row r="20">
@@ -4920,7 +4920,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9477.71516288836</v>
+        <v>9479.64592906103</v>
       </c>
     </row>
     <row r="21">
@@ -4928,7 +4928,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16810.0771680421</v>
+        <v>17183.2423427646</v>
       </c>
     </row>
     <row r="22">
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28518.6445578158</v>
+        <v>28817.931524063</v>
       </c>
     </row>
     <row r="5">
@@ -4974,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9840.29908065209</v>
+        <v>9943.56742683324</v>
       </c>
     </row>
     <row r="6">
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8795.35906558881</v>
+        <v>8829.99757981908</v>
       </c>
     </row>
     <row r="7">
@@ -4990,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6156.75134591217</v>
+        <v>6180.99830587336</v>
       </c>
     </row>
     <row r="8">
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21206.587969253</v>
+        <v>21290.105275786</v>
       </c>
     </row>
     <row r="9">
@@ -5006,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6013.51610484295</v>
+        <v>6076.62453862032</v>
       </c>
     </row>
     <row r="10">
@@ -5014,7 +5014,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10554.4308787066</v>
+        <v>10595.9970957829</v>
       </c>
     </row>
     <row r="11">
@@ -5022,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1465.89317759814</v>
+        <v>1471.66626330318</v>
       </c>
     </row>
     <row r="12">
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68875.3433336185</v>
+        <v>72237.6397457232</v>
       </c>
     </row>
     <row r="13">
@@ -5038,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48119.455444142</v>
+        <v>50468.5090322829</v>
       </c>
     </row>
     <row r="14">
@@ -5046,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24110.0754499175</v>
+        <v>24576.3144560977</v>
       </c>
     </row>
     <row r="15">
@@ -5054,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27618.6312056891</v>
+        <v>28152.7184254552</v>
       </c>
     </row>
     <row r="16">
@@ -5062,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20961.3715665327</v>
+        <v>21366.721150264</v>
       </c>
     </row>
     <row r="17">
@@ -5070,7 +5070,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66032.818582983</v>
+        <v>67309.7567566257</v>
       </c>
     </row>
     <row r="18">
@@ -5078,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17092.9639383743</v>
+        <v>17423.5065173827</v>
       </c>
     </row>
     <row r="19">
@@ -5086,7 +5086,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>54427.5956985078</v>
+        <v>55480.1128579817</v>
       </c>
     </row>
     <row r="20">
@@ -5094,7 +5094,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9473.63642341918</v>
+        <v>9475.27464926266</v>
       </c>
     </row>
     <row r="21">
@@ -5102,7 +5102,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16373.2601936007</v>
+        <v>16689.885190335</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31300</v>
+        <v>41081.9465534337</v>
       </c>
     </row>
     <row r="5">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10800</v>
+        <v>14172.9304401624</v>
       </c>
     </row>
     <row r="6">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>9542.04146582259</v>
       </c>
     </row>
     <row r="7">
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6300</v>
+        <v>6677.22902607581</v>
       </c>
     </row>
     <row r="8">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21700</v>
+        <v>23010.5666453723</v>
       </c>
     </row>
     <row r="9">
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6600</v>
+        <v>8656.06860232148</v>
       </c>
     </row>
     <row r="10">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10800</v>
+        <v>11447.2497589871</v>
       </c>
     </row>
     <row r="11">
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1582.00691097043</v>
       </c>
     </row>
     <row r="12">
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>88600</v>
+        <v>140895.934797812</v>
       </c>
     </row>
     <row r="13">
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61900</v>
+        <v>98432.3111059203</v>
       </c>
     </row>
     <row r="14">
@@ -522,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26800</v>
+        <v>33814.9425632365</v>
       </c>
     </row>
     <row r="15">
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30700</v>
+        <v>38736.520025797</v>
       </c>
     </row>
     <row r="16">
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23300</v>
+        <v>29395.2448404258</v>
       </c>
     </row>
     <row r="17">
@@ -546,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>73400</v>
+        <v>92630.432244088</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +554,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19000</v>
+        <v>23965.7876381154</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>60500</v>
+        <v>76346.060637157</v>
       </c>
     </row>
     <row r="20">
@@ -570,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9486.72529647823</v>
+        <v>12824.8769684718</v>
       </c>
     </row>
     <row r="21">
@@ -578,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18200</v>
+        <v>22953.0281586158</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29999.0184862344</v>
+        <v>46509.1208558363</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10351.099030394</v>
+        <v>16045.450167509</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8929.69875601117</v>
+        <v>10792.9651182064</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6250.78912920782</v>
+        <v>7552.76558274444</v>
       </c>
     </row>
     <row r="8">
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21530.4958894936</v>
+        <v>26026.8647850086</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6325.67162968521</v>
+        <v>9800.12788014439</v>
       </c>
     </row>
     <row r="10">
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10715.6385072134</v>
+        <v>12948.1981418476</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1488.28312600186</v>
+        <v>1790.07751970106</v>
       </c>
     </row>
     <row r="12">
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>78596.6960661883</v>
+        <v>164529.696487933</v>
       </c>
     </row>
     <row r="13">
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54911.2357392444</v>
+        <v>114943.734002292</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22328.6514407102</v>
+        <v>44026.8448888195</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25577.970120515</v>
+        <v>50434.5200778642</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19412.5962152443</v>
+        <v>38273.3248473692</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>61153.8438711987</v>
+        <v>120599.744583558</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15830.0140811005</v>
+        <v>31205.1945107303</v>
       </c>
     </row>
     <row r="19">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>50406.0974687673</v>
+        <v>99399.5535736411</v>
       </c>
     </row>
     <row r="20">
@@ -744,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3167.67816634964</v>
+        <v>13518.1123505213</v>
       </c>
     </row>
     <row r="21">
@@ -752,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15163.4871724226</v>
+        <v>29887.4342155416</v>
       </c>
     </row>
     <row r="22">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27455.3629187065</v>
+        <v>43965.4652883084</v>
       </c>
     </row>
     <row r="5">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9473.41595917031</v>
+        <v>15167.7670962853</v>
       </c>
     </row>
     <row r="6">
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8620.57746540199</v>
+        <v>10483.8438275972</v>
       </c>
     </row>
     <row r="7">
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6034.4042257814</v>
+        <v>7336.38067931802</v>
       </c>
     </row>
     <row r="8">
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20785.1701110248</v>
+        <v>25281.5390065398</v>
       </c>
     </row>
     <row r="9">
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5789.3097528263</v>
+        <v>9263.76600328548</v>
       </c>
     </row>
     <row r="10">
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10344.6929584824</v>
+        <v>12577.2525931166</v>
       </c>
     </row>
     <row r="11">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1436.76291090033</v>
+        <v>1738.55730459953</v>
       </c>
     </row>
     <row r="12">
@@ -854,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>62064.508267961</v>
+        <v>147997.508689706</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>43361.0955054942</v>
+        <v>103393.593768542</v>
       </c>
     </row>
     <row r="14">
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18585.7860096846</v>
+        <v>40283.9794577939</v>
       </c>
     </row>
     <row r="15">
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21290.4339737804</v>
+        <v>46146.9839311296</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16158.537836778</v>
+        <v>35019.2664689029</v>
       </c>
     </row>
     <row r="17">
@@ -894,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50902.8616832405</v>
+        <v>110348.7623956</v>
       </c>
     </row>
     <row r="18">
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13176.4900814927</v>
+        <v>28551.6705111226</v>
       </c>
     </row>
     <row r="19">
@@ -910,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41956.7184173849</v>
+        <v>90950.1745222587</v>
       </c>
     </row>
     <row r="20">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3150.41242396573</v>
+        <v>13500.8466081374</v>
       </c>
     </row>
     <row r="21">
@@ -926,7 +926,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12621.6904991142</v>
+        <v>27345.6375422332</v>
       </c>
     </row>
     <row r="22">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26090.7408331229</v>
+        <v>42600.8432027248</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9002.55594241941</v>
+        <v>14696.9070795344</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8485.86095358136</v>
+        <v>10349.1273157765</v>
       </c>
     </row>
     <row r="7">
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5940.10266750696</v>
+        <v>7242.07912104358</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20460.353632524</v>
+        <v>24956.722528039</v>
       </c>
     </row>
     <row r="9">
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5501.56196481186</v>
+        <v>8976.01821527104</v>
       </c>
     </row>
     <row r="10">
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10183.0331442976</v>
+        <v>12415.5927789319</v>
       </c>
     </row>
     <row r="11">
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1414.31015893023</v>
+        <v>1716.10455262942</v>
       </c>
     </row>
     <row r="12">
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54913.4886191677</v>
+        <v>140846.489040913</v>
       </c>
     </row>
     <row r="13">
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38365.067105265</v>
+        <v>98397.5653683127</v>
       </c>
     </row>
     <row r="14">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16995.8415208027</v>
+        <v>38694.034968912</v>
       </c>
     </row>
     <row r="15">
@@ -1052,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19469.116965994</v>
+        <v>44325.6669233432</v>
       </c>
     </row>
     <row r="16">
@@ -1060,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14776.2353520411</v>
+        <v>33636.963984166</v>
       </c>
     </row>
     <row r="17">
@@ -1068,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46548.3122248847</v>
+        <v>105994.212937244</v>
       </c>
     </row>
     <row r="18">
@@ -1076,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12049.2906304197</v>
+        <v>27424.4710600495</v>
       </c>
     </row>
     <row r="19">
@@ -1084,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38367.4780600208</v>
+        <v>87360.9341648946</v>
       </c>
     </row>
     <row r="20">
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3140.7111889136</v>
+        <v>13491.1453730853</v>
       </c>
     </row>
     <row r="21">
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11541.95207756</v>
+        <v>26265.899120679</v>
       </c>
     </row>
     <row r="22">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30735.9144124495</v>
+        <v>47246.0167820514</v>
       </c>
     </row>
     <row r="5">
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10605.3634394395</v>
+        <v>16299.7145765545</v>
       </c>
     </row>
     <row r="6">
@@ -1154,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9038.70174275401</v>
+        <v>10901.9681049492</v>
       </c>
     </row>
     <row r="7">
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6327.09121992781</v>
+        <v>7629.06767346443</v>
       </c>
     </row>
     <row r="8">
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21793.3142019736</v>
+        <v>26289.6830974886</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6481.05543521301</v>
+        <v>9955.51168567219</v>
       </c>
     </row>
     <row r="10">
@@ -1186,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10846.4420913048</v>
+        <v>13079.001725939</v>
       </c>
     </row>
     <row r="11">
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1506.450290459</v>
+        <v>1808.2446841582</v>
       </c>
     </row>
     <row r="12">
@@ -1202,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>84459.9261595846</v>
+        <v>170392.92658133</v>
       </c>
     </row>
     <row r="13">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>59007.5556351951</v>
+        <v>119040.053898243</v>
       </c>
     </row>
     <row r="14">
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23674.22702955</v>
+        <v>45372.4204776593</v>
       </c>
     </row>
     <row r="15">
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27119.3570823576</v>
+        <v>51975.9070397068</v>
       </c>
     </row>
     <row r="16">
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20582.4436488252</v>
+        <v>39443.1722809501</v>
       </c>
     </row>
     <row r="17">
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64839.1143272002</v>
+        <v>124285.015039559</v>
       </c>
     </row>
     <row r="18">
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16783.9669239346</v>
+        <v>32159.1473535644</v>
       </c>
     </row>
     <row r="19">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>53443.6841525288</v>
+        <v>102437.140257403</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3172.40598343201</v>
+        <v>13522.8401676037</v>
       </c>
     </row>
     <row r="21">
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16077.273579769</v>
+        <v>30801.220622888</v>
       </c>
     </row>
     <row r="22">
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27941.7142300085</v>
+        <v>44451.8165996104</v>
       </c>
     </row>
     <row r="5">
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9641.23046914033</v>
+        <v>15335.5816062553</v>
       </c>
     </row>
     <row r="6">
@@ -1328,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8692.51943665227</v>
+        <v>10555.7857988475</v>
       </c>
     </row>
     <row r="7">
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6084.76360565659</v>
+        <v>7386.74005919321</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20958.6301972616</v>
+        <v>25454.9990927766</v>
       </c>
     </row>
     <row r="9">
@@ -1352,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5891.86306447464</v>
+        <v>9366.31931493382</v>
       </c>
     </row>
     <row r="10">
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10431.0233239827</v>
+        <v>12663.5829586169</v>
       </c>
     </row>
     <row r="11">
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1448.75323944205</v>
+        <v>1750.54763314124</v>
       </c>
     </row>
     <row r="12">
@@ -1376,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65934.2401296025</v>
+        <v>151867.240551348</v>
       </c>
     </row>
     <row r="13">
@@ -1384,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>46064.6666368216</v>
+        <v>106097.164899869</v>
       </c>
     </row>
     <row r="14">
@@ -1392,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19473.8658983189</v>
+        <v>41172.0593464282</v>
       </c>
     </row>
     <row r="15">
@@ -1400,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22307.7493685965</v>
+        <v>47164.2993259457</v>
       </c>
     </row>
     <row r="16">
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16930.6371429414</v>
+        <v>35791.3657750663</v>
       </c>
     </row>
     <row r="17">
@@ -1416,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>53335.1401842015</v>
+        <v>112781.040896561</v>
       </c>
     </row>
     <row r="18">
@@ -1424,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13806.0989577633</v>
+        <v>29181.2793873931</v>
       </c>
     </row>
     <row r="19">
@@ -1432,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43961.5256286674</v>
+        <v>92954.9817335412</v>
       </c>
     </row>
     <row r="20">
@@ -1440,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3153.53278324009</v>
+        <v>13503.9669674117</v>
       </c>
     </row>
     <row r="21">
@@ -1448,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13224.7895279628</v>
+        <v>27948.7365710818</v>
       </c>
     </row>
     <row r="22">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26503.4025518034</v>
+        <v>43013.5049214053</v>
       </c>
     </row>
     <row r="5">
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9144.94401148488</v>
+        <v>14839.2951485999</v>
       </c>
     </row>
     <row r="6">
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8546.90262615735</v>
+        <v>10410.1689883525</v>
       </c>
     </row>
     <row r="7">
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5982.83183831015</v>
+        <v>7284.80829184677</v>
       </c>
     </row>
     <row r="8">
@@ -1518,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20607.5318875127</v>
+        <v>25103.9007830278</v>
       </c>
     </row>
     <row r="9">
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5588.57689590742</v>
+        <v>9063.0331463666</v>
       </c>
     </row>
     <row r="10">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10256.2831513888</v>
+        <v>12488.842786023</v>
       </c>
     </row>
     <row r="11">
@@ -1542,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1424.48377102623</v>
+        <v>1726.27816472542</v>
       </c>
     </row>
     <row r="12">
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>58196.8974714696</v>
+        <v>144129.897893215</v>
       </c>
     </row>
     <row r="13">
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40659.0062469973</v>
+        <v>100691.504510045</v>
       </c>
     </row>
     <row r="14">
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17749.363850553</v>
+        <v>39447.5572986623</v>
       </c>
     </row>
     <row r="15">
@@ -1574,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20332.2936646258</v>
+        <v>45188.843621975</v>
       </c>
     </row>
     <row r="16">
@@ -1582,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15431.3499148464</v>
+        <v>34292.0785469713</v>
       </c>
     </row>
     <row r="17">
@@ -1590,7 +1590,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>48612.0636802455</v>
+        <v>108057.964392605</v>
       </c>
     </row>
     <row r="18">
@@ -1598,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12583.5042224068</v>
+        <v>27958.6846520367</v>
       </c>
     </row>
     <row r="19">
@@ -1606,7 +1606,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>40068.5266029272</v>
+        <v>89061.982707801</v>
       </c>
     </row>
     <row r="20">
@@ -1614,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3143.35876647972</v>
+        <v>13493.7929506514</v>
       </c>
     </row>
     <row r="21">
@@ -1622,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12053.672465674</v>
+        <v>26777.619508793</v>
       </c>
     </row>
     <row r="22">
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30293.7768567204</v>
+        <v>46803.8792263223</v>
       </c>
     </row>
     <row r="5">
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10452.8047940122</v>
+        <v>16147.1559311272</v>
       </c>
     </row>
     <row r="6">
@@ -1676,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8973.2999507083</v>
+        <v>10836.5663129035</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6281.30996549582</v>
+        <v>7583.28641903244</v>
       </c>
     </row>
     <row r="8">
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21635.6232144856</v>
+        <v>26131.9921100006</v>
       </c>
     </row>
     <row r="9">
@@ -1700,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6387.82515189633</v>
+        <v>9862.28140235551</v>
       </c>
     </row>
     <row r="10">
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10767.95994085</v>
+        <v>13000.5195754842</v>
       </c>
     </row>
     <row r="11">
@@ -1716,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1495.54999178472</v>
+        <v>1797.34438548391</v>
       </c>
     </row>
     <row r="12">
@@ -1724,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>80941.9881035468</v>
+        <v>166874.988525292</v>
       </c>
     </row>
     <row r="13">
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56549.7636976247</v>
+        <v>116582.261960672</v>
       </c>
     </row>
     <row r="14">
@@ -1740,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22866.8816762461</v>
+        <v>44565.0751243554</v>
       </c>
     </row>
     <row r="15">
@@ -1748,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26194.524905252</v>
+        <v>51051.0748626012</v>
       </c>
     </row>
     <row r="16">
@@ -1756,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19880.5351886767</v>
+        <v>38741.2638208016</v>
       </c>
     </row>
     <row r="17">
@@ -1764,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>62627.9520535993</v>
+        <v>122073.852765959</v>
       </c>
     </row>
     <row r="18">
@@ -1772,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16211.5952182341</v>
+        <v>31586.7756478639</v>
       </c>
     </row>
     <row r="19">
@@ -1780,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51621.1321422719</v>
+        <v>100614.588247146</v>
       </c>
     </row>
     <row r="20">
@@ -1788,7 +1788,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3169.56929318259</v>
+        <v>13520.0034773543</v>
       </c>
     </row>
     <row r="21">
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15529.0017353612</v>
+        <v>30252.9487784802</v>
       </c>
     </row>
     <row r="22">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27649.9034432273</v>
+        <v>44160.0058128292</v>
       </c>
     </row>
     <row r="5">
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9540.54176315832</v>
+        <v>15234.8929002733</v>
       </c>
     </row>
     <row r="6">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8649.3542539021</v>
+        <v>10512.6206160973</v>
       </c>
     </row>
     <row r="7">
@@ -1858,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6054.54797773148</v>
+        <v>7356.5244312681</v>
       </c>
     </row>
     <row r="8">
@@ -1866,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20854.5541455195</v>
+        <v>25350.9230410346</v>
       </c>
     </row>
     <row r="9">
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5830.33107748563</v>
+        <v>9304.78732794481</v>
       </c>
     </row>
     <row r="10">
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10379.2251046825</v>
+        <v>12611.7847393167</v>
       </c>
     </row>
     <row r="11">
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1441.55904231702</v>
+        <v>1743.35343601621</v>
       </c>
     </row>
     <row r="12">
@@ -1898,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>63612.4010126176</v>
+        <v>149545.401434363</v>
       </c>
     </row>
     <row r="13">
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44442.5239580251</v>
+        <v>104475.022221073</v>
       </c>
     </row>
     <row r="14">
@@ -1914,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18941.0179651383</v>
+        <v>40639.2114132476</v>
       </c>
     </row>
     <row r="15">
@@ -1922,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21697.3601317069</v>
+        <v>46553.9100890561</v>
       </c>
     </row>
     <row r="16">
@@ -1930,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16467.3775592434</v>
+        <v>35328.1061913683</v>
       </c>
     </row>
     <row r="17">
@@ -1938,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51875.7730836249</v>
+        <v>111321.673795984</v>
       </c>
     </row>
     <row r="18">
@@ -1946,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13428.3336320009</v>
+        <v>28803.5140616308</v>
       </c>
     </row>
     <row r="19">
@@ -1954,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42758.6413018979</v>
+        <v>91752.0974067717</v>
       </c>
     </row>
     <row r="20">
@@ -1962,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3151.66056767547</v>
+        <v>13502.0947518471</v>
       </c>
     </row>
     <row r="21">
@@ -1970,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12862.9301106536</v>
+        <v>27586.8771537726</v>
       </c>
     </row>
     <row r="22">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26255.8055205951</v>
+        <v>42765.907890197</v>
       </c>
     </row>
     <row r="5">
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9059.5111700456</v>
+        <v>14753.8623071606</v>
       </c>
     </row>
     <row r="6">
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8510.27762261176</v>
+        <v>10373.5439848069</v>
       </c>
     </row>
     <row r="7">
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5957.19433582823</v>
+        <v>7259.17078936485</v>
       </c>
     </row>
     <row r="8">
@@ -2040,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20519.2249345195</v>
+        <v>25015.5938300345</v>
       </c>
     </row>
     <row r="9">
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5536.36793725008</v>
+        <v>9010.82418770926</v>
       </c>
     </row>
     <row r="10">
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10212.3331471341</v>
+        <v>12444.8927817683</v>
       </c>
     </row>
     <row r="11">
@@ -2064,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1418.37960376863</v>
+        <v>1720.17399746782</v>
       </c>
     </row>
     <row r="12">
@@ -2072,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>56226.8521600884</v>
+        <v>142159.852581833</v>
       </c>
     </row>
     <row r="13">
@@ -2080,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>39282.6427619579</v>
+        <v>99315.1410250056</v>
       </c>
     </row>
     <row r="14">
@@ -2088,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17297.2504527028</v>
+        <v>38995.4439008121</v>
       </c>
     </row>
     <row r="15">
@@ -2096,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19814.3876454467</v>
+        <v>44670.9376027959</v>
       </c>
     </row>
     <row r="16">
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15038.2811771632</v>
+        <v>33899.0098092881</v>
       </c>
     </row>
     <row r="17">
@@ -2112,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47373.812807029</v>
+        <v>106819.713519388</v>
       </c>
     </row>
     <row r="18">
@@ -2120,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12262.9760672145</v>
+        <v>27638.1564968444</v>
       </c>
     </row>
     <row r="19">
@@ -2128,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39047.8974771833</v>
+        <v>88041.3535820571</v>
       </c>
     </row>
     <row r="20">
@@ -2136,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3141.77021994005</v>
+        <v>13492.2044041117</v>
       </c>
     </row>
     <row r="21">
@@ -2144,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11746.6402328056</v>
+        <v>26470.5872759246</v>
       </c>
     </row>
     <row r="22">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30605.5936170605</v>
+        <v>46509.1208558363</v>
       </c>
     </row>
     <row r="5">
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10560.3965196247</v>
+        <v>16045.450167509</v>
       </c>
     </row>
     <row r="6">
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9055.51625269965</v>
+        <v>10792.9651182064</v>
       </c>
     </row>
     <row r="7">
@@ -2206,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6338.86137688975</v>
+        <v>7552.76558274444</v>
       </c>
     </row>
     <row r="8">
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21833.8558537314</v>
+        <v>26026.8647850086</v>
       </c>
     </row>
     <row r="9">
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6453.57565088176</v>
+        <v>9800.12788014439</v>
       </c>
     </row>
     <row r="10">
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10866.6195032396</v>
+        <v>12948.1981418476</v>
       </c>
     </row>
     <row r="11">
@@ -2238,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1509.25270878327</v>
+        <v>1790.07751970106</v>
       </c>
     </row>
     <row r="12">
@@ -2246,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81612.7499854703</v>
+        <v>164529.696487933</v>
       </c>
     </row>
     <row r="13">
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>57018.3885338669</v>
+        <v>114943.734002292</v>
       </c>
     </row>
     <row r="14">
@@ -2262,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23722.089305946</v>
+        <v>44026.8448888195</v>
       </c>
     </row>
     <row r="15">
@@ -2270,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27174.1843915127</v>
+        <v>50434.5200778642</v>
       </c>
     </row>
     <row r="16">
@@ -2278,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20624.0552547963</v>
+        <v>38273.3248473692</v>
       </c>
     </row>
     <row r="17">
@@ -2286,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64970.1998155385</v>
+        <v>120599.744583558</v>
       </c>
     </row>
     <row r="18">
@@ -2294,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16817.8991348124</v>
+        <v>31205.1945107303</v>
       </c>
     </row>
     <row r="19">
@@ -2302,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>53551.7314555869</v>
+        <v>99399.5535736411</v>
       </c>
     </row>
     <row r="20">
@@ -2310,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3833.20072885033</v>
+        <v>13518.1123505213</v>
       </c>
     </row>
     <row r="21">
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16109.7770659782</v>
+        <v>29887.4342155416</v>
       </c>
     </row>
     <row r="22">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29710.8156176215</v>
+        <v>39492.7621710552</v>
       </c>
     </row>
     <row r="5">
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10251.6552290834</v>
+        <v>13624.5856692459</v>
       </c>
     </row>
     <row r="6">
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8874.70500804984</v>
+        <v>9416.74647387243</v>
       </c>
     </row>
     <row r="7">
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6212.29350563489</v>
+        <v>6589.5225317107</v>
       </c>
     </row>
     <row r="8">
@@ -2388,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21397.8998527424</v>
+        <v>22708.4664981146</v>
       </c>
     </row>
     <row r="9">
@@ -2396,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6264.90041777322</v>
+        <v>8320.9690200947</v>
       </c>
     </row>
     <row r="10">
@@ -2404,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10649.6460096598</v>
+        <v>11296.8957686469</v>
       </c>
     </row>
     <row r="11">
@@ -2412,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1479.11750134164</v>
+        <v>1561.12441231207</v>
       </c>
     </row>
     <row r="12">
@@ -2420,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>76507.5771077602</v>
+        <v>128803.511905572</v>
       </c>
     </row>
     <row r="13">
@@ -2428,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>53451.6819748347</v>
+        <v>89983.993080755</v>
       </c>
     </row>
     <row r="14">
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25145.7975677984</v>
+        <v>32160.7401310349</v>
       </c>
     </row>
     <row r="15">
@@ -2444,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28805.0740795303</v>
+        <v>36841.5941053273</v>
       </c>
     </row>
     <row r="16">
@@ -2452,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21861.8314675262</v>
+        <v>27957.076307952</v>
       </c>
     </row>
     <row r="17">
@@ -2460,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>68869.4605028509</v>
+        <v>88099.8927469389</v>
       </c>
     </row>
     <row r="18">
@@ -2468,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17827.2445443347</v>
+        <v>22793.0321824501</v>
       </c>
     </row>
     <row r="19">
@@ -2476,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>56765.6997332763</v>
+        <v>72611.7603704333</v>
       </c>
     </row>
     <row r="20">
@@ -2484,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9479.09428158313</v>
+        <v>12817.2459535767</v>
       </c>
     </row>
     <row r="21">
@@ -2492,7 +2492,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17076.6237214153</v>
+        <v>21829.6518800312</v>
       </c>
     </row>
     <row r="22">
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28061.9380495326</v>
+        <v>43965.4652883084</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9682.71344840102</v>
+        <v>15167.7670962853</v>
       </c>
     </row>
     <row r="6">
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8746.39496209047</v>
+        <v>10483.8438275972</v>
       </c>
     </row>
     <row r="7">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6122.47647346333</v>
+        <v>7336.38067931802</v>
       </c>
     </row>
     <row r="8">
@@ -2562,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21088.5300752626</v>
+        <v>25281.5390065398</v>
       </c>
     </row>
     <row r="9">
@@ -2570,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5917.21377402285</v>
+        <v>9263.76600328548</v>
       </c>
     </row>
     <row r="10">
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10495.6739545086</v>
+        <v>12577.2525931166</v>
       </c>
     </row>
     <row r="11">
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1457.73249368175</v>
+        <v>1738.55730459953</v>
       </c>
     </row>
     <row r="12">
@@ -2594,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65080.562187243</v>
+        <v>147997.508689706</v>
       </c>
     </row>
     <row r="13">
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45468.2483001167</v>
+        <v>103393.593768542</v>
       </c>
     </row>
     <row r="14">
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19979.2238749204</v>
+        <v>40283.9794577939</v>
       </c>
     </row>
     <row r="15">
@@ -2618,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22886.6482447781</v>
+        <v>46146.9839311296</v>
       </c>
     </row>
     <row r="16">
@@ -2626,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17369.99687633</v>
+        <v>35019.2664689029</v>
       </c>
     </row>
     <row r="17">
@@ -2634,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>54719.2176275803</v>
+        <v>110348.7623956</v>
       </c>
     </row>
     <row r="18">
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14164.3751352047</v>
+        <v>28551.6705111226</v>
       </c>
     </row>
     <row r="19">
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45102.3524042045</v>
+        <v>90950.1745222587</v>
       </c>
     </row>
     <row r="20">
@@ -2658,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3815.93498646641</v>
+        <v>13500.8466081374</v>
       </c>
     </row>
     <row r="21">
@@ -2666,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13567.9803926698</v>
+        <v>27345.6375422332</v>
       </c>
     </row>
     <row r="22">
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26697.3159639489</v>
+        <v>42600.8432027248</v>
       </c>
     </row>
     <row r="5">
@@ -2712,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9211.85343165012</v>
+        <v>14696.9070795344</v>
       </c>
     </row>
     <row r="6">
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8611.67845026984</v>
+        <v>10349.1273157765</v>
       </c>
     </row>
     <row r="7">
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6028.17491518889</v>
+        <v>7242.07912104358</v>
       </c>
     </row>
     <row r="8">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20763.7135967617</v>
+        <v>24956.722528039</v>
       </c>
     </row>
     <row r="9">
@@ -2744,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5629.46598600841</v>
+        <v>8976.01821527104</v>
       </c>
     </row>
     <row r="10">
@@ -2752,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10334.0141403238</v>
+        <v>12415.5927789319</v>
       </c>
     </row>
     <row r="11">
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1435.27974171164</v>
+        <v>1716.10455262942</v>
       </c>
     </row>
     <row r="12">
@@ -2768,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57929.5425384497</v>
+        <v>140846.489040913</v>
       </c>
     </row>
     <row r="13">
@@ -2776,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40472.2198998875</v>
+        <v>98397.5653683127</v>
       </c>
     </row>
     <row r="14">
@@ -2784,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18389.2793860385</v>
+        <v>38694.034968912</v>
       </c>
     </row>
     <row r="15">
@@ -2792,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21065.3312369917</v>
+        <v>44325.6669233432</v>
       </c>
     </row>
     <row r="16">
@@ -2800,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15987.6943915931</v>
+        <v>33636.963984166</v>
       </c>
     </row>
     <row r="17">
@@ -2808,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50364.6681692245</v>
+        <v>105994.212937244</v>
       </c>
     </row>
     <row r="18">
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13037.1756841316</v>
+        <v>27424.4710600495</v>
       </c>
     </row>
     <row r="19">
@@ -2824,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41513.1120468404</v>
+        <v>87360.9341648946</v>
       </c>
     </row>
     <row r="20">
@@ -2832,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3806.23375141428</v>
+        <v>13491.1453730853</v>
       </c>
     </row>
     <row r="21">
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12488.2419711156</v>
+        <v>26265.899120679</v>
       </c>
     </row>
     <row r="22">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31342.4895432756</v>
+        <v>47246.0167820514</v>
       </c>
     </row>
     <row r="5">
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10814.6609286702</v>
+        <v>16299.7145765545</v>
       </c>
     </row>
     <row r="6">
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9164.51923944249</v>
+        <v>10901.9681049492</v>
       </c>
     </row>
     <row r="7">
@@ -2902,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6415.16346760974</v>
+        <v>7629.06767346443</v>
       </c>
     </row>
     <row r="8">
@@ -2910,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22096.6741662113</v>
+        <v>26289.6830974886</v>
       </c>
     </row>
     <row r="9">
@@ -2918,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6608.95945640956</v>
+        <v>9955.51168567219</v>
       </c>
     </row>
     <row r="10">
@@ -2926,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10997.423087331</v>
+        <v>13079.001725939</v>
       </c>
     </row>
     <row r="11">
@@ -2934,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1527.41987324041</v>
+        <v>1808.2446841582</v>
       </c>
     </row>
     <row r="12">
@@ -2942,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>87475.9800788666</v>
+        <v>170392.92658133</v>
       </c>
     </row>
     <row r="13">
@@ -2950,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61114.7084298176</v>
+        <v>119040.053898243</v>
       </c>
     </row>
     <row r="14">
@@ -2958,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25067.6648947858</v>
+        <v>45372.4204776593</v>
       </c>
     </row>
     <row r="15">
@@ -2966,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28715.5713533553</v>
+        <v>51975.9070397068</v>
       </c>
     </row>
     <row r="16">
@@ -2974,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21793.9026883772</v>
+        <v>39443.1722809501</v>
       </c>
     </row>
     <row r="17">
@@ -2982,7 +2982,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>68655.47027154</v>
+        <v>124285.015039559</v>
       </c>
     </row>
     <row r="18">
@@ -2990,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17771.8519776465</v>
+        <v>32159.1473535644</v>
       </c>
     </row>
     <row r="19">
@@ -2998,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>56589.3181393484</v>
+        <v>102437.140257403</v>
       </c>
     </row>
     <row r="20">
@@ -3006,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3837.92854593269</v>
+        <v>13522.8401676037</v>
       </c>
     </row>
     <row r="21">
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17023.5634733246</v>
+        <v>30801.220622888</v>
       </c>
     </row>
     <row r="22">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28548.2893608346</v>
+        <v>44451.8165996104</v>
       </c>
     </row>
     <row r="5">
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9850.52795837104</v>
+        <v>15335.5816062553</v>
       </c>
     </row>
     <row r="6">
@@ -3068,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8818.33693334075</v>
+        <v>10555.7857988475</v>
       </c>
     </row>
     <row r="7">
@@ -3076,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6172.83585333852</v>
+        <v>7386.74005919321</v>
       </c>
     </row>
     <row r="8">
@@ -3084,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21261.9901614994</v>
+        <v>25454.9990927766</v>
       </c>
     </row>
     <row r="9">
@@ -3092,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6019.76708567119</v>
+        <v>9366.31931493382</v>
       </c>
     </row>
     <row r="10">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10582.0043200089</v>
+        <v>12663.5829586169</v>
       </c>
     </row>
     <row r="11">
@@ -3108,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1469.72282222346</v>
+        <v>1750.54763314124</v>
       </c>
     </row>
     <row r="12">
@@ -3116,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68950.2940488845</v>
+        <v>151867.240551348</v>
       </c>
     </row>
     <row r="13">
@@ -3124,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48171.8194314441</v>
+        <v>106097.164899869</v>
       </c>
     </row>
     <row r="14">
@@ -3132,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20867.3037635547</v>
+        <v>41172.0593464282</v>
       </c>
     </row>
     <row r="15">
@@ -3140,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23903.9636395942</v>
+        <v>47164.2993259457</v>
       </c>
     </row>
     <row r="16">
@@ -3148,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18142.0961824934</v>
+        <v>35791.3657750663</v>
       </c>
     </row>
     <row r="17">
@@ -3156,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>57151.4961285413</v>
+        <v>112781.040896561</v>
       </c>
     </row>
     <row r="18">
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14793.9840114752</v>
+        <v>29181.2793873931</v>
       </c>
     </row>
     <row r="19">
@@ -3172,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>47107.159615487</v>
+        <v>92954.9817335412</v>
       </c>
     </row>
     <row r="20">
@@ -3180,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3819.05534574077</v>
+        <v>13503.9669674117</v>
       </c>
     </row>
     <row r="21">
@@ -3188,7 +3188,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14171.0794215185</v>
+        <v>27948.7365710818</v>
       </c>
     </row>
     <row r="22">
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27109.9776826295</v>
+        <v>43013.5049214053</v>
       </c>
     </row>
     <row r="5">
@@ -3234,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9354.24150071559</v>
+        <v>14839.2951485999</v>
       </c>
     </row>
     <row r="6">
@@ -3242,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8672.72012284583</v>
+        <v>10410.1689883525</v>
       </c>
     </row>
     <row r="7">
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6070.90408599208</v>
+        <v>7284.80829184677</v>
       </c>
     </row>
     <row r="8">
@@ -3258,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20910.8918517505</v>
+        <v>25103.9007830278</v>
       </c>
     </row>
     <row r="9">
@@ -3266,7 +3266,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5716.48091710397</v>
+        <v>9063.0331463666</v>
       </c>
     </row>
     <row r="10">
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10407.264147415</v>
+        <v>12488.842786023</v>
       </c>
     </row>
     <row r="11">
@@ -3282,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1445.45335380764</v>
+        <v>1726.27816472542</v>
       </c>
     </row>
     <row r="12">
@@ -3290,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>61212.9513907516</v>
+        <v>144129.897893215</v>
       </c>
     </row>
     <row r="13">
@@ -3298,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42766.1590416198</v>
+        <v>100691.504510045</v>
       </c>
     </row>
     <row r="14">
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19142.8017157888</v>
+        <v>39447.5572986623</v>
       </c>
     </row>
     <row r="15">
@@ -3314,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21928.5079356235</v>
+        <v>45188.843621975</v>
       </c>
     </row>
     <row r="16">
@@ -3322,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16642.8089543984</v>
+        <v>34292.0785469713</v>
       </c>
     </row>
     <row r="17">
@@ -3330,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52428.4196245853</v>
+        <v>108057.964392605</v>
       </c>
     </row>
     <row r="18">
@@ -3338,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13571.3892761188</v>
+        <v>27958.6846520367</v>
       </c>
     </row>
     <row r="19">
@@ -3346,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43214.1605897468</v>
+        <v>89061.982707801</v>
       </c>
     </row>
     <row r="20">
@@ -3354,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3808.8813289804</v>
+        <v>13493.7929506514</v>
       </c>
     </row>
     <row r="21">
@@ -3362,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12999.9623592296</v>
+        <v>26777.619508793</v>
       </c>
     </row>
     <row r="22">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30900.3519875465</v>
+        <v>46803.8792263223</v>
       </c>
     </row>
     <row r="5">
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10662.1022832429</v>
+        <v>16147.1559311272</v>
       </c>
     </row>
     <row r="6">
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9099.11744739678</v>
+        <v>10836.5663129035</v>
       </c>
     </row>
     <row r="7">
@@ -3424,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6369.38221317775</v>
+        <v>7583.28641903244</v>
       </c>
     </row>
     <row r="8">
@@ -3432,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21938.9831787234</v>
+        <v>26131.9921100006</v>
       </c>
     </row>
     <row r="9">
@@ -3440,7 +3440,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6515.72917309288</v>
+        <v>9862.28140235551</v>
       </c>
     </row>
     <row r="10">
@@ -3448,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10918.9409368761</v>
+        <v>13000.5195754842</v>
       </c>
     </row>
     <row r="11">
@@ -3456,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1516.51957456613</v>
+        <v>1797.34438548391</v>
       </c>
     </row>
     <row r="12">
@@ -3464,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>83958.0420228288</v>
+        <v>166874.988525292</v>
       </c>
     </row>
     <row r="13">
@@ -3472,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58656.9164922472</v>
+        <v>116582.261960672</v>
       </c>
     </row>
     <row r="14">
@@ -3480,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24260.3195414819</v>
+        <v>44565.0751243554</v>
       </c>
     </row>
     <row r="15">
@@ -3488,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27790.7391762497</v>
+        <v>51051.0748626012</v>
       </c>
     </row>
     <row r="16">
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21091.9942282287</v>
+        <v>38741.2638208016</v>
       </c>
     </row>
     <row r="17">
@@ -3504,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66444.3079979391</v>
+        <v>122073.852765959</v>
       </c>
     </row>
     <row r="18">
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17199.480271946</v>
+        <v>31586.7756478639</v>
       </c>
     </row>
     <row r="19">
@@ -3520,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>54766.7661290915</v>
+        <v>100614.588247146</v>
       </c>
     </row>
     <row r="20">
@@ -3528,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3835.09185568327</v>
+        <v>13520.0034773543</v>
       </c>
     </row>
     <row r="21">
@@ -3536,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16475.2916289168</v>
+        <v>30252.9487784802</v>
       </c>
     </row>
     <row r="22">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28256.4785740534</v>
+        <v>44160.0058128292</v>
       </c>
     </row>
     <row r="5">
@@ -3582,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9749.83925238903</v>
+        <v>15234.8929002733</v>
       </c>
     </row>
     <row r="6">
@@ -3590,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8775.17175059058</v>
+        <v>10512.6206160973</v>
       </c>
     </row>
     <row r="7">
@@ -3598,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6142.62022541341</v>
+        <v>7356.5244312681</v>
       </c>
     </row>
     <row r="8">
@@ -3606,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21157.9141097573</v>
+        <v>25350.9230410346</v>
       </c>
     </row>
     <row r="9">
@@ -3614,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5958.23509868218</v>
+        <v>9304.78732794481</v>
       </c>
     </row>
     <row r="10">
@@ -3622,7 +3622,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10530.2061007087</v>
+        <v>12611.7847393167</v>
       </c>
     </row>
     <row r="11">
@@ -3630,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1462.52862509843</v>
+        <v>1743.35343601621</v>
       </c>
     </row>
     <row r="12">
@@ -3638,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>66628.4549318996</v>
+        <v>149545.401434363</v>
       </c>
     </row>
     <row r="13">
@@ -3646,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>46549.6767526476</v>
+        <v>104475.022221073</v>
       </c>
     </row>
     <row r="14">
@@ -3654,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20334.4558303741</v>
+        <v>40639.2114132476</v>
       </c>
     </row>
     <row r="15">
@@ -3662,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23293.5744027046</v>
+        <v>46553.9100890561</v>
       </c>
     </row>
     <row r="16">
@@ -3670,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17678.8365987954</v>
+        <v>35328.1061913683</v>
       </c>
     </row>
     <row r="17">
@@ -3678,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>55692.1290279647</v>
+        <v>111321.673795984</v>
       </c>
     </row>
     <row r="18">
@@ -3686,7 +3686,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14416.2186857129</v>
+        <v>28803.5140616308</v>
       </c>
     </row>
     <row r="19">
@@ -3694,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45904.2752887175</v>
+        <v>91752.0974067717</v>
       </c>
     </row>
     <row r="20">
@@ -3702,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3817.18313017615</v>
+        <v>13502.0947518471</v>
       </c>
     </row>
     <row r="21">
@@ -3710,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13809.2200042093</v>
+        <v>27586.8771537726</v>
       </c>
     </row>
     <row r="22">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>72773.95</v>
       </c>
     </row>
     <row r="4">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26862.3806514211</v>
+        <v>42765.907890197</v>
       </c>
     </row>
     <row r="5">
@@ -3756,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9268.80865927631</v>
+        <v>14753.8623071606</v>
       </c>
     </row>
     <row r="6">
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8636.09511930023</v>
+        <v>10373.5439848069</v>
       </c>
     </row>
     <row r="7">
@@ -3772,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6045.26658351017</v>
+        <v>7259.17078936485</v>
       </c>
     </row>
     <row r="8">
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20822.5848987572</v>
+        <v>25015.5938300345</v>
       </c>
     </row>
     <row r="9">
@@ -3788,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5664.27195844663</v>
+        <v>9010.82418770926</v>
       </c>
     </row>
     <row r="10">
@@ -3796,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10363.3141431603</v>
+        <v>12444.8927817683</v>
       </c>
     </row>
     <row r="11">
@@ -3804,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1439.34918655004</v>
+        <v>1720.17399746782</v>
       </c>
     </row>
     <row r="12">
@@ -3812,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>59242.9060793704</v>
+        <v>142159.852581833</v>
       </c>
     </row>
     <row r="13">
@@ -3820,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>41389.7955565804</v>
+        <v>99315.1410250056</v>
       </c>
     </row>
     <row r="14">
@@ -3828,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18690.6883179386</v>
+        <v>38995.4439008121</v>
       </c>
     </row>
     <row r="15">
@@ -3836,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21410.6019164444</v>
+        <v>44670.9376027959</v>
       </c>
     </row>
     <row r="16">
@@ -3844,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16249.7402167152</v>
+        <v>33899.0098092881</v>
       </c>
     </row>
     <row r="17">
@@ -3852,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51190.1687513688</v>
+        <v>106819.713519388</v>
       </c>
     </row>
     <row r="18">
@@ -3860,7 +3860,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13250.8611209265</v>
+        <v>27638.1564968444</v>
       </c>
     </row>
     <row r="19">
@@ -3868,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42193.5314640029</v>
+        <v>88041.3535820571</v>
       </c>
     </row>
     <row r="20">
@@ -3876,7 +3876,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3807.29278244073</v>
+        <v>13492.2044041117</v>
       </c>
     </row>
     <row r="21">
@@ -3884,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12692.9301263612</v>
+        <v>26470.5872759246</v>
       </c>
     </row>
     <row r="22">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28732.4209622781</v>
+        <v>38514.3675157118</v>
       </c>
     </row>
     <row r="5">
@@ -3930,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9914.0621850672</v>
+        <v>13286.9926252296</v>
       </c>
     </row>
     <row r="6">
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8820.10086146758</v>
+        <v>9362.14232729017</v>
       </c>
     </row>
     <row r="7">
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6174.0706030273</v>
+        <v>6551.29962910312</v>
       </c>
     </row>
     <row r="8">
@@ -3954,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21266.2431882052</v>
+        <v>22576.8098335774</v>
       </c>
     </row>
     <row r="9">
@@ -3962,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6058.59355754107</v>
+        <v>8114.66215986255</v>
       </c>
     </row>
     <row r="10">
@@ -3970,7 +3970,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10584.1210337611</v>
+        <v>11231.3707927482</v>
       </c>
     </row>
     <row r="11">
@@ -3978,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1470.0168102446</v>
+        <v>1552.02372121503</v>
       </c>
     </row>
     <row r="12">
@@ -3986,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>71276.983627979</v>
+        <v>123572.918425791</v>
       </c>
     </row>
     <row r="13">
@@ -3994,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49797.3508642427</v>
+        <v>86329.661970163</v>
       </c>
     </row>
     <row r="14">
@@ -4002,7 +4002,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24443.1033114748</v>
+        <v>31458.0458747112</v>
       </c>
     </row>
     <row r="15">
@@ -4010,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28000.1220769506</v>
+        <v>36036.6421027476</v>
       </c>
     </row>
     <row r="16">
@@ -4018,7 +4018,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21250.9069834837</v>
+        <v>27346.1518239094</v>
       </c>
     </row>
     <row r="17">
@@ -4026,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66944.9172784421</v>
+        <v>86175.3495225301</v>
       </c>
     </row>
     <row r="18">
@@ -4034,7 +4034,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17329.0657805231</v>
+        <v>22294.8534186386</v>
       </c>
     </row>
     <row r="19">
@@ -4042,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55179.3936695606</v>
+        <v>71025.4543067176</v>
       </c>
     </row>
     <row r="20">
@@ -4050,7 +4050,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9474.80658473595</v>
+        <v>12812.9582567295</v>
       </c>
     </row>
     <row r="21">
@@ -4058,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16599.4209055538</v>
+        <v>21352.4490641696</v>
       </c>
     </row>
     <row r="22">
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31681.743579397</v>
+        <v>41463.6901328307</v>
       </c>
     </row>
     <row r="5">
@@ -4104,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10931.7198293127</v>
+        <v>14304.6502694751</v>
       </c>
     </row>
     <row r="6">
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9044.18177835494</v>
+        <v>9586.22324417753</v>
       </c>
     </row>
     <row r="7">
@@ -4120,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6330.92724484846</v>
+        <v>6708.15627092427</v>
       </c>
     </row>
     <row r="8">
@@ -4128,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21806.5271767002</v>
+        <v>23117.0938220725</v>
       </c>
     </row>
     <row r="9">
@@ -4136,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6680.49545124665</v>
+        <v>8736.56405356813</v>
       </c>
     </row>
     <row r="10">
@@ -4144,7 +4144,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10853.0181340259</v>
+        <v>11500.267893013</v>
       </c>
     </row>
     <row r="11">
@@ -4152,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1507.36362972582</v>
+        <v>1589.37054069626</v>
       </c>
     </row>
     <row r="12">
@@ -4160,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>92888.6433827867</v>
+        <v>145184.578180598</v>
       </c>
     </row>
     <row r="13">
@@ -4168,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>64896.2418216083</v>
+        <v>101428.552927529</v>
       </c>
     </row>
     <row r="14">
@@ -4176,7 +4176,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27394.6926099237</v>
+        <v>34409.6351731602</v>
       </c>
     </row>
     <row r="15">
@@ -4184,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31381.2336986813</v>
+        <v>39417.7537244783</v>
       </c>
     </row>
     <row r="16">
@@ -4192,7 +4192,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23817.0275302695</v>
+        <v>29912.2723706952</v>
       </c>
     </row>
     <row r="17">
@@ -4200,7 +4200,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>75028.7476704627</v>
+        <v>94259.1799145507</v>
       </c>
     </row>
     <row r="18">
@@ -4208,7 +4208,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19421.6104324086</v>
+        <v>24387.398070524</v>
       </c>
     </row>
     <row r="19">
@@ -4216,7 +4216,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61842.49637688</v>
+        <v>77688.557014037</v>
       </c>
     </row>
     <row r="20">
@@ -4224,7 +4224,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9488.81487025818</v>
+        <v>12826.9665422517</v>
       </c>
     </row>
     <row r="21">
@@ -4232,7 +4232,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18603.8584142019</v>
+        <v>23356.8865728177</v>
       </c>
     </row>
     <row r="22">
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29962.7663800235</v>
+        <v>39744.7129334572</v>
       </c>
     </row>
     <row r="5">
@@ -4278,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10338.5903164298</v>
+        <v>13711.5207565923</v>
       </c>
     </row>
     <row r="6">
@@ -4286,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8903.8649817641</v>
+        <v>9445.90644758669</v>
       </c>
     </row>
     <row r="7">
@@ -4294,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6232.70548723487</v>
+        <v>6609.93451331068</v>
       </c>
     </row>
     <row r="8">
@@ -4302,7 +4302,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21468.2077893645</v>
+        <v>22778.7744347368</v>
       </c>
     </row>
     <row r="9">
@@ -4310,7 +4310,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6318.02741559601</v>
+        <v>8374.09601791749</v>
       </c>
     </row>
     <row r="10">
@@ -4318,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10684.6379781169</v>
+        <v>11331.887737104</v>
       </c>
     </row>
     <row r="11">
@@ -4326,7 +4326,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1483.97749696068</v>
+        <v>1565.98440793111</v>
       </c>
     </row>
     <row r="12">
@@ -4334,7 +4334,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>79338.0817403994</v>
+        <v>131634.016538211</v>
       </c>
     </row>
     <row r="13">
@@ -4342,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>55429.2015770962</v>
+        <v>91961.5126830165</v>
       </c>
     </row>
     <row r="14">
@@ -4350,7 +4350,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25538.2946903481</v>
+        <v>32553.2372535845</v>
       </c>
     </row>
     <row r="15">
@@ -4358,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29254.6883206599</v>
+        <v>37291.2083464569</v>
       </c>
     </row>
     <row r="16">
@@ -4366,7 +4366,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22203.0696375041</v>
+        <v>28298.3144779298</v>
       </c>
     </row>
     <row r="17">
@@ -4374,7 +4374,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69944.4339653562</v>
+        <v>89174.8662094442</v>
       </c>
     </row>
     <row r="18">
@@ -4382,7 +4382,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18105.5074297244</v>
+        <v>23071.2950678398</v>
       </c>
     </row>
     <row r="19">
@@ -4390,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57651.7473420171</v>
+        <v>73497.8079791741</v>
       </c>
     </row>
     <row r="20">
@@ -4398,7 +4398,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9480.4734002779</v>
+        <v>12818.6250722714</v>
       </c>
     </row>
     <row r="21">
@@ -4406,7 +4406,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17343.1702747886</v>
+        <v>22096.1984334044</v>
       </c>
     </row>
     <row r="22">
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28946.1973667404</v>
+        <v>38728.1439201741</v>
       </c>
     </row>
     <row r="5">
@@ -4452,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9987.82528948231</v>
+        <v>13360.7557296447</v>
       </c>
     </row>
     <row r="6">
@@ -4460,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8844.84265734634</v>
+        <v>9386.88412316893</v>
       </c>
     </row>
     <row r="7">
@@ -4468,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6191.38986014244</v>
+        <v>6568.61888621826</v>
       </c>
     </row>
     <row r="8">
@@ -4476,7 +4476,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21325.8984071573</v>
+        <v>22636.4650525295</v>
       </c>
     </row>
     <row r="9">
@@ -4484,7 +4484,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6103.67101023919</v>
+        <v>8159.73961256067</v>
       </c>
     </row>
     <row r="10">
@@ -4492,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10613.8111888156</v>
+        <v>11261.0609478027</v>
       </c>
     </row>
     <row r="11">
@@ -4500,7 +4500,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1474.14044289106</v>
+        <v>1556.14735386149</v>
       </c>
     </row>
     <row r="12">
@@ -4508,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>73678.6239223396</v>
+        <v>125974.558720151</v>
       </c>
     </row>
     <row r="13">
@@ -4516,7 +4516,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>51475.2462843433</v>
+        <v>88007.5573902636</v>
       </c>
     </row>
     <row r="14">
@@ -4524,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24776.1311730321</v>
+        <v>31791.0737362685</v>
       </c>
     </row>
     <row r="15">
@@ -4532,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28381.6129482121</v>
+        <v>36418.1329740091</v>
       </c>
     </row>
     <row r="16">
@@ -4540,7 +4540,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21540.4424004346</v>
+        <v>27635.6872408603</v>
       </c>
     </row>
     <row r="17">
@@ -4548,7 +4548,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67857.0159739012</v>
+        <v>87087.4482179892</v>
       </c>
     </row>
     <row r="18">
@@ -4556,7 +4556,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17565.167622672</v>
+        <v>22530.9552607874</v>
       </c>
     </row>
     <row r="19">
@@ -4564,7 +4564,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55931.1916406134</v>
+        <v>71777.2522777704</v>
       </c>
     </row>
     <row r="20">
@@ -4572,7 +4572,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9475.97674605272</v>
+        <v>12814.1284180463</v>
       </c>
     </row>
     <row r="21">
@@ -4580,7 +4580,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16825.5816175068</v>
+        <v>21578.6097761227</v>
       </c>
     </row>
     <row r="22">
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31452.6974317588</v>
+        <v>41234.6439851925</v>
       </c>
     </row>
     <row r="5">
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10852.6879317251</v>
+        <v>14225.6183718875</v>
       </c>
     </row>
     <row r="6">
@@ -4634,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9017.67271134198</v>
+        <v>9559.71417716457</v>
       </c>
     </row>
     <row r="7">
@@ -4642,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6312.37089793938</v>
+        <v>6689.5999240152</v>
       </c>
     </row>
     <row r="8">
@@ -4650,7 +4650,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21742.6108706801</v>
+        <v>23053.1775160523</v>
       </c>
     </row>
     <row r="9">
@@ -4658,7 +4658,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6632.19818049866</v>
+        <v>8688.26678282014</v>
       </c>
     </row>
     <row r="10">
@@ -4666,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10821.2072536104</v>
+        <v>11468.4570125975</v>
       </c>
     </row>
     <row r="11">
@@ -4674,7 +4674,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1502.94545189033</v>
+        <v>1584.95236286076</v>
       </c>
     </row>
     <row r="12">
@@ -4682,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>90315.4573531147</v>
+        <v>142611.392150926</v>
       </c>
     </row>
     <row r="13">
@@ -4690,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>63098.4967286433</v>
+        <v>99630.8078345636</v>
       </c>
     </row>
     <row r="14">
@@ -4698,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27037.8770439695</v>
+        <v>34052.819607206</v>
       </c>
     </row>
     <row r="15">
@@ -4706,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30972.4934794725</v>
+        <v>39009.0135052695</v>
       </c>
     </row>
     <row r="16">
@@ -4714,7 +4714,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23506.8110121078</v>
+        <v>29602.0558525336</v>
       </c>
     </row>
     <row r="17">
@@ -4722,7 +4722,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>74051.4990681851</v>
+        <v>93281.9313122731</v>
       </c>
     </row>
     <row r="18">
@@ -4730,7 +4730,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19168.6441729634</v>
+        <v>24134.4318110789</v>
       </c>
     </row>
     <row r="19">
@@ -4738,7 +4738,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61036.998550752</v>
+        <v>76883.059187909</v>
       </c>
     </row>
     <row r="20">
@@ -4746,7 +4746,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9487.56112599021</v>
+        <v>12825.7127979837</v>
       </c>
     </row>
     <row r="21">
@@ -4754,7 +4754,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18361.5433656808</v>
+        <v>23114.5715242966</v>
       </c>
     </row>
     <row r="22">
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29811.5959225823</v>
+        <v>39593.542476016</v>
       </c>
     </row>
     <row r="5">
@@ -4800,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10286.429264022</v>
+        <v>13659.3597041844</v>
       </c>
     </row>
     <row r="6">
@@ -4808,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8886.36899753554</v>
+        <v>9428.41046335813</v>
       </c>
     </row>
     <row r="7">
@@ -4816,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6220.45829827488</v>
+        <v>6597.68732435069</v>
       </c>
     </row>
     <row r="8">
@@ -4824,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21426.0230273912</v>
+        <v>22736.5896727635</v>
       </c>
     </row>
     <row r="9">
@@ -4832,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6286.15121690233</v>
+        <v>8342.21981922381</v>
       </c>
     </row>
     <row r="10">
@@ -4840,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10663.6427970426</v>
+        <v>11310.8925560298</v>
       </c>
     </row>
     <row r="11">
@@ -4848,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.06149958926</v>
+        <v>1563.06841055969</v>
       </c>
     </row>
     <row r="12">
@@ -4856,7 +4856,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>77639.7789608158</v>
+        <v>129935.713758627</v>
       </c>
     </row>
     <row r="13">
@@ -4864,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54242.6898157393</v>
+        <v>90775.0009216596</v>
       </c>
     </row>
     <row r="14">
@@ -4872,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25302.7964168183</v>
+        <v>32317.7389800548</v>
       </c>
     </row>
     <row r="15">
@@ -4880,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28984.9197759821</v>
+        <v>37021.4398017792</v>
       </c>
     </row>
     <row r="16">
@@ -4888,7 +4888,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21998.3267355174</v>
+        <v>28093.5715759431</v>
       </c>
     </row>
     <row r="17">
@@ -4896,7 +4896,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69299.449887853</v>
+        <v>88529.882131941</v>
       </c>
     </row>
     <row r="18">
@@ -4904,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17938.5496984906</v>
+        <v>22904.337336606</v>
       </c>
     </row>
     <row r="19">
@@ -4912,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57120.1187767726</v>
+        <v>72966.1794139296</v>
       </c>
     </row>
     <row r="20">
@@ -4920,7 +4920,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9479.64592906103</v>
+        <v>12817.7976010546</v>
       </c>
     </row>
     <row r="21">
@@ -4928,7 +4928,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17183.2423427646</v>
+        <v>21936.2705013805</v>
       </c>
     </row>
     <row r="22">
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28817.931524063</v>
+        <v>38599.8780774967</v>
       </c>
     </row>
     <row r="5">
@@ -4974,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9943.56742683324</v>
+        <v>13316.4978669957</v>
       </c>
     </row>
     <row r="6">
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8829.99757981908</v>
+        <v>9372.03904564168</v>
       </c>
     </row>
     <row r="7">
@@ -4990,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6180.99830587336</v>
+        <v>6558.22733194917</v>
       </c>
     </row>
     <row r="8">
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21290.105275786</v>
+        <v>22600.6719211583</v>
       </c>
     </row>
     <row r="9">
@@ -5006,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6076.62453862032</v>
+        <v>8132.6931409418</v>
       </c>
     </row>
     <row r="10">
@@ -5014,7 +5014,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10595.9970957829</v>
+        <v>11243.24685477</v>
       </c>
     </row>
     <row r="11">
@@ -5022,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1471.66626330318</v>
+        <v>1553.67317427361</v>
       </c>
     </row>
     <row r="12">
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>72237.6397457232</v>
+        <v>124533.574543535</v>
       </c>
     </row>
     <row r="13">
@@ -5038,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>50468.5090322829</v>
+        <v>87000.8201382032</v>
       </c>
     </row>
     <row r="14">
@@ -5046,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24576.3144560977</v>
+        <v>31591.2570193342</v>
       </c>
     </row>
     <row r="15">
@@ -5054,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28152.7184254552</v>
+        <v>36189.2384512522</v>
       </c>
     </row>
     <row r="16">
@@ -5062,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21366.721150264</v>
+        <v>27461.9659906898</v>
       </c>
     </row>
     <row r="17">
@@ -5070,7 +5070,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67309.7567566257</v>
+        <v>86540.1890007137</v>
       </c>
     </row>
     <row r="18">
@@ -5078,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17423.5065173827</v>
+        <v>22389.2941554981</v>
       </c>
     </row>
     <row r="19">
@@ -5086,7 +5086,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55480.1128579817</v>
+        <v>71326.1734951387</v>
       </c>
     </row>
     <row r="20">
@@ -5094,7 +5094,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9475.27464926266</v>
+        <v>12813.4263212562</v>
       </c>
     </row>
     <row r="21">
@@ -5102,7 +5102,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16689.885190335</v>
+        <v>21442.9133489508</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29999.0184862344</v>
+        <v>30154.7594160477</v>
       </c>
     </row>
     <row r="5">
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10351.099030394</v>
+        <v>10404.8371148024</v>
       </c>
     </row>
     <row r="6">
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8929.69875601117</v>
+        <v>9001.9133620855</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6250.78912920782</v>
+        <v>6301.33935345985</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21530.4958894936</v>
+        <v>21704.6133285839</v>
       </c>
     </row>
     <row r="9">
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6325.67162968521</v>
+        <v>6358.51157015703</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10715.6385072134</v>
+        <v>10802.2960345026</v>
       </c>
     </row>
     <row r="11">
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1488.28312600186</v>
+        <v>1500.31889368092</v>
       </c>
     </row>
     <row r="12">
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>78596.6960661883</v>
+        <v>78664.1865383622</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54911.2357392444</v>
+        <v>54958.3876605487</v>
       </c>
     </row>
     <row r="14">
@@ -732,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22328.6514407102</v>
+        <v>22389.8819792996</v>
       </c>
     </row>
     <row r="15">
@@ -740,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25577.970120515</v>
+        <v>25648.1110733021</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19412.5962152443</v>
+        <v>19465.8302282717</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>61153.8438711987</v>
+        <v>61321.5424358429</v>
       </c>
     </row>
     <row r="18">
@@ -764,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15830.0140811005</v>
+        <v>15873.4237912945</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>50406.0974687673</v>
+        <v>50544.3231249114</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13404.5420703152</v>
+        <v>13531.2804485989</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15163.4871724226</v>
+        <v>15205.0691053453</v>
       </c>
     </row>
     <row r="22">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27455.3629187065</v>
+        <v>27611.1038485198</v>
       </c>
     </row>
     <row r="5">
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9473.41595917031</v>
+        <v>9527.15404357874</v>
       </c>
     </row>
     <row r="6">
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8620.57746540199</v>
+        <v>8692.79207147632</v>
       </c>
     </row>
     <row r="7">
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6034.4042257814</v>
+        <v>6084.95445003343</v>
       </c>
     </row>
     <row r="8">
@@ -858,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20785.1701110248</v>
+        <v>20959.2875501152</v>
       </c>
     </row>
     <row r="9">
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5789.3097528263</v>
+        <v>5822.14969329812</v>
       </c>
     </row>
     <row r="10">
@@ -874,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10344.6929584824</v>
+        <v>10431.3504857716</v>
       </c>
     </row>
     <row r="11">
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1436.76291090033</v>
+        <v>1448.79867857939</v>
       </c>
     </row>
     <row r="12">
@@ -890,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>62064.508267961</v>
+        <v>62131.9987401349</v>
       </c>
     </row>
     <row r="13">
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>43361.0955054942</v>
+        <v>43408.2474267985</v>
       </c>
     </row>
     <row r="14">
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18585.7860096846</v>
+        <v>18647.016548274</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21290.4339737804</v>
+        <v>21360.5749265675</v>
       </c>
     </row>
     <row r="16">
@@ -922,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16158.537836778</v>
+        <v>16211.7718498054</v>
       </c>
     </row>
     <row r="17">
@@ -930,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50902.8616832405</v>
+        <v>51070.5602478847</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13176.4900814927</v>
+        <v>13219.8997916867</v>
       </c>
     </row>
     <row r="19">
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41956.7184173849</v>
+        <v>42094.944073529</v>
       </c>
     </row>
     <row r="20">
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13387.2763279312</v>
+        <v>13514.014706215</v>
       </c>
     </row>
     <row r="21">
@@ -962,7 +962,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12621.6904991142</v>
+        <v>12663.2724320368</v>
       </c>
     </row>
     <row r="22">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26090.7408331229</v>
+        <v>26246.4817629362</v>
       </c>
     </row>
     <row r="5">
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9002.55594241941</v>
+        <v>9056.29402682784</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8485.86095358136</v>
+        <v>8558.07555965569</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5940.10266750696</v>
+        <v>5990.65289175899</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20460.353632524</v>
+        <v>20634.4710716143</v>
       </c>
     </row>
     <row r="9">
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5501.56196481186</v>
+        <v>5534.40190528368</v>
       </c>
     </row>
     <row r="10">
@@ -1048,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10183.0331442976</v>
+        <v>10269.6906715868</v>
       </c>
     </row>
     <row r="11">
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1414.31015893023</v>
+        <v>1426.34592660928</v>
       </c>
     </row>
     <row r="12">
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54913.4886191677</v>
+        <v>54980.9790913416</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38365.067105265</v>
+        <v>38412.2190265693</v>
       </c>
     </row>
     <row r="14">
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16995.8415208027</v>
+        <v>17057.0720593921</v>
       </c>
     </row>
     <row r="15">
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19469.116965994</v>
+        <v>19539.2579187811</v>
       </c>
     </row>
     <row r="16">
@@ -1096,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14776.2353520411</v>
+        <v>14829.4693650685</v>
       </c>
     </row>
     <row r="17">
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46548.3122248847</v>
+        <v>46716.0107895289</v>
       </c>
     </row>
     <row r="18">
@@ -1112,7 +1112,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12049.2906304197</v>
+        <v>12092.7003406137</v>
       </c>
     </row>
     <row r="19">
@@ -1120,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38367.4780600208</v>
+        <v>38505.7037161649</v>
       </c>
     </row>
     <row r="20">
@@ -1128,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13377.5750928791</v>
+        <v>13504.3134711629</v>
       </c>
     </row>
     <row r="21">
@@ -1136,7 +1136,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11541.95207756</v>
+        <v>11583.5340104827</v>
       </c>
     </row>
     <row r="22">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30735.9144124495</v>
+        <v>30646.0233668578</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10605.3634394395</v>
+        <v>10574.3467208327</v>
       </c>
     </row>
     <row r="6">
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9038.70174275401</v>
+        <v>9074.58201991406</v>
       </c>
     </row>
     <row r="7">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6327.09121992781</v>
+        <v>6352.20741393985</v>
       </c>
     </row>
     <row r="8">
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21793.3142019736</v>
+        <v>21879.8255369039</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6481.05543521301</v>
+        <v>6462.10077384223</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10846.4420913048</v>
+        <v>10889.4984238969</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1506.450290459</v>
+        <v>1512.43033665234</v>
       </c>
     </row>
     <row r="12">
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>84459.9261595846</v>
+        <v>82573.0066006264</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>59007.5556351951</v>
+        <v>57689.2675911825</v>
       </c>
     </row>
     <row r="14">
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23674.22702955</v>
+        <v>23286.9323718595</v>
       </c>
     </row>
     <row r="15">
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27119.3570823576</v>
+        <v>26675.7023811971</v>
       </c>
     </row>
     <row r="16">
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20582.4436488252</v>
+        <v>20245.7285173256</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64839.1143272002</v>
+        <v>63778.3894065106</v>
       </c>
     </row>
     <row r="18">
@@ -1286,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16783.9669239346</v>
+        <v>16509.3923531839</v>
       </c>
     </row>
     <row r="19">
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>53443.6841525288</v>
+        <v>52569.3809140857</v>
       </c>
     </row>
     <row r="20">
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13409.2698873975</v>
+        <v>13534.4323266538</v>
       </c>
     </row>
     <row r="21">
@@ -1310,7 +1310,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16077.273579769</v>
+        <v>15814.2600435763</v>
       </c>
     </row>
     <row r="22">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27941.7142300085</v>
+        <v>27935.3380560545</v>
       </c>
     </row>
     <row r="5">
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9641.23046914033</v>
+        <v>9639.03038355876</v>
       </c>
     </row>
     <row r="6">
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8692.51943665227</v>
+        <v>8740.75338564317</v>
       </c>
     </row>
     <row r="7">
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6084.76360565659</v>
+        <v>6118.52736995023</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20958.6301972616</v>
+        <v>21074.9276076063</v>
       </c>
     </row>
     <row r="9">
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5891.86306447464</v>
+        <v>5890.51856773035</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10431.0233239827</v>
+        <v>10488.9040627718</v>
       </c>
     </row>
     <row r="11">
@@ -1404,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1448.75323944205</v>
+        <v>1456.79223094053</v>
       </c>
     </row>
     <row r="12">
@@ -1412,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65934.2401296025</v>
+        <v>64711.8199812293</v>
       </c>
     </row>
     <row r="13">
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>46064.6666368216</v>
+        <v>45210.6281810167</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19473.8658983189</v>
+        <v>19239.0698073635</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22307.7493685965</v>
+        <v>22038.7851897782</v>
       </c>
     </row>
     <row r="16">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16930.6371429414</v>
+        <v>16726.504720581</v>
       </c>
     </row>
     <row r="17">
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>53335.1401842015</v>
+        <v>52692.0792485253</v>
       </c>
     </row>
     <row r="18">
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13806.0989577633</v>
+        <v>13639.6390425338</v>
       </c>
     </row>
     <row r="19">
@@ -1468,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43961.5256286674</v>
+        <v>43431.482214384</v>
       </c>
     </row>
     <row r="20">
@@ -1476,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13390.3966872056</v>
+        <v>13516.0949457312</v>
       </c>
     </row>
     <row r="21">
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13224.7895279628</v>
+        <v>13065.3384512693</v>
       </c>
     </row>
     <row r="22">
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26503.4025518034</v>
+        <v>26521.5895753898</v>
       </c>
     </row>
     <row r="5">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9144.94401148488</v>
+        <v>9151.21940620482</v>
       </c>
     </row>
     <row r="6">
@@ -1538,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8546.90262615735</v>
+        <v>8598.77000803969</v>
       </c>
     </row>
     <row r="7">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5982.83183831015</v>
+        <v>6019.13900562778</v>
       </c>
     </row>
     <row r="8">
@@ -1554,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20607.5318875127</v>
+        <v>20732.5899082735</v>
       </c>
     </row>
     <row r="9">
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5588.57689590742</v>
+        <v>5592.41185934739</v>
       </c>
     </row>
     <row r="10">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10256.2831513888</v>
+        <v>10318.5240096476</v>
       </c>
     </row>
     <row r="11">
@@ -1578,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1424.48377102623</v>
+        <v>1433.12833467328</v>
       </c>
     </row>
     <row r="12">
@@ -1586,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>58196.8974714696</v>
+        <v>57169.9183262095</v>
       </c>
     </row>
     <row r="13">
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40659.0062469973</v>
+        <v>39941.5117877242</v>
       </c>
     </row>
     <row r="14">
@@ -1602,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17749.363850553</v>
+        <v>17559.4202792256</v>
       </c>
     </row>
     <row r="15">
@@ -1610,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20332.2936646258</v>
+        <v>20114.7090512023</v>
       </c>
     </row>
     <row r="16">
@@ -1618,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15431.3499148464</v>
+        <v>15266.2124069387</v>
       </c>
     </row>
     <row r="17">
@@ -1626,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>48612.0636802455</v>
+        <v>48091.8450931028</v>
       </c>
     </row>
     <row r="18">
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12583.5042224068</v>
+        <v>12448.8427352718</v>
       </c>
     </row>
     <row r="19">
@@ -1642,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>40068.5266029272</v>
+        <v>39639.7360781025</v>
       </c>
     </row>
     <row r="20">
@@ -1650,7 +1650,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13380.2226704452</v>
+        <v>13506.0785228736</v>
       </c>
     </row>
     <row r="21">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12053.672465674</v>
+        <v>11924.680935892</v>
       </c>
     </row>
     <row r="22">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30293.7768567204</v>
+        <v>30449.5177865337</v>
       </c>
     </row>
     <row r="5">
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10452.8047940122</v>
+        <v>10506.5428784206</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8973.2999507083</v>
+        <v>9045.51455678263</v>
       </c>
     </row>
     <row r="7">
@@ -1720,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6281.30996549582</v>
+        <v>6331.86018974785</v>
       </c>
     </row>
     <row r="8">
@@ -1728,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21635.6232144856</v>
+        <v>21809.7406535759</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6387.82515189633</v>
+        <v>6420.66509236815</v>
       </c>
     </row>
     <row r="10">
@@ -1744,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10767.95994085</v>
+        <v>10854.6174681392</v>
       </c>
     </row>
     <row r="11">
@@ -1752,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1495.54999178472</v>
+        <v>1507.58575946377</v>
       </c>
     </row>
     <row r="12">
@@ -1760,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>80941.9881035468</v>
+        <v>81009.4785757207</v>
       </c>
     </row>
     <row r="13">
@@ -1768,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56549.7636976247</v>
+        <v>56596.915618929</v>
       </c>
     </row>
     <row r="14">
@@ -1776,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22866.8816762461</v>
+        <v>22928.1122148355</v>
       </c>
     </row>
     <row r="15">
@@ -1784,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26194.524905252</v>
+        <v>26264.6658580391</v>
       </c>
     </row>
     <row r="16">
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19880.5351886767</v>
+        <v>19933.7692017041</v>
       </c>
     </row>
     <row r="17">
@@ -1800,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>62627.9520535993</v>
+        <v>62795.6506182435</v>
       </c>
     </row>
     <row r="18">
@@ -1808,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16211.5952182341</v>
+        <v>16255.0049284281</v>
       </c>
     </row>
     <row r="19">
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51621.1321422719</v>
+        <v>51759.357798416</v>
       </c>
     </row>
     <row r="20">
@@ -1824,7 +1824,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13406.4331971481</v>
+        <v>13533.1715754319</v>
       </c>
     </row>
     <row r="21">
@@ -1832,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15529.0017353612</v>
+        <v>15570.5836682839</v>
       </c>
     </row>
     <row r="22">
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27649.9034432273</v>
+        <v>27805.6443730406</v>
       </c>
     </row>
     <row r="5">
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9540.54176315832</v>
+        <v>9594.27984756675</v>
       </c>
     </row>
     <row r="6">
@@ -1886,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8649.3542539021</v>
+        <v>8721.56885997643</v>
       </c>
     </row>
     <row r="7">
@@ -1894,7 +1894,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6054.54797773148</v>
+        <v>6105.09820198351</v>
       </c>
     </row>
     <row r="8">
@@ -1902,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20854.5541455195</v>
+        <v>21028.6715846099</v>
       </c>
     </row>
     <row r="9">
@@ -1910,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5830.33107748563</v>
+        <v>5863.17101795745</v>
       </c>
     </row>
     <row r="10">
@@ -1918,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10379.2251046825</v>
+        <v>10465.8826319717</v>
       </c>
     </row>
     <row r="11">
@@ -1926,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1441.55904231702</v>
+        <v>1453.59480999607</v>
       </c>
     </row>
     <row r="12">
@@ -1934,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>63612.4010126176</v>
+        <v>63679.8914847915</v>
       </c>
     </row>
     <row r="13">
@@ -1942,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44442.5239580251</v>
+        <v>44489.6758793294</v>
       </c>
     </row>
     <row r="14">
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18941.0179651383</v>
+        <v>19002.2485037277</v>
       </c>
     </row>
     <row r="15">
@@ -1958,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21697.3601317069</v>
+        <v>21767.501084494</v>
       </c>
     </row>
     <row r="16">
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16467.3775592434</v>
+        <v>16520.6115722708</v>
       </c>
     </row>
     <row r="17">
@@ -1974,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51875.7730836249</v>
+        <v>52043.4716482691</v>
       </c>
     </row>
     <row r="18">
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13428.3336320009</v>
+        <v>13471.7433421949</v>
       </c>
     </row>
     <row r="19">
@@ -1990,7 +1990,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42758.6413018979</v>
+        <v>42896.866958042</v>
       </c>
     </row>
     <row r="20">
@@ -1998,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13388.524471641</v>
+        <v>13515.2628499247</v>
       </c>
     </row>
     <row r="21">
@@ -2006,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12862.9301106536</v>
+        <v>12904.5120435763</v>
       </c>
     </row>
     <row r="22">
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26255.8055205951</v>
+        <v>26411.5464504084</v>
       </c>
     </row>
     <row r="5">
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9059.5111700456</v>
+        <v>9113.24925445403</v>
       </c>
     </row>
     <row r="6">
@@ -2060,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8510.27762261176</v>
+        <v>8582.49222868609</v>
       </c>
     </row>
     <row r="7">
@@ -2068,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5957.19433582823</v>
+        <v>6007.74456008026</v>
       </c>
     </row>
     <row r="8">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20519.2249345195</v>
+        <v>20693.3423736098</v>
       </c>
     </row>
     <row r="9">
@@ -2084,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5536.36793725008</v>
+        <v>5569.2078777219</v>
       </c>
     </row>
     <row r="10">
@@ -2092,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10212.3331471341</v>
+        <v>10298.9906744233</v>
       </c>
     </row>
     <row r="11">
@@ -2100,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1418.37960376863</v>
+        <v>1430.41537144768</v>
       </c>
     </row>
     <row r="12">
@@ -2108,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>56226.8521600884</v>
+        <v>56294.3426322623</v>
       </c>
     </row>
     <row r="13">
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>39282.6427619579</v>
+        <v>39329.7946832622</v>
       </c>
     </row>
     <row r="14">
@@ -2124,7 +2124,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17297.2504527028</v>
+        <v>17358.4809912922</v>
       </c>
     </row>
     <row r="15">
@@ -2132,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19814.3876454467</v>
+        <v>19884.5285982338</v>
       </c>
     </row>
     <row r="16">
@@ -2140,7 +2140,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15038.2811771632</v>
+        <v>15091.5151901906</v>
       </c>
     </row>
     <row r="17">
@@ -2148,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47373.812807029</v>
+        <v>47541.5113716732</v>
       </c>
     </row>
     <row r="18">
@@ -2156,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12262.9760672145</v>
+        <v>12306.3857774085</v>
       </c>
     </row>
     <row r="19">
@@ -2164,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39047.8974771833</v>
+        <v>39186.1231333274</v>
       </c>
     </row>
     <row r="20">
@@ -2172,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13378.6341239056</v>
+        <v>13505.3725021893</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11746.6402328056</v>
+        <v>11788.2221657283</v>
       </c>
     </row>
     <row r="22">
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30605.5936170605</v>
+        <v>30767.1114528816</v>
       </c>
     </row>
     <row r="5">
@@ -2226,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10560.3965196247</v>
+        <v>10616.1279134544</v>
       </c>
     </row>
     <row r="6">
@@ -2234,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9055.51625269965</v>
+        <v>9128.9291206472</v>
       </c>
     </row>
     <row r="7">
@@ -2242,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6338.86137688975</v>
+        <v>6390.25038445304</v>
       </c>
     </row>
     <row r="8">
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21833.8558537314</v>
+        <v>22010.8624353383</v>
       </c>
     </row>
     <row r="9">
@@ -2258,7 +2258,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6453.57565088176</v>
+        <v>6487.63372488878</v>
       </c>
     </row>
     <row r="10">
@@ -2266,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10866.6195032396</v>
+        <v>10954.7149447766</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1509.25270878327</v>
+        <v>1521.48818677453</v>
       </c>
     </row>
     <row r="12">
@@ -2282,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81612.7499854703</v>
+        <v>81708.9647806849</v>
       </c>
     </row>
     <row r="13">
@@ -2290,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>57018.3885338669</v>
+        <v>57085.6085770248</v>
       </c>
     </row>
     <row r="14">
@@ -2298,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23722.089305946</v>
+        <v>23796.5906813472</v>
       </c>
     </row>
     <row r="15">
@@ -2306,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27174.1843915127</v>
+        <v>27259.527384976</v>
       </c>
     </row>
     <row r="16">
@@ -2314,7 +2314,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20624.0552547963</v>
+        <v>20688.8269729623</v>
       </c>
     </row>
     <row r="17">
@@ -2322,7 +2322,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64970.1998155385</v>
+        <v>65174.2446272717</v>
       </c>
     </row>
     <row r="18">
@@ -2330,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16817.8991348124</v>
+        <v>16870.7172740894</v>
       </c>
     </row>
     <row r="19">
@@ -2338,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>53551.7314555869</v>
+        <v>53719.9155306531</v>
       </c>
     </row>
     <row r="20">
@@ -2346,7 +2346,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13413.0441014704</v>
+        <v>13539.8634514794</v>
       </c>
     </row>
     <row r="21">
@@ -2354,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16109.7770659782</v>
+        <v>16160.3712836014</v>
       </c>
     </row>
     <row r="22">
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28061.9380495326</v>
+        <v>28223.4558853537</v>
       </c>
     </row>
     <row r="5">
@@ -2574,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9682.71344840102</v>
+        <v>9738.44484223069</v>
       </c>
     </row>
     <row r="6">
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8746.39496209047</v>
+        <v>8819.80783003802</v>
       </c>
     </row>
     <row r="7">
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6122.47647346333</v>
+        <v>6173.86548102662</v>
       </c>
     </row>
     <row r="8">
@@ -2598,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21088.5300752626</v>
+        <v>21265.5366568695</v>
       </c>
     </row>
     <row r="9">
@@ -2606,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5917.21377402285</v>
+        <v>5951.27184802987</v>
       </c>
     </row>
     <row r="10">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10495.6739545086</v>
+        <v>10583.7693960456</v>
       </c>
     </row>
     <row r="11">
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1457.73249368175</v>
+        <v>1469.967971673</v>
       </c>
     </row>
     <row r="12">
@@ -2630,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65080.562187243</v>
+        <v>65176.7769824576</v>
       </c>
     </row>
     <row r="13">
@@ -2638,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45468.2483001167</v>
+        <v>45535.4683432746</v>
       </c>
     </row>
     <row r="14">
@@ -2646,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19979.2238749204</v>
+        <v>20053.7252503216</v>
       </c>
     </row>
     <row r="15">
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22886.6482447781</v>
+        <v>22971.9912382414</v>
       </c>
     </row>
     <row r="16">
@@ -2662,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17369.99687633</v>
+        <v>17434.768594496</v>
       </c>
     </row>
     <row r="17">
@@ -2670,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>54719.2176275803</v>
+        <v>54923.2624393135</v>
       </c>
     </row>
     <row r="18">
@@ -2678,7 +2678,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14164.3751352047</v>
+        <v>14217.1932744816</v>
       </c>
     </row>
     <row r="19">
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45102.3524042045</v>
+        <v>45270.5364792707</v>
       </c>
     </row>
     <row r="20">
@@ -2694,7 +2694,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13395.7783590865</v>
+        <v>13522.5977090955</v>
       </c>
     </row>
     <row r="21">
@@ -2702,7 +2702,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13567.9803926698</v>
+        <v>13618.574610293</v>
       </c>
     </row>
     <row r="22">
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26697.3159639489</v>
+        <v>26858.8337997701</v>
       </c>
     </row>
     <row r="5">
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9211.85343165012</v>
+        <v>9267.58482547979</v>
       </c>
     </row>
     <row r="6">
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8611.67845026984</v>
+        <v>8685.09131821739</v>
       </c>
     </row>
     <row r="7">
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6028.17491518889</v>
+        <v>6079.56392275218</v>
       </c>
     </row>
     <row r="8">
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20763.7135967617</v>
+        <v>20940.7201783686</v>
       </c>
     </row>
     <row r="9">
@@ -2780,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5629.46598600841</v>
+        <v>5663.52406001543</v>
       </c>
     </row>
     <row r="10">
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10334.0141403238</v>
+        <v>10422.1095818609</v>
       </c>
     </row>
     <row r="11">
@@ -2796,7 +2796,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1435.27974171164</v>
+        <v>1447.5152197029</v>
       </c>
     </row>
     <row r="12">
@@ -2804,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57929.5425384497</v>
+        <v>58025.7573336643</v>
       </c>
     </row>
     <row r="13">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40472.2198998875</v>
+        <v>40539.4399430454</v>
       </c>
     </row>
     <row r="14">
@@ -2820,7 +2820,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18389.2793860385</v>
+        <v>18463.7807614397</v>
       </c>
     </row>
     <row r="15">
@@ -2828,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21065.3312369917</v>
+        <v>21150.674230455</v>
       </c>
     </row>
     <row r="16">
@@ -2836,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15987.6943915931</v>
+        <v>16052.4661097591</v>
       </c>
     </row>
     <row r="17">
@@ -2844,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50364.6681692245</v>
+        <v>50568.7129809577</v>
       </c>
     </row>
     <row r="18">
@@ -2852,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13037.1756841316</v>
+        <v>13089.9938234086</v>
       </c>
     </row>
     <row r="19">
@@ -2860,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41513.1120468404</v>
+        <v>41681.2961219066</v>
       </c>
     </row>
     <row r="20">
@@ -2868,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13386.0771240343</v>
+        <v>13512.8964740434</v>
       </c>
     </row>
     <row r="21">
@@ -2876,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12488.2419711156</v>
+        <v>12538.8361887389</v>
       </c>
     </row>
     <row r="22">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31342.4895432756</v>
+        <v>31258.3754036917</v>
       </c>
     </row>
     <row r="5">
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10814.6609286702</v>
+        <v>10785.6375194847</v>
       </c>
     </row>
     <row r="6">
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9164.51923944249</v>
+        <v>9201.59777847576</v>
       </c>
     </row>
     <row r="7">
@@ -2938,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6415.16346760974</v>
+        <v>6441.11844493303</v>
       </c>
     </row>
     <row r="8">
@@ -2946,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22096.6741662113</v>
+        <v>22186.0746436582</v>
       </c>
     </row>
     <row r="9">
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6608.95945640956</v>
+        <v>6591.22292857398</v>
       </c>
     </row>
     <row r="10">
@@ -2962,7 +2962,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10997.423087331</v>
+        <v>11041.9173341709</v>
       </c>
     </row>
     <row r="11">
@@ -2970,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1527.41987324041</v>
+        <v>1533.59962974596</v>
       </c>
     </row>
     <row r="12">
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>87475.9800788666</v>
+        <v>85617.7848429491</v>
       </c>
     </row>
     <row r="13">
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61114.7084298176</v>
+        <v>59816.4885076586</v>
       </c>
     </row>
     <row r="14">
@@ -2994,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25067.6648947858</v>
+        <v>24693.6410739071</v>
       </c>
     </row>
     <row r="15">
@@ -3002,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28715.5713533553</v>
+        <v>28287.118692871</v>
       </c>
     </row>
     <row r="16">
@@ -3010,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21793.9026883772</v>
+        <v>21468.7252620162</v>
       </c>
     </row>
     <row r="17">
@@ -3018,7 +3018,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>68655.47027154</v>
+        <v>67631.0915979394</v>
       </c>
     </row>
     <row r="18">
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17771.8519776465</v>
+        <v>17506.6858359788</v>
       </c>
     </row>
     <row r="19">
@@ -3034,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>56589.3181393484</v>
+        <v>55744.9733198274</v>
       </c>
     </row>
     <row r="20">
@@ -3042,7 +3042,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13417.7719185527</v>
+        <v>13543.0153295343</v>
       </c>
     </row>
     <row r="21">
@@ -3050,7 +3050,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17023.5634733246</v>
+        <v>16769.5622218324</v>
       </c>
     </row>
     <row r="22">
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28548.2893608346</v>
+        <v>28547.6900928884</v>
       </c>
     </row>
     <row r="5">
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9850.52795837104</v>
+        <v>9850.32118221071</v>
       </c>
     </row>
     <row r="6">
@@ -3104,7 +3104,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8818.33693334075</v>
+        <v>8867.76914420487</v>
       </c>
     </row>
     <row r="7">
@@ -3112,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6172.83585333852</v>
+        <v>6207.43840094342</v>
       </c>
     </row>
     <row r="8">
@@ -3120,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21261.9901614994</v>
+        <v>21381.1767143607</v>
       </c>
     </row>
     <row r="9">
@@ -3128,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6019.76708567119</v>
+        <v>6019.6407224621</v>
       </c>
     </row>
     <row r="10">
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10582.0043200089</v>
+        <v>10641.3229730459</v>
       </c>
     </row>
     <row r="11">
@@ -3144,7 +3144,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1469.72282222346</v>
+        <v>1477.96152403415</v>
       </c>
     </row>
     <row r="12">
@@ -3152,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68950.2940488845</v>
+        <v>67756.598223552</v>
       </c>
     </row>
     <row r="13">
@@ -3160,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48171.8194314441</v>
+        <v>47337.8490974928</v>
       </c>
     </row>
     <row r="14">
@@ -3168,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20867.3037635547</v>
+        <v>20645.7785094111</v>
       </c>
     </row>
     <row r="15">
@@ -3176,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23903.9636395942</v>
+        <v>23650.2015014521</v>
       </c>
     </row>
     <row r="16">
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18142.0961824934</v>
+        <v>17949.5014652716</v>
       </c>
     </row>
     <row r="17">
@@ -3192,7 +3192,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>57151.4961285413</v>
+        <v>56544.7814399541</v>
       </c>
     </row>
     <row r="18">
@@ -3200,7 +3200,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14793.9840114752</v>
+        <v>14636.9325253287</v>
       </c>
     </row>
     <row r="19">
@@ -3208,7 +3208,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>47107.159615487</v>
+        <v>46607.0746201257</v>
       </c>
     </row>
     <row r="20">
@@ -3216,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13398.8987183608</v>
+        <v>13524.6779486117</v>
       </c>
     </row>
     <row r="21">
@@ -3224,7 +3224,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14171.0794215185</v>
+        <v>14020.6406295254</v>
       </c>
     </row>
     <row r="22">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27109.9776826295</v>
+        <v>27133.9416122237</v>
       </c>
     </row>
     <row r="5">
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9354.24150071559</v>
+        <v>9362.51020485677</v>
       </c>
     </row>
     <row r="6">
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8672.72012284583</v>
+        <v>8725.78576660138</v>
       </c>
     </row>
     <row r="7">
@@ -3286,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6070.90408599208</v>
+        <v>6108.05003662097</v>
       </c>
     </row>
     <row r="8">
@@ -3294,7 +3294,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20910.8918517505</v>
+        <v>21038.8390150278</v>
       </c>
     </row>
     <row r="9">
@@ -3302,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5716.48091710397</v>
+        <v>5721.53401407914</v>
       </c>
     </row>
     <row r="10">
@@ -3310,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10407.264147415</v>
+        <v>10470.9429199217</v>
       </c>
     </row>
     <row r="11">
@@ -3318,7 +3318,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1445.45335380764</v>
+        <v>1454.2976277669</v>
       </c>
     </row>
     <row r="12">
@@ -3326,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>61212.9513907516</v>
+        <v>60214.6965685322</v>
       </c>
     </row>
     <row r="13">
@@ -3334,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42766.1590416198</v>
+        <v>42068.7327042003</v>
       </c>
     </row>
     <row r="14">
@@ -3342,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19142.8017157888</v>
+        <v>18966.1289812732</v>
       </c>
     </row>
     <row r="15">
@@ -3350,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21928.5079356235</v>
+        <v>21726.1253628762</v>
       </c>
     </row>
     <row r="16">
@@ -3358,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16642.8089543984</v>
+        <v>16489.2091516293</v>
       </c>
     </row>
     <row r="17">
@@ -3366,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52428.4196245853</v>
+        <v>51944.5472845316</v>
       </c>
     </row>
     <row r="18">
@@ -3374,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13571.3892761188</v>
+        <v>13446.1362180667</v>
       </c>
     </row>
     <row r="19">
@@ -3382,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43214.1605897468</v>
+        <v>42815.3284838442</v>
       </c>
     </row>
     <row r="20">
@@ -3390,7 +3390,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13388.7247016005</v>
+        <v>13514.6615257541</v>
       </c>
     </row>
     <row r="21">
@@ -3398,7 +3398,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12999.9623592296</v>
+        <v>12879.9831141482</v>
       </c>
     </row>
     <row r="22">
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30900.3519875465</v>
+        <v>31061.8698233676</v>
       </c>
     </row>
     <row r="5">
@@ -3444,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10662.1022832429</v>
+        <v>10717.8336770726</v>
       </c>
     </row>
     <row r="6">
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9099.11744739678</v>
+        <v>9172.53031534433</v>
       </c>
     </row>
     <row r="7">
@@ -3460,7 +3460,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6369.38221317775</v>
+        <v>6420.77122074104</v>
       </c>
     </row>
     <row r="8">
@@ -3468,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21938.9831787234</v>
+        <v>22115.9897603302</v>
       </c>
     </row>
     <row r="9">
@@ -3476,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6515.72917309288</v>
+        <v>6549.7872470999</v>
       </c>
     </row>
     <row r="10">
@@ -3484,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10918.9409368761</v>
+        <v>11007.0363784132</v>
       </c>
     </row>
     <row r="11">
@@ -3492,7 +3492,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1516.51957456613</v>
+        <v>1528.75505255739</v>
       </c>
     </row>
     <row r="12">
@@ -3500,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>83958.0420228288</v>
+        <v>84054.2568180434</v>
       </c>
     </row>
     <row r="13">
@@ -3508,7 +3508,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58656.9164922472</v>
+        <v>58724.1365354051</v>
       </c>
     </row>
     <row r="14">
@@ -3516,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24260.3195414819</v>
+        <v>24334.8209168831</v>
       </c>
     </row>
     <row r="15">
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27790.7391762497</v>
+        <v>27876.082169713</v>
       </c>
     </row>
     <row r="16">
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21091.9942282287</v>
+        <v>21156.7659463947</v>
       </c>
     </row>
     <row r="17">
@@ -3540,7 +3540,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66444.3079979391</v>
+        <v>66648.3528096723</v>
       </c>
     </row>
     <row r="18">
@@ -3548,7 +3548,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17199.480271946</v>
+        <v>17252.298411223</v>
       </c>
     </row>
     <row r="19">
@@ -3556,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>54766.7661290915</v>
+        <v>54934.9502041577</v>
       </c>
     </row>
     <row r="20">
@@ -3564,7 +3564,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13414.9352283033</v>
+        <v>13541.7545783124</v>
       </c>
     </row>
     <row r="21">
@@ -3572,7 +3572,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16475.2916289168</v>
+        <v>16525.88584654</v>
       </c>
     </row>
     <row r="22">
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28256.4785740534</v>
+        <v>28417.9964098745</v>
       </c>
     </row>
     <row r="5">
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9749.83925238903</v>
+        <v>9805.5706462187</v>
       </c>
     </row>
     <row r="6">
@@ -3626,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8775.17175059058</v>
+        <v>8848.58461853813</v>
       </c>
     </row>
     <row r="7">
@@ -3634,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6142.62022541341</v>
+        <v>6194.0092329767</v>
       </c>
     </row>
     <row r="8">
@@ -3642,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21157.9141097573</v>
+        <v>21334.9206913642</v>
       </c>
     </row>
     <row r="9">
@@ -3650,7 +3650,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5958.23509868218</v>
+        <v>5992.2931726892</v>
       </c>
     </row>
     <row r="10">
@@ -3658,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10530.2061007087</v>
+        <v>10618.3015422458</v>
       </c>
     </row>
     <row r="11">
@@ -3666,7 +3666,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1462.52862509843</v>
+        <v>1474.76410308969</v>
       </c>
     </row>
     <row r="12">
@@ -3674,7 +3674,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>66628.4549318996</v>
+        <v>66724.6697271142</v>
       </c>
     </row>
     <row r="13">
@@ -3682,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>46549.6767526476</v>
+        <v>46616.8967958055</v>
       </c>
     </row>
     <row r="14">
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20334.4558303741</v>
+        <v>20408.9572057753</v>
       </c>
     </row>
     <row r="15">
@@ -3698,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23293.5744027046</v>
+        <v>23378.9173961679</v>
       </c>
     </row>
     <row r="16">
@@ -3706,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17678.8365987954</v>
+        <v>17743.6083169614</v>
       </c>
     </row>
     <row r="17">
@@ -3714,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>55692.1290279647</v>
+        <v>55896.1738396979</v>
       </c>
     </row>
     <row r="18">
@@ -3722,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14416.2186857129</v>
+        <v>14469.0368249899</v>
       </c>
     </row>
     <row r="19">
@@ -3730,7 +3730,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45904.2752887175</v>
+        <v>46072.4593637837</v>
       </c>
     </row>
     <row r="20">
@@ -3738,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13397.0265027962</v>
+        <v>13523.8458528052</v>
       </c>
     </row>
     <row r="21">
@@ -3746,7 +3746,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13809.2200042093</v>
+        <v>13859.8142218325</v>
       </c>
     </row>
     <row r="22">
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26862.3806514211</v>
+        <v>27023.8984872423</v>
       </c>
     </row>
     <row r="5">
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9268.80865927631</v>
+        <v>9324.54005310598</v>
       </c>
     </row>
     <row r="6">
@@ -3800,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8636.09511930023</v>
+        <v>8709.50798724779</v>
       </c>
     </row>
     <row r="7">
@@ -3808,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6045.26658351017</v>
+        <v>6096.65559107345</v>
       </c>
     </row>
     <row r="8">
@@ -3816,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20822.5848987572</v>
+        <v>20999.5914803641</v>
       </c>
     </row>
     <row r="9">
@@ -3824,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5664.27195844663</v>
+        <v>5698.33003245365</v>
       </c>
     </row>
     <row r="10">
@@ -3832,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10363.3141431603</v>
+        <v>10451.4095846973</v>
       </c>
     </row>
     <row r="11">
@@ -3840,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1439.34918655004</v>
+        <v>1451.5846645413</v>
       </c>
     </row>
     <row r="12">
@@ -3848,7 +3848,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>59242.9060793704</v>
+        <v>59339.120874585</v>
       </c>
     </row>
     <row r="13">
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>41389.7955565804</v>
+        <v>41457.0155997383</v>
       </c>
     </row>
     <row r="14">
@@ -3864,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18690.6883179386</v>
+        <v>18765.1896933398</v>
       </c>
     </row>
     <row r="15">
@@ -3872,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21410.6019164444</v>
+        <v>21495.9449099077</v>
       </c>
     </row>
     <row r="16">
@@ -3880,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16249.7402167152</v>
+        <v>16314.5119348812</v>
       </c>
     </row>
     <row r="17">
@@ -3888,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51190.1687513688</v>
+        <v>51394.213563102</v>
       </c>
     </row>
     <row r="18">
@@ -3896,7 +3896,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13250.8611209265</v>
+        <v>13303.6792602035</v>
       </c>
     </row>
     <row r="19">
@@ -3904,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42193.5314640029</v>
+        <v>42361.7155390691</v>
       </c>
     </row>
     <row r="20">
@@ -3912,7 +3912,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13387.1361550608</v>
+        <v>13513.9555050698</v>
       </c>
     </row>
     <row r="21">
@@ -3920,7 +3920,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12692.9301263612</v>
+        <v>12743.5243439845</v>
       </c>
     </row>
     <row r="22">
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31038.8615676505</v>
+        <v>31204.5057649059</v>
       </c>
     </row>
     <row r="5">
@@ -3966,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10709.8947262181</v>
+        <v>10767.0499124915</v>
       </c>
     </row>
     <row r="6">
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9145.38589319142</v>
+        <v>9219.65466247699</v>
       </c>
     </row>
     <row r="7">
@@ -3982,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6401.77012523399</v>
+        <v>6453.75826373389</v>
       </c>
     </row>
     <row r="8">
@@ -3990,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22050.5415424726</v>
+        <v>22229.6117973056</v>
       </c>
     </row>
     <row r="9">
@@ -3998,7 +3998,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6544.93566602215</v>
+        <v>6579.86383541146</v>
       </c>
     </row>
     <row r="10">
@@ -4006,7 +4006,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10974.4630718297</v>
+        <v>11063.5855949724</v>
       </c>
     </row>
     <row r="11">
@@ -4014,7 +4014,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1524.23098219857</v>
+        <v>1536.60911041283</v>
       </c>
     </row>
     <row r="12">
@@ -4022,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>83767.0742135288</v>
+        <v>83883.806382344</v>
       </c>
     </row>
     <row r="13">
@@ -4030,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58523.497672883</v>
+        <v>58605.0520887934</v>
       </c>
     </row>
     <row r="14">
@@ -4038,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24717.4020668287</v>
+        <v>24801.3826113811</v>
       </c>
     </row>
     <row r="15">
@@ -4046,7 +4046,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28314.3374422254</v>
+        <v>28410.5390361717</v>
       </c>
     </row>
     <row r="16">
@@ -4054,7 +4054,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21489.3831401906</v>
+        <v>21562.3960763127</v>
       </c>
     </row>
     <row r="17">
@@ -4062,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67696.1683472098</v>
+        <v>67926.1747640065</v>
       </c>
     </row>
     <row r="18">
@@ -4070,7 +4070,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17523.5313160352</v>
+        <v>17583.0697618</v>
       </c>
     </row>
     <row r="19">
@@ -4078,7 +4078,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55798.6128747438</v>
+        <v>55988.1958204686</v>
       </c>
     </row>
     <row r="20">
@@ -4086,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13419.116980867</v>
+        <v>13545.9941678226</v>
       </c>
     </row>
     <row r="21">
@@ -4094,7 +4094,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16785.698418518</v>
+        <v>16842.7299823558</v>
       </c>
     </row>
     <row r="22">
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28495.2060001226</v>
+        <v>28660.850197378</v>
       </c>
     </row>
     <row r="5">
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9832.21165499439</v>
+        <v>9889.36684126781</v>
       </c>
     </row>
     <row r="6">
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8836.26460258224</v>
+        <v>8910.53337186781</v>
       </c>
     </row>
     <row r="7">
@@ -4156,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6185.38522180757</v>
+        <v>6237.37336030747</v>
       </c>
     </row>
     <row r="8">
@@ -4164,7 +4164,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21305.2157640038</v>
+        <v>21484.2860188368</v>
       </c>
     </row>
     <row r="9">
@@ -4172,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6008.57378916324</v>
+        <v>6043.50195855255</v>
       </c>
     </row>
     <row r="10">
@@ -4180,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10603.5175230987</v>
+        <v>10692.6400462414</v>
       </c>
     </row>
     <row r="11">
@@ -4188,7 +4188,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1472.71076709704</v>
+        <v>1485.0888953113</v>
       </c>
     </row>
     <row r="12">
@@ -4196,7 +4196,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>67234.8864153015</v>
+        <v>67351.6185841167</v>
       </c>
     </row>
     <row r="13">
@@ -4204,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>46973.3574391328</v>
+        <v>47054.9118550432</v>
       </c>
     </row>
     <row r="14">
@@ -4212,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20974.5366358031</v>
+        <v>21058.5171803555</v>
       </c>
     </row>
     <row r="15">
@@ -4220,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24026.8012954908</v>
+        <v>24123.0028894371</v>
       </c>
     </row>
     <row r="16">
@@ -4228,7 +4228,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18235.3247617243</v>
+        <v>18308.3376978464</v>
       </c>
     </row>
     <row r="17">
@@ -4236,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>57445.1861592516</v>
+        <v>57675.1925760483</v>
       </c>
     </row>
     <row r="18">
@@ -4244,7 +4244,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14870.0073164275</v>
+        <v>14929.5457621923</v>
       </c>
     </row>
     <row r="19">
@@ -4252,7 +4252,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>47349.2338233614</v>
+        <v>47538.8167690862</v>
       </c>
     </row>
     <row r="20">
@@ -4260,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13401.851238483</v>
+        <v>13528.7284254387</v>
       </c>
     </row>
     <row r="21">
@@ -4268,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14243.9017452096</v>
+        <v>14300.9333090474</v>
       </c>
     </row>
     <row r="22">
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27130.583914539</v>
+        <v>27296.2281117943</v>
       </c>
     </row>
     <row r="5">
@@ -4488,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9361.35163824349</v>
+        <v>9418.50682451691</v>
       </c>
     </row>
     <row r="6">
@@ -4496,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8701.54809076161</v>
+        <v>8775.81686004718</v>
       </c>
     </row>
     <row r="7">
@@ -4504,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6091.08366353313</v>
+        <v>6143.07180203303</v>
       </c>
     </row>
     <row r="8">
@@ -4512,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20980.399285503</v>
+        <v>21159.469540336</v>
       </c>
     </row>
     <row r="9">
@@ -4520,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5720.8260011488</v>
+        <v>5755.75417053811</v>
       </c>
     </row>
     <row r="10">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10441.8577089139</v>
+        <v>10530.9802320566</v>
       </c>
     </row>
     <row r="11">
@@ -4536,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1450.25801512693</v>
+        <v>1462.6361433412</v>
       </c>
     </row>
     <row r="12">
@@ -4544,7 +4544,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>60083.8667665082</v>
+        <v>60200.5989353234</v>
       </c>
     </row>
     <row r="13">
@@ -4552,7 +4552,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>41977.3290389036</v>
+        <v>42058.883454814</v>
       </c>
     </row>
     <row r="14">
@@ -4560,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19384.5921469212</v>
+        <v>19468.5726914736</v>
       </c>
     </row>
     <row r="15">
@@ -4568,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22205.4842877044</v>
+        <v>22301.6858816507</v>
       </c>
     </row>
     <row r="16">
@@ -4576,7 +4576,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16853.0222769874</v>
+        <v>16926.0352131095</v>
       </c>
     </row>
     <row r="17">
@@ -4584,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>53090.6367008958</v>
+        <v>53320.6431176925</v>
       </c>
     </row>
     <row r="18">
@@ -4592,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13742.8078653545</v>
+        <v>13802.3463111193</v>
       </c>
     </row>
     <row r="19">
@@ -4600,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43759.9934659973</v>
+        <v>43949.5764117221</v>
       </c>
     </row>
     <row r="20">
@@ -4608,7 +4608,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13392.1500034309</v>
+        <v>13519.0271903866</v>
       </c>
     </row>
     <row r="21">
@@ -4616,7 +4616,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13164.1633236554</v>
+        <v>13221.1948874933</v>
       </c>
     </row>
     <row r="22">
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31775.7574938656</v>
+        <v>31695.769715716</v>
       </c>
     </row>
     <row r="5">
@@ -4662,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10964.1591352636</v>
+        <v>10936.5595185218</v>
       </c>
     </row>
     <row r="6">
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9254.38887993426</v>
+        <v>9292.32332030555</v>
       </c>
     </row>
     <row r="7">
@@ -4678,7 +4678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6478.07221595398</v>
+        <v>6504.62632421388</v>
       </c>
     </row>
     <row r="8">
@@ -4686,7 +4686,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22313.3598549526</v>
+        <v>22404.8240056256</v>
       </c>
     </row>
     <row r="9">
@@ -4694,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6700.31947154995</v>
+        <v>6683.45303909666</v>
       </c>
     </row>
     <row r="10">
@@ -4702,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11105.2666559211</v>
+        <v>11150.7879843667</v>
       </c>
     </row>
     <row r="11">
@@ -4710,7 +4710,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1542.39814665571</v>
+        <v>1548.72055338426</v>
       </c>
     </row>
     <row r="12">
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>89630.3043069251</v>
+        <v>87792.6264446082</v>
       </c>
     </row>
     <row r="13">
@@ -4726,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>62619.8175688337</v>
+        <v>61335.9320194272</v>
       </c>
     </row>
     <row r="14">
@@ -4734,7 +4734,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26062.9776556685</v>
+        <v>25698.433003941</v>
       </c>
     </row>
     <row r="15">
@@ -4742,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29855.724404068</v>
+        <v>29438.1303440667</v>
       </c>
     </row>
     <row r="16">
@@ -4750,7 +4750,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22659.2305737715</v>
+        <v>22342.2943653666</v>
       </c>
     </row>
     <row r="17">
@@ -4758,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>71381.4388032113</v>
+        <v>70383.0217346742</v>
       </c>
     </row>
     <row r="18">
@@ -4766,7 +4766,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18477.4841588693</v>
+        <v>18219.0383236894</v>
       </c>
     </row>
     <row r="19">
@@ -4774,7 +4774,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>58836.1995585053</v>
+        <v>58013.2536096429</v>
       </c>
     </row>
     <row r="20">
@@ -4782,7 +4782,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13423.8447979493</v>
+        <v>13549.1460458775</v>
       </c>
     </row>
     <row r="21">
@@ -4790,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17699.4848258644</v>
+        <v>17451.9209205868</v>
       </c>
     </row>
     <row r="22">
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28981.5573114246</v>
+        <v>28985.0844049127</v>
       </c>
     </row>
     <row r="5">
@@ -4836,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10000.0261649644</v>
+        <v>10001.2431812478</v>
       </c>
     </row>
     <row r="6">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8908.20657383252</v>
+        <v>8958.49468603466</v>
       </c>
     </row>
     <row r="7">
@@ -4852,7 +4852,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6235.74460168276</v>
+        <v>6270.94628022426</v>
       </c>
     </row>
     <row r="8">
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21478.6758502406</v>
+        <v>21599.926076328</v>
       </c>
     </row>
     <row r="9">
@@ -4868,7 +4868,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6111.12710081158</v>
+        <v>6111.87083298478</v>
       </c>
     </row>
     <row r="10">
@@ -4876,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10689.847888599</v>
+        <v>10750.1936232416</v>
       </c>
     </row>
     <row r="11">
@@ -4884,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1484.70109563875</v>
+        <v>1493.08244767244</v>
       </c>
     </row>
     <row r="12">
@@ -4892,7 +4892,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>71104.618276943</v>
+        <v>69931.4398252111</v>
       </c>
     </row>
     <row r="13">
@@ -4900,7 +4900,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49676.9285704602</v>
+        <v>48857.2926092614</v>
       </c>
     </row>
     <row r="14">
@@ -4908,7 +4908,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21862.6165244374</v>
+        <v>21650.570439445</v>
       </c>
     </row>
     <row r="15">
@@ -4916,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25044.1166903069</v>
+        <v>24801.2131526478</v>
       </c>
     </row>
     <row r="16">
@@ -4924,7 +4924,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19007.4240678877</v>
+        <v>18823.070568622</v>
       </c>
     </row>
     <row r="17">
@@ -4932,7 +4932,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>59877.4646602126</v>
+        <v>59296.7115766889</v>
       </c>
     </row>
     <row r="18">
@@ -4940,7 +4940,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15499.616192698</v>
+        <v>15349.2850130393</v>
       </c>
     </row>
     <row r="19">
@@ -4948,7 +4948,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>49354.0410346439</v>
+        <v>48875.3549099412</v>
       </c>
     </row>
     <row r="20">
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13404.9715977574</v>
+        <v>13530.808664955</v>
       </c>
     </row>
     <row r="21">
@@ -4964,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14847.0007740582</v>
+        <v>14702.9993282799</v>
       </c>
     </row>
     <row r="22">
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27543.2456332195</v>
+        <v>27571.335924248</v>
       </c>
     </row>
     <row r="5">
@@ -5010,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9503.73970730896</v>
+        <v>9513.43220389388</v>
       </c>
     </row>
     <row r="6">
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8762.58976333759</v>
+        <v>8816.51130843117</v>
       </c>
     </row>
     <row r="7">
@@ -5026,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6133.81283433632</v>
+        <v>6171.55791590182</v>
       </c>
     </row>
     <row r="8">
@@ -5034,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21127.5775404918</v>
+        <v>21257.5883769952</v>
       </c>
     </row>
     <row r="9">
@@ -5042,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5807.84093224436</v>
+        <v>5813.76412460182</v>
       </c>
     </row>
     <row r="10">
@@ -5050,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10515.1077160051</v>
+        <v>10579.8135701174</v>
       </c>
     </row>
     <row r="11">
@@ -5058,7 +5058,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1460.43162722293</v>
+        <v>1469.4185514052</v>
       </c>
     </row>
     <row r="12">
@@ -5066,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>63367.2756188101</v>
+        <v>62389.5381701913</v>
       </c>
     </row>
     <row r="13">
@@ -5074,7 +5074,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44271.2681806359</v>
+        <v>43588.1762159689</v>
       </c>
     </row>
     <row r="14">
@@ -5082,7 +5082,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20138.1144766715</v>
+        <v>19970.9209113071</v>
       </c>
     </row>
     <row r="15">
@@ -5090,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23068.6609863362</v>
+        <v>22877.1370140719</v>
       </c>
     </row>
     <row r="16">
@@ -5098,7 +5098,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17508.1368397927</v>
+        <v>17362.7782549797</v>
       </c>
     </row>
     <row r="17">
@@ -5106,7 +5106,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>55154.3881562566</v>
+        <v>54696.4774212664</v>
       </c>
     </row>
     <row r="18">
@@ -5114,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14277.0214573416</v>
+        <v>14158.4887057774</v>
       </c>
     </row>
     <row r="19">
@@ -5122,7 +5122,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45461.0420089037</v>
+        <v>45083.6087736597</v>
       </c>
     </row>
     <row r="20">
@@ -5130,7 +5130,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13394.797580997</v>
+        <v>13520.7922420973</v>
       </c>
     </row>
     <row r="21">
@@ -5138,7 +5138,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13675.8837117694</v>
+        <v>13562.3418129026</v>
       </c>
     </row>
     <row r="22">
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31333.6199381365</v>
+        <v>31499.2641353919</v>
       </c>
     </row>
     <row r="5">
@@ -5184,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10811.6004898363</v>
+        <v>10868.7556761097</v>
       </c>
     </row>
     <row r="6">
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9188.98708788854</v>
+        <v>9263.25585717412</v>
       </c>
     </row>
     <row r="7">
@@ -5200,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6432.29096152199</v>
+        <v>6484.27910002189</v>
       </c>
     </row>
     <row r="8">
@@ -5208,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22155.6688674646</v>
+        <v>22334.7391222976</v>
       </c>
     </row>
     <row r="9">
@@ -5216,7 +5216,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6607.08918823327</v>
+        <v>6642.01735762258</v>
       </c>
     </row>
     <row r="10">
@@ -5224,7 +5224,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11026.7845054663</v>
+        <v>11115.9070286089</v>
       </c>
     </row>
     <row r="11">
@@ -5232,7 +5232,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1531.49784798143</v>
+        <v>1543.87597619569</v>
       </c>
     </row>
     <row r="12">
@@ -5240,7 +5240,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>86112.3662508873</v>
+        <v>86229.0984197025</v>
       </c>
     </row>
     <row r="13">
@@ -5248,7 +5248,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>60162.0256312633</v>
+        <v>60243.5800471737</v>
       </c>
     </row>
     <row r="14">
@@ -5256,7 +5256,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25255.6323023646</v>
+        <v>25339.612846917</v>
       </c>
     </row>
     <row r="15">
@@ -5264,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28930.8922269624</v>
+        <v>29027.0938209087</v>
       </c>
     </row>
     <row r="16">
@@ -5272,7 +5272,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21957.322113623</v>
+        <v>22030.3350497451</v>
       </c>
     </row>
     <row r="17">
@@ -5280,7 +5280,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69170.2765296104</v>
+        <v>69400.2829464071</v>
       </c>
     </row>
     <row r="18">
@@ -5288,7 +5288,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17905.1124531688</v>
+        <v>17964.6508989336</v>
       </c>
     </row>
     <row r="19">
@@ -5296,7 +5296,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57013.6475482484</v>
+        <v>57203.2304939732</v>
       </c>
     </row>
     <row r="20">
@@ -5304,7 +5304,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13421.0081076999</v>
+        <v>13547.8852946556</v>
       </c>
     </row>
     <row r="21">
@@ -5312,7 +5312,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17151.2129814566</v>
+        <v>17208.2445452944</v>
       </c>
     </row>
     <row r="22">
@@ -5350,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28689.7465246434</v>
+        <v>28855.3907218988</v>
       </c>
     </row>
     <row r="5">
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9899.33745898239</v>
+        <v>9956.49264525581</v>
       </c>
     </row>
     <row r="6">
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8865.04139108235</v>
+        <v>8939.31016036792</v>
       </c>
     </row>
     <row r="7">
@@ -5374,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6205.52897375765</v>
+        <v>6257.51711225755</v>
       </c>
     </row>
     <row r="8">
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21374.5997984986</v>
+        <v>21553.6700533315</v>
       </c>
     </row>
     <row r="9">
@@ -5390,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6049.59511382257</v>
+        <v>6084.52328321188</v>
       </c>
     </row>
     <row r="10">
@@ -5398,7 +5398,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10638.0496692988</v>
+        <v>10727.1721924415</v>
       </c>
     </row>
     <row r="11">
@@ -5406,7 +5406,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1477.50689851373</v>
+        <v>1489.88502672799</v>
       </c>
     </row>
     <row r="12">
@@ -5414,7 +5414,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68782.7791599581</v>
+        <v>68899.5113287733</v>
       </c>
     </row>
     <row r="13">
@@ -5422,7 +5422,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48054.7858916637</v>
+        <v>48136.3403075741</v>
       </c>
     </row>
     <row r="14">
@@ -5430,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21329.7685912568</v>
+        <v>21413.7491358092</v>
       </c>
     </row>
     <row r="15">
@@ -5438,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24433.7274534173</v>
+        <v>24529.9290473636</v>
       </c>
     </row>
     <row r="16">
@@ -5446,7 +5446,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18544.1644841897</v>
+        <v>18617.1774203118</v>
       </c>
     </row>
     <row r="17">
@@ -5454,7 +5454,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>58418.097559636</v>
+        <v>58648.1039764327</v>
       </c>
     </row>
     <row r="18">
@@ -5462,7 +5462,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15121.8508669357</v>
+        <v>15181.3893127005</v>
       </c>
     </row>
     <row r="19">
@@ -5470,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>48151.1567078744</v>
+        <v>48340.7396535992</v>
       </c>
     </row>
     <row r="20">
@@ -5478,7 +5478,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13403.0993821928</v>
+        <v>13529.9765691485</v>
       </c>
     </row>
     <row r="21">
@@ -5486,7 +5486,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14485.141356749</v>
+        <v>14542.1729205869</v>
       </c>
     </row>
     <row r="22">
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27295.6486020112</v>
+        <v>27461.2927992665</v>
       </c>
     </row>
     <row r="5">
@@ -5532,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9418.30686586968</v>
+        <v>9475.4620521431</v>
       </c>
     </row>
     <row r="6">
@@ -5540,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8725.964759792</v>
+        <v>8800.23352907757</v>
       </c>
     </row>
     <row r="7">
@@ -5548,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6108.1753318544</v>
+        <v>6160.1634703543</v>
       </c>
     </row>
     <row r="8">
@@ -5556,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21039.2705874985</v>
+        <v>21218.3408423315</v>
       </c>
     </row>
     <row r="9">
@@ -5564,7 +5564,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5755.63197358702</v>
+        <v>5790.56014297633</v>
       </c>
     </row>
     <row r="10">
@@ -5572,7 +5572,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10471.1577117504</v>
+        <v>10560.2802348931</v>
       </c>
     </row>
     <row r="11">
@@ -5580,7 +5580,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1454.32745996533</v>
+        <v>1466.7055881796</v>
       </c>
     </row>
     <row r="12">
@@ -5588,7 +5588,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>61397.2303074289</v>
+        <v>61513.9624762441</v>
       </c>
     </row>
     <row r="13">
@@ -5596,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42894.9046955965</v>
+        <v>42976.4591115069</v>
       </c>
     </row>
     <row r="14">
@@ -5604,7 +5604,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19686.0010788213</v>
+        <v>19769.9816233737</v>
       </c>
     </row>
     <row r="15">
@@ -5612,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22550.7549671571</v>
+        <v>22646.9565611034</v>
       </c>
     </row>
     <row r="16">
@@ -5620,7 +5620,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17115.0681021095</v>
+        <v>17188.0810382316</v>
       </c>
     </row>
     <row r="17">
@@ -5628,7 +5628,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>53916.1372830401</v>
+        <v>54146.1436998368</v>
       </c>
     </row>
     <row r="18">
@@ -5636,7 +5636,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13956.4933021493</v>
+        <v>14016.0317479141</v>
       </c>
     </row>
     <row r="19">
@@ -5644,7 +5644,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>44440.4128831598</v>
+        <v>44629.9958288846</v>
       </c>
     </row>
     <row r="20">
@@ -5652,7 +5652,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13393.2090344574</v>
+        <v>13520.086221413</v>
       </c>
     </row>
     <row r="21">
@@ -5660,7 +5660,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13368.851478901</v>
+        <v>13425.8830427389</v>
       </c>
     </row>
     <row r="22">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24322.6120227002</v>
+        <v>24348.3436845141</v>
       </c>
     </row>
     <row r="5">
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8392.46676821604</v>
+        <v>8401.34542468856</v>
       </c>
     </row>
     <row r="6">
@@ -5714,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8441.4600570172</v>
+        <v>8553.10403580694</v>
       </c>
     </row>
     <row r="7">
@@ -5722,7 +5722,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5909.02203991204</v>
+        <v>5987.17282506486</v>
       </c>
     </row>
     <row r="8">
@@ -5730,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20353.2981374748</v>
+        <v>20622.4841752234</v>
       </c>
     </row>
     <row r="9">
@@ -5738,7 +5738,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5128.72969168757</v>
+        <v>5134.15553730967</v>
       </c>
     </row>
     <row r="10">
@@ -5746,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10129.7520684206</v>
+        <v>10263.7248429683</v>
       </c>
     </row>
     <row r="11">
@@ -5754,7 +5754,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1406.91000950287</v>
+        <v>1425.51733930116</v>
       </c>
     </row>
     <row r="12">
@@ -5826,7 +5826,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13763.8742847827</v>
+        <v>14016.3797427277</v>
       </c>
     </row>
     <row r="21">
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20047.8817568227</v>
+        <v>20073.6134186366</v>
       </c>
     </row>
     <row r="5">
@@ -5880,7 +5880,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6917.47996721037</v>
+        <v>6926.35862368289</v>
       </c>
     </row>
     <row r="6">
@@ -5888,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7887.84390892116</v>
+        <v>7999.4878877109</v>
       </c>
     </row>
     <row r="7">
@@ -5896,7 +5896,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5521.49073624481</v>
+        <v>5599.64152139763</v>
       </c>
     </row>
     <row r="8">
@@ -5904,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19018.4680915099</v>
+        <v>19287.6541292585</v>
       </c>
     </row>
     <row r="9">
@@ -5912,7 +5912,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4227.34886885077</v>
+        <v>4232.77471447287</v>
       </c>
     </row>
     <row r="10">
@@ -5920,7 +5920,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9465.41269070539</v>
+        <v>9599.38546525307</v>
       </c>
     </row>
     <row r="11">
@@ -5928,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1314.64065148686</v>
+        <v>1333.24798128515</v>
       </c>
     </row>
     <row r="12">
@@ -6000,7 +6000,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13740.9903790374</v>
+        <v>13993.4958369824</v>
       </c>
     </row>
     <row r="21">
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17754.5715283476</v>
+        <v>17780.3031901615</v>
       </c>
     </row>
     <row r="5">
@@ -6054,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6126.17803534038</v>
+        <v>6135.0566918129</v>
       </c>
     </row>
     <row r="6">
@@ -6062,7 +6062,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7646.57538868401</v>
+        <v>7758.21936747375</v>
       </c>
     </row>
     <row r="7">
@@ -6070,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5352.60277207881</v>
+        <v>5430.75355723163</v>
       </c>
     </row>
     <row r="8">
@@ -6078,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18436.7428816048</v>
+        <v>18705.9289193534</v>
       </c>
     </row>
     <row r="9">
@@ -6086,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3743.77546604133</v>
+        <v>3749.20131166343</v>
       </c>
     </row>
     <row r="10">
@@ -6094,7 +6094,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9175.89046642081</v>
+        <v>9309.86324096849</v>
       </c>
     </row>
     <row r="11">
@@ -6102,7 +6102,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1274.42923144734</v>
+        <v>1293.03656124562</v>
       </c>
     </row>
     <row r="12">
@@ -6174,7 +6174,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13728.1324234622</v>
+        <v>13980.6378814072</v>
       </c>
     </row>
     <row r="21">
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31681.743579397</v>
+        <v>31554.495719598</v>
       </c>
     </row>
     <row r="5">
@@ -6228,7 +6228,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10931.7198293127</v>
+        <v>10887.8132195418</v>
       </c>
     </row>
     <row r="6">
@@ -6236,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9044.18177835494</v>
+        <v>9029.45451890329</v>
       </c>
     </row>
     <row r="7">
@@ -6244,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6330.92724484846</v>
+        <v>6320.61816323231</v>
       </c>
     </row>
     <row r="8">
@@ -6252,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21806.5271767002</v>
+        <v>21771.0181178002</v>
       </c>
     </row>
     <row r="9">
@@ -6260,7 +6260,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6680.49545124665</v>
+        <v>6653.66363416444</v>
       </c>
     </row>
     <row r="10">
@@ -6268,7 +6268,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10853.0181340259</v>
+        <v>10835.345422684</v>
       </c>
     </row>
     <row r="11">
@@ -6276,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1507.36362972582</v>
+        <v>1504.90908648388</v>
       </c>
     </row>
     <row r="12">
@@ -6284,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>92888.6433827867</v>
+        <v>91459.0955885245</v>
       </c>
     </row>
     <row r="13">
@@ -6292,7 +6292,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>64896.2418216083</v>
+        <v>63897.4945477389</v>
       </c>
     </row>
     <row r="14">
@@ -6300,7 +6300,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27394.6926099237</v>
+        <v>27196.4617399491</v>
       </c>
     </row>
     <row r="15">
@@ -6308,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31381.2336986813</v>
+        <v>31154.1557991208</v>
       </c>
     </row>
     <row r="16">
@@ -6316,7 +6316,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23817.0275302695</v>
+        <v>23644.6850201797</v>
       </c>
     </row>
     <row r="17">
@@ -6324,7 +6324,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>75028.7476704627</v>
+        <v>74485.8317803084</v>
       </c>
     </row>
     <row r="18">
@@ -6332,7 +6332,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19421.6104324086</v>
+        <v>19281.0736216057</v>
       </c>
     </row>
     <row r="19">
@@ -6340,7 +6340,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61842.49637688</v>
+        <v>61394.9975845867</v>
       </c>
     </row>
     <row r="20">
@@ -6348,7 +6348,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12802.08957378</v>
+        <v>12801.3930491866</v>
       </c>
     </row>
     <row r="21">
@@ -6356,7 +6356,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18603.8584142019</v>
+        <v>18469.2389428013</v>
       </c>
     </row>
     <row r="22">
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25560.9995460768</v>
+        <v>25173.9353667652</v>
       </c>
     </row>
     <row r="5">
@@ -6402,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8819.76981142584</v>
+        <v>8686.21412016176</v>
       </c>
     </row>
     <row r="6">
@@ -6410,7 +6410,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8636.67732442901</v>
+        <v>8683.24888074814</v>
       </c>
     </row>
     <row r="7">
@@ -6418,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6045.67412710031</v>
+        <v>6078.2742165237</v>
       </c>
     </row>
     <row r="8">
@@ -6426,7 +6426,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20823.9886600122</v>
+        <v>20936.277856915</v>
       </c>
     </row>
     <row r="9">
@@ -6434,7 +6434,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5389.85932920466</v>
+        <v>5308.24196232107</v>
       </c>
     </row>
     <row r="10">
@@ -6442,7 +6442,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10364.0127893148</v>
+        <v>10419.8986568978</v>
       </c>
     </row>
     <row r="11">
@@ -6450,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1439.44622073817</v>
+        <v>1447.20814679136</v>
       </c>
     </row>
     <row r="12">
@@ -6458,7 +6458,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>106672.613143139</v>
+        <v>103978.121837976</v>
       </c>
     </row>
     <row r="13">
@@ -6466,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>74526.3516203194</v>
+        <v>72643.8571305953</v>
       </c>
     </row>
     <row r="14">
@@ -6474,7 +6474,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22856.369945642</v>
+        <v>22261.8993371903</v>
       </c>
     </row>
     <row r="15">
@@ -6482,7 +6482,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26182.4834825078</v>
+        <v>25501.5040914829</v>
       </c>
     </row>
     <row r="16">
@@ -6490,7 +6490,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19871.3962587111</v>
+        <v>19354.5617371841</v>
       </c>
     </row>
     <row r="17">
@@ -6498,7 +6498,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>62599.1624630642</v>
+        <v>60971.0228115585</v>
       </c>
     </row>
     <row r="18">
@@ -6506,7 +6506,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16204.1428719103</v>
+        <v>15782.6898286051</v>
       </c>
     </row>
     <row r="19">
@@ -6514,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51597.4023026619</v>
+        <v>50255.4070858214</v>
       </c>
     </row>
     <row r="20">
@@ -6522,7 +6522,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13770.140503639</v>
+        <v>14020.5572219653</v>
       </c>
     </row>
     <row r="21">
@@ -6530,7 +6530,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15521.8631720404</v>
+        <v>15118.1555200322</v>
       </c>
     </row>
     <row r="22">
@@ -6568,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20865.2175222512</v>
+        <v>20618.5039289223</v>
       </c>
     </row>
     <row r="5">
@@ -6576,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7199.49997572884</v>
+        <v>7114.3719626952</v>
       </c>
     </row>
     <row r="6">
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8016.68730541295</v>
+        <v>8085.3834853721</v>
       </c>
     </row>
     <row r="7">
@@ -6592,7 +6592,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5611.68111378907</v>
+        <v>5659.76843976047</v>
       </c>
     </row>
     <row r="8">
@@ -6600,7 +6600,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19329.1238363846</v>
+        <v>19494.7579591749</v>
       </c>
     </row>
     <row r="9">
@@ -6608,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4399.69442961205</v>
+        <v>4347.67175498039</v>
       </c>
     </row>
     <row r="10">
@@ -6616,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9620.02476649554</v>
+        <v>9702.4601824465</v>
       </c>
     </row>
     <row r="11">
@@ -6624,7 +6624,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1336.11455090216</v>
+        <v>1347.56391422868</v>
       </c>
     </row>
     <row r="12">
@@ -6632,7 +6632,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81131.759824328</v>
+        <v>79353.3955629208</v>
       </c>
     </row>
     <row r="13">
@@ -6640,7 +6640,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56682.3468750102</v>
+        <v>55439.9005117923</v>
       </c>
     </row>
     <row r="14">
@@ -6648,7 +6648,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17289.2551924245</v>
+        <v>16896.9045908464</v>
       </c>
     </row>
     <row r="15">
@@ -6656,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19805.2288957997</v>
+        <v>19355.7824977233</v>
       </c>
     </row>
     <row r="16">
@@ -6664,7 +6664,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15031.3300740109</v>
+        <v>14690.219289803</v>
       </c>
     </row>
     <row r="17">
@@ -6672,7 +6672,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47351.9153404463</v>
+        <v>46277.3431704525</v>
       </c>
     </row>
     <row r="18">
@@ -6680,7 +6680,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12257.3077856741</v>
+        <v>11979.1487770926</v>
       </c>
     </row>
     <row r="19">
@@ -6688,7 +6688,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39029.848475436</v>
+        <v>38144.1316323212</v>
       </c>
     </row>
     <row r="20">
@@ -6696,7 +6696,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13745.1260834826</v>
+        <v>13996.2529732792</v>
       </c>
     </row>
     <row r="21">
@@ -6704,7 +6704,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11741.210615751</v>
+        <v>11474.7635654256</v>
       </c>
     </row>
     <row r="22">
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>18448.0685414385</v>
+        <v>18242.6345322221</v>
       </c>
     </row>
     <row r="5">
@@ -6750,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6365.46773953786</v>
+        <v>6294.58316127789</v>
       </c>
     </row>
     <row r="6">
@@ -6758,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7755.89705843462</v>
+        <v>7831.10048064082</v>
       </c>
     </row>
     <row r="7">
@@ -6766,7 +6766,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5429.12794090423</v>
+        <v>5481.77033644858</v>
       </c>
     </row>
     <row r="8">
@@ -6774,7 +6774,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18700.3295742257</v>
+        <v>18881.6533811006</v>
       </c>
     </row>
     <row r="9">
@@ -6782,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3890.0080630509</v>
+        <v>3846.68970966981</v>
       </c>
     </row>
     <row r="10">
@@ -6790,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9307.07647012154</v>
+        <v>9397.32057676897</v>
       </c>
     </row>
     <row r="11">
@@ -6798,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1292.6495097391</v>
+        <v>1305.18341344014</v>
       </c>
     </row>
     <row r="12">
@@ -6806,7 +6806,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>70464.4985100141</v>
+        <v>68955.5833791231</v>
       </c>
     </row>
     <row r="13">
@@ -6814,7 +6814,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49229.7117129783</v>
+        <v>48175.5147987328</v>
       </c>
     </row>
     <row r="14">
@@ -6822,7 +6822,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15003.6181978603</v>
+        <v>14670.7146571274</v>
       </c>
     </row>
     <row r="15">
@@ -6830,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>17186.980547549</v>
+        <v>16805.632088575</v>
       </c>
     </row>
     <row r="16">
@@ -6838,7 +6838,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13044.1904481398</v>
+        <v>12754.7631160846</v>
       </c>
     </row>
     <row r="17">
@@ -6846,7 +6846,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>41091.9990941399</v>
+        <v>40180.2408892967</v>
       </c>
     </row>
     <row r="18">
@@ -6854,7 +6854,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10636.8934984831</v>
+        <v>10400.8797942321</v>
       </c>
     </row>
     <row r="19">
@@ -6862,7 +6862,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>33870.1082451698</v>
+        <v>33118.5909237391</v>
       </c>
     </row>
     <row r="20">
@@ -6870,7 +6870,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13731.6415060217</v>
+        <v>13982.9772697802</v>
       </c>
     </row>
     <row r="21">
@@ -6878,7 +6878,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10189.0242985469</v>
+        <v>9962.94801342233</v>
       </c>
     </row>
     <row r="22">
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24817.9670320509</v>
+        <v>24843.6986938648</v>
       </c>
     </row>
     <row r="5">
@@ -6924,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8563.38798549996</v>
+        <v>8572.26664197248</v>
       </c>
     </row>
     <row r="6">
@@ -6932,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8519.54696398192</v>
+        <v>8631.19094277166</v>
       </c>
     </row>
     <row r="7">
@@ -6940,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5963.68287478735</v>
+        <v>6041.83365994017</v>
       </c>
     </row>
     <row r="8">
@@ -6948,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20541.5743464897</v>
+        <v>20810.7603842383</v>
       </c>
     </row>
     <row r="9">
@@ -6956,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5233.18154669441</v>
+        <v>5238.60739231651</v>
       </c>
     </row>
     <row r="10">
@@ -6964,7 +6964,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10223.4563567783</v>
+        <v>10357.429131326</v>
       </c>
     </row>
     <row r="11">
@@ -6972,7 +6972,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1419.92449399699</v>
+        <v>1438.53182379528</v>
       </c>
     </row>
     <row r="12">
@@ -7044,7 +7044,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13766.3807723252</v>
+        <v>14018.8862302702</v>
       </c>
     </row>
     <row r="21">
@@ -7090,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20374.8160629941</v>
+        <v>20400.547724808</v>
       </c>
     </row>
     <row r="5">
@@ -7098,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7030.28797061776</v>
+        <v>7039.16662709028</v>
       </c>
     </row>
     <row r="6">
@@ -7106,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7939.38126751788</v>
+        <v>8051.02524630762</v>
       </c>
     </row>
     <row r="7">
@@ -7114,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5557.56688726252</v>
+        <v>5635.71767241534</v>
       </c>
     </row>
     <row r="8">
@@ -7122,7 +7122,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19142.7303894598</v>
+        <v>19411.9164272083</v>
       </c>
     </row>
     <row r="9">
@@ -7130,7 +7130,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4296.28709315528</v>
+        <v>4301.71293877738</v>
       </c>
     </row>
     <row r="10">
@@ -7138,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9527.25752102145</v>
+        <v>9661.23029556913</v>
       </c>
     </row>
     <row r="11">
@@ -7146,7 +7146,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1323.23021125298</v>
+        <v>1341.83754105127</v>
       </c>
     </row>
     <row r="12">
@@ -7218,7 +7218,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13742.6446608155</v>
+        <v>13995.1501187605</v>
       </c>
     </row>
     <row r="21">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>18031.970333584</v>
+        <v>18057.7019953979</v>
       </c>
     </row>
     <row r="5">
@@ -7272,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6221.89391701937</v>
+        <v>6230.77257349189</v>
       </c>
     </row>
     <row r="6">
@@ -7280,7 +7280,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7690.30405658425</v>
+        <v>7801.94803537399</v>
       </c>
     </row>
     <row r="7">
@@ -7288,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5383.21283960898</v>
+        <v>5461.3636247618</v>
       </c>
     </row>
     <row r="8">
@@ -7296,7 +7296,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18542.1775586531</v>
+        <v>18811.3635964017</v>
       </c>
     </row>
     <row r="9">
@@ -7304,7 +7304,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3802.26850484516</v>
+        <v>3807.69435046726</v>
       </c>
     </row>
     <row r="10">
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9228.3648679011</v>
+        <v>9362.33764244878</v>
       </c>
     </row>
     <row r="11">
@@ -7320,7 +7320,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1281.71734276404</v>
+        <v>1300.32467256233</v>
       </c>
     </row>
     <row r="12">
@@ -7392,7 +7392,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13729.536056486</v>
+        <v>13982.041514431</v>
       </c>
     </row>
     <row r="21">
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26446.7064100668</v>
+        <v>26511.7731531282</v>
       </c>
     </row>
     <row r="5">
@@ -7446,7 +7446,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9125.38112551825</v>
+        <v>9147.83227008896</v>
       </c>
     </row>
     <row r="6">
@@ -7454,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8742.99481445972</v>
+        <v>8860.22277023914</v>
       </c>
     </row>
     <row r="7">
@@ -7462,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6120.09637012181</v>
+        <v>6202.1559391674</v>
       </c>
     </row>
     <row r="8">
@@ -7470,7 +7470,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21080.3319415307</v>
+        <v>21362.9815682432</v>
       </c>
     </row>
     <row r="9">
@@ -7478,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5576.62179892782</v>
+        <v>5590.34194283214</v>
       </c>
     </row>
     <row r="10">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10491.5937773517</v>
+        <v>10632.267324287</v>
       </c>
     </row>
     <row r="11">
@@ -7494,7 +7494,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1457.16580240995</v>
+        <v>1476.70379503986</v>
       </c>
     </row>
     <row r="12">
@@ -7518,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21358.8368164159</v>
+        <v>21364.1308663442</v>
       </c>
     </row>
     <row r="15">
@@ -7526,7 +7526,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24467.0257561181</v>
+        <v>24473.0902088345</v>
       </c>
     </row>
     <row r="16">
@@ -7534,7 +7534,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18569.4364859138</v>
+        <v>18574.0391487246</v>
       </c>
     </row>
     <row r="17">
@@ -7542,7 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>58497.7097882434</v>
+        <v>58512.2091637933</v>
       </c>
     </row>
     <row r="18">
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15142.4589370112</v>
+        <v>15146.2121813634</v>
       </c>
     </row>
     <row r="19">
@@ -7558,7 +7558,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>48216.7771415358</v>
+        <v>48228.7282617098</v>
       </c>
     </row>
     <row r="20">
@@ -7566,7 +7566,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13777.7185488819</v>
+        <v>14030.480382088</v>
       </c>
     </row>
     <row r="21">
@@ -7574,7 +7574,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14504.8817186107</v>
+        <v>14508.4769316218</v>
       </c>
     </row>
     <row r="22">
@@ -7612,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22171.9761441893</v>
+        <v>22237.0428872507</v>
       </c>
     </row>
     <row r="5">
@@ -7620,7 +7620,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7650.39432451258</v>
+        <v>7672.84546908329</v>
       </c>
     </row>
     <row r="6">
@@ -7628,7 +7628,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8189.37866636368</v>
+        <v>8306.6066221431</v>
       </c>
     </row>
     <row r="7">
@@ -7636,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5732.56506645458</v>
+        <v>5814.62463550017</v>
       </c>
     </row>
     <row r="8">
@@ -7644,7 +7644,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19745.5018955658</v>
+        <v>20028.1515222783</v>
       </c>
     </row>
     <row r="9">
@@ -7652,7 +7652,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4675.24097609102</v>
+        <v>4688.96111999534</v>
       </c>
     </row>
     <row r="10">
@@ -7660,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9827.25439963642</v>
+        <v>9967.92794657171</v>
       </c>
     </row>
     <row r="11">
@@ -7668,7 +7668,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1364.89644439395</v>
+        <v>1384.43443702385</v>
       </c>
     </row>
     <row r="12">
@@ -7692,7 +7692,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16398.0820838192</v>
+        <v>16403.3761337475</v>
       </c>
     </row>
     <row r="15">
@@ -7700,7 +7700,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18784.3701482554</v>
+        <v>18790.4346009718</v>
       </c>
     </row>
     <row r="16">
@@ -7708,7 +7708,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14256.5415131711</v>
+        <v>14261.1441759819</v>
       </c>
     </row>
     <row r="17">
@@ -7716,7 +7716,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>44911.1651101613</v>
+        <v>44925.6644857112</v>
       </c>
     </row>
     <row r="18">
@@ -7724,7 +7724,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11625.5059549463</v>
+        <v>11629.2591992985</v>
       </c>
     </row>
     <row r="19">
@@ -7732,7 +7732,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>37018.0584354872</v>
+        <v>37030.0095556612</v>
       </c>
     </row>
     <row r="20">
@@ -7740,7 +7740,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13754.8346431366</v>
+        <v>14007.5964763427</v>
       </c>
     </row>
     <row r="21">
@@ -7748,7 +7748,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11136.0109673696</v>
+        <v>11139.6061803807</v>
       </c>
     </row>
     <row r="22">
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19878.6659157142</v>
+        <v>19943.7326587756</v>
       </c>
     </row>
     <row r="5">
@@ -7794,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6859.09239264259</v>
+        <v>6881.5435372133</v>
       </c>
     </row>
     <row r="6">
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7948.11014612653</v>
+        <v>8065.33810190594</v>
       </c>
     </row>
     <row r="7">
@@ -7810,7 +7810,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5563.67710228858</v>
+        <v>5645.73667133417</v>
       </c>
     </row>
     <row r="8">
@@ -7818,7 +7818,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19163.7766856606</v>
+        <v>19446.4263123732</v>
       </c>
     </row>
     <row r="9">
@@ -7826,7 +7826,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4191.66757328158</v>
+        <v>4205.3877171859</v>
       </c>
     </row>
     <row r="10">
@@ -7834,7 +7834,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9537.73217535184</v>
+        <v>9678.40572228713</v>
       </c>
     </row>
     <row r="11">
@@ -7842,7 +7842,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1324.68502435442</v>
+        <v>1344.22301698432</v>
       </c>
     </row>
     <row r="12">
@@ -7866,7 +7866,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14290.7862717905</v>
+        <v>14296.0803217188</v>
       </c>
     </row>
     <row r="15">
@@ -7874,7 +7874,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16370.4156173121</v>
+        <v>16376.4800700285</v>
       </c>
     </row>
     <row r="16">
@@ -7882,7 +7882,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12424.4522437581</v>
+        <v>12429.0549065689</v>
       </c>
     </row>
     <row r="17">
@@ -7890,7 +7890,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>39139.6907593066</v>
+        <v>39154.1901348565</v>
       </c>
     </row>
     <row r="18">
@@ -7898,7 +7898,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10131.5275807469</v>
+        <v>10135.2808250991</v>
       </c>
     </row>
     <row r="19">
@@ -7906,7 +7906,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>32260.9167702732</v>
+        <v>32272.8678904472</v>
       </c>
     </row>
     <row r="20">
@@ -7914,7 +7914,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13741.9766875614</v>
+        <v>13994.7385207675</v>
       </c>
     </row>
     <row r="21">
@@ -7922,7 +7922,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9704.93694576806</v>
+        <v>9708.53215877908</v>
       </c>
     </row>
     <row r="22">
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27685.0939334434</v>
+        <v>27337.3648353793</v>
       </c>
     </row>
     <row r="5">
@@ -7968,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9552.68416872805</v>
+        <v>9432.70096556216</v>
       </c>
     </row>
     <row r="6">
@@ -7976,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8938.21208187153</v>
+        <v>8990.36761518033</v>
       </c>
     </row>
     <row r="7">
@@ -7984,7 +7984,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6256.74845731008</v>
+        <v>6293.25733062624</v>
       </c>
     </row>
     <row r="8">
@@ -7992,7 +7992,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21551.022464068</v>
+        <v>21676.7752499348</v>
       </c>
     </row>
     <row r="9">
@@ -8000,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5837.75143644491</v>
+        <v>5764.42836784354</v>
       </c>
     </row>
     <row r="10">
@@ -8008,7 +8008,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10725.8544982458</v>
+        <v>10788.4411382164</v>
       </c>
     </row>
     <row r="11">
@@ -8016,7 +8016,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1489.70201364525</v>
+        <v>1498.39460253006</v>
       </c>
     </row>
     <row r="12">
@@ -8024,7 +8024,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>106672.613143139</v>
+        <v>103978.121837976</v>
       </c>
     </row>
     <row r="13">
@@ -8032,7 +8032,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>74526.3516203194</v>
+        <v>72643.8571305953</v>
       </c>
     </row>
     <row r="14">
@@ -8040,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23142.248641771</v>
+        <v>22553.0720832476</v>
       </c>
     </row>
     <row r="15">
@@ -8048,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26509.9639291927</v>
+        <v>25835.0489908842</v>
       </c>
     </row>
     <row r="16">
@@ -8056,7 +8056,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20119.9400504948</v>
+        <v>19607.7081917786</v>
       </c>
     </row>
     <row r="17">
@@ -8064,7 +8064,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>63382.1287427605</v>
+        <v>61768.4884668047</v>
       </c>
     </row>
     <row r="18">
@@ -8072,7 +8072,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16406.818066927</v>
+        <v>15989.118267974</v>
       </c>
     </row>
     <row r="19">
@@ -8080,7 +8080,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>52242.7627920574</v>
+        <v>50912.7186953909</v>
       </c>
     </row>
     <row r="20">
@@ -8088,7 +8088,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13783.9847677382</v>
+        <v>14034.6578613255</v>
       </c>
     </row>
     <row r="21">
@@ -8096,7 +8096,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15716.0046746353</v>
+        <v>15315.8922356382</v>
       </c>
     </row>
     <row r="22">
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29962.7663800235</v>
+        <v>29878.7827925561</v>
       </c>
     </row>
     <row r="5">
@@ -8142,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10338.5903164298</v>
+        <v>10309.611953981</v>
       </c>
     </row>
     <row r="6">
@@ -8150,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8903.8649817641</v>
+        <v>8894.14499052601</v>
       </c>
     </row>
     <row r="7">
@@ -8158,7 +8158,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6232.70548723487</v>
+        <v>6225.90149336821</v>
       </c>
     </row>
     <row r="8">
@@ -8166,7 +8166,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21468.2077893645</v>
+        <v>21444.7718104905</v>
       </c>
     </row>
     <row r="9">
@@ -8174,7 +8174,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6318.02741559601</v>
+        <v>6300.31841632174</v>
       </c>
     </row>
     <row r="10">
@@ -8182,7 +8182,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10684.6379781169</v>
+        <v>10672.9739886312</v>
       </c>
     </row>
     <row r="11">
@@ -8190,7 +8190,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1483.97749696068</v>
+        <v>1482.357498421</v>
       </c>
     </row>
     <row r="12">
@@ -8198,7 +8198,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>79338.0817403994</v>
+        <v>78394.5801961863</v>
       </c>
     </row>
     <row r="13">
@@ -8206,7 +8206,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>55429.2015770962</v>
+        <v>54770.0283763423</v>
       </c>
     </row>
     <row r="14">
@@ -8214,7 +8214,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25538.2946903481</v>
+        <v>25407.4623161648</v>
       </c>
     </row>
     <row r="15">
@@ -8222,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29254.6883206599</v>
+        <v>29104.81690695</v>
       </c>
     </row>
     <row r="16">
@@ -8230,7 +8230,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22203.0696375041</v>
+        <v>22089.3235808448</v>
       </c>
     </row>
     <row r="17">
@@ -8238,7 +8238,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69944.4339653562</v>
+        <v>69586.1094778545</v>
       </c>
     </row>
     <row r="18">
@@ -8246,7 +8246,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18105.5074297244</v>
+        <v>18012.7531345945</v>
       </c>
     </row>
     <row r="19">
@@ -8254,7 +8254,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57651.7473420171</v>
+        <v>57356.3981391035</v>
       </c>
     </row>
     <row r="20">
@@ -8262,7 +8262,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12793.7481037997</v>
+        <v>12793.2883975681</v>
       </c>
     </row>
     <row r="21">
@@ -8270,7 +8270,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17343.1702747886</v>
+        <v>17254.3214236642</v>
       </c>
     </row>
     <row r="22">
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22989.3119096178</v>
+        <v>22781.9333975364</v>
       </c>
     </row>
     <row r="5">
@@ -8316,7 +8316,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7932.41433303105</v>
+        <v>7860.8588080956</v>
       </c>
     </row>
     <row r="6">
@@ -8324,7 +8324,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8318.22206285547</v>
+        <v>8392.5022198043</v>
       </c>
     </row>
     <row r="7">
@@ -8332,7 +8332,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5822.75544399884</v>
+        <v>5874.75155386301</v>
       </c>
     </row>
     <row r="8">
@@ -8340,7 +8340,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20056.1576404404</v>
+        <v>20235.2553521948</v>
       </c>
     </row>
     <row r="9">
@@ -8348,7 +8348,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4847.5865368523</v>
+        <v>4803.85816050286</v>
       </c>
     </row>
     <row r="10">
@@ -8356,7 +8356,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9981.86647542657</v>
+        <v>10071.0026637651</v>
       </c>
     </row>
     <row r="11">
@@ -8364,7 +8364,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1386.37034380925</v>
+        <v>1398.75036996738</v>
       </c>
     </row>
     <row r="12">
@@ -8372,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81131.759824328</v>
+        <v>79353.3955629208</v>
       </c>
     </row>
     <row r="13">
@@ -8380,7 +8380,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56682.3468750102</v>
+        <v>55439.9005117923</v>
       </c>
     </row>
     <row r="14">
@@ -8388,7 +8388,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17575.1338885535</v>
+        <v>17188.0773369037</v>
       </c>
     </row>
     <row r="15">
@@ -8396,7 +8396,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20132.7093424846</v>
+        <v>19689.3273971246</v>
       </c>
     </row>
     <row r="16">
@@ -8404,7 +8404,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15279.8738657946</v>
+        <v>14943.3657443975</v>
       </c>
     </row>
     <row r="17">
@@ -8412,7 +8412,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>48134.8816201426</v>
+        <v>47074.8088256987</v>
       </c>
     </row>
     <row r="18">
@@ -8420,7 +8420,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12459.9829806908</v>
+        <v>12185.5772164615</v>
       </c>
     </row>
     <row r="19">
@@ -8428,7 +8428,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39675.2089648315</v>
+        <v>38801.4432418907</v>
       </c>
     </row>
     <row r="20">
@@ -8436,7 +8436,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13758.9703475818</v>
+        <v>14010.3536126395</v>
       </c>
     </row>
     <row r="21">
@@ -8444,7 +8444,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11935.3521183459</v>
+        <v>11672.5002810316</v>
       </c>
     </row>
     <row r="22">
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20572.1629288051</v>
+        <v>20406.0640008362</v>
       </c>
     </row>
     <row r="5">
@@ -8490,7 +8490,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7098.38209684007</v>
+        <v>7041.07000667829</v>
       </c>
     </row>
     <row r="6">
@@ -8498,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8057.43181587714</v>
+        <v>8138.21921507301</v>
       </c>
     </row>
     <row r="7">
@@ -8506,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5640.202271114</v>
+        <v>5696.75345055112</v>
       </c>
     </row>
     <row r="8">
@@ -8514,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19427.3633782815</v>
+        <v>19622.1507741205</v>
       </c>
     </row>
     <row r="9">
@@ -8522,7 +8522,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4337.90017029115</v>
+        <v>4302.87611519228</v>
       </c>
     </row>
     <row r="10">
@@ -8530,7 +8530,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9668.91817905257</v>
+        <v>9765.86305808761</v>
       </c>
     </row>
     <row r="11">
@@ -8538,7 +8538,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1342.90530264619</v>
+        <v>1356.36986917884</v>
       </c>
     </row>
     <row r="12">
@@ -8546,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>70464.4985100141</v>
+        <v>68955.5833791231</v>
       </c>
     </row>
     <row r="13">
@@ -8554,7 +8554,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49229.7117129783</v>
+        <v>48175.5147987328</v>
       </c>
     </row>
     <row r="14">
@@ -8562,7 +8562,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15289.4968939893</v>
+        <v>14961.8874031847</v>
       </c>
     </row>
     <row r="15">
@@ -8570,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>17514.4609942339</v>
+        <v>17139.1769879763</v>
       </c>
     </row>
     <row r="16">
@@ -8578,7 +8578,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13292.7342399235</v>
+        <v>13007.9095706791</v>
       </c>
     </row>
     <row r="17">
@@ -8586,7 +8586,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>41874.9653738362</v>
+        <v>40977.7065445429</v>
       </c>
     </row>
     <row r="18">
@@ -8594,7 +8594,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10839.5686934998</v>
+        <v>10607.308233601</v>
       </c>
     </row>
     <row r="19">
@@ -8602,7 +8602,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>34515.4687345653</v>
+        <v>33775.9025333086</v>
       </c>
     </row>
     <row r="20">
@@ -8610,7 +8610,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13745.4857701209</v>
+        <v>13997.0779091405</v>
       </c>
     </row>
     <row r="21">
@@ -8618,7 +8618,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10383.1658011418</v>
+        <v>10160.6847290283</v>
       </c>
     </row>
     <row r="22">
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26942.0614194175</v>
+        <v>27007.1281624789</v>
       </c>
     </row>
     <row r="5">
@@ -8664,7 +8664,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9296.30234280217</v>
+        <v>9318.75348737288</v>
       </c>
     </row>
     <row r="6">
@@ -8672,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8821.08172142444</v>
+        <v>8938.30967720386</v>
       </c>
     </row>
     <row r="7">
@@ -8680,7 +8680,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6174.75720499712</v>
+        <v>6256.81677404271</v>
       </c>
     </row>
     <row r="8">
@@ -8688,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21268.6081505456</v>
+        <v>21551.2577772582</v>
       </c>
     </row>
     <row r="9">
@@ -8696,7 +8696,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5681.07365393466</v>
+        <v>5694.79379783898</v>
       </c>
     </row>
     <row r="10">
@@ -8704,7 +8704,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10585.2980657093</v>
+        <v>10725.9716126446</v>
       </c>
     </row>
     <row r="11">
@@ -8712,7 +8712,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1470.18028690407</v>
+        <v>1489.71827953398</v>
       </c>
     </row>
     <row r="12">
@@ -8736,7 +8736,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22072.2015465579</v>
+        <v>22077.4955964862</v>
       </c>
     </row>
     <row r="15">
@@ -8744,7 +8744,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25284.2010253479</v>
+        <v>25290.2654780643</v>
       </c>
     </row>
     <row r="16">
@@ -8752,7 +8752,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19189.6379117462</v>
+        <v>19194.240574557</v>
       </c>
     </row>
     <row r="17">
@@ -8760,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>60451.4773700502</v>
+        <v>60465.9767456001</v>
       </c>
     </row>
     <row r="18">
@@ -8768,7 +8768,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15648.2025889775</v>
+        <v>15651.9558333297</v>
       </c>
     </row>
     <row r="19">
@@ -8776,7 +8776,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>49827.1714017444</v>
+        <v>49839.1225219184</v>
       </c>
     </row>
     <row r="20">
@@ -8784,7 +8784,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13780.2250364244</v>
+        <v>14032.9868696305</v>
       </c>
     </row>
     <row r="21">
@@ -8792,7 +8792,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14989.3309010205</v>
+        <v>14992.9261140316</v>
       </c>
     </row>
     <row r="22">
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22498.9104503607</v>
+        <v>22563.9771934221</v>
       </c>
     </row>
     <row r="5">
@@ -8838,7 +8838,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7763.20232791997</v>
+        <v>7785.65347249068</v>
       </c>
     </row>
     <row r="6">
@@ -8846,7 +8846,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8240.9160249604</v>
+        <v>8358.14398073981</v>
       </c>
     </row>
     <row r="7">
@@ -8854,7 +8854,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5768.64121747229</v>
+        <v>5850.70078651788</v>
       </c>
     </row>
     <row r="8">
@@ -8862,7 +8862,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19869.7641935156</v>
+        <v>20152.4138202282</v>
       </c>
     </row>
     <row r="9">
@@ -8870,7 +8870,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4744.17920039553</v>
+        <v>4757.89934429985</v>
       </c>
     </row>
     <row r="10">
@@ -8878,7 +8878,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9889.09922995248</v>
+        <v>10029.7727768878</v>
       </c>
     </row>
     <row r="11">
@@ -8886,7 +8886,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1373.48600416007</v>
+        <v>1393.02399678997</v>
       </c>
     </row>
     <row r="12">
@@ -8910,7 +8910,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16868.9028057129</v>
+        <v>16874.1968556412</v>
       </c>
     </row>
     <row r="15">
@@ -8918,7 +8918,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19323.7058259471</v>
+        <v>19329.7702786635</v>
       </c>
     </row>
     <row r="16">
@@ -8926,7 +8926,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14665.8744542205</v>
+        <v>14670.4771170313</v>
       </c>
     </row>
     <row r="17">
@@ -8934,7 +8934,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46200.6517141538</v>
+        <v>46215.1510897037</v>
       </c>
     </row>
     <row r="18">
@@ -8942,7 +8942,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11959.2967652441</v>
+        <v>11963.0500095963</v>
       </c>
     </row>
     <row r="19">
@@ -8950,7 +8950,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38080.9186472249</v>
+        <v>38092.8697673989</v>
       </c>
     </row>
     <row r="20">
@@ -8958,7 +8958,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13756.4889249147</v>
+        <v>14009.2507581208</v>
       </c>
     </row>
     <row r="21">
@@ -8966,7 +8966,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11455.7474277601</v>
+        <v>11459.3426407712</v>
       </c>
     </row>
     <row r="22">
@@ -9004,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20156.0647209506</v>
+        <v>20221.131464012</v>
       </c>
     </row>
     <row r="5">
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6954.80827432158</v>
+        <v>6977.25941889229</v>
       </c>
     </row>
     <row r="6">
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7991.83881402677</v>
+        <v>8109.06676980618</v>
       </c>
     </row>
     <row r="7">
@@ -9028,7 +9028,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5594.28716981875</v>
+        <v>5676.34673886434</v>
       </c>
     </row>
     <row r="8">
@@ -9036,7 +9036,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19269.211362709</v>
+        <v>19551.8609894216</v>
       </c>
     </row>
     <row r="9">
@@ -9044,7 +9044,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4250.16061208541</v>
+        <v>4263.88075598973</v>
       </c>
     </row>
     <row r="10">
@@ -9052,7 +9052,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9590.20657683213</v>
+        <v>9730.88012376742</v>
       </c>
     </row>
     <row r="11">
@@ -9060,7 +9060,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1331.97313567113</v>
+        <v>1351.51112830103</v>
       </c>
     </row>
     <row r="12">
@@ -9084,7 +9084,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14690.27052067</v>
+        <v>14695.5645705983</v>
       </c>
     </row>
     <row r="15">
@@ -9092,7 +9092,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16828.0337680808</v>
+        <v>16834.0982207972</v>
       </c>
     </row>
     <row r="16">
@@ -9100,7 +9100,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12771.7650422242</v>
+        <v>12776.367705035</v>
       </c>
     </row>
     <row r="17">
@@ -9108,7 +9108,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>40233.8006051184</v>
+        <v>40248.2999806683</v>
       </c>
     </row>
     <row r="18">
@@ -9116,7 +9116,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10414.744025848</v>
+        <v>10418.4972702002</v>
       </c>
     </row>
     <row r="19">
@@ -9124,7 +9124,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>33162.73755599</v>
+        <v>33174.688676164</v>
       </c>
     </row>
     <row r="20">
@@ -9132,7 +9132,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13743.3803205852</v>
+        <v>13996.1421537913</v>
       </c>
     </row>
     <row r="21">
@@ -9140,7 +9140,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9976.22848791759</v>
+        <v>9979.82370092861</v>
       </c>
     </row>
     <row r="22">
@@ -9178,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27963.9166867572</v>
+        <v>28057.079916424</v>
       </c>
     </row>
     <row r="5">
@@ -9186,7 +9186,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9648.89138073412</v>
+        <v>9681.03715966068</v>
       </c>
     </row>
     <row r="6">
@@ -9194,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8958.37678406153</v>
+        <v>9079.59329483356</v>
       </c>
     </row>
     <row r="7">
@@ -9202,7 +9202,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6270.86374884307</v>
+        <v>6355.71530638349</v>
       </c>
     </row>
     <row r="8">
@@ -9210,7 +9210,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21599.6418015706</v>
+        <v>21891.9082775431</v>
       </c>
     </row>
     <row r="9">
@@ -9218,7 +9218,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5896.54473267085</v>
+        <v>5916.18937534819</v>
       </c>
     </row>
     <row r="10">
@@ -9226,7 +9226,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10750.0521408738</v>
+        <v>10895.5119538003</v>
       </c>
     </row>
     <row r="11">
@@ -9234,7 +9234,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1493.06279734359</v>
+        <v>1513.26554913893</v>
       </c>
     </row>
     <row r="12">
@@ -9258,7 +9258,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22979.5309191525</v>
+        <v>23014.8378228352</v>
       </c>
     </row>
     <row r="15">
@@ -9266,7 +9266,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26323.5671349992</v>
+        <v>26364.0119836208</v>
       </c>
     </row>
     <row r="16">
@@ -9274,7 +9274,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19978.4727767258</v>
+        <v>20009.1687041813</v>
       </c>
     </row>
     <row r="17">
@@ -9282,7 +9282,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>62936.4764726041</v>
+        <v>63033.1752311977</v>
       </c>
     </row>
     <row r="18">
@@ -9290,7 +9290,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16291.4584874588</v>
+        <v>16316.4895012637</v>
       </c>
     </row>
     <row r="19">
@@ -9298,7 +9298,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51875.4336048031</v>
+        <v>51955.137622445</v>
       </c>
     </row>
     <row r="20">
@@ -9306,7 +9306,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13787.6073089528</v>
+        <v>14040.5522673454</v>
       </c>
     </row>
     <row r="21">
@@ -9314,7 +9314,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15605.5023406184</v>
+        <v>15629.479417</v>
       </c>
     </row>
     <row r="22">
@@ -9352,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>23689.1864208797</v>
+        <v>23782.3496505465</v>
       </c>
     </row>
     <row r="5">
@@ -9360,7 +9360,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8173.90457972845</v>
+        <v>8206.05035865501</v>
       </c>
     </row>
     <row r="6">
@@ -9368,7 +9368,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8404.76063596549</v>
+        <v>8525.97714673752</v>
       </c>
     </row>
     <row r="7">
@@ -9376,7 +9376,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5883.33244517584</v>
+        <v>5968.18400271626</v>
       </c>
     </row>
     <row r="8">
@@ -9384,7 +9384,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20264.8117556057</v>
+        <v>20557.0782315782</v>
       </c>
     </row>
     <row r="9">
@@ -9392,7 +9392,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4995.16390983405</v>
+        <v>5014.80855251139</v>
       </c>
     </row>
     <row r="10">
@@ -9400,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10085.7127631586</v>
+        <v>10231.172576085</v>
       </c>
     </row>
     <row r="11">
@@ -9408,7 +9408,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1400.79343932758</v>
+        <v>1420.99619112292</v>
       </c>
     </row>
     <row r="12">
@@ -9432,7 +9432,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18018.7761865558</v>
+        <v>18054.0830902385</v>
       </c>
     </row>
     <row r="15">
@@ -9440,7 +9440,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20640.9115271365</v>
+        <v>20681.3563757581</v>
       </c>
     </row>
     <row r="16">
@@ -9448,7 +9448,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15665.5778039831</v>
+        <v>15696.2737314386</v>
       </c>
     </row>
     <row r="17">
@@ -9456,7 +9456,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>49349.931794522</v>
+        <v>49446.6305531156</v>
       </c>
     </row>
     <row r="18">
@@ -9464,7 +9464,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12774.5055053939</v>
+        <v>12799.5365191988</v>
       </c>
     </row>
     <row r="19">
@@ -9472,7 +9472,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>40676.7148987545</v>
+        <v>40756.4189163964</v>
       </c>
     </row>
     <row r="20">
@@ -9480,7 +9480,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13764.7234032075</v>
+        <v>14017.6683616</v>
       </c>
     </row>
     <row r="21">
@@ -9488,7 +9488,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12236.6315893773</v>
+        <v>12260.6086657589</v>
       </c>
     </row>
     <row r="22">
@@ -9526,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>21395.8761924046</v>
+        <v>21489.0394220714</v>
       </c>
     </row>
     <row r="5">
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7382.60264785846</v>
+        <v>7414.74842678502</v>
       </c>
     </row>
     <row r="6">
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8163.49211572833</v>
+        <v>8284.70862650037</v>
       </c>
     </row>
     <row r="7">
@@ -9550,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5714.44448100984</v>
+        <v>5799.29603855026</v>
       </c>
     </row>
     <row r="8">
@@ -9558,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19683.0865457005</v>
+        <v>19975.3530216731</v>
       </c>
     </row>
     <row r="9">
@@ -9566,7 +9566,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4511.59050702461</v>
+        <v>4531.23514970195</v>
       </c>
     </row>
     <row r="10">
@@ -9574,7 +9574,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9796.190538874</v>
+        <v>9941.65035180044</v>
       </c>
     </row>
     <row r="11">
@@ -9582,7 +9582,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1360.58201928806</v>
+        <v>1380.78477108339</v>
       </c>
     </row>
     <row r="12">
@@ -9606,7 +9606,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15911.4803745271</v>
+        <v>15946.7872782098</v>
       </c>
     </row>
     <row r="15">
@@ -9614,7 +9614,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18226.9569961932</v>
+        <v>18267.4018448148</v>
       </c>
     </row>
     <row r="16">
@@ -9622,7 +9622,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13833.4885345701</v>
+        <v>13864.1844620256</v>
       </c>
     </row>
     <row r="17">
@@ -9630,7 +9630,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>43578.4574436673</v>
+        <v>43675.1562022609</v>
       </c>
     </row>
     <row r="18">
@@ -9638,7 +9638,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11280.5271311945</v>
+        <v>11305.5581449994</v>
       </c>
     </row>
     <row r="19">
@@ -9646,7 +9646,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>35919.5732335405</v>
+        <v>35999.2772511824</v>
       </c>
     </row>
     <row r="20">
@@ -9654,7 +9654,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13751.8654476322</v>
+        <v>14004.8104060248</v>
       </c>
     </row>
     <row r="21">
@@ -9662,7 +9662,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10805.5575677758</v>
+        <v>10829.5346441573</v>
       </c>
     </row>
     <row r="22">
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29202.3042101338</v>
+        <v>28882.6715986751</v>
       </c>
     </row>
     <row r="5">
@@ -9708,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10076.1944239439</v>
+        <v>9965.90585513388</v>
       </c>
     </row>
     <row r="6">
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9153.59405147333</v>
+        <v>9209.73813977476</v>
       </c>
     </row>
     <row r="7">
@@ -9724,7 +9724,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6407.51583603134</v>
+        <v>6446.81669784233</v>
       </c>
     </row>
     <row r="8">
@@ -9732,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22070.3323241079</v>
+        <v>22205.7019592347</v>
       </c>
     </row>
     <row r="9">
@@ -9740,7 +9740,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6157.67437018794</v>
+        <v>6090.27580035959</v>
       </c>
     </row>
     <row r="10">
@@ -9748,7 +9748,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10984.312861768</v>
+        <v>11051.6857677297</v>
       </c>
     </row>
     <row r="11">
@@ -9756,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1525.59900857889</v>
+        <v>1534.95635662913</v>
       </c>
     </row>
     <row r="12">
@@ -9764,7 +9764,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>106672.613143139</v>
+        <v>103978.121837976</v>
       </c>
     </row>
     <row r="13">
@@ -9772,7 +9772,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>74526.3516203194</v>
+        <v>72643.8571305953</v>
       </c>
     </row>
     <row r="14">
@@ -9780,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24762.9427445076</v>
+        <v>24203.7790397386</v>
       </c>
     </row>
     <row r="15">
@@ -9788,7 +9788,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28366.5053080738</v>
+        <v>27725.9707656705</v>
       </c>
     </row>
     <row r="16">
@@ -9796,7 +9796,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21528.9763413068</v>
+        <v>21042.8377472353</v>
       </c>
     </row>
     <row r="17">
@@ -9804,7 +9804,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67820.8954271212</v>
+        <v>66289.4545342091</v>
       </c>
     </row>
     <row r="18">
@@ -9812,7 +9812,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17555.8176173746</v>
+        <v>17159.3955878743</v>
       </c>
     </row>
     <row r="19">
@@ -9820,7 +9820,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55901.4192553247</v>
+        <v>54639.1280561261</v>
       </c>
     </row>
     <row r="20">
@@ -9828,7 +9828,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13793.8735278091</v>
+        <v>14044.7297465829</v>
       </c>
     </row>
     <row r="21">
@@ -9836,7 +9836,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16816.625296643</v>
+        <v>16436.8947210164</v>
       </c>
     </row>
     <row r="22">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24506.5221863082</v>
+        <v>24327.2401608322</v>
       </c>
     </row>
     <row r="5">
@@ -9882,7 +9882,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8455.92458824692</v>
+        <v>8394.06369766732</v>
       </c>
     </row>
     <row r="6">
@@ -9890,7 +9890,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8533.60403245728</v>
+        <v>8611.87274439872</v>
       </c>
     </row>
     <row r="7">
@@ -9898,7 +9898,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5973.5228227201</v>
+        <v>6028.3109210791</v>
       </c>
     </row>
     <row r="8">
@@ -9906,7 +9906,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20575.4675004803</v>
+        <v>20764.1820614947</v>
       </c>
     </row>
     <row r="9">
@@ -9914,7 +9914,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5167.50947059533</v>
+        <v>5129.70559301891</v>
       </c>
     </row>
     <row r="10">
@@ -9922,7 +9922,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10240.3248389487</v>
+        <v>10334.2472932785</v>
       </c>
     </row>
     <row r="11">
@@ -9930,7 +9930,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1422.26733874288</v>
+        <v>1435.31212406645</v>
       </c>
     </row>
     <row r="12">
@@ -9938,7 +9938,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81131.759824328</v>
+        <v>79353.3955629208</v>
       </c>
     </row>
     <row r="13">
@@ -9946,7 +9946,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56682.3468750102</v>
+        <v>55439.9005117923</v>
       </c>
     </row>
     <row r="14">
@@ -9954,7 +9954,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19195.8279912901</v>
+        <v>18838.7842933947</v>
       </c>
     </row>
     <row r="15">
@@ -9962,7 +9962,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21989.2507213657</v>
+        <v>21580.2491719109</v>
       </c>
     </row>
     <row r="16">
@@ -9970,7 +9970,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16688.9101566066</v>
+        <v>16378.4952998542</v>
       </c>
     </row>
     <row r="17">
@@ -9978,7 +9978,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52573.6483045033</v>
+        <v>51595.7748931031</v>
       </c>
     </row>
     <row r="18">
@@ -9986,7 +9986,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13608.9825311384</v>
+        <v>13355.8545363618</v>
       </c>
     </row>
     <row r="19">
@@ -9994,7 +9994,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43333.8654280988</v>
+        <v>42527.8526026259</v>
       </c>
     </row>
     <row r="20">
@@ -10002,7 +10002,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13768.8591076526</v>
+        <v>14020.4254978968</v>
       </c>
     </row>
     <row r="21">
@@ -10010,7 +10010,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13035.9727403536</v>
+        <v>12793.5027664098</v>
       </c>
     </row>
     <row r="22">
@@ -10048,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28946.1973667404</v>
+        <v>28874.938565253</v>
       </c>
     </row>
     <row r="5">
@@ -10056,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9987.82528948231</v>
+        <v>9963.23758801061</v>
       </c>
     </row>
     <row r="6">
@@ -10064,7 +10064,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8844.84265734634</v>
+        <v>8836.59539205342</v>
       </c>
     </row>
     <row r="7">
@@ -10072,7 +10072,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6191.38986014244</v>
+        <v>6185.6167744374</v>
       </c>
     </row>
     <row r="8">
@@ -10080,7 +10080,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21325.8984071573</v>
+        <v>21306.0133341732</v>
       </c>
     </row>
     <row r="9">
@@ -10088,7 +10088,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6103.67101023919</v>
+        <v>6088.64519267315</v>
       </c>
     </row>
     <row r="10">
@@ -10096,7 +10096,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10613.8111888156</v>
+        <v>10603.9144704641</v>
       </c>
     </row>
     <row r="11">
@@ -10104,7 +10104,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1474.14044289106</v>
+        <v>1472.76589867557</v>
       </c>
     </row>
     <row r="12">
@@ -10112,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>73678.6239223396</v>
+        <v>72878.0771575527</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>51475.2462843433</v>
+        <v>50915.9478109764</v>
       </c>
     </row>
     <row r="14">
@@ -10128,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24776.1311730321</v>
+        <v>24665.1218858463</v>
       </c>
     </row>
     <row r="15">
@@ -10136,7 +10136,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28381.6129482121</v>
+        <v>28254.4493244582</v>
       </c>
     </row>
     <row r="16">
@@ -10144,7 +10144,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21540.4424004346</v>
+        <v>21443.9305947843</v>
       </c>
     </row>
     <row r="17">
@@ -10152,7 +10152,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67857.0159739012</v>
+        <v>67552.9830754148</v>
       </c>
     </row>
     <row r="18">
@@ -10160,7 +10160,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17565.167622672</v>
+        <v>17486.4670086224</v>
       </c>
     </row>
     <row r="19">
@@ -10168,7 +10168,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55931.1916406134</v>
+        <v>55680.5923169291</v>
       </c>
     </row>
     <row r="20">
@@ -10176,7 +10176,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12789.2514495745</v>
+        <v>12788.8613958022</v>
       </c>
     </row>
     <row r="21">
@@ -10184,7 +10184,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16825.5816175068</v>
+        <v>16750.1947135225</v>
       </c>
     </row>
     <row r="22">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22089.3732054955</v>
+        <v>21951.370764132</v>
       </c>
     </row>
     <row r="5">
@@ -10230,7 +10230,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7621.89235205594</v>
+        <v>7574.27489625001</v>
       </c>
     </row>
     <row r="6">
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8272.81378547894</v>
+        <v>8357.58973966744</v>
       </c>
     </row>
     <row r="7">
@@ -10246,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5790.96964983526</v>
+        <v>5850.31281776721</v>
       </c>
     </row>
     <row r="8">
@@ -10254,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19946.6732383214</v>
+        <v>20151.0774834204</v>
       </c>
     </row>
     <row r="9">
@@ -10262,7 +10262,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4657.82310403418</v>
+        <v>4628.72354770833</v>
       </c>
     </row>
     <row r="10">
@@ -10270,7 +10270,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9927.37654257473</v>
+        <v>10029.1076876009</v>
       </c>
     </row>
     <row r="11">
@@ -10278,7 +10278,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1378.80229757982</v>
+        <v>1392.93162327791</v>
       </c>
     </row>
     <row r="12">
@@ -10286,7 +10286,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>70464.4985100141</v>
+        <v>68955.5833791231</v>
       </c>
     </row>
     <row r="13">
@@ -10294,7 +10294,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49229.7117129783</v>
+        <v>48175.5147987328</v>
       </c>
     </row>
     <row r="14">
@@ -10302,7 +10302,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16910.1909967259</v>
+        <v>16612.5943596757</v>
       </c>
     </row>
     <row r="15">
@@ -10310,7 +10310,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19371.002373115</v>
+        <v>19030.0987627626</v>
       </c>
     </row>
     <row r="16">
@@ -10318,7 +10318,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14701.7705307355</v>
+        <v>14443.0391261358</v>
       </c>
     </row>
     <row r="17">
@@ -10326,7 +10326,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46313.7320581969</v>
+        <v>45498.6726119473</v>
       </c>
     </row>
     <row r="18">
@@ -10334,7 +10334,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11988.5682439474</v>
+        <v>11777.5855535013</v>
       </c>
     </row>
     <row r="19">
@@ -10342,7 +10342,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38174.1251978326</v>
+        <v>37502.3118940438</v>
       </c>
     </row>
     <row r="20">
@@ -10350,7 +10350,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13755.3745301917</v>
+        <v>14007.1497943978</v>
       </c>
     </row>
     <row r="21">
@@ -10358,7 +10358,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11483.7864231495</v>
+        <v>11281.6872144065</v>
       </c>
     </row>
     <row r="22">
@@ -10396,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28459.2716961079</v>
+        <v>28552.4349257747</v>
       </c>
     </row>
     <row r="5">
@@ -10404,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9819.81259801804</v>
+        <v>9851.9583769446</v>
       </c>
     </row>
     <row r="6">
@@ -10412,7 +10412,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9036.46369102625</v>
+        <v>9157.68020179828</v>
       </c>
     </row>
     <row r="7">
@@ -10420,7 +10420,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6325.52458371838</v>
+        <v>6410.3761412588</v>
       </c>
     </row>
     <row r="8">
@@ -10428,7 +10428,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21787.9180105855</v>
+        <v>22080.1844865581</v>
       </c>
     </row>
     <row r="9">
@@ -10436,7 +10436,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6000.99658767769</v>
+        <v>6020.64123035503</v>
       </c>
     </row>
     <row r="10">
@@ -10444,7 +10444,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10843.7564292315</v>
+        <v>10989.2162421579</v>
       </c>
     </row>
     <row r="11">
@@ -10452,7 +10452,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1506.07728183771</v>
+        <v>1526.28003363305</v>
       </c>
     </row>
     <row r="12">
@@ -10476,7 +10476,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23692.8956492945</v>
+        <v>23728.2025529772</v>
       </c>
     </row>
     <row r="15">
@@ -10484,7 +10484,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27140.742404229</v>
+        <v>27181.1872528506</v>
       </c>
     </row>
     <row r="16">
@@ -10492,7 +10492,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20598.6742025582</v>
+        <v>20629.3701300137</v>
       </c>
     </row>
     <row r="17">
@@ -10500,7 +10500,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64890.2440544109</v>
+        <v>64986.9428130045</v>
       </c>
     </row>
     <row r="18">
@@ -10508,7 +10508,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16797.2021394251</v>
+        <v>16822.23315323</v>
       </c>
     </row>
     <row r="19">
@@ -10516,7 +10516,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>53485.8278650117</v>
+        <v>53565.5318826536</v>
       </c>
     </row>
     <row r="20">
@@ -10524,7 +10524,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13790.1137964953</v>
+        <v>14043.0587548879</v>
       </c>
     </row>
     <row r="21">
@@ -10532,7 +10532,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16089.9515230282</v>
+        <v>16113.9285994098</v>
       </c>
     </row>
     <row r="22">
@@ -10570,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24016.1207270511</v>
+        <v>24109.2839567179</v>
       </c>
     </row>
     <row r="5">
@@ -10578,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8286.71258313584</v>
+        <v>8318.8583620624</v>
       </c>
     </row>
     <row r="6">
@@ -10586,7 +10586,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8456.2979945622</v>
+        <v>8577.51450533424</v>
       </c>
     </row>
     <row r="7">
@@ -10594,7 +10594,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5919.40859619355</v>
+        <v>6004.26015373397</v>
       </c>
     </row>
     <row r="8">
@@ -10602,7 +10602,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20389.0740535555</v>
+        <v>20681.3405295281</v>
       </c>
     </row>
     <row r="9">
@@ -10610,7 +10610,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5064.10213413856</v>
+        <v>5083.7467768159</v>
       </c>
     </row>
     <row r="10">
@@ -10618,7 +10618,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10147.5575934746</v>
+        <v>10293.0174064011</v>
       </c>
     </row>
     <row r="11">
@@ -10626,7 +10626,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1409.3829990937</v>
+        <v>1429.58575088904</v>
       </c>
     </row>
     <row r="12">
@@ -10650,7 +10650,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18489.5969084495</v>
+        <v>18524.9038121322</v>
       </c>
     </row>
     <row r="15">
@@ -10658,7 +10658,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21180.2472048282</v>
+        <v>21220.6920534498</v>
       </c>
     </row>
     <row r="16">
@@ -10666,7 +10666,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16074.9107450325</v>
+        <v>16105.606672488</v>
       </c>
     </row>
     <row r="17">
@@ -10674,7 +10674,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50639.4183985145</v>
+        <v>50736.1171571081</v>
       </c>
     </row>
     <row r="18">
@@ -10682,7 +10682,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13108.2963156917</v>
+        <v>13133.3273294966</v>
       </c>
     </row>
     <row r="19">
@@ -10690,7 +10690,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41739.5751104922</v>
+        <v>41819.2791281341</v>
       </c>
     </row>
     <row r="20">
@@ -10698,7 +10698,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13766.3776849855</v>
+        <v>14019.3226433781</v>
       </c>
     </row>
     <row r="21">
@@ -10706,7 +10706,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12556.3680497678</v>
+        <v>12580.3451261494</v>
       </c>
     </row>
     <row r="22">
@@ -10744,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>21673.274997641</v>
+        <v>21766.4382273078</v>
       </c>
     </row>
     <row r="5">
@@ -10752,7 +10752,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7478.31852953745</v>
+        <v>7510.46430846401</v>
       </c>
     </row>
     <row r="6">
@@ -10760,7 +10760,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8207.22078362857</v>
+        <v>8328.43729440061</v>
       </c>
     </row>
     <row r="7">
@@ -10768,7 +10768,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5745.05454854001</v>
+        <v>5829.90610608043</v>
       </c>
     </row>
     <row r="8">
@@ -10776,7 +10776,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19788.5212227489</v>
+        <v>20080.7876987215</v>
       </c>
     </row>
     <row r="9">
@@ -10784,7 +10784,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4570.08354582844</v>
+        <v>4589.72818850578</v>
       </c>
     </row>
     <row r="10">
@@ -10792,7 +10792,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9848.66494035429</v>
+        <v>9994.12475328073</v>
       </c>
     </row>
     <row r="11">
@@ -10800,7 +10800,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1367.87013060476</v>
+        <v>1388.0728824001</v>
       </c>
     </row>
     <row r="12">
@@ -10824,7 +10824,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16310.9646234066</v>
+        <v>16346.2715270893</v>
       </c>
     </row>
     <row r="15">
@@ -10832,7 +10832,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18684.5751469619</v>
+        <v>18725.0199955835</v>
       </c>
     </row>
     <row r="16">
@@ -10840,7 +10840,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14180.8013330362</v>
+        <v>14211.4972604917</v>
       </c>
     </row>
     <row r="17">
@@ -10848,7 +10848,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>44672.5672894791</v>
+        <v>44769.2660480727</v>
       </c>
     </row>
     <row r="18">
@@ -10856,7 +10856,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11563.7435762956</v>
+        <v>11588.7745901005</v>
       </c>
     </row>
     <row r="19">
@@ -10864,7 +10864,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>36821.3940192573</v>
+        <v>36901.0980368992</v>
       </c>
     </row>
     <row r="20">
@@ -10872,7 +10872,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13753.269080656</v>
+        <v>14006.2140390486</v>
       </c>
     </row>
     <row r="21">
@@ -10880,7 +10880,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11076.8491099253</v>
+        <v>11100.8261863068</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30154.7594160477</v>
+        <v>36453.2375091966</v>
       </c>
     </row>
     <row r="5">
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10404.8371148024</v>
+        <v>12578.1139009368</v>
       </c>
     </row>
     <row r="6">
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9001.9133620855</v>
+        <v>10308.3611644344</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6301.33935345985</v>
+        <v>7215.85281510408</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21704.6133285839</v>
+        <v>24854.6041409141</v>
       </c>
     </row>
     <row r="9">
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6358.51157015703</v>
+        <v>7686.62516168362</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10802.2960345026</v>
+        <v>12370.0333973213</v>
       </c>
     </row>
     <row r="11">
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1500.31889368092</v>
+        <v>1718.0601940724</v>
       </c>
     </row>
     <row r="12">
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>78664.1865383622</v>
+        <v>109981.905602253</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54958.3876605487</v>
+        <v>76838.3742300166</v>
       </c>
     </row>
     <row r="14">
@@ -732,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22389.8819792996</v>
+        <v>36858.8857717888</v>
       </c>
     </row>
     <row r="15">
@@ -740,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25648.1110733021</v>
+        <v>42222.6788505194</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19465.8302282717</v>
+        <v>32045.2253165179</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>61321.5424358429</v>
+        <v>100949.336404825</v>
       </c>
     </row>
     <row r="18">
@@ -764,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15873.4237912945</v>
+        <v>26131.299614328</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>50544.3231249114</v>
+        <v>83207.5592982547</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13531.2804485989</v>
+        <v>13619.5627639412</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15205.0691053453</v>
+        <v>25031.0343674088</v>
       </c>
     </row>
     <row r="22">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27611.1038485198</v>
+        <v>33909.5819416687</v>
       </c>
     </row>
     <row r="5">
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9527.15404357874</v>
+        <v>11700.4308297131</v>
       </c>
     </row>
     <row r="6">
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8692.79207147632</v>
+        <v>9999.23987382523</v>
       </c>
     </row>
     <row r="7">
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6084.95445003343</v>
+        <v>6999.46791167766</v>
       </c>
     </row>
     <row r="8">
@@ -858,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20959.2875501152</v>
+        <v>24109.2783624453</v>
       </c>
     </row>
     <row r="9">
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5822.14969329812</v>
+        <v>7150.26328482471</v>
       </c>
     </row>
     <row r="10">
@@ -874,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10431.3504857716</v>
+        <v>11999.0878485903</v>
       </c>
     </row>
     <row r="11">
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1448.79867857939</v>
+        <v>1666.53997897087</v>
       </c>
     </row>
     <row r="12">
@@ -890,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>62131.9987401349</v>
+        <v>93449.7178040258</v>
       </c>
     </row>
     <row r="13">
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>43408.2474267985</v>
+        <v>65288.2339962664</v>
       </c>
     </row>
     <row r="14">
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18647.016548274</v>
+        <v>33116.0203407632</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21360.5749265675</v>
+        <v>37935.1427037848</v>
       </c>
     </row>
     <row r="16">
@@ -922,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16211.7718498054</v>
+        <v>28791.1669380516</v>
       </c>
     </row>
     <row r="17">
@@ -930,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51070.5602478847</v>
+        <v>90698.3542168665</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13219.8997916867</v>
+        <v>23477.7756147202</v>
       </c>
     </row>
     <row r="19">
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42094.944073529</v>
+        <v>74758.1802468723</v>
       </c>
     </row>
     <row r="20">
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13514.014706215</v>
+        <v>13602.2970215573</v>
       </c>
     </row>
     <row r="21">
@@ -962,7 +962,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12663.2724320368</v>
+        <v>22489.2376941004</v>
       </c>
     </row>
     <row r="22">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26246.4817629362</v>
+        <v>32544.959856085</v>
       </c>
     </row>
     <row r="5">
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9056.29402682784</v>
+        <v>11229.5708129622</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8558.07555965569</v>
+        <v>9864.52336200459</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5990.65289175899</v>
+        <v>6905.16635340321</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20634.4710716143</v>
+        <v>23784.4618839444</v>
       </c>
     </row>
     <row r="9">
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5534.40190528368</v>
+        <v>6862.51549681027</v>
       </c>
     </row>
     <row r="10">
@@ -1048,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10269.6906715868</v>
+        <v>11837.4280344055</v>
       </c>
     </row>
     <row r="11">
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1426.34592660928</v>
+        <v>1644.08722700077</v>
       </c>
     </row>
     <row r="12">
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54980.9790913416</v>
+        <v>86298.6981552325</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38412.2190265693</v>
+        <v>60292.2055960372</v>
       </c>
     </row>
     <row r="14">
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17057.0720593921</v>
+        <v>31526.0758518813</v>
       </c>
     </row>
     <row r="15">
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19539.2579187811</v>
+        <v>36113.8256959984</v>
       </c>
     </row>
     <row r="16">
@@ -1096,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14829.4693650685</v>
+        <v>27408.8644533147</v>
       </c>
     </row>
     <row r="17">
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46716.0107895289</v>
+        <v>86343.8047585107</v>
       </c>
     </row>
     <row r="18">
@@ -1112,7 +1112,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12092.7003406137</v>
+        <v>22350.5761636472</v>
       </c>
     </row>
     <row r="19">
@@ -1120,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38505.7037161649</v>
+        <v>71168.9398895082</v>
       </c>
     </row>
     <row r="20">
@@ -1128,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13504.3134711629</v>
+        <v>13592.5957865052</v>
       </c>
     </row>
     <row r="21">
@@ -1136,7 +1136,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11583.5340104827</v>
+        <v>21409.4992725463</v>
       </c>
     </row>
     <row r="22">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30646.0233668578</v>
+        <v>37190.1334354117</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10574.3467208327</v>
+        <v>12832.3783099823</v>
       </c>
     </row>
     <row r="6">
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9074.58201991406</v>
+        <v>10417.3641511772</v>
       </c>
     </row>
     <row r="7">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6352.20741393985</v>
+        <v>7292.15490582407</v>
       </c>
     </row>
     <row r="8">
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21879.8255369039</v>
+        <v>25117.422453394</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6462.10077384223</v>
+        <v>7842.00896721142</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10889.4984238969</v>
+        <v>12500.8369814127</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1512.43033665234</v>
+        <v>1736.22735852954</v>
       </c>
     </row>
     <row r="12">
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>82573.0066006264</v>
+        <v>115845.135695649</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>57689.2675911825</v>
+        <v>80934.6941259673</v>
       </c>
     </row>
     <row r="14">
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23286.9323718595</v>
+        <v>38204.4613606286</v>
       </c>
     </row>
     <row r="15">
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26675.7023811971</v>
+        <v>43764.065812362</v>
       </c>
     </row>
     <row r="16">
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20245.7285173256</v>
+        <v>33215.0727500988</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>63778.3894065106</v>
+        <v>104634.606860826</v>
       </c>
     </row>
     <row r="18">
@@ -1286,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16509.3923531839</v>
+        <v>27085.2524571621</v>
       </c>
     </row>
     <row r="19">
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>52569.3809140857</v>
+        <v>86245.1459820162</v>
       </c>
     </row>
     <row r="20">
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13534.4323266538</v>
+        <v>13624.2905810236</v>
       </c>
     </row>
     <row r="21">
@@ -1310,7 +1310,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15814.2600435763</v>
+        <v>25944.8207747552</v>
       </c>
     </row>
     <row r="22">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27935.3380560545</v>
+        <v>34395.9332529707</v>
       </c>
     </row>
     <row r="5">
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9639.03038355876</v>
+        <v>11868.2453396832</v>
       </c>
     </row>
     <row r="6">
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8740.75338564317</v>
+        <v>10071.1818450755</v>
       </c>
     </row>
     <row r="7">
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6118.52736995023</v>
+        <v>7049.82729155285</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21074.9276076063</v>
+        <v>24282.738448682</v>
       </c>
     </row>
     <row r="9">
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5890.51856773035</v>
+        <v>7252.81659647305</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10488.9040627718</v>
+        <v>12085.4182140906</v>
       </c>
     </row>
     <row r="11">
@@ -1404,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1456.79223094053</v>
+        <v>1678.53030751258</v>
       </c>
     </row>
     <row r="12">
@@ -1412,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>64711.8199812293</v>
+        <v>97319.4496656673</v>
       </c>
     </row>
     <row r="13">
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45210.6281810167</v>
+        <v>67991.8051275938</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19239.0698073635</v>
+        <v>34004.1002293975</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22038.7851897782</v>
+        <v>38952.4580986009</v>
       </c>
     </row>
     <row r="16">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16726.504720581</v>
+        <v>29563.266244215</v>
       </c>
     </row>
     <row r="17">
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52692.0792485253</v>
+        <v>93130.6327178275</v>
       </c>
     </row>
     <row r="18">
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13639.6390425338</v>
+        <v>24107.3844909908</v>
       </c>
     </row>
     <row r="19">
@@ -1468,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43431.482214384</v>
+        <v>76762.9874581548</v>
       </c>
     </row>
     <row r="20">
@@ -1476,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13516.0949457312</v>
+        <v>13605.4173808317</v>
       </c>
     </row>
     <row r="21">
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13065.3384512693</v>
+        <v>23092.3367229491</v>
       </c>
     </row>
     <row r="22">
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26521.5895753898</v>
+        <v>32957.6215747656</v>
       </c>
     </row>
     <row r="5">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9151.21940620482</v>
+        <v>11371.9588820277</v>
       </c>
     </row>
     <row r="6">
@@ -1538,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8598.77000803969</v>
+        <v>9925.56503458058</v>
       </c>
     </row>
     <row r="7">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6019.13900562778</v>
+        <v>6947.89552420641</v>
       </c>
     </row>
     <row r="8">
@@ -1554,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20732.5899082735</v>
+        <v>23931.6401389332</v>
       </c>
     </row>
     <row r="9">
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5592.41185934739</v>
+        <v>6949.53042790583</v>
       </c>
     </row>
     <row r="10">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10318.5240096476</v>
+        <v>11910.6780414967</v>
       </c>
     </row>
     <row r="11">
@@ -1578,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1433.12833467328</v>
+        <v>1654.26083909676</v>
       </c>
     </row>
     <row r="12">
@@ -1586,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57169.9183262095</v>
+        <v>89582.1070075344</v>
       </c>
     </row>
     <row r="13">
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>39941.5117877242</v>
+        <v>62586.1447377695</v>
       </c>
     </row>
     <row r="14">
@@ -1602,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17559.4202792256</v>
+        <v>32279.5981816316</v>
       </c>
     </row>
     <row r="15">
@@ -1610,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20114.7090512023</v>
+        <v>36977.0023946302</v>
       </c>
     </row>
     <row r="16">
@@ -1618,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15266.2124069387</v>
+        <v>28063.97901612</v>
       </c>
     </row>
     <row r="17">
@@ -1626,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>48091.8450931028</v>
+        <v>88407.5562138715</v>
       </c>
     </row>
     <row r="18">
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12448.8427352718</v>
+        <v>22884.7897556343</v>
       </c>
     </row>
     <row r="19">
@@ -1642,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39639.7360781025</v>
+        <v>72869.9884324146</v>
       </c>
     </row>
     <row r="20">
@@ -1650,7 +1650,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13506.0785228736</v>
+        <v>13595.2433640713</v>
       </c>
     </row>
     <row r="21">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11924.680935892</v>
+        <v>21921.2196606603</v>
       </c>
     </row>
     <row r="22">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30449.5177865337</v>
+        <v>36747.9958796826</v>
       </c>
     </row>
     <row r="5">
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10506.5428784206</v>
+        <v>12679.819664555</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9045.51455678263</v>
+        <v>10351.9623591315</v>
       </c>
     </row>
     <row r="7">
@@ -1720,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6331.86018974785</v>
+        <v>7246.37365139208</v>
       </c>
     </row>
     <row r="8">
@@ -1728,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21809.7406535759</v>
+        <v>24959.731465906</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6420.66509236815</v>
+        <v>7748.77868389474</v>
       </c>
     </row>
     <row r="10">
@@ -1744,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10854.6174681392</v>
+        <v>12422.3548309578</v>
       </c>
     </row>
     <row r="11">
@@ -1752,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1507.58575946377</v>
+        <v>1725.32705985526</v>
       </c>
     </row>
     <row r="12">
@@ -1760,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81009.4785757207</v>
+        <v>112327.197639612</v>
       </c>
     </row>
     <row r="13">
@@ -1768,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56596.915618929</v>
+        <v>78476.9021883969</v>
       </c>
     </row>
     <row r="14">
@@ -1776,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22928.1122148355</v>
+        <v>37397.1160073247</v>
       </c>
     </row>
     <row r="15">
@@ -1784,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26264.6658580391</v>
+        <v>42839.2336352564</v>
       </c>
     </row>
     <row r="16">
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19933.7692017041</v>
+        <v>32513.1642899503</v>
       </c>
     </row>
     <row r="17">
@@ -1800,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>62795.6506182435</v>
+        <v>102423.444587225</v>
       </c>
     </row>
     <row r="18">
@@ -1808,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16255.0049284281</v>
+        <v>26512.8807514616</v>
       </c>
     </row>
     <row r="19">
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51759.357798416</v>
+        <v>84422.5939717593</v>
       </c>
     </row>
     <row r="20">
@@ -1824,7 +1824,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13533.1715754319</v>
+        <v>13621.4538907742</v>
       </c>
     </row>
     <row r="21">
@@ -1832,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15570.5836682839</v>
+        <v>25396.5489303474</v>
       </c>
     </row>
     <row r="22">
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27805.6443730406</v>
+        <v>34104.1224661895</v>
       </c>
     </row>
     <row r="5">
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9594.27984756675</v>
+        <v>11767.5566337012</v>
       </c>
     </row>
     <row r="6">
@@ -1886,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8721.56885997643</v>
+        <v>10028.0166623253</v>
       </c>
     </row>
     <row r="7">
@@ -1894,7 +1894,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6105.09820198351</v>
+        <v>7019.61166362774</v>
       </c>
     </row>
     <row r="8">
@@ -1902,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21028.6715846099</v>
+        <v>24178.66239694</v>
       </c>
     </row>
     <row r="9">
@@ -1910,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5863.17101795745</v>
+        <v>7191.28460948404</v>
       </c>
     </row>
     <row r="10">
@@ -1918,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10465.8826319717</v>
+        <v>12033.6199947904</v>
       </c>
     </row>
     <row r="11">
@@ -1926,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1453.59480999607</v>
+        <v>1671.33611038756</v>
       </c>
     </row>
     <row r="12">
@@ -1934,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>63679.8914847915</v>
+        <v>94997.6105486824</v>
       </c>
     </row>
     <row r="13">
@@ -1942,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44489.6758793294</v>
+        <v>66369.6624487973</v>
       </c>
     </row>
     <row r="14">
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19002.2485037277</v>
+        <v>33471.2522962169</v>
       </c>
     </row>
     <row r="15">
@@ -1958,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21767.501084494</v>
+        <v>38342.0688617113</v>
       </c>
     </row>
     <row r="16">
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16520.6115722708</v>
+        <v>29100.006660517</v>
       </c>
     </row>
     <row r="17">
@@ -1974,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52043.4716482691</v>
+        <v>91671.2656172509</v>
       </c>
     </row>
     <row r="18">
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13471.7433421949</v>
+        <v>23729.6191652284</v>
       </c>
     </row>
     <row r="19">
@@ -1990,7 +1990,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42896.866958042</v>
+        <v>75560.1031313853</v>
       </c>
     </row>
     <row r="20">
@@ -1998,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13515.2628499247</v>
+        <v>13603.5451652671</v>
       </c>
     </row>
     <row r="21">
@@ -2006,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12904.5120435763</v>
+        <v>22730.4773056399</v>
       </c>
     </row>
     <row r="22">
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26411.5464504084</v>
+        <v>32710.0245435572</v>
       </c>
     </row>
     <row r="5">
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9113.24925445403</v>
+        <v>11286.5260405884</v>
       </c>
     </row>
     <row r="6">
@@ -2060,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8582.49222868609</v>
+        <v>9888.94003103499</v>
       </c>
     </row>
     <row r="7">
@@ -2068,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6007.74456008026</v>
+        <v>6922.25802172449</v>
       </c>
     </row>
     <row r="8">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20693.3423736098</v>
+        <v>23843.3331859399</v>
       </c>
     </row>
     <row r="9">
@@ -2084,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5569.2078777219</v>
+        <v>6897.32146924849</v>
       </c>
     </row>
     <row r="10">
@@ -2092,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10298.9906744233</v>
+        <v>11866.728037242</v>
       </c>
     </row>
     <row r="11">
@@ -2100,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1430.41537144768</v>
+        <v>1648.15667183916</v>
       </c>
     </row>
     <row r="12">
@@ -2108,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>56294.3426322623</v>
+        <v>87612.0616961532</v>
       </c>
     </row>
     <row r="13">
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>39329.7946832622</v>
+        <v>61209.7812527301</v>
       </c>
     </row>
     <row r="14">
@@ -2124,7 +2124,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17358.4809912922</v>
+        <v>31827.4847837814</v>
       </c>
     </row>
     <row r="15">
@@ -2132,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19884.5285982338</v>
+        <v>36459.0963754511</v>
       </c>
     </row>
     <row r="16">
@@ -2140,7 +2140,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15091.5151901906</v>
+        <v>27670.9102784368</v>
       </c>
     </row>
     <row r="17">
@@ -2148,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47541.5113716732</v>
+        <v>87169.305340655</v>
       </c>
     </row>
     <row r="18">
@@ -2156,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12306.3857774085</v>
+        <v>22564.261600442</v>
       </c>
     </row>
     <row r="19">
@@ -2164,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39186.1231333274</v>
+        <v>71849.3593066707</v>
       </c>
     </row>
     <row r="20">
@@ -2172,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13505.3725021893</v>
+        <v>13593.6548175316</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11788.2221657283</v>
+        <v>21614.1874277919</v>
       </c>
     </row>
     <row r="22">
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30767.1114528816</v>
+        <v>30687.0251703983</v>
       </c>
     </row>
     <row r="5">
@@ -2226,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10616.1279134544</v>
+        <v>10588.4943079969</v>
       </c>
     </row>
     <row r="6">
@@ -2234,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9128.9291206472</v>
+        <v>9112.31740172062</v>
       </c>
     </row>
     <row r="7">
@@ -2242,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6390.25038445304</v>
+        <v>6378.62218120444</v>
       </c>
     </row>
     <row r="8">
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22010.8624353383</v>
+        <v>21970.8097352597</v>
       </c>
     </row>
     <row r="9">
@@ -2258,7 +2258,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6487.63372488878</v>
+        <v>6470.74652155364</v>
       </c>
     </row>
     <row r="10">
@@ -2266,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10954.7149447766</v>
+        <v>10934.7808820647</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1521.48818677453</v>
+        <v>1518.71956695344</v>
       </c>
     </row>
     <row r="12">
@@ -2282,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81708.9647806849</v>
+        <v>81310.7543465783</v>
       </c>
     </row>
     <row r="13">
@@ -2290,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>57085.6085770248</v>
+        <v>56807.4006100812</v>
       </c>
     </row>
     <row r="14">
@@ -2298,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23796.5906813472</v>
+        <v>23612.6146941578</v>
       </c>
     </row>
     <row r="15">
@@ -2306,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27259.527384976</v>
+        <v>27048.7787727853</v>
       </c>
     </row>
     <row r="16">
@@ -2314,7 +2314,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20688.8269729623</v>
+        <v>20528.8777005178</v>
       </c>
     </row>
     <row r="17">
@@ -2322,7 +2322,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>65174.2446272717</v>
+        <v>64670.3700951935</v>
       </c>
     </row>
     <row r="18">
@@ -2330,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16870.7172740894</v>
+        <v>16740.2865369029</v>
       </c>
     </row>
     <row r="19">
@@ -2338,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>53719.9155306531</v>
+        <v>53304.5966043488</v>
       </c>
     </row>
     <row r="20">
@@ -2346,7 +2346,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13539.8634514794</v>
+        <v>13538.7409259518</v>
       </c>
     </row>
     <row r="21">
@@ -2354,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16160.3712836014</v>
+        <v>16035.4323669281</v>
       </c>
     </row>
     <row r="22">
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28223.4558853537</v>
+        <v>28143.3696028704</v>
       </c>
     </row>
     <row r="5">
@@ -2574,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9738.44484223069</v>
+        <v>9710.81123677319</v>
       </c>
     </row>
     <row r="6">
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8819.80783003802</v>
+        <v>8803.19611111144</v>
       </c>
     </row>
     <row r="7">
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6173.86548102662</v>
+        <v>6162.23727777801</v>
       </c>
     </row>
     <row r="8">
@@ -2598,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21265.5366568695</v>
+        <v>21225.4839567909</v>
       </c>
     </row>
     <row r="9">
@@ -2606,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5951.27184802987</v>
+        <v>5934.38464469473</v>
       </c>
     </row>
     <row r="10">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10583.7693960456</v>
+        <v>10563.8353333337</v>
       </c>
     </row>
     <row r="11">
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1469.967971673</v>
+        <v>1467.19935185191</v>
       </c>
     </row>
     <row r="12">
@@ -2630,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65176.7769824576</v>
+        <v>64778.566548351</v>
       </c>
     </row>
     <row r="13">
@@ -2638,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45535.4683432746</v>
+        <v>45257.260376331</v>
       </c>
     </row>
     <row r="14">
@@ -2646,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20053.7252503216</v>
+        <v>19869.7492631322</v>
       </c>
     </row>
     <row r="15">
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22971.9912382414</v>
+        <v>22761.2426260507</v>
       </c>
     </row>
     <row r="16">
@@ -2662,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17434.768594496</v>
+        <v>17274.8193220515</v>
       </c>
     </row>
     <row r="17">
@@ -2670,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>54923.2624393135</v>
+        <v>54419.3879072353</v>
       </c>
     </row>
     <row r="18">
@@ -2678,7 +2678,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14217.1932744816</v>
+        <v>14086.7625372952</v>
       </c>
     </row>
     <row r="19">
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45270.5364792707</v>
+        <v>44855.2175529664</v>
       </c>
     </row>
     <row r="20">
@@ -2694,7 +2694,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13522.5977090955</v>
+        <v>13521.4751835679</v>
       </c>
     </row>
     <row r="21">
@@ -2702,7 +2702,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13618.574610293</v>
+        <v>13493.6356936197</v>
       </c>
     </row>
     <row r="22">
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26858.8337997701</v>
+        <v>26778.7475172868</v>
       </c>
     </row>
     <row r="5">
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9267.58482547979</v>
+        <v>9239.95122002229</v>
       </c>
     </row>
     <row r="6">
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8685.09131821739</v>
+        <v>8668.47959929081</v>
       </c>
     </row>
     <row r="7">
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6079.56392275218</v>
+        <v>6067.93571950357</v>
       </c>
     </row>
     <row r="8">
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20940.7201783686</v>
+        <v>20900.6674782901</v>
       </c>
     </row>
     <row r="9">
@@ -2780,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5663.52406001543</v>
+        <v>5646.63685668029</v>
       </c>
     </row>
     <row r="10">
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10422.1095818609</v>
+        <v>10402.175519149</v>
       </c>
     </row>
     <row r="11">
@@ -2796,7 +2796,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1447.5152197029</v>
+        <v>1444.7465998818</v>
       </c>
     </row>
     <row r="12">
@@ -2804,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>58025.7573336643</v>
+        <v>57627.5468995577</v>
       </c>
     </row>
     <row r="13">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40539.4399430454</v>
+        <v>40261.2319761018</v>
       </c>
     </row>
     <row r="14">
@@ -2820,7 +2820,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18463.7807614397</v>
+        <v>18279.8047742503</v>
       </c>
     </row>
     <row r="15">
@@ -2828,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21150.674230455</v>
+        <v>20939.9256182643</v>
       </c>
     </row>
     <row r="16">
@@ -2836,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16052.4661097591</v>
+        <v>15892.5168373146</v>
       </c>
     </row>
     <row r="17">
@@ -2844,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50568.7129809577</v>
+        <v>50064.8384488795</v>
       </c>
     </row>
     <row r="18">
@@ -2852,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13089.9938234086</v>
+        <v>12959.5630862222</v>
       </c>
     </row>
     <row r="19">
@@ -2860,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41681.2961219066</v>
+        <v>41265.9771956023</v>
       </c>
     </row>
     <row r="20">
@@ -2868,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13512.8964740434</v>
+        <v>13511.7739485157</v>
       </c>
     </row>
     <row r="21">
@@ -2876,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12538.8361887389</v>
+        <v>12413.8972720655</v>
       </c>
     </row>
     <row r="22">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31258.3754036917</v>
+        <v>31423.9210966134</v>
       </c>
     </row>
     <row r="5">
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10785.6375194847</v>
+        <v>10842.7587170424</v>
       </c>
     </row>
     <row r="6">
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9201.59777847576</v>
+        <v>9221.32038846346</v>
       </c>
     </row>
     <row r="7">
@@ -2938,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6441.11844493303</v>
+        <v>6454.92427192442</v>
       </c>
     </row>
     <row r="8">
@@ -2946,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22186.0746436582</v>
+        <v>22233.6280477397</v>
       </c>
     </row>
     <row r="9">
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6591.22292857398</v>
+        <v>6626.13032708144</v>
       </c>
     </row>
     <row r="10">
@@ -2962,7 +2962,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11041.9173341709</v>
+        <v>11065.5844661561</v>
       </c>
     </row>
     <row r="11">
@@ -2970,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1533.59962974596</v>
+        <v>1536.88673141058</v>
       </c>
     </row>
     <row r="12">
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>85617.7848429491</v>
+        <v>87173.9844399746</v>
       </c>
     </row>
     <row r="13">
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>59816.4885076586</v>
+        <v>60903.7205060319</v>
       </c>
     </row>
     <row r="14">
@@ -2994,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24693.6410739071</v>
+        <v>24958.1902829976</v>
       </c>
     </row>
     <row r="15">
@@ -3002,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28287.118692871</v>
+        <v>28590.1657346279</v>
       </c>
     </row>
     <row r="16">
@@ -3010,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21468.7252620162</v>
+        <v>21698.7251340987</v>
       </c>
     </row>
     <row r="17">
@@ -3018,7 +3018,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67631.0915979394</v>
+        <v>68355.640551195</v>
       </c>
     </row>
     <row r="18">
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17506.6858359788</v>
+        <v>17694.239379737</v>
       </c>
     </row>
     <row r="19">
@@ -3034,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55744.9733198274</v>
+        <v>56342.1832881103</v>
       </c>
     </row>
     <row r="20">
@@ -3042,7 +3042,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13543.0153295343</v>
+        <v>13543.4687430341</v>
       </c>
     </row>
     <row r="21">
@@ -3050,7 +3050,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16769.5622218324</v>
+        <v>16949.2187742745</v>
       </c>
     </row>
     <row r="22">
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28547.6900928884</v>
+        <v>28629.7209141724</v>
       </c>
     </row>
     <row r="5">
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9850.32118221071</v>
+        <v>9878.62574674321</v>
       </c>
     </row>
     <row r="6">
@@ -3104,7 +3104,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8867.76914420487</v>
+        <v>8875.13808236172</v>
       </c>
     </row>
     <row r="7">
@@ -3112,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6207.43840094342</v>
+        <v>6212.5966576532</v>
       </c>
     </row>
     <row r="8">
@@ -3120,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21381.1767143607</v>
+        <v>21398.9440430277</v>
       </c>
     </row>
     <row r="9">
@@ -3128,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6019.6407224621</v>
+        <v>6036.93795634307</v>
       </c>
     </row>
     <row r="10">
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10641.3229730459</v>
+        <v>10650.1656988341</v>
       </c>
     </row>
     <row r="11">
@@ -3144,7 +3144,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1477.96152403415</v>
+        <v>1479.18968039362</v>
       </c>
     </row>
     <row r="12">
@@ -3152,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>67756.598223552</v>
+        <v>68648.2984099925</v>
       </c>
     </row>
     <row r="13">
@@ -3160,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>47337.8490974928</v>
+        <v>47960.8315076584</v>
       </c>
     </row>
     <row r="14">
@@ -3168,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20645.7785094111</v>
+        <v>20757.8291517665</v>
       </c>
     </row>
     <row r="15">
@@ -3176,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23650.2015014521</v>
+        <v>23778.5580208668</v>
       </c>
     </row>
     <row r="16">
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17949.5014652716</v>
+        <v>18046.9186282149</v>
       </c>
     </row>
     <row r="17">
@@ -3192,7 +3192,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>56544.7814399541</v>
+        <v>56851.6664081963</v>
       </c>
     </row>
     <row r="18">
@@ -3200,7 +3200,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14636.9325253287</v>
+        <v>14716.3714135657</v>
       </c>
     </row>
     <row r="19">
@@ -3208,7 +3208,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>46607.0746201257</v>
+        <v>46860.0247642489</v>
       </c>
     </row>
     <row r="20">
@@ -3216,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13524.6779486117</v>
+        <v>13524.5955428422</v>
       </c>
     </row>
     <row r="21">
@@ -3224,7 +3224,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14020.6406295254</v>
+        <v>14096.7347224683</v>
       </c>
     </row>
     <row r="22">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27133.9416122237</v>
+        <v>27191.4092359673</v>
       </c>
     </row>
     <row r="5">
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9362.51020485677</v>
+        <v>9382.33928908776</v>
       </c>
     </row>
     <row r="6">
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8725.78576660138</v>
+        <v>8729.5212718668</v>
       </c>
     </row>
     <row r="7">
@@ -3286,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6108.05003662097</v>
+        <v>6110.66489030676</v>
       </c>
     </row>
     <row r="8">
@@ -3294,7 +3294,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21038.8390150278</v>
+        <v>21047.8457332788</v>
       </c>
     </row>
     <row r="9">
@@ -3302,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5721.53401407914</v>
+        <v>5733.65178777585</v>
       </c>
     </row>
     <row r="10">
@@ -3310,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10470.9429199217</v>
+        <v>10475.4255262402</v>
       </c>
     </row>
     <row r="11">
@@ -3318,7 +3318,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1454.2976277669</v>
+        <v>1454.9202119778</v>
       </c>
     </row>
     <row r="12">
@@ -3326,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>60214.6965685322</v>
+        <v>60910.9557518596</v>
       </c>
     </row>
     <row r="13">
@@ -3334,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42068.7327042003</v>
+        <v>42555.1711178341</v>
       </c>
     </row>
     <row r="14">
@@ -3342,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18966.1289812732</v>
+        <v>19033.3271040006</v>
       </c>
     </row>
     <row r="15">
@@ -3350,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21726.1253628762</v>
+        <v>21803.1023168961</v>
       </c>
     </row>
     <row r="16">
@@ -3358,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16489.2091516293</v>
+        <v>16547.6314001199</v>
       </c>
     </row>
     <row r="17">
@@ -3366,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51944.5472845316</v>
+        <v>52128.5899042403</v>
       </c>
     </row>
     <row r="18">
@@ -3374,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13446.1362180667</v>
+        <v>13493.7766782093</v>
       </c>
     </row>
     <row r="19">
@@ -3382,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42815.3284838442</v>
+        <v>42967.0257385087</v>
       </c>
     </row>
     <row r="20">
@@ -3390,7 +3390,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13514.6615257541</v>
+        <v>13514.4215260819</v>
       </c>
     </row>
     <row r="21">
@@ -3398,7 +3398,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12879.9831141482</v>
+        <v>12925.6176601795</v>
       </c>
     </row>
     <row r="22">
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31061.8698233676</v>
+        <v>30981.7835408843</v>
       </c>
     </row>
     <row r="5">
@@ -3444,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10717.8336770726</v>
+        <v>10690.2000716151</v>
       </c>
     </row>
     <row r="6">
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9172.53031534433</v>
+        <v>9155.91859641775</v>
       </c>
     </row>
     <row r="7">
@@ -3460,7 +3460,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6420.77122074104</v>
+        <v>6409.14301749243</v>
       </c>
     </row>
     <row r="8">
@@ -3468,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22115.9897603302</v>
+        <v>22075.9370602517</v>
       </c>
     </row>
     <row r="9">
@@ -3476,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6549.7872470999</v>
+        <v>6532.90004376476</v>
       </c>
     </row>
     <row r="10">
@@ -3484,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11007.0363784132</v>
+        <v>10987.1023157013</v>
       </c>
     </row>
     <row r="11">
@@ -3492,7 +3492,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1528.75505255739</v>
+        <v>1525.98643273629</v>
       </c>
     </row>
     <row r="12">
@@ -3500,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>84054.2568180434</v>
+        <v>83656.0463839368</v>
       </c>
     </row>
     <row r="13">
@@ -3508,7 +3508,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58724.1365354051</v>
+        <v>58445.9285684615</v>
       </c>
     </row>
     <row r="14">
@@ -3516,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24334.8209168831</v>
+        <v>24150.8449296937</v>
       </c>
     </row>
     <row r="15">
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27876.082169713</v>
+        <v>27665.3335575223</v>
       </c>
     </row>
     <row r="16">
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21156.7659463947</v>
+        <v>20996.8166739502</v>
       </c>
     </row>
     <row r="17">
@@ -3540,7 +3540,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66648.3528096723</v>
+        <v>66144.4782775941</v>
       </c>
     </row>
     <row r="18">
@@ -3548,7 +3548,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17252.298411223</v>
+        <v>17121.8676740365</v>
       </c>
     </row>
     <row r="19">
@@ -3556,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>54934.9502041577</v>
+        <v>54519.6312778534</v>
       </c>
     </row>
     <row r="20">
@@ -3564,7 +3564,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13541.7545783124</v>
+        <v>13540.6320527847</v>
       </c>
     </row>
     <row r="21">
@@ -3572,7 +3572,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16525.88584654</v>
+        <v>16400.9469298667</v>
       </c>
     </row>
     <row r="22">
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28417.9964098745</v>
+        <v>28337.9101273912</v>
       </c>
     </row>
     <row r="5">
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9805.5706462187</v>
+        <v>9777.9370407612</v>
       </c>
     </row>
     <row r="6">
@@ -3626,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8848.58461853813</v>
+        <v>8831.97289961155</v>
       </c>
     </row>
     <row r="7">
@@ -3634,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6194.0092329767</v>
+        <v>6182.38102972809</v>
       </c>
     </row>
     <row r="8">
@@ -3642,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21334.9206913642</v>
+        <v>21294.8679912856</v>
       </c>
     </row>
     <row r="9">
@@ -3650,7 +3650,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5992.2931726892</v>
+        <v>5975.40596935406</v>
       </c>
     </row>
     <row r="10">
@@ -3658,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10618.3015422458</v>
+        <v>10598.3674795339</v>
       </c>
     </row>
     <row r="11">
@@ -3666,7 +3666,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1474.76410308969</v>
+        <v>1471.99548326859</v>
       </c>
     </row>
     <row r="12">
@@ -3674,7 +3674,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>66724.6697271142</v>
+        <v>66326.4592930076</v>
       </c>
     </row>
     <row r="13">
@@ -3682,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>46616.8967958055</v>
+        <v>46338.6888288619</v>
       </c>
     </row>
     <row r="14">
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20408.9572057753</v>
+        <v>20224.9812185859</v>
       </c>
     </row>
     <row r="15">
@@ -3698,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23378.9173961679</v>
+        <v>23168.1687839772</v>
       </c>
     </row>
     <row r="16">
@@ -3706,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17743.6083169614</v>
+        <v>17583.6590445169</v>
       </c>
     </row>
     <row r="17">
@@ -3714,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>55896.1738396979</v>
+        <v>55392.2993076197</v>
       </c>
     </row>
     <row r="18">
@@ -3722,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14469.0368249899</v>
+        <v>14338.6060878034</v>
       </c>
     </row>
     <row r="19">
@@ -3730,7 +3730,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>46072.4593637837</v>
+        <v>45657.1404374794</v>
       </c>
     </row>
     <row r="20">
@@ -3738,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13523.8458528052</v>
+        <v>13522.7233272776</v>
       </c>
     </row>
     <row r="21">
@@ -3746,7 +3746,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13859.8142218325</v>
+        <v>13734.8753051591</v>
       </c>
     </row>
     <row r="22">
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27023.8984872423</v>
+        <v>26943.812204759</v>
       </c>
     </row>
     <row r="5">
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9324.54005310598</v>
+        <v>9296.90644764848</v>
       </c>
     </row>
     <row r="6">
@@ -3800,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8709.50798724779</v>
+        <v>8692.89626832121</v>
       </c>
     </row>
     <row r="7">
@@ -3808,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6096.65559107345</v>
+        <v>6085.02738782485</v>
       </c>
     </row>
     <row r="8">
@@ -3816,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20999.5914803641</v>
+        <v>20959.5387802856</v>
       </c>
     </row>
     <row r="9">
@@ -3824,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5698.33003245365</v>
+        <v>5681.44282911851</v>
       </c>
     </row>
     <row r="10">
@@ -3832,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10451.4095846973</v>
+        <v>10431.4755219854</v>
       </c>
     </row>
     <row r="11">
@@ -3840,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1451.5846645413</v>
+        <v>1448.8160447202</v>
       </c>
     </row>
     <row r="12">
@@ -3848,7 +3848,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>59339.120874585</v>
+        <v>58940.9104404784</v>
       </c>
     </row>
     <row r="13">
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>41457.0155997383</v>
+        <v>41178.8076327947</v>
       </c>
     </row>
     <row r="14">
@@ -3864,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18765.1896933398</v>
+        <v>18581.2137061504</v>
       </c>
     </row>
     <row r="15">
@@ -3872,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21495.9449099077</v>
+        <v>21285.196297717</v>
       </c>
     </row>
     <row r="16">
@@ -3880,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16314.5119348812</v>
+        <v>16154.5626624367</v>
       </c>
     </row>
     <row r="17">
@@ -3888,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51394.213563102</v>
+        <v>50890.3390310238</v>
       </c>
     </row>
     <row r="18">
@@ -3896,7 +3896,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13303.6792602035</v>
+        <v>13173.248523017</v>
       </c>
     </row>
     <row r="19">
@@ -3904,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42361.7155390691</v>
+        <v>41946.3966127648</v>
       </c>
     </row>
     <row r="20">
@@ -3912,7 +3912,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13513.9555050698</v>
+        <v>13512.8329795422</v>
       </c>
     </row>
     <row r="21">
@@ -3920,7 +3920,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12743.5243439845</v>
+        <v>12618.5854273111</v>
       </c>
     </row>
     <row r="22">
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31204.5057649059</v>
+        <v>29954.8077305509</v>
       </c>
     </row>
     <row r="5">
@@ -3966,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10767.0499124915</v>
+        <v>10335.8442009569</v>
       </c>
     </row>
     <row r="6">
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9219.65466247699</v>
+        <v>8960.4388286776</v>
       </c>
     </row>
     <row r="7">
@@ -3982,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6453.75826373389</v>
+        <v>6272.30718007432</v>
       </c>
     </row>
     <row r="8">
@@ -3990,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22229.6117973056</v>
+        <v>21604.613620256</v>
       </c>
     </row>
     <row r="9">
@@ -3998,7 +3998,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6579.86383541146</v>
+        <v>6316.34923391809</v>
       </c>
     </row>
     <row r="10">
@@ -4006,7 +4006,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11063.5855949724</v>
+        <v>10752.5265944131</v>
       </c>
     </row>
     <row r="11">
@@ -4014,7 +4014,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1536.60911041283</v>
+        <v>1493.40647144627</v>
       </c>
     </row>
     <row r="12">
@@ -4022,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>83883.806382344</v>
+        <v>77669.9732347466</v>
       </c>
     </row>
     <row r="13">
@@ -4030,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58605.0520887934</v>
+        <v>54263.7849123116</v>
       </c>
     </row>
     <row r="14">
@@ -4038,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24801.3826113811</v>
+        <v>21930.5485255698</v>
       </c>
     </row>
     <row r="15">
@@ -4046,7 +4046,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28410.5390361717</v>
+        <v>25121.9343184698</v>
       </c>
     </row>
     <row r="16">
@@ -4054,7 +4054,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21562.3960763127</v>
+        <v>19066.4843524543</v>
       </c>
     </row>
     <row r="17">
@@ -4062,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67926.1747640065</v>
+        <v>60063.5172304784</v>
       </c>
     </row>
     <row r="18">
@@ -4070,7 +4070,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17583.0697618</v>
+        <v>15547.7769397696</v>
       </c>
     </row>
     <row r="19">
@@ -4078,7 +4078,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55988.1958204686</v>
+        <v>49507.3949924243</v>
       </c>
     </row>
     <row r="20">
@@ -4086,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13545.9941678226</v>
+        <v>13528.4778354134</v>
       </c>
     </row>
     <row r="21">
@@ -4094,7 +4094,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16842.7299823558</v>
+        <v>14893.1337002004</v>
       </c>
     </row>
     <row r="22">
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28660.850197378</v>
+        <v>27411.152163023</v>
       </c>
     </row>
     <row r="5">
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9889.36684126781</v>
+        <v>9458.1611297332</v>
       </c>
     </row>
     <row r="6">
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8910.53337186781</v>
+        <v>8651.31753806842</v>
       </c>
     </row>
     <row r="7">
@@ -4156,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6237.37336030747</v>
+        <v>6055.9222766479</v>
       </c>
     </row>
     <row r="8">
@@ -4164,7 +4164,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21484.2860188368</v>
+        <v>20859.2878417872</v>
       </c>
     </row>
     <row r="9">
@@ -4172,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6043.50195855255</v>
+        <v>5779.98735705918</v>
       </c>
     </row>
     <row r="10">
@@ -4180,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10692.6400462414</v>
+        <v>10381.5810456821</v>
       </c>
     </row>
     <row r="11">
@@ -4188,7 +4188,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1485.0888953113</v>
+        <v>1441.88625634474</v>
       </c>
     </row>
     <row r="12">
@@ -4196,7 +4196,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>67351.6185841167</v>
+        <v>61137.7854365193</v>
       </c>
     </row>
     <row r="13">
@@ -4204,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>47054.9118550432</v>
+        <v>42713.6446785614</v>
       </c>
     </row>
     <row r="14">
@@ -4212,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21058.5171803555</v>
+        <v>18187.6830945442</v>
       </c>
     </row>
     <row r="15">
@@ -4220,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24123.0028894371</v>
+        <v>20834.3981717352</v>
       </c>
     </row>
     <row r="16">
@@ -4228,7 +4228,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18308.3376978464</v>
+        <v>15812.425973988</v>
       </c>
     </row>
     <row r="17">
@@ -4236,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>57675.1925760483</v>
+        <v>49812.5350425202</v>
       </c>
     </row>
     <row r="18">
@@ -4244,7 +4244,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14929.5457621923</v>
+        <v>12894.2529401618</v>
       </c>
     </row>
     <row r="19">
@@ -4252,7 +4252,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>47538.8167690862</v>
+        <v>41058.0159410419</v>
       </c>
     </row>
     <row r="20">
@@ -4260,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13528.7284254387</v>
+        <v>13511.2120930295</v>
       </c>
     </row>
     <row r="21">
@@ -4268,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14300.9333090474</v>
+        <v>12351.337026892</v>
       </c>
     </row>
     <row r="22">
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27296.2281117943</v>
+        <v>26046.5300774394</v>
       </c>
     </row>
     <row r="5">
@@ -4488,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9418.50682451691</v>
+        <v>8987.3011129823</v>
       </c>
     </row>
     <row r="6">
@@ -4496,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8775.81686004718</v>
+        <v>8516.60102624779</v>
       </c>
     </row>
     <row r="7">
@@ -4504,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6143.07180203303</v>
+        <v>5961.62071837346</v>
       </c>
     </row>
     <row r="8">
@@ -4512,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21159.469540336</v>
+        <v>20534.4713632864</v>
       </c>
     </row>
     <row r="9">
@@ -4520,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5755.75417053811</v>
+        <v>5492.23956904474</v>
       </c>
     </row>
     <row r="10">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10530.9802320566</v>
+        <v>10219.9212314974</v>
       </c>
     </row>
     <row r="11">
@@ -4536,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1462.6361433412</v>
+        <v>1419.43350437463</v>
       </c>
     </row>
     <row r="12">
@@ -4544,7 +4544,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>60200.5989353234</v>
+        <v>53986.765787726</v>
       </c>
     </row>
     <row r="13">
@@ -4552,7 +4552,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42058.883454814</v>
+        <v>37717.6162783322</v>
       </c>
     </row>
     <row r="14">
@@ -4560,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19468.5726914736</v>
+        <v>16597.7386056623</v>
       </c>
     </row>
     <row r="15">
@@ -4568,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22301.6858816507</v>
+        <v>19013.0811639488</v>
       </c>
     </row>
     <row r="16">
@@ -4576,7 +4576,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16926.0352131095</v>
+        <v>14430.1234892511</v>
       </c>
     </row>
     <row r="17">
@@ -4584,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>53320.6431176925</v>
+        <v>45457.9855841644</v>
       </c>
     </row>
     <row r="18">
@@ -4592,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13802.3463111193</v>
+        <v>11767.0534890888</v>
       </c>
     </row>
     <row r="19">
@@ -4600,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43949.5764117221</v>
+        <v>37468.7755836778</v>
       </c>
     </row>
     <row r="20">
@@ -4608,7 +4608,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13519.0271903866</v>
+        <v>13501.5108579774</v>
       </c>
     </row>
     <row r="21">
@@ -4616,7 +4616,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13221.1948874933</v>
+        <v>11271.5986053378</v>
       </c>
     </row>
     <row r="22">
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31695.769715716</v>
+        <v>30691.703656766</v>
       </c>
     </row>
     <row r="5">
@@ -4662,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10936.5595185218</v>
+        <v>10590.1086100024</v>
       </c>
     </row>
     <row r="6">
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9292.32332030555</v>
+        <v>9069.44181542044</v>
       </c>
     </row>
     <row r="7">
@@ -4678,7 +4678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6504.62632421388</v>
+        <v>6348.60927079431</v>
       </c>
     </row>
     <row r="8">
@@ -4686,7 +4686,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22404.8240056256</v>
+        <v>21867.431932736</v>
       </c>
     </row>
     <row r="9">
@@ -4694,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6683.45303909666</v>
+        <v>6471.73303944589</v>
       </c>
     </row>
     <row r="10">
@@ -4702,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11150.7879843667</v>
+        <v>10883.3301785045</v>
       </c>
     </row>
     <row r="11">
@@ -4710,7 +4710,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1548.72055338426</v>
+        <v>1511.57363590341</v>
       </c>
     </row>
     <row r="12">
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>87792.6264446082</v>
+        <v>83533.2033281429</v>
       </c>
     </row>
     <row r="13">
@@ -4726,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61335.9320194272</v>
+        <v>58360.1048082623</v>
       </c>
     </row>
     <row r="14">
@@ -4734,7 +4734,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25698.433003941</v>
+        <v>23276.1241144096</v>
       </c>
     </row>
     <row r="15">
@@ -4742,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29438.1303440667</v>
+        <v>26663.3212803124</v>
       </c>
     </row>
     <row r="16">
@@ -4750,7 +4750,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22342.2943653666</v>
+        <v>20236.3317860352</v>
       </c>
     </row>
     <row r="17">
@@ -4758,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>70383.0217346742</v>
+        <v>63748.7876864799</v>
       </c>
     </row>
     <row r="18">
@@ -4766,7 +4766,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18219.0383236894</v>
+        <v>16501.7297826037</v>
       </c>
     </row>
     <row r="19">
@@ -4774,7 +4774,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>58013.2536096429</v>
+        <v>52544.9816761858</v>
       </c>
     </row>
     <row r="20">
@@ -4782,7 +4782,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13549.1460458775</v>
+        <v>13533.2056524958</v>
       </c>
     </row>
     <row r="21">
@@ -4790,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17451.9209205868</v>
+        <v>15806.9201075468</v>
       </c>
     </row>
     <row r="22">
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28985.0844049127</v>
+        <v>27897.503474325</v>
       </c>
     </row>
     <row r="5">
@@ -4836,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10001.2431812478</v>
+        <v>9625.97563970322</v>
       </c>
     </row>
     <row r="6">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8958.49468603466</v>
+        <v>8723.2595093187</v>
       </c>
     </row>
     <row r="7">
@@ -4852,7 +4852,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6270.94628022426</v>
+        <v>6106.28165652309</v>
       </c>
     </row>
     <row r="8">
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21599.926076328</v>
+        <v>21032.747928024</v>
       </c>
     </row>
     <row r="9">
@@ -4868,7 +4868,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6111.87083298478</v>
+        <v>5882.54066870752</v>
       </c>
     </row>
     <row r="10">
@@ -4876,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10750.1936232416</v>
+        <v>10467.9114111824</v>
       </c>
     </row>
     <row r="11">
@@ -4884,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1493.08244767244</v>
+        <v>1453.87658488645</v>
       </c>
     </row>
     <row r="12">
@@ -4892,7 +4892,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>69931.4398252111</v>
+        <v>65007.5172981608</v>
       </c>
     </row>
     <row r="13">
@@ -4900,7 +4900,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48857.2926092614</v>
+        <v>45417.2158098888</v>
       </c>
     </row>
     <row r="14">
@@ -4908,7 +4908,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21650.570439445</v>
+        <v>19075.7629831785</v>
       </c>
     </row>
     <row r="15">
@@ -4916,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24801.2131526478</v>
+        <v>21851.7135665513</v>
       </c>
     </row>
     <row r="16">
@@ -4924,7 +4924,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18823.070568622</v>
+        <v>16584.5252801514</v>
       </c>
     </row>
     <row r="17">
@@ -4932,7 +4932,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>59296.7115766889</v>
+        <v>52244.8135434812</v>
       </c>
     </row>
     <row r="18">
@@ -4940,7 +4940,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15349.2850130393</v>
+        <v>13523.8618164324</v>
       </c>
     </row>
     <row r="19">
@@ -4948,7 +4948,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>48875.3549099412</v>
+        <v>43062.8231523244</v>
       </c>
     </row>
     <row r="20">
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13530.808664955</v>
+        <v>13514.3324523039</v>
       </c>
     </row>
     <row r="21">
@@ -4964,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14702.9993282799</v>
+        <v>12954.4360557406</v>
       </c>
     </row>
     <row r="22">
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27571.335924248</v>
+        <v>26459.1917961199</v>
       </c>
     </row>
     <row r="5">
@@ -5010,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9513.43220389388</v>
+        <v>9129.68918204777</v>
       </c>
     </row>
     <row r="6">
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8816.51130843117</v>
+        <v>8577.64269882378</v>
       </c>
     </row>
     <row r="7">
@@ -5026,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6171.55791590182</v>
+        <v>6004.34988917665</v>
       </c>
     </row>
     <row r="8">
@@ -5034,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21257.5883769952</v>
+        <v>20681.6496182751</v>
       </c>
     </row>
     <row r="9">
@@ -5042,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5813.76412460182</v>
+        <v>5579.2545001403</v>
       </c>
     </row>
     <row r="10">
@@ -5050,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10579.8135701174</v>
+        <v>10293.1712385885</v>
       </c>
     </row>
     <row r="11">
@@ -5058,7 +5058,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1469.4185514052</v>
+        <v>1429.60711647063</v>
       </c>
     </row>
     <row r="12">
@@ -5066,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>62389.5381701913</v>
+        <v>57270.1746400279</v>
       </c>
     </row>
     <row r="13">
@@ -5074,7 +5074,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>43588.1762159689</v>
+        <v>40011.5554200645</v>
       </c>
     </row>
     <row r="14">
@@ -5082,7 +5082,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19970.9209113071</v>
+        <v>17351.2609354126</v>
       </c>
     </row>
     <row r="15">
@@ -5090,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22877.1370140719</v>
+        <v>19876.2578625806</v>
       </c>
     </row>
     <row r="16">
@@ -5098,7 +5098,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17362.7782549797</v>
+        <v>15085.2380520564</v>
       </c>
     </row>
     <row r="17">
@@ -5106,7 +5106,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>54696.4774212664</v>
+        <v>47521.7370395252</v>
       </c>
     </row>
     <row r="18">
@@ -5114,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14158.4887057774</v>
+        <v>12301.267081076</v>
       </c>
     </row>
     <row r="19">
@@ -5122,7 +5122,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45083.6087736597</v>
+        <v>39169.8241265842</v>
       </c>
     </row>
     <row r="20">
@@ -5130,7 +5130,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13520.7922420973</v>
+        <v>13504.1584355435</v>
       </c>
     </row>
     <row r="21">
@@ -5138,7 +5138,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13562.3418129026</v>
+        <v>11783.3189934518</v>
       </c>
     </row>
     <row r="22">
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31499.2641353919</v>
+        <v>30249.5661010369</v>
       </c>
     </row>
     <row r="5">
@@ -5184,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10868.7556761097</v>
+        <v>10437.5499645751</v>
       </c>
     </row>
     <row r="6">
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9263.25585717412</v>
+        <v>9004.04002337473</v>
       </c>
     </row>
     <row r="7">
@@ -5200,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6484.27910002189</v>
+        <v>6302.82801636232</v>
       </c>
     </row>
     <row r="8">
@@ -5208,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22334.7391222976</v>
+        <v>21709.740945248</v>
       </c>
     </row>
     <row r="9">
@@ -5216,7 +5216,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6642.01735762258</v>
+        <v>6378.50275612921</v>
       </c>
     </row>
     <row r="10">
@@ -5224,7 +5224,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11115.9070286089</v>
+        <v>10804.8480280497</v>
       </c>
     </row>
     <row r="11">
@@ -5232,7 +5232,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1543.87597619569</v>
+        <v>1500.67333722912</v>
       </c>
     </row>
     <row r="12">
@@ -5240,7 +5240,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>86229.0984197025</v>
+        <v>80015.2652721051</v>
       </c>
     </row>
     <row r="13">
@@ -5248,7 +5248,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>60243.5800471737</v>
+        <v>55902.3128706919</v>
       </c>
     </row>
     <row r="14">
@@ -5256,7 +5256,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25339.612846917</v>
+        <v>22468.7787611057</v>
       </c>
     </row>
     <row r="15">
@@ -5264,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29027.0938209087</v>
+        <v>25738.4891032068</v>
       </c>
     </row>
     <row r="16">
@@ -5272,7 +5272,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22030.3350497451</v>
+        <v>19534.4233258867</v>
       </c>
     </row>
     <row r="17">
@@ -5280,7 +5280,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69400.2829464071</v>
+        <v>61537.625412879</v>
       </c>
     </row>
     <row r="18">
@@ -5288,7 +5288,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17964.6508989336</v>
+        <v>15929.3580769032</v>
       </c>
     </row>
     <row r="19">
@@ -5296,7 +5296,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57203.2304939732</v>
+        <v>50722.4296659289</v>
       </c>
     </row>
     <row r="20">
@@ -5304,7 +5304,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13547.8852946556</v>
+        <v>13530.3689622464</v>
       </c>
     </row>
     <row r="21">
@@ -5312,7 +5312,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17208.2445452944</v>
+        <v>15258.648263139</v>
       </c>
     </row>
     <row r="22">
@@ -5350,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28855.3907218988</v>
+        <v>27605.6926875438</v>
       </c>
     </row>
     <row r="5">
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9956.49264525581</v>
+        <v>9525.28693372121</v>
       </c>
     </row>
     <row r="6">
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8939.31016036792</v>
+        <v>8680.09432656853</v>
       </c>
     </row>
     <row r="7">
@@ -5374,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6257.51711225755</v>
+        <v>6076.06602859798</v>
       </c>
     </row>
     <row r="8">
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21553.6700533315</v>
+        <v>20928.6718762819</v>
       </c>
     </row>
     <row r="9">
@@ -5390,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6084.52328321188</v>
+        <v>5821.00868171851</v>
       </c>
     </row>
     <row r="10">
@@ -5398,7 +5398,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10727.1721924415</v>
+        <v>10416.1131918822</v>
       </c>
     </row>
     <row r="11">
@@ -5406,7 +5406,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1489.88502672799</v>
+        <v>1446.68238776142</v>
       </c>
     </row>
     <row r="12">
@@ -5414,7 +5414,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68899.5113287733</v>
+        <v>62685.6781811759</v>
       </c>
     </row>
     <row r="13">
@@ -5422,7 +5422,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48136.3403075741</v>
+        <v>43795.0731310923</v>
       </c>
     </row>
     <row r="14">
@@ -5430,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21413.7491358092</v>
+        <v>18542.9150499979</v>
       </c>
     </row>
     <row r="15">
@@ -5438,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24529.9290473636</v>
+        <v>21241.3243296617</v>
       </c>
     </row>
     <row r="16">
@@ -5446,7 +5446,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18617.1774203118</v>
+        <v>16121.2656964534</v>
       </c>
     </row>
     <row r="17">
@@ -5454,7 +5454,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>58648.1039764327</v>
+        <v>50785.4464429046</v>
       </c>
     </row>
     <row r="18">
@@ -5462,7 +5462,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15181.3893127005</v>
+        <v>13146.0964906701</v>
       </c>
     </row>
     <row r="19">
@@ -5470,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>48340.7396535992</v>
+        <v>41859.9388255549</v>
       </c>
     </row>
     <row r="20">
@@ -5478,7 +5478,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13529.9765691485</v>
+        <v>13512.4602367393</v>
       </c>
     </row>
     <row r="21">
@@ -5486,7 +5486,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14542.1729205869</v>
+        <v>12592.5766384314</v>
       </c>
     </row>
     <row r="22">
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27461.2927992665</v>
+        <v>26211.5947649116</v>
       </c>
     </row>
     <row r="5">
@@ -5532,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9475.4620521431</v>
+        <v>9044.25634060849</v>
       </c>
     </row>
     <row r="6">
@@ -5540,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8800.23352907757</v>
+        <v>8541.01769527819</v>
       </c>
     </row>
     <row r="7">
@@ -5548,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6160.1634703543</v>
+        <v>5978.71238669473</v>
       </c>
     </row>
     <row r="8">
@@ -5556,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21218.3408423315</v>
+        <v>20593.3426652819</v>
       </c>
     </row>
     <row r="9">
@@ -5564,7 +5564,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5790.56014297633</v>
+        <v>5527.04554148296</v>
       </c>
     </row>
     <row r="10">
@@ -5572,7 +5572,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10560.2802348931</v>
+        <v>10249.2212343338</v>
       </c>
     </row>
     <row r="11">
@@ -5580,7 +5580,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1466.7055881796</v>
+        <v>1423.50294921303</v>
       </c>
     </row>
     <row r="12">
@@ -5588,7 +5588,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>61513.9624762441</v>
+        <v>55300.1293286467</v>
       </c>
     </row>
     <row r="13">
@@ -5596,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42976.4591115069</v>
+        <v>38635.1919350251</v>
       </c>
     </row>
     <row r="14">
@@ -5604,7 +5604,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19769.9816233737</v>
+        <v>16899.1475375624</v>
       </c>
     </row>
     <row r="15">
@@ -5612,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22646.9565611034</v>
+        <v>19358.3518434015</v>
       </c>
     </row>
     <row r="16">
@@ -5620,7 +5620,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17188.0810382316</v>
+        <v>14692.1693143732</v>
       </c>
     </row>
     <row r="17">
@@ -5628,7 +5628,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>54146.1436998368</v>
+        <v>46283.4861663087</v>
       </c>
     </row>
     <row r="18">
@@ -5636,7 +5636,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14016.0317479141</v>
+        <v>11980.7389258837</v>
       </c>
     </row>
     <row r="19">
@@ -5644,7 +5644,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>44629.9958288846</v>
+        <v>38149.1950008403</v>
       </c>
     </row>
     <row r="20">
@@ -5652,7 +5652,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13520.086221413</v>
+        <v>13502.5698890038</v>
       </c>
     </row>
     <row r="21">
@@ -5660,7 +5660,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13425.8830427389</v>
+        <v>11476.2867605834</v>
       </c>
     </row>
     <row r="22">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24348.3436845141</v>
+        <v>46600.7610759736</v>
       </c>
     </row>
     <row r="5">
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8401.34542468856</v>
+        <v>16079.4958345213</v>
       </c>
     </row>
     <row r="6">
@@ -5714,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8553.10403580694</v>
+        <v>11712.0395899667</v>
       </c>
     </row>
     <row r="7">
@@ -5722,7 +5722,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5987.17282506486</v>
+        <v>8198.42771297668</v>
       </c>
     </row>
     <row r="8">
@@ -5730,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20622.4841752234</v>
+        <v>28239.0287891419</v>
       </c>
     </row>
     <row r="9">
@@ -5738,7 +5738,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5134.15553730967</v>
+        <v>9826.35856554078</v>
       </c>
     </row>
     <row r="10">
@@ -5746,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10263.7248429683</v>
+        <v>14054.44750796</v>
       </c>
     </row>
     <row r="11">
@@ -5754,7 +5754,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1425.51733930116</v>
+        <v>1952.00659832778</v>
       </c>
     </row>
     <row r="12">
@@ -5762,7 +5762,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>98589.1392276515</v>
+        <v>138512.610950059</v>
       </c>
     </row>
     <row r="13">
@@ -5770,7 +5770,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>68878.868151147</v>
+        <v>96771.2259346347</v>
       </c>
     </row>
     <row r="14">
@@ -5778,7 +5778,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21072.9581202869</v>
+        <v>42823.3213007268</v>
       </c>
     </row>
     <row r="15">
@@ -5786,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24139.5453094332</v>
+        <v>49055.0732810565</v>
       </c>
     </row>
     <row r="16">
@@ -5794,7 +5794,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18320.8926941301</v>
+        <v>37230.7233696618</v>
       </c>
     </row>
     <row r="17">
@@ -5802,7 +5802,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>57714.7435085471</v>
+        <v>117284.76804005</v>
       </c>
     </row>
     <row r="18">
@@ -5810,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14939.7837419945</v>
+        <v>30359.8173400675</v>
       </c>
     </row>
     <row r="19">
@@ -5818,7 +5818,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>47571.4166521403</v>
+        <v>96672.0499512676</v>
       </c>
     </row>
     <row r="20">
@@ -5826,7 +5826,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14016.3797427277</v>
+        <v>14161.4148904335</v>
       </c>
     </row>
     <row r="21">
@@ -5834,7 +5834,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14310.7402160158</v>
+        <v>29081.5092415384</v>
       </c>
     </row>
     <row r="22">
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20073.6134186366</v>
+        <v>42326.0308100961</v>
       </c>
     </row>
     <row r="5">
@@ -5880,7 +5880,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6926.35862368289</v>
+        <v>14604.5090335156</v>
       </c>
     </row>
     <row r="6">
@@ -5888,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7999.4878877109</v>
+        <v>11158.4234418706</v>
       </c>
     </row>
     <row r="7">
@@ -5896,7 +5896,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5599.64152139763</v>
+        <v>7810.89640930945</v>
       </c>
     </row>
     <row r="8">
@@ -5904,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19287.6541292585</v>
+        <v>26904.198743177</v>
       </c>
     </row>
     <row r="9">
@@ -5912,7 +5912,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4232.77471447287</v>
+        <v>8924.97774270398</v>
       </c>
     </row>
     <row r="10">
@@ -5920,7 +5920,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9599.38546525307</v>
+        <v>13390.1081302448</v>
       </c>
     </row>
     <row r="11">
@@ -5928,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1333.24798128515</v>
+        <v>1859.73724031177</v>
       </c>
     </row>
     <row r="12">
@@ -5936,7 +5936,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>75796.6670401063</v>
+        <v>115720.138762514</v>
       </c>
     </row>
     <row r="13">
@@ -5944,7 +5944,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>52955.0077853564</v>
+        <v>80847.3655688441</v>
       </c>
     </row>
     <row r="14">
@@ -5952,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16112.2033876902</v>
+        <v>37862.5665681301</v>
       </c>
     </row>
     <row r="15">
@@ -5960,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18456.8897015705</v>
+        <v>43372.4176731938</v>
       </c>
     </row>
     <row r="16">
@@ -5968,7 +5968,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14007.9977213874</v>
+        <v>32917.8283969191</v>
       </c>
     </row>
     <row r="17">
@@ -5976,7 +5976,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>44128.198830465</v>
+        <v>103698.223361968</v>
       </c>
     </row>
     <row r="18">
@@ -5984,7 +5984,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11422.8307599296</v>
+        <v>26842.8643580026</v>
       </c>
     </row>
     <row r="19">
@@ -5992,7 +5992,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>36372.6979460917</v>
+        <v>85473.331245219</v>
       </c>
     </row>
     <row r="20">
@@ -6000,7 +6000,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13993.4958369824</v>
+        <v>14138.5309846882</v>
       </c>
     </row>
     <row r="21">
@@ -6008,7 +6008,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10941.8694647747</v>
+        <v>25712.6384902973</v>
       </c>
     </row>
     <row r="22">
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17780.3031901615</v>
+        <v>40032.720581621</v>
       </c>
     </row>
     <row r="5">
@@ -6054,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6135.0566918129</v>
+        <v>13813.2071016456</v>
       </c>
     </row>
     <row r="6">
@@ -6062,7 +6062,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7758.21936747375</v>
+        <v>10917.1549216335</v>
       </c>
     </row>
     <row r="7">
@@ -6070,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5430.75355723163</v>
+        <v>7642.00844514344</v>
       </c>
     </row>
     <row r="8">
@@ -6078,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18705.9289193534</v>
+        <v>26322.4735332719</v>
       </c>
     </row>
     <row r="9">
@@ -6086,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3749.20131166343</v>
+        <v>8441.40433989454</v>
       </c>
     </row>
     <row r="10">
@@ -6094,7 +6094,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9309.86324096849</v>
+        <v>13100.5859059602</v>
       </c>
     </row>
     <row r="11">
@@ -6102,7 +6102,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1293.03656124562</v>
+        <v>1819.52582027225</v>
       </c>
     </row>
     <row r="12">
@@ -6110,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65937.7531173411</v>
+        <v>105861.224839748</v>
       </c>
     </row>
     <row r="13">
@@ -6118,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>46067.1209702417</v>
+        <v>73959.4787537294</v>
       </c>
     </row>
     <row r="14">
@@ -6126,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14004.9075756615</v>
+        <v>35755.2707561014</v>
       </c>
     </row>
     <row r="15">
@@ -6134,7 +6134,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16042.9351706272</v>
+        <v>40958.4631422505</v>
       </c>
     </row>
     <row r="16">
@@ -6142,7 +6142,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12175.9084519744</v>
+        <v>31085.7391275061</v>
       </c>
     </row>
     <row r="17">
@@ -6150,7 +6150,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>38356.7244796103</v>
+        <v>97926.7490111135</v>
       </c>
     </row>
     <row r="18">
@@ -6158,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>9928.85238573018</v>
+        <v>25348.8859838032</v>
       </c>
     </row>
     <row r="19">
@@ -6166,7 +6166,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>31615.5562808777</v>
+        <v>80716.189580005</v>
       </c>
     </row>
     <row r="20">
@@ -6174,7 +6174,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13980.6378814072</v>
+        <v>14125.673029113</v>
       </c>
     </row>
     <row r="21">
@@ -6182,7 +6182,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9510.79544317312</v>
+        <v>24281.5644686957</v>
       </c>
     </row>
     <row r="22">
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31554.495719598</v>
+        <v>31681.743579397</v>
       </c>
     </row>
     <row r="5">
@@ -6228,7 +6228,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10887.8132195418</v>
+        <v>10931.7198293127</v>
       </c>
     </row>
     <row r="6">
@@ -6236,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9029.45451890329</v>
+        <v>9044.18177835494</v>
       </c>
     </row>
     <row r="7">
@@ -6244,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6320.61816323231</v>
+        <v>6330.92724484846</v>
       </c>
     </row>
     <row r="8">
@@ -6252,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21771.0181178002</v>
+        <v>21806.5271767002</v>
       </c>
     </row>
     <row r="9">
@@ -6260,7 +6260,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6653.66363416444</v>
+        <v>6680.49545124665</v>
       </c>
     </row>
     <row r="10">
@@ -6268,7 +6268,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10835.345422684</v>
+        <v>10853.0181340259</v>
       </c>
     </row>
     <row r="11">
@@ -6276,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1504.90908648388</v>
+        <v>1507.36362972582</v>
       </c>
     </row>
     <row r="12">
@@ -6284,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>91459.0955885245</v>
+        <v>92888.6433827867</v>
       </c>
     </row>
     <row r="13">
@@ -6292,7 +6292,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>63897.4945477389</v>
+        <v>64896.2418216083</v>
       </c>
     </row>
     <row r="14">
@@ -6300,7 +6300,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27196.4617399491</v>
+        <v>27394.6926099237</v>
       </c>
     </row>
     <row r="15">
@@ -6308,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31154.1557991208</v>
+        <v>31381.2336986813</v>
       </c>
     </row>
     <row r="16">
@@ -6316,7 +6316,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23644.6850201797</v>
+        <v>23817.0275302695</v>
       </c>
     </row>
     <row r="17">
@@ -6324,7 +6324,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>74485.8317803084</v>
+        <v>75028.7476704627</v>
       </c>
     </row>
     <row r="18">
@@ -6332,7 +6332,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19281.0736216057</v>
+        <v>19421.6104324086</v>
       </c>
     </row>
     <row r="19">
@@ -6340,7 +6340,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61394.9975845867</v>
+        <v>61842.49637688</v>
       </c>
     </row>
     <row r="20">
@@ -6348,7 +6348,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12801.3930491866</v>
+        <v>12802.08957378</v>
       </c>
     </row>
     <row r="21">
@@ -6356,7 +6356,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18469.2389428013</v>
+        <v>18603.8584142019</v>
       </c>
     </row>
     <row r="22">
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25173.9353667652</v>
+        <v>47839.1485993502</v>
       </c>
     </row>
     <row r="5">
@@ -6402,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8686.21412016176</v>
+        <v>16506.7988777311</v>
       </c>
     </row>
     <row r="6">
@@ -6410,7 +6410,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8683.24888074814</v>
+        <v>11907.2568573785</v>
       </c>
     </row>
     <row r="7">
@@ -6418,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6078.2742165237</v>
+        <v>8335.07980016495</v>
       </c>
     </row>
     <row r="8">
@@ -6426,7 +6426,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20936.277856915</v>
+        <v>28709.7193116792</v>
       </c>
     </row>
     <row r="9">
@@ -6434,7 +6434,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5308.24196232107</v>
+        <v>10087.4882030579</v>
       </c>
     </row>
     <row r="10">
@@ -6442,7 +6442,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10419.8986568978</v>
+        <v>14288.7082288542</v>
       </c>
     </row>
     <row r="11">
@@ -6450,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1447.20814679136</v>
+        <v>1984.54280956308</v>
       </c>
     </row>
     <row r="12">
@@ -6458,7 +6458,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>103978.121837976</v>
+        <v>146596.084865546</v>
       </c>
     </row>
     <row r="13">
@@ -6466,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>72643.8571305953</v>
+        <v>102418.709403807</v>
       </c>
     </row>
     <row r="14">
@@ -6474,7 +6474,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22261.8993371903</v>
+        <v>44606.7331260819</v>
       </c>
     </row>
     <row r="15">
@@ -6482,7 +6482,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25501.5040914829</v>
+        <v>51098.0114541311</v>
       </c>
     </row>
     <row r="16">
@@ -6490,7 +6490,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19354.5617371841</v>
+        <v>38781.2269342428</v>
       </c>
     </row>
     <row r="17">
@@ -6498,7 +6498,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>60971.0228115585</v>
+        <v>122169.186994567</v>
       </c>
     </row>
     <row r="18">
@@ -6506,7 +6506,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15782.6898286051</v>
+        <v>31624.1764699833</v>
       </c>
     </row>
     <row r="19">
@@ -6514,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>50255.4070858214</v>
+        <v>100698.035601789</v>
       </c>
     </row>
     <row r="20">
@@ -6522,7 +6522,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14020.5572219653</v>
+        <v>14167.6811092898</v>
       </c>
     </row>
     <row r="21">
@@ -6530,7 +6530,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15118.1555200322</v>
+        <v>30292.632197563</v>
       </c>
     </row>
     <row r="22">
@@ -6568,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20618.5039289223</v>
+        <v>43143.3665755246</v>
       </c>
     </row>
     <row r="5">
@@ -6576,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7114.3719626952</v>
+        <v>14886.5290420341</v>
       </c>
     </row>
     <row r="6">
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8085.3834853721</v>
+        <v>11287.2668383624</v>
       </c>
     </row>
     <row r="7">
@@ -6592,7 +6592,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5659.76843976047</v>
+        <v>7901.08678685371</v>
       </c>
     </row>
     <row r="8">
@@ -6600,7 +6600,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19494.7579591749</v>
+        <v>27214.8544880516</v>
       </c>
     </row>
     <row r="9">
@@ -6608,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4347.67175498039</v>
+        <v>9097.32330346526</v>
       </c>
     </row>
     <row r="10">
@@ -6616,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9702.4601824465</v>
+        <v>13544.7202060349</v>
       </c>
     </row>
     <row r="11">
@@ -6624,7 +6624,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1347.56391422868</v>
+        <v>1881.21113972707</v>
       </c>
     </row>
     <row r="12">
@@ -6632,7 +6632,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>79353.3955629208</v>
+        <v>121055.231546735</v>
       </c>
     </row>
     <row r="13">
@@ -6640,7 +6640,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>55439.9005117923</v>
+        <v>84574.7046584979</v>
       </c>
     </row>
     <row r="14">
@@ -6648,7 +6648,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16896.9045908464</v>
+        <v>39039.6183728644</v>
       </c>
     </row>
     <row r="15">
@@ -6656,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19355.7824977233</v>
+        <v>44720.756867423</v>
       </c>
     </row>
     <row r="16">
@@ -6664,7 +6664,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14690.219289803</v>
+        <v>33941.1607495426</v>
       </c>
     </row>
     <row r="17">
@@ -6672,7 +6672,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46277.3431704525</v>
+        <v>106921.93987195</v>
       </c>
     </row>
     <row r="18">
@@ -6680,7 +6680,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11979.1487770926</v>
+        <v>27677.3413837471</v>
       </c>
     </row>
     <row r="19">
@@ -6688,7 +6688,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38144.1316323212</v>
+        <v>88130.4817745633</v>
       </c>
     </row>
     <row r="20">
@@ -6696,7 +6696,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13996.2529732792</v>
+        <v>14142.6666891334</v>
       </c>
     </row>
     <row r="21">
@@ -6704,7 +6704,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11474.7635654256</v>
+        <v>26511.9796412736</v>
       </c>
     </row>
     <row r="22">
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>18242.6345322221</v>
+        <v>40726.2175947119</v>
       </c>
     </row>
     <row r="5">
@@ -6750,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6294.58316127789</v>
+        <v>14052.4968058431</v>
       </c>
     </row>
     <row r="6">
@@ -6758,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7831.10048064082</v>
+        <v>11026.4765913841</v>
       </c>
     </row>
     <row r="7">
@@ -6766,7 +6766,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5481.77033644858</v>
+        <v>7718.53361396887</v>
       </c>
     </row>
     <row r="8">
@@ -6774,7 +6774,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18881.6533811006</v>
+        <v>26586.0602258928</v>
       </c>
     </row>
     <row r="9">
@@ -6782,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3846.68970966981</v>
+        <v>8587.63693690411</v>
       </c>
     </row>
     <row r="10">
@@ -6790,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9397.32057676897</v>
+        <v>13231.7719096609</v>
       </c>
     </row>
     <row r="11">
@@ -6798,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1305.18341344014</v>
+        <v>1837.74609856402</v>
       </c>
     </row>
     <row r="12">
@@ -6806,7 +6806,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68955.5833791231</v>
+        <v>110387.970232421</v>
       </c>
     </row>
     <row r="13">
@@ -6814,7 +6814,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48175.5147987328</v>
+        <v>77122.069496466</v>
       </c>
     </row>
     <row r="14">
@@ -6822,7 +6822,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14670.7146571274</v>
+        <v>36753.9813783002</v>
       </c>
     </row>
     <row r="15">
@@ -6830,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16805.632088575</v>
+        <v>42102.5085191723</v>
       </c>
     </row>
     <row r="16">
@@ -6838,7 +6838,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12754.7631160846</v>
+        <v>31954.0211236715</v>
       </c>
     </row>
     <row r="17">
@@ -6846,7 +6846,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>40180.2408892967</v>
+        <v>100662.023625643</v>
       </c>
     </row>
     <row r="18">
@@ -6854,7 +6854,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10400.8797942321</v>
+        <v>26056.9270965561</v>
       </c>
     </row>
     <row r="19">
@@ -6862,7 +6862,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>33118.5909237391</v>
+        <v>82970.7415442971</v>
       </c>
     </row>
     <row r="20">
@@ -6870,7 +6870,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13982.9772697802</v>
+        <v>14129.1821116725</v>
       </c>
     </row>
     <row r="21">
@@ -6878,7 +6878,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9962.94801342233</v>
+        <v>24959.7933240695</v>
       </c>
     </row>
     <row r="22">
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24843.6986938648</v>
+        <v>47096.1160853243</v>
       </c>
     </row>
     <row r="5">
@@ -6924,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8572.26664197248</v>
+        <v>16250.4170518052</v>
       </c>
     </row>
     <row r="6">
@@ -6932,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8631.19094277166</v>
+        <v>11790.1264969314</v>
       </c>
     </row>
     <row r="7">
@@ -6940,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6041.83365994017</v>
+        <v>8253.08854785198</v>
       </c>
     </row>
     <row r="8">
@@ -6948,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20810.7603842383</v>
+        <v>28427.3049981568</v>
       </c>
     </row>
     <row r="9">
@@ -6956,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5238.60739231651</v>
+        <v>9930.81042054762</v>
       </c>
     </row>
     <row r="10">
@@ -6964,7 +6964,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10357.429131326</v>
+        <v>14148.1517963177</v>
       </c>
     </row>
     <row r="11">
@@ -6972,7 +6972,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1438.53182379528</v>
+        <v>1965.0210828219</v>
       </c>
     </row>
     <row r="12">
@@ -6980,7 +6980,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>101822.528793846</v>
+        <v>141746.000516253</v>
       </c>
     </row>
     <row r="13">
@@ -6988,7 +6988,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>71137.861538816</v>
+        <v>99030.2193223037</v>
       </c>
     </row>
     <row r="14">
@@ -6996,7 +6996,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21786.3228504289</v>
+        <v>43536.6860308688</v>
       </c>
     </row>
     <row r="15">
@@ -7004,7 +7004,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24956.720578663</v>
+        <v>49872.2485502863</v>
       </c>
     </row>
     <row r="16">
@@ -7012,7 +7012,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18941.0941199625</v>
+        <v>37850.9247954942</v>
       </c>
     </row>
     <row r="17">
@@ -7020,7 +7020,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>59668.5110903539</v>
+        <v>119238.535621857</v>
       </c>
     </row>
     <row r="18">
@@ -7028,7 +7028,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15445.5273939608</v>
+        <v>30865.5609920338</v>
       </c>
     </row>
     <row r="19">
@@ -7036,7 +7036,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>49181.8109123489</v>
+        <v>98282.4442114762</v>
       </c>
     </row>
     <row r="20">
@@ -7044,7 +7044,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14018.8862302702</v>
+        <v>14163.921377976</v>
       </c>
     </row>
     <row r="21">
@@ -7052,7 +7052,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14795.1893984256</v>
+        <v>29565.9584239482</v>
       </c>
     </row>
     <row r="22">
@@ -7090,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20400.547724808</v>
+        <v>42652.9651162675</v>
       </c>
     </row>
     <row r="5">
@@ -7098,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7039.16662709028</v>
+        <v>14717.317036923</v>
       </c>
     </row>
     <row r="6">
@@ -7106,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8051.02524630762</v>
+        <v>11209.9608004674</v>
       </c>
     </row>
     <row r="7">
@@ -7114,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5635.71767241534</v>
+        <v>7846.97256032716</v>
       </c>
     </row>
     <row r="8">
@@ -7122,7 +7122,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19411.9164272083</v>
+        <v>27028.4610411268</v>
       </c>
     </row>
     <row r="9">
@@ -7130,7 +7130,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4301.71293877738</v>
+        <v>8993.91596700849</v>
       </c>
     </row>
     <row r="10">
@@ -7138,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9661.23029556913</v>
+        <v>13451.9529605608</v>
       </c>
     </row>
     <row r="11">
@@ -7146,7 +7146,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1341.83754105127</v>
+        <v>1868.32680007789</v>
       </c>
     </row>
     <row r="12">
@@ -7154,7 +7154,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>77930.704153795</v>
+        <v>117854.175876202</v>
       </c>
     </row>
     <row r="13">
@@ -7162,7 +7162,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54445.9434212179</v>
+        <v>82338.3012047056</v>
       </c>
     </row>
     <row r="14">
@@ -7170,7 +7170,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16583.0241095839</v>
+        <v>38333.3872900238</v>
       </c>
     </row>
     <row r="15">
@@ -7178,7 +7178,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18996.2253792622</v>
+        <v>43911.7533508855</v>
       </c>
     </row>
     <row r="16">
@@ -7186,7 +7186,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14417.3306624368</v>
+        <v>33327.1613379685</v>
       </c>
     </row>
     <row r="17">
@@ -7194,7 +7194,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>45417.6854344575</v>
+        <v>104987.709965961</v>
       </c>
     </row>
     <row r="18">
@@ -7202,7 +7202,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11756.6215702274</v>
+        <v>27176.6551683004</v>
       </c>
     </row>
     <row r="19">
@@ -7210,7 +7210,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>37435.5581578294</v>
+        <v>86536.1914569567</v>
       </c>
     </row>
     <row r="20">
@@ -7218,7 +7218,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13995.1501187605</v>
+        <v>14140.1852664663</v>
       </c>
     </row>
     <row r="21">
@@ -7226,7 +7226,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11261.6059251652</v>
+        <v>26032.3749506878</v>
       </c>
     </row>
     <row r="22">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>18057.7019953979</v>
+        <v>40310.1193868574</v>
       </c>
     </row>
     <row r="5">
@@ -7272,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6230.77257349189</v>
+        <v>13908.9229833246</v>
       </c>
     </row>
     <row r="6">
@@ -7280,7 +7280,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7801.94803537399</v>
+        <v>10960.8835895337</v>
       </c>
     </row>
     <row r="7">
@@ -7288,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5461.3636247618</v>
+        <v>7672.61851267362</v>
       </c>
     </row>
     <row r="8">
@@ -7296,7 +7296,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18811.3635964017</v>
+        <v>26427.9082103202</v>
       </c>
     </row>
     <row r="9">
@@ -7304,7 +7304,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3807.69435046726</v>
+        <v>8499.89737869837</v>
       </c>
     </row>
     <row r="10">
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9362.33764244878</v>
+        <v>13153.0603074405</v>
       </c>
     </row>
     <row r="11">
@@ -7320,7 +7320,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1300.32467256233</v>
+        <v>1826.81393158896</v>
       </c>
     </row>
     <row r="12">
@@ -7328,7 +7328,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>67748.4512744103</v>
+        <v>107671.922996818</v>
       </c>
     </row>
     <row r="13">
@@ -7336,7 +7336,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>47332.1572673363</v>
+        <v>75224.515050824</v>
       </c>
     </row>
     <row r="14">
@@ -7344,7 +7344,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14404.391824541</v>
+        <v>36154.7550049809</v>
       </c>
     </row>
     <row r="15">
@@ -7352,7 +7352,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16500.5533213959</v>
+        <v>41416.0812930192</v>
       </c>
     </row>
     <row r="16">
@@ -7360,7 +7360,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12523.2212504405</v>
+        <v>31433.0519259722</v>
       </c>
     </row>
     <row r="17">
@@ -7368,7 +7368,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>39450.8343254221</v>
+        <v>99020.8588569253</v>
       </c>
     </row>
     <row r="18">
@@ -7376,7 +7376,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10212.0688308313</v>
+        <v>25632.1024289043</v>
       </c>
     </row>
     <row r="19">
@@ -7384,7 +7384,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>32517.3770665945</v>
+        <v>81618.0103657218</v>
       </c>
     </row>
     <row r="20">
@@ -7392,7 +7392,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13982.041514431</v>
+        <v>14127.0766621368</v>
       </c>
     </row>
     <row r="21">
@@ -7400,7 +7400,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9782.08698532265</v>
+        <v>24552.8560108453</v>
       </c>
     </row>
     <row r="22">
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26511.7731531282</v>
+        <v>26228.8296612572</v>
       </c>
     </row>
     <row r="5">
@@ -7446,7 +7446,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9147.83227008896</v>
+        <v>9050.20320580118</v>
       </c>
     </row>
     <row r="6">
@@ -7454,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8860.22277023914</v>
+        <v>8820.05633615846</v>
       </c>
     </row>
     <row r="7">
@@ -7462,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6202.1559391674</v>
+        <v>6174.03943531093</v>
       </c>
     </row>
     <row r="8">
@@ -7470,7 +7470,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21362.9815682432</v>
+        <v>21266.1358327376</v>
       </c>
     </row>
     <row r="9">
@@ -7478,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5590.34194283214</v>
+        <v>5530.6797368785</v>
       </c>
     </row>
     <row r="10">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10632.267324287</v>
+        <v>10584.0676033902</v>
       </c>
     </row>
     <row r="11">
@@ -7494,7 +7494,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1476.70379503986</v>
+        <v>1470.00938935974</v>
       </c>
     </row>
     <row r="12">
@@ -7518,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21364.1308663442</v>
+        <v>21072.9581202869</v>
       </c>
     </row>
     <row r="15">
@@ -7526,7 +7526,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24473.0902088345</v>
+        <v>24139.5453094332</v>
       </c>
     </row>
     <row r="16">
@@ -7534,7 +7534,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18574.0391487246</v>
+        <v>18320.8926941301</v>
       </c>
     </row>
     <row r="17">
@@ -7542,7 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>58512.2091637933</v>
+        <v>57714.7435085471</v>
       </c>
     </row>
     <row r="18">
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15146.2121813634</v>
+        <v>14939.7837419945</v>
       </c>
     </row>
     <row r="19">
@@ -7558,7 +7558,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>48228.7282617098</v>
+        <v>47571.4166521403</v>
       </c>
     </row>
     <row r="20">
@@ -7566,7 +7566,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14030.480382088</v>
+        <v>14028.6362340831</v>
       </c>
     </row>
     <row r="21">
@@ -7574,7 +7574,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14508.4769316218</v>
+        <v>14310.7402160158</v>
       </c>
     </row>
     <row r="22">
@@ -7612,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22237.0428872507</v>
+        <v>21954.0993953796</v>
       </c>
     </row>
     <row r="5">
@@ -7620,7 +7620,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7672.84546908329</v>
+        <v>7575.21640479551</v>
       </c>
     </row>
     <row r="6">
@@ -7628,7 +7628,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8306.6066221431</v>
+        <v>8266.44018806242</v>
       </c>
     </row>
     <row r="7">
@@ -7636,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5814.62463550017</v>
+        <v>5786.5081316437</v>
       </c>
     </row>
     <row r="8">
@@ -7644,7 +7644,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20028.1515222783</v>
+        <v>19931.3057867727</v>
       </c>
     </row>
     <row r="9">
@@ -7652,7 +7652,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4688.96111999534</v>
+        <v>4629.2989140417</v>
       </c>
     </row>
     <row r="10">
@@ -7660,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9967.92794657171</v>
+        <v>9919.7282256749</v>
       </c>
     </row>
     <row r="11">
@@ -7668,7 +7668,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1384.43443702385</v>
+        <v>1377.74003134374</v>
       </c>
     </row>
     <row r="12">
@@ -7692,7 +7692,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16403.3761337475</v>
+        <v>16112.2033876902</v>
       </c>
     </row>
     <row r="15">
@@ -7700,7 +7700,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18790.4346009718</v>
+        <v>18456.8897015705</v>
       </c>
     </row>
     <row r="16">
@@ -7708,7 +7708,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14261.1441759819</v>
+        <v>14007.9977213874</v>
       </c>
     </row>
     <row r="17">
@@ -7716,7 +7716,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>44925.6644857112</v>
+        <v>44128.198830465</v>
       </c>
     </row>
     <row r="18">
@@ -7724,7 +7724,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11629.2591992985</v>
+        <v>11422.8307599296</v>
       </c>
     </row>
     <row r="19">
@@ -7732,7 +7732,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>37030.0095556612</v>
+        <v>36372.6979460917</v>
       </c>
     </row>
     <row r="20">
@@ -7740,7 +7740,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14007.5964763427</v>
+        <v>14005.7523283378</v>
       </c>
     </row>
     <row r="21">
@@ -7748,7 +7748,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11139.6061803807</v>
+        <v>10941.8694647747</v>
       </c>
     </row>
     <row r="22">
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19943.7326587756</v>
+        <v>19660.7891669045</v>
       </c>
     </row>
     <row r="5">
@@ -7794,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6881.5435372133</v>
+        <v>6783.91447292552</v>
       </c>
     </row>
     <row r="6">
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8065.33810190594</v>
+        <v>8025.17166782527</v>
       </c>
     </row>
     <row r="7">
@@ -7810,7 +7810,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5645.73667133417</v>
+        <v>5617.6201674777</v>
       </c>
     </row>
     <row r="8">
@@ -7818,7 +7818,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19446.4263123732</v>
+        <v>19349.5805768676</v>
       </c>
     </row>
     <row r="9">
@@ -7826,7 +7826,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4205.3877171859</v>
+        <v>4145.72551123226</v>
       </c>
     </row>
     <row r="10">
@@ -7834,7 +7834,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9678.40572228713</v>
+        <v>9630.20600139032</v>
       </c>
     </row>
     <row r="11">
@@ -7842,7 +7842,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1344.22301698432</v>
+        <v>1337.52861130421</v>
       </c>
     </row>
     <row r="12">
@@ -7866,7 +7866,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14296.0803217188</v>
+        <v>14004.9075756615</v>
       </c>
     </row>
     <row r="15">
@@ -7874,7 +7874,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16376.4800700285</v>
+        <v>16042.9351706272</v>
       </c>
     </row>
     <row r="16">
@@ -7882,7 +7882,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12429.0549065689</v>
+        <v>12175.9084519744</v>
       </c>
     </row>
     <row r="17">
@@ -7890,7 +7890,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>39154.1901348565</v>
+        <v>38356.7244796103</v>
       </c>
     </row>
     <row r="18">
@@ -7898,7 +7898,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10135.2808250991</v>
+        <v>9928.85238573018</v>
       </c>
     </row>
     <row r="19">
@@ -7906,7 +7906,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>32272.8678904472</v>
+        <v>31615.5562808777</v>
       </c>
     </row>
     <row r="20">
@@ -7914,7 +7914,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13994.7385207675</v>
+        <v>13992.8943727626</v>
       </c>
     </row>
     <row r="21">
@@ -7922,7 +7922,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9708.53215877908</v>
+        <v>9510.79544317312</v>
       </c>
     </row>
     <row r="22">
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27337.3648353793</v>
+        <v>27467.2171846337</v>
       </c>
     </row>
     <row r="5">
@@ -7968,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9432.70096556216</v>
+        <v>9477.50624901098</v>
       </c>
     </row>
     <row r="6">
@@ -7976,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8990.36761518033</v>
+        <v>9015.27360357027</v>
       </c>
     </row>
     <row r="7">
@@ -7984,7 +7984,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6293.25733062624</v>
+        <v>6310.6915224992</v>
       </c>
     </row>
     <row r="8">
@@ -7992,7 +7992,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21676.7752499348</v>
+        <v>21736.826355275</v>
       </c>
     </row>
     <row r="9">
@@ -8000,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5764.42836784354</v>
+        <v>5791.80937439559</v>
       </c>
     </row>
     <row r="10">
@@ -8008,7 +8008,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10788.4411382164</v>
+        <v>10818.3283242843</v>
       </c>
     </row>
     <row r="11">
@@ -8016,7 +8016,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1498.39460253006</v>
+        <v>1502.54560059505</v>
       </c>
     </row>
     <row r="12">
@@ -8024,7 +8024,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>103978.121837976</v>
+        <v>106672.613143139</v>
       </c>
     </row>
     <row r="13">
@@ -8032,7 +8032,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>72643.8571305953</v>
+        <v>74526.3516203194</v>
       </c>
     </row>
     <row r="14">
@@ -8040,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22553.0720832476</v>
+        <v>22856.369945642</v>
       </c>
     </row>
     <row r="15">
@@ -8048,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25835.0489908842</v>
+        <v>26182.4834825078</v>
       </c>
     </row>
     <row r="16">
@@ -8056,7 +8056,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19607.7081917786</v>
+        <v>19871.3962587111</v>
       </c>
     </row>
     <row r="17">
@@ -8064,7 +8064,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>61768.4884668047</v>
+        <v>62599.1624630642</v>
       </c>
     </row>
     <row r="18">
@@ -8072,7 +8072,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15989.118267974</v>
+        <v>16204.1428719103</v>
       </c>
     </row>
     <row r="19">
@@ -8080,7 +8080,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>50912.7186953909</v>
+        <v>51597.4023026619</v>
       </c>
     </row>
     <row r="20">
@@ -8088,7 +8088,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14034.6578613255</v>
+        <v>14034.9024529394</v>
       </c>
     </row>
     <row r="21">
@@ -8096,7 +8096,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15315.8922356382</v>
+        <v>15521.8631720404</v>
       </c>
     </row>
     <row r="22">
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29878.7827925561</v>
+        <v>29962.7663800235</v>
       </c>
     </row>
     <row r="5">
@@ -8142,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10309.611953981</v>
+        <v>10338.5903164298</v>
       </c>
     </row>
     <row r="6">
@@ -8150,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8894.14499052601</v>
+        <v>8903.8649817641</v>
       </c>
     </row>
     <row r="7">
@@ -8158,7 +8158,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6225.90149336821</v>
+        <v>6232.70548723487</v>
       </c>
     </row>
     <row r="8">
@@ -8166,7 +8166,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21444.7718104905</v>
+        <v>21468.2077893645</v>
       </c>
     </row>
     <row r="9">
@@ -8174,7 +8174,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6300.31841632174</v>
+        <v>6318.02741559601</v>
       </c>
     </row>
     <row r="10">
@@ -8182,7 +8182,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10672.9739886312</v>
+        <v>10684.6379781169</v>
       </c>
     </row>
     <row r="11">
@@ -8190,7 +8190,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1482.357498421</v>
+        <v>1483.97749696068</v>
       </c>
     </row>
     <row r="12">
@@ -8198,7 +8198,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>78394.5801961863</v>
+        <v>79338.0817403994</v>
       </c>
     </row>
     <row r="13">
@@ -8206,7 +8206,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54770.0283763423</v>
+        <v>55429.2015770962</v>
       </c>
     </row>
     <row r="14">
@@ -8214,7 +8214,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25407.4623161648</v>
+        <v>25538.2946903481</v>
       </c>
     </row>
     <row r="15">
@@ -8222,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29104.81690695</v>
+        <v>29254.6883206599</v>
       </c>
     </row>
     <row r="16">
@@ -8230,7 +8230,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22089.3235808448</v>
+        <v>22203.0696375041</v>
       </c>
     </row>
     <row r="17">
@@ -8238,7 +8238,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69586.1094778545</v>
+        <v>69944.4339653562</v>
       </c>
     </row>
     <row r="18">
@@ -8246,7 +8246,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18012.7531345945</v>
+        <v>18105.5074297244</v>
       </c>
     </row>
     <row r="19">
@@ -8254,7 +8254,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57356.3981391035</v>
+        <v>57651.7473420171</v>
       </c>
     </row>
     <row r="20">
@@ -8262,7 +8262,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12793.2883975681</v>
+        <v>12793.7481037997</v>
       </c>
     </row>
     <row r="21">
@@ -8270,7 +8270,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17254.3214236642</v>
+        <v>17343.1702747886</v>
       </c>
     </row>
     <row r="22">
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22781.9333975364</v>
+        <v>22771.4351608081</v>
       </c>
     </row>
     <row r="5">
@@ -8316,7 +8316,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7860.8588080956</v>
+        <v>7857.23641331398</v>
       </c>
     </row>
     <row r="6">
@@ -8324,7 +8324,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8392.5022198043</v>
+        <v>8395.28358455421</v>
       </c>
     </row>
     <row r="7">
@@ -8332,7 +8332,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5874.75155386301</v>
+        <v>5876.69850918796</v>
       </c>
     </row>
     <row r="8">
@@ -8340,7 +8340,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20235.2553521948</v>
+        <v>20241.9615316474</v>
       </c>
     </row>
     <row r="9">
@@ -8348,7 +8348,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4803.85816050286</v>
+        <v>4801.64447480298</v>
       </c>
     </row>
     <row r="10">
@@ -8356,7 +8356,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10071.0026637651</v>
+        <v>10074.3403014651</v>
       </c>
     </row>
     <row r="11">
@@ -8364,7 +8364,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1398.75036996738</v>
+        <v>1399.21393075904</v>
       </c>
     </row>
     <row r="12">
@@ -8372,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>79353.3955629208</v>
+        <v>81131.759824328</v>
       </c>
     </row>
     <row r="13">
@@ -8380,7 +8380,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>55439.9005117923</v>
+        <v>56682.3468750102</v>
       </c>
     </row>
     <row r="14">
@@ -8388,7 +8388,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17188.0773369037</v>
+        <v>17289.2551924245</v>
       </c>
     </row>
     <row r="15">
@@ -8396,7 +8396,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19689.3273971246</v>
+        <v>19805.2288957997</v>
       </c>
     </row>
     <row r="16">
@@ -8404,7 +8404,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14943.3657443975</v>
+        <v>15031.3300740109</v>
       </c>
     </row>
     <row r="17">
@@ -8412,7 +8412,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47074.8088256987</v>
+        <v>47351.9153404463</v>
       </c>
     </row>
     <row r="18">
@@ -8420,7 +8420,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12185.5772164615</v>
+        <v>12257.3077856741</v>
       </c>
     </row>
     <row r="19">
@@ -8428,7 +8428,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38801.4432418907</v>
+        <v>39029.848475436</v>
       </c>
     </row>
     <row r="20">
@@ -8436,7 +8436,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14010.3536126395</v>
+        <v>14009.888032783</v>
       </c>
     </row>
     <row r="21">
@@ -8444,7 +8444,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11672.5002810316</v>
+        <v>11741.210615751</v>
       </c>
     </row>
     <row r="22">
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20406.0640008362</v>
+        <v>20354.2861799954</v>
       </c>
     </row>
     <row r="5">
@@ -8490,7 +8490,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7041.07000667829</v>
+        <v>7023.204177123</v>
       </c>
     </row>
     <row r="6">
@@ -8498,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8138.21921507301</v>
+        <v>8134.49333757588</v>
       </c>
     </row>
     <row r="7">
@@ -8506,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5696.75345055112</v>
+        <v>5694.14533630312</v>
       </c>
     </row>
     <row r="8">
@@ -8514,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19622.1507741205</v>
+        <v>19613.1672694885</v>
       </c>
     </row>
     <row r="9">
@@ -8522,7 +8522,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4302.87611519228</v>
+        <v>4291.95810824183</v>
       </c>
     </row>
     <row r="10">
@@ -8530,7 +8530,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9765.86305808761</v>
+        <v>9761.39200509105</v>
       </c>
     </row>
     <row r="11">
@@ -8538,7 +8538,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1356.36986917884</v>
+        <v>1355.74888959598</v>
       </c>
     </row>
     <row r="12">
@@ -8546,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68955.5833791231</v>
+        <v>70464.4985100141</v>
       </c>
     </row>
     <row r="13">
@@ -8554,7 +8554,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48175.5147987328</v>
+        <v>49229.7117129783</v>
       </c>
     </row>
     <row r="14">
@@ -8562,7 +8562,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14961.8874031847</v>
+        <v>15003.6181978603</v>
       </c>
     </row>
     <row r="15">
@@ -8570,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>17139.1769879763</v>
+        <v>17186.980547549</v>
       </c>
     </row>
     <row r="16">
@@ -8578,7 +8578,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13007.9095706791</v>
+        <v>13044.1904481398</v>
       </c>
     </row>
     <row r="17">
@@ -8586,7 +8586,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>40977.7065445429</v>
+        <v>41091.9990941399</v>
       </c>
     </row>
     <row r="18">
@@ -8594,7 +8594,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10607.308233601</v>
+        <v>10636.8934984831</v>
       </c>
     </row>
     <row r="19">
@@ -8602,7 +8602,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>33775.9025333086</v>
+        <v>33870.1082451698</v>
       </c>
     </row>
     <row r="20">
@@ -8610,7 +8610,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13997.0779091405</v>
+        <v>13996.4034553221</v>
       </c>
     </row>
     <row r="21">
@@ -8618,7 +8618,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10160.6847290283</v>
+        <v>10189.0242985469</v>
       </c>
     </row>
     <row r="22">
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27007.1281624789</v>
+        <v>26724.1846706079</v>
       </c>
     </row>
     <row r="5">
@@ -8664,7 +8664,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9318.75348737288</v>
+        <v>9221.1244230851</v>
       </c>
     </row>
     <row r="6">
@@ -8672,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8938.30967720386</v>
+        <v>8898.14324312318</v>
       </c>
     </row>
     <row r="7">
@@ -8680,7 +8680,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6256.81677404271</v>
+        <v>6228.70027018624</v>
       </c>
     </row>
     <row r="8">
@@ -8688,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21551.2577772582</v>
+        <v>21454.4120417526</v>
       </c>
     </row>
     <row r="9">
@@ -8696,7 +8696,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5694.79379783898</v>
+        <v>5635.13159188534</v>
       </c>
     </row>
     <row r="10">
@@ -8704,7 +8704,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10725.9716126446</v>
+        <v>10677.7718917478</v>
       </c>
     </row>
     <row r="11">
@@ -8712,7 +8712,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1489.71827953398</v>
+        <v>1483.02387385387</v>
       </c>
     </row>
     <row r="12">
@@ -8736,7 +8736,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22077.4955964862</v>
+        <v>21786.3228504289</v>
       </c>
     </row>
     <row r="15">
@@ -8744,7 +8744,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25290.2654780643</v>
+        <v>24956.720578663</v>
       </c>
     </row>
     <row r="16">
@@ -8752,7 +8752,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19194.240574557</v>
+        <v>18941.0941199625</v>
       </c>
     </row>
     <row r="17">
@@ -8760,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>60465.9767456001</v>
+        <v>59668.5110903539</v>
       </c>
     </row>
     <row r="18">
@@ -8768,7 +8768,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15651.9558333297</v>
+        <v>15445.5273939608</v>
       </c>
     </row>
     <row r="19">
@@ -8776,7 +8776,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>49839.1225219184</v>
+        <v>49181.8109123489</v>
       </c>
     </row>
     <row r="20">
@@ -8784,7 +8784,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14032.9868696305</v>
+        <v>14031.1427216257</v>
       </c>
     </row>
     <row r="21">
@@ -8792,7 +8792,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14992.9261140316</v>
+        <v>14795.1893984256</v>
       </c>
     </row>
     <row r="22">
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22563.9771934221</v>
+        <v>22281.033701551</v>
       </c>
     </row>
     <row r="5">
@@ -8838,7 +8838,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7785.65347249068</v>
+        <v>7688.0244082029</v>
       </c>
     </row>
     <row r="6">
@@ -8846,7 +8846,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8358.14398073981</v>
+        <v>8317.97754665915</v>
       </c>
     </row>
     <row r="7">
@@ -8854,7 +8854,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5850.70078651788</v>
+        <v>5822.58428266141</v>
       </c>
     </row>
     <row r="8">
@@ -8862,7 +8862,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20152.4138202282</v>
+        <v>20055.5680847226</v>
       </c>
     </row>
     <row r="9">
@@ -8870,7 +8870,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4757.89934429985</v>
+        <v>4698.23713834621</v>
       </c>
     </row>
     <row r="10">
@@ -8878,7 +8878,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10029.7727768878</v>
+        <v>9981.57305599096</v>
       </c>
     </row>
     <row r="11">
@@ -8886,7 +8886,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1393.02399678997</v>
+        <v>1386.32959110986</v>
       </c>
     </row>
     <row r="12">
@@ -8910,7 +8910,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16874.1968556412</v>
+        <v>16583.0241095839</v>
       </c>
     </row>
     <row r="15">
@@ -8918,7 +8918,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19329.7702786635</v>
+        <v>18996.2253792622</v>
       </c>
     </row>
     <row r="16">
@@ -8926,7 +8926,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14670.4771170313</v>
+        <v>14417.3306624368</v>
       </c>
     </row>
     <row r="17">
@@ -8934,7 +8934,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46215.1510897037</v>
+        <v>45417.6854344575</v>
       </c>
     </row>
     <row r="18">
@@ -8942,7 +8942,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11963.0500095963</v>
+        <v>11756.6215702274</v>
       </c>
     </row>
     <row r="19">
@@ -8950,7 +8950,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38092.8697673989</v>
+        <v>37435.5581578294</v>
       </c>
     </row>
     <row r="20">
@@ -8958,7 +8958,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14009.2507581208</v>
+        <v>14007.4066101159</v>
       </c>
     </row>
     <row r="21">
@@ -8966,7 +8966,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11459.3426407712</v>
+        <v>11261.6059251652</v>
       </c>
     </row>
     <row r="22">
@@ -9004,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20221.131464012</v>
+        <v>19938.1879721409</v>
       </c>
     </row>
     <row r="5">
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6977.25941889229</v>
+        <v>6879.63035460451</v>
       </c>
     </row>
     <row r="6">
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8109.06676980618</v>
+        <v>8068.90033572551</v>
       </c>
     </row>
     <row r="7">
@@ -9028,7 +9028,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5676.34673886434</v>
+        <v>5648.23023500787</v>
       </c>
     </row>
     <row r="8">
@@ -9036,7 +9036,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19551.8609894216</v>
+        <v>19455.015253916</v>
       </c>
     </row>
     <row r="9">
@@ -9044,7 +9044,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4263.88075598973</v>
+        <v>4204.21855003609</v>
       </c>
     </row>
     <row r="10">
@@ -9052,7 +9052,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9730.88012376742</v>
+        <v>9682.68040287061</v>
       </c>
     </row>
     <row r="11">
@@ -9060,7 +9060,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1351.51112830103</v>
+        <v>1344.81672262092</v>
       </c>
     </row>
     <row r="12">
@@ -9084,7 +9084,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14695.5645705983</v>
+        <v>14404.391824541</v>
       </c>
     </row>
     <row r="15">
@@ -9092,7 +9092,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16834.0982207972</v>
+        <v>16500.5533213959</v>
       </c>
     </row>
     <row r="16">
@@ -9100,7 +9100,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12776.367705035</v>
+        <v>12523.2212504405</v>
       </c>
     </row>
     <row r="17">
@@ -9108,7 +9108,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>40248.2999806683</v>
+        <v>39450.8343254221</v>
       </c>
     </row>
     <row r="18">
@@ -9116,7 +9116,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10418.4972702002</v>
+        <v>10212.0688308313</v>
       </c>
     </row>
     <row r="19">
@@ -9124,7 +9124,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>33174.688676164</v>
+        <v>32517.3770665945</v>
       </c>
     </row>
     <row r="20">
@@ -9132,7 +9132,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13996.1421537913</v>
+        <v>13994.2980057864</v>
       </c>
     </row>
     <row r="21">
@@ -9140,7 +9140,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9979.82370092861</v>
+        <v>9782.08698532265</v>
       </c>
     </row>
     <row r="22">
@@ -9178,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28057.079916424</v>
+        <v>23641.9177355789</v>
       </c>
     </row>
     <row r="5">
@@ -9186,7 +9186,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9681.03715966068</v>
+        <v>8157.5946180272</v>
       </c>
     </row>
     <row r="6">
@@ -9194,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9079.59329483356</v>
+        <v>8452.82036742091</v>
       </c>
     </row>
     <row r="7">
@@ -9202,7 +9202,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6355.71530638349</v>
+        <v>5916.97425719464</v>
       </c>
     </row>
     <row r="8">
@@ -9210,7 +9210,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21891.9082775431</v>
+        <v>20380.6891081149</v>
       </c>
     </row>
     <row r="9">
@@ -9218,7 +9218,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5916.18937534819</v>
+        <v>4985.19671101662</v>
       </c>
     </row>
     <row r="10">
@@ -9226,7 +9226,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10895.5119538003</v>
+        <v>10143.3844409051</v>
       </c>
     </row>
     <row r="11">
@@ -9234,7 +9234,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1513.26554913893</v>
+        <v>1408.80339457015</v>
       </c>
     </row>
     <row r="12">
@@ -9258,7 +9258,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23014.8378228352</v>
+        <v>21072.9581202869</v>
       </c>
     </row>
     <row r="15">
@@ -9266,7 +9266,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26364.0119836208</v>
+        <v>24139.5453094332</v>
       </c>
     </row>
     <row r="16">
@@ -9274,7 +9274,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20009.1687041813</v>
+        <v>18320.8926941301</v>
       </c>
     </row>
     <row r="17">
@@ -9282,7 +9282,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>63033.1752311977</v>
+        <v>57714.7435085471</v>
       </c>
     </row>
     <row r="18">
@@ -9290,7 +9290,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16316.4895012637</v>
+        <v>14939.7837419945</v>
       </c>
     </row>
     <row r="19">
@@ -9298,7 +9298,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51955.137622445</v>
+        <v>47571.4166521403</v>
       </c>
     </row>
     <row r="20">
@@ -9306,7 +9306,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14040.5522673454</v>
+        <v>14011.7754523244</v>
       </c>
     </row>
     <row r="21">
@@ -9314,7 +9314,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15629.479417</v>
+        <v>14310.7402160158</v>
       </c>
     </row>
     <row r="22">
@@ -9352,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>23782.3496505465</v>
+        <v>19367.1874697014</v>
       </c>
     </row>
     <row r="5">
@@ -9360,7 +9360,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8206.05035865501</v>
+        <v>6682.60781702153</v>
       </c>
     </row>
     <row r="6">
@@ -9368,7 +9368,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8525.97714673752</v>
+        <v>7899.20421932487</v>
       </c>
     </row>
     <row r="7">
@@ -9376,7 +9376,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5968.18400271626</v>
+        <v>5529.44295352741</v>
       </c>
     </row>
     <row r="8">
@@ -9384,7 +9384,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20557.0782315782</v>
+        <v>19045.85906215</v>
       </c>
     </row>
     <row r="9">
@@ -9392,7 +9392,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5014.80855251139</v>
+        <v>4083.81588817982</v>
       </c>
     </row>
     <row r="10">
@@ -9400,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10231.172576085</v>
+        <v>9479.04506318984</v>
       </c>
     </row>
     <row r="11">
@@ -9408,7 +9408,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1420.99619112292</v>
+        <v>1316.53403655415</v>
       </c>
     </row>
     <row r="12">
@@ -9432,7 +9432,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18054.0830902385</v>
+        <v>16112.2033876902</v>
       </c>
     </row>
     <row r="15">
@@ -9440,7 +9440,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20681.3563757581</v>
+        <v>18456.8897015705</v>
       </c>
     </row>
     <row r="16">
@@ -9448,7 +9448,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15696.2737314386</v>
+        <v>14007.9977213874</v>
       </c>
     </row>
     <row r="17">
@@ -9456,7 +9456,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>49446.6305531156</v>
+        <v>44128.198830465</v>
       </c>
     </row>
     <row r="18">
@@ -9464,7 +9464,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12799.5365191988</v>
+        <v>11422.8307599296</v>
       </c>
     </row>
     <row r="19">
@@ -9472,7 +9472,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>40756.4189163964</v>
+        <v>36372.6979460917</v>
       </c>
     </row>
     <row r="20">
@@ -9480,7 +9480,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14017.6683616</v>
+        <v>13988.8915465791</v>
       </c>
     </row>
     <row r="21">
@@ -9488,7 +9488,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12260.6086657589</v>
+        <v>10941.8694647747</v>
       </c>
     </row>
     <row r="22">
@@ -9526,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>21489.0394220714</v>
+        <v>17073.8772412263</v>
       </c>
     </row>
     <row r="5">
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7414.74842678502</v>
+        <v>5891.30588515154</v>
       </c>
     </row>
     <row r="6">
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8284.70862650037</v>
+        <v>7657.93569908772</v>
       </c>
     </row>
     <row r="7">
@@ -9550,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5799.29603855026</v>
+        <v>5360.55498936141</v>
       </c>
     </row>
     <row r="8">
@@ -9558,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19975.3530216731</v>
+        <v>18464.1338522448</v>
       </c>
     </row>
     <row r="9">
@@ -9566,7 +9566,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4531.23514970195</v>
+        <v>3600.24248537038</v>
       </c>
     </row>
     <row r="10">
@@ -9574,7 +9574,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9941.65035180044</v>
+        <v>9189.52283890526</v>
       </c>
     </row>
     <row r="11">
@@ -9582,7 +9582,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1380.78477108339</v>
+        <v>1276.32261651462</v>
       </c>
     </row>
     <row r="12">
@@ -9606,7 +9606,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15946.7872782098</v>
+        <v>14004.9075756615</v>
       </c>
     </row>
     <row r="15">
@@ -9614,7 +9614,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18267.4018448148</v>
+        <v>16042.9351706272</v>
       </c>
     </row>
     <row r="16">
@@ -9622,7 +9622,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13864.1844620256</v>
+        <v>12175.9084519744</v>
       </c>
     </row>
     <row r="17">
@@ -9630,7 +9630,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>43675.1562022609</v>
+        <v>38356.7244796103</v>
       </c>
     </row>
     <row r="18">
@@ -9638,7 +9638,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11305.5581449994</v>
+        <v>9928.85238573018</v>
       </c>
     </row>
     <row r="19">
@@ -9646,7 +9646,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>35999.2772511824</v>
+        <v>31615.5562808777</v>
       </c>
     </row>
     <row r="20">
@@ -9654,7 +9654,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14004.8104060248</v>
+        <v>13976.0335910038</v>
       </c>
     </row>
     <row r="21">
@@ -9662,7 +9662,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10829.5346441573</v>
+        <v>9510.79544317312</v>
       </c>
     </row>
     <row r="22">
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28882.6715986751</v>
+        <v>24880.3052589555</v>
       </c>
     </row>
     <row r="5">
@@ -9708,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9965.90585513388</v>
+        <v>8584.897661237</v>
       </c>
     </row>
     <row r="6">
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9209.73813977476</v>
+        <v>8648.03763483272</v>
       </c>
     </row>
     <row r="7">
@@ -9724,7 +9724,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6446.81669784233</v>
+        <v>6053.62634438291</v>
       </c>
     </row>
     <row r="8">
@@ -9732,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22205.7019592347</v>
+        <v>20851.3796306522</v>
       </c>
     </row>
     <row r="9">
@@ -9740,7 +9740,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6090.27580035959</v>
+        <v>5246.32634853371</v>
       </c>
     </row>
     <row r="10">
@@ -9748,7 +9748,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11051.6857677297</v>
+        <v>10377.6451617993</v>
       </c>
     </row>
     <row r="11">
@@ -9756,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1534.95635662913</v>
+        <v>1441.33960580545</v>
       </c>
     </row>
     <row r="12">
@@ -9764,7 +9764,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>103978.121837976</v>
+        <v>106672.613143139</v>
       </c>
     </row>
     <row r="13">
@@ -9772,7 +9772,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>72643.8571305953</v>
+        <v>74526.3516203194</v>
       </c>
     </row>
     <row r="14">
@@ -9780,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24203.7790397386</v>
+        <v>22856.369945642</v>
       </c>
     </row>
     <row r="15">
@@ -9788,7 +9788,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27725.9707656705</v>
+        <v>26182.4834825078</v>
       </c>
     </row>
     <row r="16">
@@ -9796,7 +9796,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21042.8377472353</v>
+        <v>19871.3962587111</v>
       </c>
     </row>
     <row r="17">
@@ -9804,7 +9804,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66289.4545342091</v>
+        <v>62599.1624630642</v>
       </c>
     </row>
     <row r="18">
@@ -9812,7 +9812,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17159.3955878743</v>
+        <v>16204.1428719103</v>
       </c>
     </row>
     <row r="19">
@@ -9820,7 +9820,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>54639.1280561261</v>
+        <v>51597.4023026619</v>
       </c>
     </row>
     <row r="20">
@@ -9828,7 +9828,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14044.7297465829</v>
+        <v>14018.0416711807</v>
       </c>
     </row>
     <row r="21">
@@ -9836,7 +9836,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16436.8947210164</v>
+        <v>15521.8631720404</v>
       </c>
     </row>
     <row r="22">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24327.2401608322</v>
+        <v>20184.5232351299</v>
       </c>
     </row>
     <row r="5">
@@ -9882,7 +9882,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8394.06369766732</v>
+        <v>6964.62782554</v>
       </c>
     </row>
     <row r="6">
@@ -9890,7 +9890,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8611.87274439872</v>
+        <v>8028.04761581666</v>
       </c>
     </row>
     <row r="7">
@@ -9898,7 +9898,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6028.3109210791</v>
+        <v>5619.63333107167</v>
       </c>
     </row>
     <row r="8">
@@ -9906,7 +9906,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20764.1820614947</v>
+        <v>19356.5148070246</v>
       </c>
     </row>
     <row r="9">
@@ -9914,7 +9914,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5129.70559301891</v>
+        <v>4256.1614489411</v>
       </c>
     </row>
     <row r="10">
@@ -9922,7 +9922,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10334.2472932785</v>
+        <v>9633.65713897999</v>
       </c>
     </row>
     <row r="11">
@@ -9930,7 +9930,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1435.31212406645</v>
+        <v>1338.00793596944</v>
       </c>
     </row>
     <row r="12">
@@ -9938,7 +9938,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>79353.3955629208</v>
+        <v>81131.759824328</v>
       </c>
     </row>
     <row r="13">
@@ -9946,7 +9946,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>55439.9005117923</v>
+        <v>56682.3468750102</v>
       </c>
     </row>
     <row r="14">
@@ -9954,7 +9954,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18838.7842933947</v>
+        <v>17289.2551924245</v>
       </c>
     </row>
     <row r="15">
@@ -9962,7 +9962,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21580.2491719109</v>
+        <v>19805.2288957997</v>
       </c>
     </row>
     <row r="16">
@@ -9970,7 +9970,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16378.4952998542</v>
+        <v>15031.3300740109</v>
       </c>
     </row>
     <row r="17">
@@ -9978,7 +9978,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>51595.7748931031</v>
+        <v>47351.9153404463</v>
       </c>
     </row>
     <row r="18">
@@ -9986,7 +9986,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13355.8545363618</v>
+        <v>12257.3077856741</v>
       </c>
     </row>
     <row r="19">
@@ -9994,7 +9994,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42527.8526026259</v>
+        <v>39029.848475436</v>
       </c>
     </row>
     <row r="20">
@@ -10002,7 +10002,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14020.4254978968</v>
+        <v>13993.0272510242</v>
       </c>
     </row>
     <row r="21">
@@ -10010,7 +10010,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12793.5027664098</v>
+        <v>11741.210615751</v>
       </c>
     </row>
     <row r="22">
@@ -10048,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28874.938565253</v>
+        <v>28946.1973667404</v>
       </c>
     </row>
     <row r="5">
@@ -10056,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9963.23758801061</v>
+        <v>9987.82528948231</v>
       </c>
     </row>
     <row r="6">
@@ -10064,7 +10064,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8836.59539205342</v>
+        <v>8844.84265734634</v>
       </c>
     </row>
     <row r="7">
@@ -10072,7 +10072,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6185.6167744374</v>
+        <v>6191.38986014244</v>
       </c>
     </row>
     <row r="8">
@@ -10080,7 +10080,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21306.0133341732</v>
+        <v>21325.8984071573</v>
       </c>
     </row>
     <row r="9">
@@ -10088,7 +10088,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6088.64519267315</v>
+        <v>6103.67101023919</v>
       </c>
     </row>
     <row r="10">
@@ -10096,7 +10096,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10603.9144704641</v>
+        <v>10613.8111888156</v>
       </c>
     </row>
     <row r="11">
@@ -10104,7 +10104,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1472.76589867557</v>
+        <v>1474.14044289106</v>
       </c>
     </row>
     <row r="12">
@@ -10112,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>72878.0771575527</v>
+        <v>73678.6239223396</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>50915.9478109764</v>
+        <v>51475.2462843433</v>
       </c>
     </row>
     <row r="14">
@@ -10128,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24665.1218858463</v>
+        <v>24776.1311730321</v>
       </c>
     </row>
     <row r="15">
@@ -10136,7 +10136,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28254.4493244582</v>
+        <v>28381.6129482121</v>
       </c>
     </row>
     <row r="16">
@@ -10144,7 +10144,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21443.9305947843</v>
+        <v>21540.4424004346</v>
       </c>
     </row>
     <row r="17">
@@ -10152,7 +10152,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67552.9830754148</v>
+        <v>67857.0159739012</v>
       </c>
     </row>
     <row r="18">
@@ -10160,7 +10160,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17486.4670086224</v>
+        <v>17565.167622672</v>
       </c>
     </row>
     <row r="19">
@@ -10168,7 +10168,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55680.5923169291</v>
+        <v>55931.1916406134</v>
       </c>
     </row>
     <row r="20">
@@ -10176,7 +10176,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12788.8613958022</v>
+        <v>12789.2514495745</v>
       </c>
     </row>
     <row r="21">
@@ -10184,7 +10184,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16750.1947135225</v>
+        <v>16825.5816175068</v>
       </c>
     </row>
     <row r="22">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>21951.370764132</v>
+        <v>17767.3742543172</v>
       </c>
     </row>
     <row r="5">
@@ -10230,7 +10230,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7574.27489625001</v>
+        <v>6130.59558934902</v>
       </c>
     </row>
     <row r="6">
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8357.58973966744</v>
+        <v>7767.25736883833</v>
       </c>
     </row>
     <row r="7">
@@ -10246,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5850.31281776721</v>
+        <v>5437.08015818683</v>
       </c>
     </row>
     <row r="8">
@@ -10254,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20151.0774834204</v>
+        <v>18727.7205448657</v>
       </c>
     </row>
     <row r="9">
@@ -10262,7 +10262,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4628.72354770833</v>
+        <v>3746.47508237995</v>
       </c>
     </row>
     <row r="10">
@@ -10270,7 +10270,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10029.1076876009</v>
+        <v>9320.70884260599</v>
       </c>
     </row>
     <row r="11">
@@ -10278,7 +10278,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1392.93162327791</v>
+        <v>1294.54289480639</v>
       </c>
     </row>
     <row r="12">
@@ -10286,7 +10286,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68955.5833791231</v>
+        <v>70464.4985100141</v>
       </c>
     </row>
     <row r="13">
@@ -10294,7 +10294,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48175.5147987328</v>
+        <v>49229.7117129783</v>
       </c>
     </row>
     <row r="14">
@@ -10302,7 +10302,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16612.5943596757</v>
+        <v>15003.6181978603</v>
       </c>
     </row>
     <row r="15">
@@ -10310,7 +10310,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19030.0987627626</v>
+        <v>17186.980547549</v>
       </c>
     </row>
     <row r="16">
@@ -10318,7 +10318,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14443.0391261358</v>
+        <v>13044.1904481398</v>
       </c>
     </row>
     <row r="17">
@@ -10326,7 +10326,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>45498.6726119473</v>
+        <v>41091.9990941399</v>
       </c>
     </row>
     <row r="18">
@@ -10334,7 +10334,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11777.5855535013</v>
+        <v>10636.8934984831</v>
       </c>
     </row>
     <row r="19">
@@ -10342,7 +10342,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>37502.3118940438</v>
+        <v>33870.1082451698</v>
       </c>
     </row>
     <row r="20">
@@ -10350,7 +10350,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14007.1497943978</v>
+        <v>13979.5426735633</v>
       </c>
     </row>
     <row r="21">
@@ -10358,7 +10358,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11281.6872144065</v>
+        <v>10189.0242985469</v>
       </c>
     </row>
     <row r="22">
@@ -10396,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28552.4349257747</v>
+        <v>24137.2727449296</v>
       </c>
     </row>
     <row r="5">
@@ -10404,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9851.9583769446</v>
+        <v>8328.51583531112</v>
       </c>
     </row>
     <row r="6">
@@ -10412,7 +10412,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9157.68020179828</v>
+        <v>8530.90727438563</v>
       </c>
     </row>
     <row r="7">
@@ -10420,7 +10420,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6410.3761412588</v>
+        <v>5971.63509206995</v>
       </c>
     </row>
     <row r="8">
@@ -10428,7 +10428,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22080.1844865581</v>
+        <v>20568.9653171298</v>
       </c>
     </row>
     <row r="9">
@@ -10436,7 +10436,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6020.64123035503</v>
+        <v>5089.64856602346</v>
       </c>
     </row>
     <row r="10">
@@ -10444,7 +10444,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10989.2162421579</v>
+        <v>10237.0887292628</v>
       </c>
     </row>
     <row r="11">
@@ -10452,7 +10452,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1526.28003363305</v>
+        <v>1421.81787906427</v>
       </c>
     </row>
     <row r="12">
@@ -10476,7 +10476,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23728.2025529772</v>
+        <v>21786.3228504289</v>
       </c>
     </row>
     <row r="15">
@@ -10484,7 +10484,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27181.1872528506</v>
+        <v>24956.720578663</v>
       </c>
     </row>
     <row r="16">
@@ -10492,7 +10492,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20629.3701300137</v>
+        <v>18941.0941199625</v>
       </c>
     </row>
     <row r="17">
@@ -10500,7 +10500,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64986.9428130045</v>
+        <v>59668.5110903539</v>
       </c>
     </row>
     <row r="18">
@@ -10508,7 +10508,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16822.23315323</v>
+        <v>15445.5273939608</v>
       </c>
     </row>
     <row r="19">
@@ -10516,7 +10516,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>53565.5318826536</v>
+        <v>49181.8109123489</v>
       </c>
     </row>
     <row r="20">
@@ -10524,7 +10524,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14043.0587548879</v>
+        <v>14014.2819398669</v>
       </c>
     </row>
     <row r="21">
@@ -10532,7 +10532,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16113.9285994098</v>
+        <v>14795.1893984256</v>
       </c>
     </row>
     <row r="22">
@@ -10570,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24109.2839567179</v>
+        <v>19694.1217758728</v>
       </c>
     </row>
     <row r="5">
@@ -10578,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8318.8583620624</v>
+        <v>6795.41582042892</v>
       </c>
     </row>
     <row r="6">
@@ -10586,7 +10586,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8577.51450533424</v>
+        <v>7950.74157792159</v>
       </c>
     </row>
     <row r="7">
@@ -10594,7 +10594,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6004.26015373397</v>
+        <v>5565.51910454512</v>
       </c>
     </row>
     <row r="8">
@@ -10602,7 +10602,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20681.3405295281</v>
+        <v>19170.1213600998</v>
       </c>
     </row>
     <row r="9">
@@ -10610,7 +10610,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5083.7467768159</v>
+        <v>4152.75411248433</v>
       </c>
     </row>
     <row r="10">
@@ -10618,7 +10618,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10293.0174064011</v>
+        <v>9540.8898935059</v>
       </c>
     </row>
     <row r="11">
@@ -10626,7 +10626,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1429.58575088904</v>
+        <v>1325.12359632027</v>
       </c>
     </row>
     <row r="12">
@@ -10650,7 +10650,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18524.9038121322</v>
+        <v>16583.0241095839</v>
       </c>
     </row>
     <row r="15">
@@ -10658,7 +10658,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21220.6920534498</v>
+        <v>18996.2253792622</v>
       </c>
     </row>
     <row r="16">
@@ -10666,7 +10666,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16105.606672488</v>
+        <v>14417.3306624368</v>
       </c>
     </row>
     <row r="17">
@@ -10674,7 +10674,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50736.1171571081</v>
+        <v>45417.6854344575</v>
       </c>
     </row>
     <row r="18">
@@ -10682,7 +10682,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13133.3273294966</v>
+        <v>11756.6215702274</v>
       </c>
     </row>
     <row r="19">
@@ -10690,7 +10690,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41819.2791281341</v>
+        <v>37435.5581578294</v>
       </c>
     </row>
     <row r="20">
@@ -10698,7 +10698,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14019.3226433781</v>
+        <v>13990.5458283571</v>
       </c>
     </row>
     <row r="21">
@@ -10706,7 +10706,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12580.3451261494</v>
+        <v>11261.6059251652</v>
       </c>
     </row>
     <row r="22">
@@ -10744,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>21766.4382273078</v>
+        <v>17351.2760464627</v>
       </c>
     </row>
     <row r="5">
@@ -10752,7 +10752,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7510.46430846401</v>
+        <v>5987.02176683053</v>
       </c>
     </row>
     <row r="6">
@@ -10760,7 +10760,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8328.43729440061</v>
+        <v>7701.66436698796</v>
       </c>
     </row>
     <row r="7">
@@ -10768,7 +10768,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5829.90610608043</v>
+        <v>5391.16505689158</v>
       </c>
     </row>
     <row r="8">
@@ -10776,7 +10776,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20080.7876987215</v>
+        <v>18569.5685292932</v>
       </c>
     </row>
     <row r="9">
@@ -10784,7 +10784,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4589.72818850578</v>
+        <v>3658.73552417421</v>
       </c>
     </row>
     <row r="10">
@@ -10792,7 +10792,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9994.12475328073</v>
+        <v>9241.99724038555</v>
       </c>
     </row>
     <row r="11">
@@ -10800,7 +10800,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1388.0728824001</v>
+        <v>1283.61072783133</v>
       </c>
     </row>
     <row r="12">
@@ -10824,7 +10824,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16346.2715270893</v>
+        <v>14404.391824541</v>
       </c>
     </row>
     <row r="15">
@@ -10832,7 +10832,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18725.0199955835</v>
+        <v>16500.5533213959</v>
       </c>
     </row>
     <row r="16">
@@ -10840,7 +10840,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14211.4972604917</v>
+        <v>12523.2212504405</v>
       </c>
     </row>
     <row r="17">
@@ -10848,7 +10848,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>44769.2660480727</v>
+        <v>39450.8343254221</v>
       </c>
     </row>
     <row r="18">
@@ -10856,7 +10856,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11588.7745901005</v>
+        <v>10212.0688308313</v>
       </c>
     </row>
     <row r="19">
@@ -10864,7 +10864,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>36901.0980368992</v>
+        <v>32517.3770665945</v>
       </c>
     </row>
     <row r="20">
@@ -10872,7 +10872,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14006.2140390486</v>
+        <v>13977.4372240276</v>
       </c>
     </row>
     <row r="21">
@@ -10880,7 +10880,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11100.8261863068</v>
+        <v>9782.08698532265</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>37190.1334354117</v>
+        <v>36944.5014600067</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>12832.3783099823</v>
+        <v>12747.6235069671</v>
       </c>
     </row>
     <row r="6">
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10417.3641511772</v>
+        <v>10381.029822263</v>
       </c>
     </row>
     <row r="7">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7292.15490582407</v>
+        <v>7266.72087558407</v>
       </c>
     </row>
     <row r="8">
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>25117.422453394</v>
+        <v>25029.816349234</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>7842.00896721142</v>
+        <v>7790.21436536882</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12500.8369814127</v>
+        <v>12457.2357867156</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1736.22735852954</v>
+        <v>1730.17163704383</v>
       </c>
     </row>
     <row r="12">
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>115845.135695649</v>
+        <v>113890.725664517</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>80934.6941259673</v>
+        <v>79569.2541606504</v>
       </c>
     </row>
     <row r="14">
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>38204.4613606286</v>
+        <v>37755.9361643487</v>
       </c>
     </row>
     <row r="15">
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>43764.065812362</v>
+        <v>43250.2701584144</v>
       </c>
     </row>
     <row r="16">
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>33215.0727500988</v>
+        <v>32825.1236055718</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>104634.606860826</v>
+        <v>103406.183375492</v>
       </c>
     </row>
     <row r="18">
@@ -1286,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>27085.2524571621</v>
+        <v>26767.2681762174</v>
       </c>
     </row>
     <row r="19">
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>86245.1459820162</v>
+        <v>85232.617087429</v>
       </c>
     </row>
     <row r="20">
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13624.2905810236</v>
+        <v>13622.7146419961</v>
       </c>
     </row>
     <row r="21">
@@ -1310,7 +1310,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>25944.8207747552</v>
+        <v>25640.2253056398</v>
       </c>
     </row>
     <row r="22">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>34395.9332529707</v>
+        <v>34233.8161492034</v>
       </c>
     </row>
     <row r="5">
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>11868.2453396832</v>
+        <v>11812.3071696932</v>
       </c>
     </row>
     <row r="6">
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10071.1818450755</v>
+        <v>10047.2011879921</v>
       </c>
     </row>
     <row r="7">
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7049.82729155285</v>
+        <v>7033.04083159445</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>24282.738448682</v>
+        <v>24224.9184199364</v>
       </c>
     </row>
     <row r="9">
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>7252.81659647305</v>
+        <v>7218.63215925694</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12085.4182140906</v>
+        <v>12056.6414255905</v>
       </c>
     </row>
     <row r="11">
@@ -1404,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1678.53030751258</v>
+        <v>1674.53353133201</v>
       </c>
     </row>
     <row r="12">
@@ -1412,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>97319.4496656673</v>
+        <v>96029.5390451202</v>
       </c>
     </row>
     <row r="13">
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>67991.8051275938</v>
+        <v>67090.6147504846</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>34004.1002293975</v>
+        <v>33708.0735998527</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>38952.4580986009</v>
+        <v>38613.3529669955</v>
       </c>
     </row>
     <row r="16">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>29563.266244215</v>
+        <v>29305.8998088272</v>
       </c>
     </row>
     <row r="17">
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>93130.6327178275</v>
+        <v>92319.8732175071</v>
       </c>
     </row>
     <row r="18">
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>24107.3844909908</v>
+        <v>23897.5148655672</v>
       </c>
     </row>
     <row r="19">
@@ -1468,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>76762.9874581548</v>
+        <v>76094.7183877273</v>
       </c>
     </row>
     <row r="20">
@@ -1476,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13605.4173808317</v>
+        <v>13604.3772610736</v>
       </c>
     </row>
     <row r="21">
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>23092.3367229491</v>
+        <v>22891.3037133328</v>
       </c>
     </row>
     <row r="22">
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>32957.6215747656</v>
+        <v>32820.0676685387</v>
       </c>
     </row>
     <row r="5">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>11371.9588820277</v>
+        <v>11324.4961923392</v>
       </c>
     </row>
     <row r="6">
@@ -1538,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9925.56503458058</v>
+        <v>9905.21781038859</v>
       </c>
     </row>
     <row r="7">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6947.89552420641</v>
+        <v>6933.65246727201</v>
       </c>
     </row>
     <row r="8">
@@ -1554,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>23931.6401389332</v>
+        <v>23882.5807206036</v>
       </c>
     </row>
     <row r="9">
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6949.53042790583</v>
+        <v>6920.52545087398</v>
       </c>
     </row>
     <row r="10">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11910.6780414967</v>
+        <v>11886.2613724663</v>
       </c>
     </row>
     <row r="11">
@@ -1578,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1654.26083909676</v>
+        <v>1650.86963506476</v>
       </c>
     </row>
     <row r="12">
@@ -1586,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>89582.1070075344</v>
+        <v>88487.6373901004</v>
       </c>
     </row>
     <row r="13">
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>62586.1447377695</v>
+        <v>61821.4983571921</v>
       </c>
     </row>
     <row r="14">
@@ -1602,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>32279.5981816316</v>
+        <v>32028.4240717148</v>
       </c>
     </row>
     <row r="15">
@@ -1610,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>36977.0023946302</v>
+        <v>36689.2768284196</v>
       </c>
     </row>
     <row r="16">
@@ -1618,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>28063.97901612</v>
+        <v>27845.6074951849</v>
       </c>
     </row>
     <row r="17">
@@ -1626,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>88407.5562138715</v>
+        <v>87719.6390620846</v>
       </c>
     </row>
     <row r="18">
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>22884.7897556343</v>
+        <v>22706.7185583053</v>
       </c>
     </row>
     <row r="19">
@@ -1642,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>72869.9884324146</v>
+        <v>72302.9722514458</v>
       </c>
     </row>
     <row r="20">
@@ -1650,7 +1650,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13595.2433640713</v>
+        <v>13594.3608382159</v>
       </c>
     </row>
     <row r="21">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>21921.2196606603</v>
+        <v>21750.6461979556</v>
       </c>
     </row>
     <row r="22">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31423.9210966134</v>
+        <v>31178.2891212084</v>
       </c>
     </row>
     <row r="5">
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10842.7587170424</v>
+        <v>10758.0039140272</v>
       </c>
     </row>
     <row r="6">
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9221.32038846346</v>
+        <v>9184.98605954918</v>
       </c>
     </row>
     <row r="7">
@@ -2938,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6454.92427192442</v>
+        <v>6429.49024168443</v>
       </c>
     </row>
     <row r="8">
@@ -2946,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22233.6280477397</v>
+        <v>22146.0219435797</v>
       </c>
     </row>
     <row r="9">
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6626.13032708144</v>
+        <v>6574.33572523884</v>
       </c>
     </row>
     <row r="10">
@@ -2962,7 +2962,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11065.5844661561</v>
+        <v>11021.983271459</v>
       </c>
     </row>
     <row r="11">
@@ -2970,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1536.88673141058</v>
+        <v>1530.83100992486</v>
       </c>
     </row>
     <row r="12">
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>87173.9844399746</v>
+        <v>85219.5744088425</v>
       </c>
     </row>
     <row r="13">
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>60903.7205060319</v>
+        <v>59538.280540715</v>
       </c>
     </row>
     <row r="14">
@@ -2994,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24958.1902829976</v>
+        <v>24509.6650867177</v>
       </c>
     </row>
     <row r="15">
@@ -3002,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28590.1657346279</v>
+        <v>28076.3700806803</v>
       </c>
     </row>
     <row r="16">
@@ -3010,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21698.7251340987</v>
+        <v>21308.7759895717</v>
       </c>
     </row>
     <row r="17">
@@ -3018,7 +3018,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>68355.640551195</v>
+        <v>67127.2170658612</v>
       </c>
     </row>
     <row r="18">
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17694.239379737</v>
+        <v>17376.2550987923</v>
       </c>
     </row>
     <row r="19">
@@ -3034,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>56342.1832881103</v>
+        <v>55329.6543935231</v>
       </c>
     </row>
     <row r="20">
@@ -3042,7 +3042,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13543.4687430341</v>
+        <v>13541.8928040067</v>
       </c>
     </row>
     <row r="21">
@@ -3050,7 +3050,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16949.2187742745</v>
+        <v>16644.6233051591</v>
       </c>
     </row>
     <row r="22">
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28629.7209141724</v>
+        <v>28467.6038104051</v>
       </c>
     </row>
     <row r="5">
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9878.62574674321</v>
+        <v>9822.68757675321</v>
       </c>
     </row>
     <row r="6">
@@ -3104,7 +3104,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8875.13808236172</v>
+        <v>8851.15742527829</v>
       </c>
     </row>
     <row r="7">
@@ -3112,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6212.5966576532</v>
+        <v>6195.81019769481</v>
       </c>
     </row>
     <row r="8">
@@ -3120,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21398.9440430277</v>
+        <v>21341.1240142821</v>
       </c>
     </row>
     <row r="9">
@@ -3128,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6036.93795634307</v>
+        <v>6002.75351912696</v>
       </c>
     </row>
     <row r="10">
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10650.1656988341</v>
+        <v>10621.388910334</v>
       </c>
     </row>
     <row r="11">
@@ -3144,7 +3144,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1479.18968039362</v>
+        <v>1475.19290421305</v>
       </c>
     </row>
     <row r="12">
@@ -3152,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68648.2984099925</v>
+        <v>67358.3877894454</v>
       </c>
     </row>
     <row r="13">
@@ -3160,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>47960.8315076584</v>
+        <v>47059.6411305492</v>
       </c>
     </row>
     <row r="14">
@@ -3168,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20757.8291517665</v>
+        <v>20461.8025222217</v>
       </c>
     </row>
     <row r="15">
@@ -3176,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23778.5580208668</v>
+        <v>23439.4528892614</v>
       </c>
     </row>
     <row r="16">
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18046.9186282149</v>
+        <v>17789.5521928271</v>
       </c>
     </row>
     <row r="17">
@@ -3192,7 +3192,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>56851.6664081963</v>
+        <v>56040.9069078759</v>
       </c>
     </row>
     <row r="18">
@@ -3200,7 +3200,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14716.3714135657</v>
+        <v>14506.5017881422</v>
       </c>
     </row>
     <row r="19">
@@ -3208,7 +3208,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>46860.0247642489</v>
+        <v>46191.7556938214</v>
       </c>
     </row>
     <row r="20">
@@ -3216,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13524.5955428422</v>
+        <v>13523.5554230841</v>
       </c>
     </row>
     <row r="21">
@@ -3224,7 +3224,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14096.7347224683</v>
+        <v>13895.7017128521</v>
       </c>
     </row>
     <row r="22">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27191.4092359673</v>
+        <v>27053.8553297404</v>
       </c>
     </row>
     <row r="5">
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9382.33928908776</v>
+        <v>9334.87659939927</v>
       </c>
     </row>
     <row r="6">
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8729.5212718668</v>
+        <v>8709.17404767481</v>
       </c>
     </row>
     <row r="7">
@@ -3286,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6110.66489030676</v>
+        <v>6096.42183337236</v>
       </c>
     </row>
     <row r="8">
@@ -3294,7 +3294,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21047.8457332788</v>
+        <v>20998.7863149493</v>
       </c>
     </row>
     <row r="9">
@@ -3302,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5733.65178777585</v>
+        <v>5704.646810744</v>
       </c>
     </row>
     <row r="10">
@@ -3310,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10475.4255262402</v>
+        <v>10451.0088572098</v>
       </c>
     </row>
     <row r="11">
@@ -3318,7 +3318,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1454.9202119778</v>
+        <v>1451.5290079458</v>
       </c>
     </row>
     <row r="12">
@@ -3326,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>60910.9557518596</v>
+        <v>59816.4861344256</v>
       </c>
     </row>
     <row r="13">
@@ -3334,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>42555.1711178341</v>
+        <v>41790.5247372567</v>
       </c>
     </row>
     <row r="14">
@@ -3342,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19033.3271040006</v>
+        <v>18782.1529940838</v>
       </c>
     </row>
     <row r="15">
@@ -3350,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21803.1023168961</v>
+        <v>21515.3767506855</v>
       </c>
     </row>
     <row r="16">
@@ -3358,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16547.6314001199</v>
+        <v>16329.2598791848</v>
       </c>
     </row>
     <row r="17">
@@ -3366,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52128.5899042403</v>
+        <v>51440.6727524534</v>
       </c>
     </row>
     <row r="18">
@@ -3374,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13493.7766782093</v>
+        <v>13315.7054808802</v>
       </c>
     </row>
     <row r="19">
@@ -3382,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>42967.0257385087</v>
+        <v>42400.0095575399</v>
       </c>
     </row>
     <row r="20">
@@ -3390,7 +3390,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13514.4215260819</v>
+        <v>13513.5390002265</v>
       </c>
     </row>
     <row r="21">
@@ -3398,7 +3398,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12925.6176601795</v>
+        <v>12755.0441974748</v>
       </c>
     </row>
     <row r="22">
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30691.703656766</v>
+        <v>30446.071681361</v>
       </c>
     </row>
     <row r="5">
@@ -4662,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10590.1086100024</v>
+        <v>10505.3538069872</v>
       </c>
     </row>
     <row r="6">
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9069.44181542044</v>
+        <v>9033.10748650616</v>
       </c>
     </row>
     <row r="7">
@@ -4678,7 +4678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6348.60927079431</v>
+        <v>6323.17524055431</v>
       </c>
     </row>
     <row r="8">
@@ -4686,7 +4686,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21867.431932736</v>
+        <v>21779.825828576</v>
       </c>
     </row>
     <row r="9">
@@ -4694,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6471.73303944589</v>
+        <v>6419.93843760329</v>
       </c>
     </row>
     <row r="10">
@@ -4702,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10883.3301785045</v>
+        <v>10839.7289838074</v>
       </c>
     </row>
     <row r="11">
@@ -4710,7 +4710,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1511.57363590341</v>
+        <v>1505.51791441769</v>
       </c>
     </row>
     <row r="12">
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>83533.2033281429</v>
+        <v>81578.7932970108</v>
       </c>
     </row>
     <row r="13">
@@ -4726,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58360.1048082623</v>
+        <v>56994.6648429454</v>
       </c>
     </row>
     <row r="14">
@@ -4734,7 +4734,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23276.1241144096</v>
+        <v>22827.5989181297</v>
       </c>
     </row>
     <row r="15">
@@ -4742,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26663.3212803124</v>
+        <v>26149.5256263648</v>
       </c>
     </row>
     <row r="16">
@@ -4750,7 +4750,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20236.3317860352</v>
+        <v>19846.3826415082</v>
       </c>
     </row>
     <row r="17">
@@ -4758,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>63748.7876864799</v>
+        <v>62520.3642011461</v>
       </c>
     </row>
     <row r="18">
@@ -4766,7 +4766,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16501.7297826037</v>
+        <v>16183.745501659</v>
       </c>
     </row>
     <row r="19">
@@ -4774,7 +4774,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>52544.9816761858</v>
+        <v>51532.4527815986</v>
       </c>
     </row>
     <row r="20">
@@ -4782,7 +4782,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13533.2056524958</v>
+        <v>13531.6297134684</v>
       </c>
     </row>
     <row r="21">
@@ -4790,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15806.9201075468</v>
+        <v>15502.3246384314</v>
       </c>
     </row>
     <row r="22">
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27897.503474325</v>
+        <v>27735.3863705577</v>
       </c>
     </row>
     <row r="5">
@@ -4836,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9625.97563970322</v>
+        <v>9570.03746971322</v>
       </c>
     </row>
     <row r="6">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8723.2595093187</v>
+        <v>8699.27885223527</v>
       </c>
     </row>
     <row r="7">
@@ -4852,7 +4852,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6106.28165652309</v>
+        <v>6089.4951965647</v>
       </c>
     </row>
     <row r="8">
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21032.747928024</v>
+        <v>20974.9278992784</v>
       </c>
     </row>
     <row r="9">
@@ -4868,7 +4868,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5882.54066870752</v>
+        <v>5848.35623149141</v>
       </c>
     </row>
     <row r="10">
@@ -4876,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10467.9114111824</v>
+        <v>10439.1346226823</v>
       </c>
     </row>
     <row r="11">
@@ -4884,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1453.87658488645</v>
+        <v>1449.87980870588</v>
       </c>
     </row>
     <row r="12">
@@ -4892,7 +4892,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65007.5172981608</v>
+        <v>63717.6066776137</v>
       </c>
     </row>
     <row r="13">
@@ -4900,7 +4900,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45417.2158098888</v>
+        <v>44516.0254327796</v>
       </c>
     </row>
     <row r="14">
@@ -4908,7 +4908,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19075.7629831785</v>
+        <v>18779.7363536337</v>
       </c>
     </row>
     <row r="15">
@@ -4916,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21851.7135665513</v>
+        <v>21512.6084349459</v>
       </c>
     </row>
     <row r="16">
@@ -4924,7 +4924,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16584.5252801514</v>
+        <v>16327.1588447636</v>
       </c>
     </row>
     <row r="17">
@@ -4932,7 +4932,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52244.8135434812</v>
+        <v>51434.0540431608</v>
       </c>
     </row>
     <row r="18">
@@ -4940,7 +4940,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13523.8618164324</v>
+        <v>13313.9921910089</v>
       </c>
     </row>
     <row r="19">
@@ -4948,7 +4948,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43062.8231523244</v>
+        <v>42394.5540818969</v>
       </c>
     </row>
     <row r="20">
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13514.3324523039</v>
+        <v>13513.2923325458</v>
       </c>
     </row>
     <row r="21">
@@ -4964,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12954.4360557406</v>
+        <v>12753.4030461244</v>
       </c>
     </row>
     <row r="22">
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26459.1917961199</v>
+        <v>26321.637889893</v>
       </c>
     </row>
     <row r="5">
@@ -5010,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9129.68918204777</v>
+        <v>9082.22649235928</v>
       </c>
     </row>
     <row r="6">
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8577.64269882378</v>
+        <v>8557.29547463178</v>
       </c>
     </row>
     <row r="7">
@@ -5026,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6004.34988917665</v>
+        <v>5990.10683224225</v>
       </c>
     </row>
     <row r="8">
@@ -5034,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20681.6496182751</v>
+        <v>20632.5901999455</v>
       </c>
     </row>
     <row r="9">
@@ -5042,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5579.2545001403</v>
+        <v>5550.24952310845</v>
       </c>
     </row>
     <row r="10">
@@ -5050,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10293.1712385885</v>
+        <v>10268.7545695581</v>
       </c>
     </row>
     <row r="11">
@@ -5058,7 +5058,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1429.60711647063</v>
+        <v>1426.21591243863</v>
       </c>
     </row>
     <row r="12">
@@ -5066,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57270.1746400279</v>
+        <v>56175.7050225939</v>
       </c>
     </row>
     <row r="13">
@@ -5074,7 +5074,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40011.5554200645</v>
+        <v>39246.9090394871</v>
       </c>
     </row>
     <row r="14">
@@ -5082,7 +5082,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17351.2609354126</v>
+        <v>17100.0868254958</v>
       </c>
     </row>
     <row r="15">
@@ -5090,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19876.2578625806</v>
+        <v>19588.53229637</v>
       </c>
     </row>
     <row r="16">
@@ -5098,7 +5098,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15085.2380520564</v>
+        <v>14866.8665311213</v>
       </c>
     </row>
     <row r="17">
@@ -5106,7 +5106,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47521.7370395252</v>
+        <v>46833.8198877383</v>
       </c>
     </row>
     <row r="18">
@@ -5114,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12301.267081076</v>
+        <v>12123.1958837469</v>
       </c>
     </row>
     <row r="19">
@@ -5122,7 +5122,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39169.8241265842</v>
+        <v>38602.8079456154</v>
       </c>
     </row>
     <row r="20">
@@ -5130,7 +5130,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13504.1584355435</v>
+        <v>13503.2759096881</v>
       </c>
     </row>
     <row r="21">
@@ -5138,7 +5138,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11783.3189934518</v>
+        <v>11612.7455307471</v>
       </c>
     </row>
     <row r="22">
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31681.743579397</v>
+        <v>31554.495719598</v>
       </c>
     </row>
     <row r="5">
@@ -6228,7 +6228,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10931.7198293127</v>
+        <v>10887.8132195418</v>
       </c>
     </row>
     <row r="6">
@@ -6236,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9044.18177835494</v>
+        <v>9029.45451890329</v>
       </c>
     </row>
     <row r="7">
@@ -6244,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6330.92724484846</v>
+        <v>6320.61816323231</v>
       </c>
     </row>
     <row r="8">
@@ -6252,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21806.5271767002</v>
+        <v>21771.0181178002</v>
       </c>
     </row>
     <row r="9">
@@ -6260,7 +6260,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6680.49545124665</v>
+        <v>6653.66363416444</v>
       </c>
     </row>
     <row r="10">
@@ -6268,7 +6268,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10853.0181340259</v>
+        <v>10835.345422684</v>
       </c>
     </row>
     <row r="11">
@@ -6276,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1507.36362972582</v>
+        <v>1504.90908648388</v>
       </c>
     </row>
     <row r="12">
@@ -6284,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>92888.6433827867</v>
+        <v>91459.0955885245</v>
       </c>
     </row>
     <row r="13">
@@ -6292,7 +6292,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>64896.2418216083</v>
+        <v>63897.4945477389</v>
       </c>
     </row>
     <row r="14">
@@ -6300,7 +6300,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27394.6926099237</v>
+        <v>27196.4617399491</v>
       </c>
     </row>
     <row r="15">
@@ -6308,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31381.2336986813</v>
+        <v>31154.1557991208</v>
       </c>
     </row>
     <row r="16">
@@ -6316,7 +6316,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23817.0275302695</v>
+        <v>23644.6850201797</v>
       </c>
     </row>
     <row r="17">
@@ -6324,7 +6324,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>75028.7476704627</v>
+        <v>74485.8317803084</v>
       </c>
     </row>
     <row r="18">
@@ -6332,7 +6332,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19421.6104324086</v>
+        <v>19281.0736216057</v>
       </c>
     </row>
     <row r="19">
@@ -6340,7 +6340,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61842.49637688</v>
+        <v>61394.9975845867</v>
       </c>
     </row>
     <row r="20">
@@ -6348,7 +6348,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12802.08957378</v>
+        <v>12801.3930491866</v>
       </c>
     </row>
     <row r="21">
@@ -6356,7 +6356,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18603.8584142019</v>
+        <v>18469.2389428013</v>
       </c>
     </row>
     <row r="22">
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>47839.1485993502</v>
+        <v>47426.3527582247</v>
       </c>
     </row>
     <row r="5">
@@ -6402,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>16506.7988777311</v>
+        <v>16364.3645299945</v>
       </c>
     </row>
     <row r="6">
@@ -6410,7 +6410,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11907.2568573785</v>
+        <v>11842.1844349079</v>
       </c>
     </row>
     <row r="7">
@@ -6418,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8335.07980016495</v>
+        <v>8289.52910443551</v>
       </c>
     </row>
     <row r="8">
@@ -6426,7 +6426,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>28709.7193116792</v>
+        <v>28552.8224708335</v>
       </c>
     </row>
     <row r="9">
@@ -6434,7 +6434,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10087.4882030579</v>
+        <v>10000.4449905522</v>
       </c>
     </row>
     <row r="10">
@@ -6442,7 +6442,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14288.7082288542</v>
+        <v>14210.6213218895</v>
       </c>
     </row>
     <row r="11">
@@ -6450,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1984.54280956308</v>
+        <v>1973.69740581798</v>
       </c>
     </row>
     <row r="12">
@@ -6458,7 +6458,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>146596.084865546</v>
+        <v>143901.593560383</v>
       </c>
     </row>
     <row r="13">
@@ -6466,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>102418.709403807</v>
+        <v>100536.214914083</v>
       </c>
     </row>
     <row r="14">
@@ -6474,7 +6474,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>44606.7331260819</v>
+        <v>44012.2625176302</v>
       </c>
     </row>
     <row r="15">
@@ -6482,7 +6482,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>51098.0114541311</v>
+        <v>50417.0320631062</v>
       </c>
     </row>
     <row r="16">
@@ -6490,7 +6490,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>38781.2269342428</v>
+        <v>38264.3924127158</v>
       </c>
     </row>
     <row r="17">
@@ -6498,7 +6498,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>122169.186994567</v>
+        <v>120541.047343062</v>
       </c>
     </row>
     <row r="18">
@@ -6506,7 +6506,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>31624.1764699833</v>
+        <v>31202.7234266781</v>
       </c>
     </row>
     <row r="19">
@@ -6514,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>100698.035601789</v>
+        <v>99356.0403849487</v>
       </c>
     </row>
     <row r="20">
@@ -6522,7 +6522,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14167.6811092898</v>
+        <v>14165.592369671</v>
       </c>
     </row>
     <row r="21">
@@ -6530,7 +6530,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>30292.632197563</v>
+        <v>29888.9245455548</v>
       </c>
     </row>
     <row r="22">
@@ -6568,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>43143.3665755246</v>
+        <v>42870.9213203818</v>
       </c>
     </row>
     <row r="5">
@@ -6576,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14886.5290420341</v>
+        <v>14792.5223725279</v>
       </c>
     </row>
     <row r="6">
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11287.2668383624</v>
+        <v>11244.3190395318</v>
       </c>
     </row>
     <row r="7">
@@ -6592,7 +6592,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7901.08678685371</v>
+        <v>7871.02332767228</v>
       </c>
     </row>
     <row r="8">
@@ -6600,7 +6600,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>27214.8544880516</v>
+        <v>27111.3025730934</v>
       </c>
     </row>
     <row r="9">
@@ -6608,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9097.32330346526</v>
+        <v>9039.8747832115</v>
       </c>
     </row>
     <row r="10">
@@ -6616,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>13544.7202060349</v>
+        <v>13493.1828474382</v>
       </c>
     </row>
     <row r="11">
@@ -6624,7 +6624,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1881.21113972707</v>
+        <v>1874.05317325531</v>
       </c>
     </row>
     <row r="12">
@@ -6632,7 +6632,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>121055.231546735</v>
+        <v>119276.867285328</v>
       </c>
     </row>
     <row r="13">
@@ -6640,7 +6640,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>84574.7046584979</v>
+        <v>83332.25829528</v>
       </c>
     </row>
     <row r="14">
@@ -6648,7 +6648,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>39039.6183728644</v>
+        <v>38647.2677712863</v>
       </c>
     </row>
     <row r="15">
@@ -6656,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>44720.756867423</v>
+        <v>44271.3104693466</v>
       </c>
     </row>
     <row r="16">
@@ -6664,7 +6664,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>33941.1607495426</v>
+        <v>33600.0499653347</v>
       </c>
     </row>
     <row r="17">
@@ -6672,7 +6672,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>106921.93987195</v>
+        <v>105847.367701956</v>
       </c>
     </row>
     <row r="18">
@@ -6680,7 +6680,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>27677.3413837471</v>
+        <v>27399.1823751656</v>
       </c>
     </row>
     <row r="19">
@@ -6688,7 +6688,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>88130.4817745633</v>
+        <v>87244.7649314485</v>
       </c>
     </row>
     <row r="20">
@@ -6696,7 +6696,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14142.6666891334</v>
+        <v>14141.288120985</v>
       </c>
     </row>
     <row r="21">
@@ -6704,7 +6704,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>26511.9796412736</v>
+        <v>26245.5325909482</v>
       </c>
     </row>
     <row r="22">
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>40726.2175947119</v>
+        <v>40495.0519236816</v>
       </c>
     </row>
     <row r="5">
@@ -6750,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14052.4968058431</v>
+        <v>13972.7335711106</v>
       </c>
     </row>
     <row r="6">
@@ -6758,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11026.4765913841</v>
+        <v>10990.0360348006</v>
       </c>
     </row>
     <row r="7">
@@ -6766,7 +6766,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7718.53361396887</v>
+        <v>7693.0252243604</v>
       </c>
     </row>
     <row r="8">
@@ -6774,7 +6774,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>26586.0602258928</v>
+        <v>26498.1979950191</v>
       </c>
     </row>
     <row r="9">
@@ -6782,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8587.63693690411</v>
+        <v>8538.89273790092</v>
       </c>
     </row>
     <row r="10">
@@ -6790,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>13231.7719096609</v>
+        <v>13188.0432417607</v>
       </c>
     </row>
     <row r="11">
@@ -6798,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1837.74609856402</v>
+        <v>1831.67267246676</v>
       </c>
     </row>
     <row r="12">
@@ -6806,7 +6806,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>110387.970232421</v>
+        <v>108879.05510153</v>
       </c>
     </row>
     <row r="13">
@@ -6814,7 +6814,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>77122.069496466</v>
+        <v>76067.8725822205</v>
       </c>
     </row>
     <row r="14">
@@ -6822,7 +6822,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>36753.9813783002</v>
+        <v>36421.0778375673</v>
       </c>
     </row>
     <row r="15">
@@ -6830,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>42102.5085191723</v>
+        <v>41721.1600601983</v>
       </c>
     </row>
     <row r="16">
@@ -6838,7 +6838,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>31954.0211236715</v>
+        <v>31664.5937916163</v>
       </c>
     </row>
     <row r="17">
@@ -6846,7 +6846,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>100662.023625643</v>
+        <v>99750.2654207999</v>
       </c>
     </row>
     <row r="18">
@@ -6854,7 +6854,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>26056.9270965561</v>
+        <v>25820.9133923051</v>
       </c>
     </row>
     <row r="19">
@@ -6862,7 +6862,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>82970.7415442971</v>
+        <v>82219.2242228664</v>
       </c>
     </row>
     <row r="20">
@@ -6870,7 +6870,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14129.1821116725</v>
+        <v>14128.012417486</v>
       </c>
     </row>
     <row r="21">
@@ -6878,7 +6878,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>24959.7933240695</v>
+        <v>24733.7170389449</v>
       </c>
     </row>
     <row r="22">
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27467.2171846337</v>
+        <v>27054.4213435082</v>
       </c>
     </row>
     <row r="5">
@@ -7968,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9477.50624901098</v>
+        <v>9335.07190127438</v>
       </c>
     </row>
     <row r="6">
@@ -7976,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9015.27360357027</v>
+        <v>8950.20118109966</v>
       </c>
     </row>
     <row r="7">
@@ -7984,7 +7984,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6310.6915224992</v>
+        <v>6265.14082676977</v>
       </c>
     </row>
     <row r="8">
@@ -7992,7 +7992,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21736.826355275</v>
+        <v>21579.9295144292</v>
       </c>
     </row>
     <row r="9">
@@ -8000,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5791.80937439559</v>
+        <v>5704.7661618899</v>
       </c>
     </row>
     <row r="10">
@@ -8008,7 +8008,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10818.3283242843</v>
+        <v>10740.2414173196</v>
       </c>
     </row>
     <row r="11">
@@ -8016,7 +8016,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1502.54560059505</v>
+        <v>1491.70019684995</v>
       </c>
     </row>
     <row r="12">
@@ -8024,7 +8024,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>106672.613143139</v>
+        <v>103978.121837976</v>
       </c>
     </row>
     <row r="13">
@@ -8032,7 +8032,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>74526.3516203194</v>
+        <v>72643.8571305953</v>
       </c>
     </row>
     <row r="14">
@@ -8040,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22856.369945642</v>
+        <v>22261.8993371903</v>
       </c>
     </row>
     <row r="15">
@@ -8048,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26182.4834825078</v>
+        <v>25501.5040914829</v>
       </c>
     </row>
     <row r="16">
@@ -8056,7 +8056,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19871.3962587111</v>
+        <v>19354.5617371841</v>
       </c>
     </row>
     <row r="17">
@@ -8064,7 +8064,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>62599.1624630642</v>
+        <v>60971.0228115585</v>
       </c>
     </row>
     <row r="18">
@@ -8072,7 +8072,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16204.1428719103</v>
+        <v>15782.6898286051</v>
       </c>
     </row>
     <row r="19">
@@ -8080,7 +8080,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51597.4023026619</v>
+        <v>50255.4070858214</v>
       </c>
     </row>
     <row r="20">
@@ -8088,7 +8088,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14034.9024529394</v>
+        <v>14032.8137133207</v>
       </c>
     </row>
     <row r="21">
@@ -8096,7 +8096,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15521.8631720404</v>
+        <v>15118.1555200322</v>
       </c>
     </row>
     <row r="22">
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29962.7663800235</v>
+        <v>29878.7827925561</v>
       </c>
     </row>
     <row r="5">
@@ -8142,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10338.5903164298</v>
+        <v>10309.611953981</v>
       </c>
     </row>
     <row r="6">
@@ -8150,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8903.8649817641</v>
+        <v>8894.14499052601</v>
       </c>
     </row>
     <row r="7">
@@ -8158,7 +8158,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6232.70548723487</v>
+        <v>6225.90149336821</v>
       </c>
     </row>
     <row r="8">
@@ -8166,7 +8166,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21468.2077893645</v>
+        <v>21444.7718104905</v>
       </c>
     </row>
     <row r="9">
@@ -8174,7 +8174,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6318.02741559601</v>
+        <v>6300.31841632174</v>
       </c>
     </row>
     <row r="10">
@@ -8182,7 +8182,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10684.6379781169</v>
+        <v>10672.9739886312</v>
       </c>
     </row>
     <row r="11">
@@ -8190,7 +8190,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1483.97749696068</v>
+        <v>1482.357498421</v>
       </c>
     </row>
     <row r="12">
@@ -8198,7 +8198,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>79338.0817403994</v>
+        <v>78394.5801961863</v>
       </c>
     </row>
     <row r="13">
@@ -8206,7 +8206,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>55429.2015770962</v>
+        <v>54770.0283763423</v>
       </c>
     </row>
     <row r="14">
@@ -8214,7 +8214,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25538.2946903481</v>
+        <v>25407.4623161648</v>
       </c>
     </row>
     <row r="15">
@@ -8222,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29254.6883206599</v>
+        <v>29104.81690695</v>
       </c>
     </row>
     <row r="16">
@@ -8230,7 +8230,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22203.0696375041</v>
+        <v>22089.3235808448</v>
       </c>
     </row>
     <row r="17">
@@ -8238,7 +8238,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69944.4339653562</v>
+        <v>69586.1094778545</v>
       </c>
     </row>
     <row r="18">
@@ -8246,7 +8246,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18105.5074297244</v>
+        <v>18012.7531345945</v>
       </c>
     </row>
     <row r="19">
@@ -8254,7 +8254,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57651.7473420171</v>
+        <v>57356.3981391035</v>
       </c>
     </row>
     <row r="20">
@@ -8262,7 +8262,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12793.7481037997</v>
+        <v>12793.2883975681</v>
       </c>
     </row>
     <row r="21">
@@ -8270,7 +8270,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17343.1702747886</v>
+        <v>17254.3214236642</v>
       </c>
     </row>
     <row r="22">
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22771.4351608081</v>
+        <v>22498.9899056653</v>
       </c>
     </row>
     <row r="5">
@@ -8316,7 +8316,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7857.23641331398</v>
+        <v>7763.22974380782</v>
       </c>
     </row>
     <row r="6">
@@ -8324,7 +8324,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8395.28358455421</v>
+        <v>8352.33578572362</v>
       </c>
     </row>
     <row r="7">
@@ -8332,7 +8332,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5876.69850918796</v>
+        <v>5846.63505000654</v>
       </c>
     </row>
     <row r="8">
@@ -8340,7 +8340,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20241.9615316474</v>
+        <v>20138.4096166892</v>
       </c>
     </row>
     <row r="9">
@@ -8348,7 +8348,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4801.64447480298</v>
+        <v>4744.19595454922</v>
       </c>
     </row>
     <row r="10">
@@ -8356,7 +8356,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10074.3403014651</v>
+        <v>10022.8029428683</v>
       </c>
     </row>
     <row r="11">
@@ -8364,7 +8364,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1399.21393075904</v>
+        <v>1392.05596428727</v>
       </c>
     </row>
     <row r="12">
@@ -8372,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81131.759824328</v>
+        <v>79353.3955629208</v>
       </c>
     </row>
     <row r="13">
@@ -8380,7 +8380,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56682.3468750102</v>
+        <v>55439.9005117923</v>
       </c>
     </row>
     <row r="14">
@@ -8388,7 +8388,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17289.2551924245</v>
+        <v>16896.9045908464</v>
       </c>
     </row>
     <row r="15">
@@ -8396,7 +8396,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19805.2288957997</v>
+        <v>19355.7824977233</v>
       </c>
     </row>
     <row r="16">
@@ -8404,7 +8404,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15031.3300740109</v>
+        <v>14690.219289803</v>
       </c>
     </row>
     <row r="17">
@@ -8412,7 +8412,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47351.9153404463</v>
+        <v>46277.3431704525</v>
       </c>
     </row>
     <row r="18">
@@ -8420,7 +8420,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12257.3077856741</v>
+        <v>11979.1487770926</v>
       </c>
     </row>
     <row r="19">
@@ -8428,7 +8428,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39029.848475436</v>
+        <v>38144.1316323212</v>
       </c>
     </row>
     <row r="20">
@@ -8436,7 +8436,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14009.888032783</v>
+        <v>14008.5094646346</v>
       </c>
     </row>
     <row r="21">
@@ -8444,7 +8444,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11741.210615751</v>
+        <v>11474.7635654256</v>
       </c>
     </row>
     <row r="22">
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20354.2861799954</v>
+        <v>20123.1205089651</v>
       </c>
     </row>
     <row r="5">
@@ -8490,7 +8490,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7023.204177123</v>
+        <v>6943.44094239051</v>
       </c>
     </row>
     <row r="6">
@@ -8498,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8134.49333757588</v>
+        <v>8098.05278099234</v>
       </c>
     </row>
     <row r="7">
@@ -8506,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5694.14533630312</v>
+        <v>5668.63694669465</v>
       </c>
     </row>
     <row r="8">
@@ -8514,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19613.1672694885</v>
+        <v>19525.3050386149</v>
       </c>
     </row>
     <row r="9">
@@ -8522,7 +8522,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4291.95810824183</v>
+        <v>4243.21390923864</v>
       </c>
     </row>
     <row r="10">
@@ -8530,7 +8530,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9761.39200509105</v>
+        <v>9717.6633371908</v>
       </c>
     </row>
     <row r="11">
@@ -8538,7 +8538,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1355.74888959598</v>
+        <v>1349.67546349872</v>
       </c>
     </row>
     <row r="12">
@@ -8546,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>70464.4985100141</v>
+        <v>68955.5833791231</v>
       </c>
     </row>
     <row r="13">
@@ -8554,7 +8554,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49229.7117129783</v>
+        <v>48175.5147987328</v>
       </c>
     </row>
     <row r="14">
@@ -8562,7 +8562,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15003.6181978603</v>
+        <v>14670.7146571274</v>
       </c>
     </row>
     <row r="15">
@@ -8570,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>17186.980547549</v>
+        <v>16805.632088575</v>
       </c>
     </row>
     <row r="16">
@@ -8578,7 +8578,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13044.1904481398</v>
+        <v>12754.7631160846</v>
       </c>
     </row>
     <row r="17">
@@ -8586,7 +8586,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>41091.9990941399</v>
+        <v>40180.2408892967</v>
       </c>
     </row>
     <row r="18">
@@ -8594,7 +8594,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10636.8934984831</v>
+        <v>10400.8797942321</v>
       </c>
     </row>
     <row r="19">
@@ -8602,7 +8602,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>33870.1082451698</v>
+        <v>33118.5909237391</v>
       </c>
     </row>
     <row r="20">
@@ -8610,7 +8610,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13996.4034553221</v>
+        <v>13995.2337611356</v>
       </c>
     </row>
     <row r="21">
@@ -8618,7 +8618,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10189.0242985469</v>
+        <v>9962.94801342233</v>
       </c>
     </row>
     <row r="22">
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24880.3052589555</v>
+        <v>24467.50941783</v>
       </c>
     </row>
     <row r="5">
@@ -9708,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8584.897661237</v>
+        <v>8442.4633135004</v>
       </c>
     </row>
     <row r="6">
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8648.03763483272</v>
+        <v>8582.96521236211</v>
       </c>
     </row>
     <row r="7">
@@ -9724,7 +9724,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6053.62634438291</v>
+        <v>6008.07564865348</v>
       </c>
     </row>
     <row r="8">
@@ -9732,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20851.3796306522</v>
+        <v>20694.4827898064</v>
       </c>
     </row>
     <row r="9">
@@ -9740,7 +9740,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5246.32634853371</v>
+        <v>5159.28313602802</v>
       </c>
     </row>
     <row r="10">
@@ -9748,7 +9748,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10377.6451617993</v>
+        <v>10299.5582548345</v>
       </c>
     </row>
     <row r="11">
@@ -9756,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1441.33960580545</v>
+        <v>1430.49420206035</v>
       </c>
     </row>
     <row r="12">
@@ -9764,7 +9764,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>106672.613143139</v>
+        <v>103978.121837976</v>
       </c>
     </row>
     <row r="13">
@@ -9772,7 +9772,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>74526.3516203194</v>
+        <v>72643.8571305953</v>
       </c>
     </row>
     <row r="14">
@@ -9780,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22856.369945642</v>
+        <v>22261.8993371903</v>
       </c>
     </row>
     <row r="15">
@@ -9788,7 +9788,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26182.4834825078</v>
+        <v>25501.5040914829</v>
       </c>
     </row>
     <row r="16">
@@ -9796,7 +9796,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19871.3962587111</v>
+        <v>19354.5617371841</v>
       </c>
     </row>
     <row r="17">
@@ -9804,7 +9804,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>62599.1624630642</v>
+        <v>60971.0228115585</v>
       </c>
     </row>
     <row r="18">
@@ -9812,7 +9812,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16204.1428719103</v>
+        <v>15782.6898286051</v>
       </c>
     </row>
     <row r="19">
@@ -9820,7 +9820,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>51597.4023026619</v>
+        <v>50255.4070858214</v>
       </c>
     </row>
     <row r="20">
@@ -9828,7 +9828,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14018.0416711807</v>
+        <v>14015.9529315619</v>
       </c>
     </row>
     <row r="21">
@@ -9836,7 +9836,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15521.8631720404</v>
+        <v>15118.1555200322</v>
       </c>
     </row>
     <row r="22">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20184.5232351299</v>
+        <v>19912.0779799871</v>
       </c>
     </row>
     <row r="5">
@@ -9882,7 +9882,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6964.62782554</v>
+        <v>6870.62115603384</v>
       </c>
     </row>
     <row r="6">
@@ -9890,7 +9890,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8028.04761581666</v>
+        <v>7985.09981698607</v>
       </c>
     </row>
     <row r="7">
@@ -9898,7 +9898,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5619.63333107167</v>
+        <v>5589.56987189025</v>
       </c>
     </row>
     <row r="8">
@@ -9906,7 +9906,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19356.5148070246</v>
+        <v>19252.9628920664</v>
       </c>
     </row>
     <row r="9">
@@ -9914,7 +9914,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4256.1614489411</v>
+        <v>4198.71292868734</v>
       </c>
     </row>
     <row r="10">
@@ -9922,7 +9922,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9633.65713897999</v>
+        <v>9582.11978038327</v>
       </c>
     </row>
     <row r="11">
@@ -9930,7 +9930,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1338.00793596944</v>
+        <v>1330.84996949768</v>
       </c>
     </row>
     <row r="12">
@@ -9938,7 +9938,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>81131.759824328</v>
+        <v>79353.3955629208</v>
       </c>
     </row>
     <row r="13">
@@ -9946,7 +9946,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>56682.3468750102</v>
+        <v>55439.9005117923</v>
       </c>
     </row>
     <row r="14">
@@ -9954,7 +9954,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17289.2551924245</v>
+        <v>16896.9045908464</v>
       </c>
     </row>
     <row r="15">
@@ -9962,7 +9962,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19805.2288957997</v>
+        <v>19355.7824977233</v>
       </c>
     </row>
     <row r="16">
@@ -9970,7 +9970,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15031.3300740109</v>
+        <v>14690.219289803</v>
       </c>
     </row>
     <row r="17">
@@ -9978,7 +9978,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47351.9153404463</v>
+        <v>46277.3431704525</v>
       </c>
     </row>
     <row r="18">
@@ -9986,7 +9986,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12257.3077856741</v>
+        <v>11979.1487770926</v>
       </c>
     </row>
     <row r="19">
@@ -9994,7 +9994,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39029.848475436</v>
+        <v>38144.1316323212</v>
       </c>
     </row>
     <row r="20">
@@ -10002,7 +10002,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13993.0272510242</v>
+        <v>13991.6486828758</v>
       </c>
     </row>
     <row r="21">
@@ -10010,7 +10010,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11741.210615751</v>
+        <v>11474.7635654256</v>
       </c>
     </row>
     <row r="22">
@@ -10048,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28946.1973667404</v>
+        <v>28874.938565253</v>
       </c>
     </row>
     <row r="5">
@@ -10056,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9987.82528948231</v>
+        <v>9963.23758801061</v>
       </c>
     </row>
     <row r="6">
@@ -10064,7 +10064,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8844.84265734634</v>
+        <v>8836.59539205342</v>
       </c>
     </row>
     <row r="7">
@@ -10072,7 +10072,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6191.38986014244</v>
+        <v>6185.6167744374</v>
       </c>
     </row>
     <row r="8">
@@ -10080,7 +10080,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21325.8984071573</v>
+        <v>21306.0133341732</v>
       </c>
     </row>
     <row r="9">
@@ -10088,7 +10088,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6103.67101023919</v>
+        <v>6088.64519267315</v>
       </c>
     </row>
     <row r="10">
@@ -10096,7 +10096,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10613.8111888156</v>
+        <v>10603.9144704641</v>
       </c>
     </row>
     <row r="11">
@@ -10104,7 +10104,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1474.14044289106</v>
+        <v>1472.76589867557</v>
       </c>
     </row>
     <row r="12">
@@ -10112,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>73678.6239223396</v>
+        <v>72878.0771575527</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>51475.2462843433</v>
+        <v>50915.9478109764</v>
       </c>
     </row>
     <row r="14">
@@ -10128,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24776.1311730321</v>
+        <v>24665.1218858463</v>
       </c>
     </row>
     <row r="15">
@@ -10136,7 +10136,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28381.6129482121</v>
+        <v>28254.4493244582</v>
       </c>
     </row>
     <row r="16">
@@ -10144,7 +10144,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21540.4424004346</v>
+        <v>21443.9305947843</v>
       </c>
     </row>
     <row r="17">
@@ -10152,7 +10152,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67857.0159739012</v>
+        <v>67552.9830754148</v>
       </c>
     </row>
     <row r="18">
@@ -10160,7 +10160,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17565.167622672</v>
+        <v>17486.4670086224</v>
       </c>
     </row>
     <row r="19">
@@ -10168,7 +10168,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55931.1916406134</v>
+        <v>55680.5923169291</v>
       </c>
     </row>
     <row r="20">
@@ -10176,7 +10176,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12789.2514495745</v>
+        <v>12788.8613958022</v>
       </c>
     </row>
     <row r="21">
@@ -10184,7 +10184,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16825.5816175068</v>
+        <v>16750.1947135225</v>
       </c>
     </row>
     <row r="22">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17767.3742543172</v>
+        <v>17536.2085832869</v>
       </c>
     </row>
     <row r="5">
@@ -10230,7 +10230,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6130.59558934902</v>
+        <v>6050.83235461653</v>
       </c>
     </row>
     <row r="6">
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7767.25736883833</v>
+        <v>7730.81681225479</v>
       </c>
     </row>
     <row r="7">
@@ -10246,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5437.08015818683</v>
+        <v>5411.57176857836</v>
       </c>
     </row>
     <row r="8">
@@ -10254,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18727.7205448657</v>
+        <v>18639.8583139921</v>
       </c>
     </row>
     <row r="9">
@@ -10262,7 +10262,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3746.47508237995</v>
+        <v>3697.73088337676</v>
       </c>
     </row>
     <row r="10">
@@ -10270,7 +10270,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9320.70884260599</v>
+        <v>9276.98017470574</v>
       </c>
     </row>
     <row r="11">
@@ -10278,7 +10278,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1294.54289480639</v>
+        <v>1288.46946870913</v>
       </c>
     </row>
     <row r="12">
@@ -10286,7 +10286,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>70464.4985100141</v>
+        <v>68955.5833791231</v>
       </c>
     </row>
     <row r="13">
@@ -10294,7 +10294,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49229.7117129783</v>
+        <v>48175.5147987328</v>
       </c>
     </row>
     <row r="14">
@@ -10302,7 +10302,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15003.6181978603</v>
+        <v>14670.7146571274</v>
       </c>
     </row>
     <row r="15">
@@ -10310,7 +10310,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>17186.980547549</v>
+        <v>16805.632088575</v>
       </c>
     </row>
     <row r="16">
@@ -10318,7 +10318,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13044.1904481398</v>
+        <v>12754.7631160846</v>
       </c>
     </row>
     <row r="17">
@@ -10326,7 +10326,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>41091.9990941399</v>
+        <v>40180.2408892967</v>
       </c>
     </row>
     <row r="18">
@@ -10334,7 +10334,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10636.8934984831</v>
+        <v>10400.8797942321</v>
       </c>
     </row>
     <row r="19">
@@ -10342,7 +10342,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>33870.1082451698</v>
+        <v>33118.5909237391</v>
       </c>
     </row>
     <row r="20">
@@ -10350,7 +10350,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13979.5426735633</v>
+        <v>13978.3729793768</v>
       </c>
     </row>
     <row r="21">
@@ -10358,7 +10358,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10189.0242985469</v>
+        <v>9962.94801342233</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>48967.5269550959</v>
+        <v>46600.7610759736</v>
       </c>
     </row>
     <row r="5">
@@ -7989,7 +7989,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>16896.1434861034</v>
+        <v>16079.4958345213</v>
       </c>
     </row>
     <row r="6">
@@ -7997,7 +7997,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12641.9750287262</v>
+        <v>11712.0395899667</v>
       </c>
     </row>
     <row r="7">
@@ -8005,7 +8005,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8849.38252010834</v>
+        <v>8198.42771297668</v>
       </c>
     </row>
     <row r="8">
@@ -8013,7 +8013,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>30481.2064581509</v>
+        <v>28239.0287891419</v>
       </c>
     </row>
     <row r="9">
@@ -8021,7 +8021,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10325.4210192854</v>
+        <v>9826.35856554078</v>
       </c>
     </row>
     <row r="10">
@@ -8029,7 +8029,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>15170.3700344714</v>
+        <v>14054.44750796</v>
       </c>
     </row>
     <row r="11">
@@ -8037,7 +8037,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2106.99583812103</v>
+        <v>1952.00659832778</v>
       </c>
     </row>
     <row r="12">
@@ -8045,7 +8045,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>142504.958122299</v>
+        <v>138512.610950059</v>
       </c>
     </row>
     <row r="13">
@@ -8053,7 +8053,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>99560.4617129834</v>
+        <v>96771.2259346347</v>
       </c>
     </row>
     <row r="14">
@@ -8061,7 +8061,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>44998.3576187708</v>
+        <v>42823.3213007268</v>
       </c>
     </row>
     <row r="15">
@@ -8069,7 +8069,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>51546.6260782188</v>
+        <v>49055.0732810565</v>
       </c>
     </row>
     <row r="16">
@@ -8077,7 +8077,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>39121.7064372149</v>
+        <v>37230.7233696618</v>
       </c>
     </row>
     <row r="17">
@@ -8085,7 +8085,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>123241.770493201</v>
+        <v>117284.76804005</v>
       </c>
     </row>
     <row r="18">
@@ -8093,7 +8093,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>31901.8206998748</v>
+        <v>30359.8173400675</v>
       </c>
     </row>
     <row r="19">
@@ -8101,7 +8101,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>101582.11328118</v>
+        <v>96672.0499512676</v>
       </c>
     </row>
     <row r="20">
@@ -8109,7 +8109,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15564.6984239016</v>
+        <v>14161.4148904335</v>
       </c>
     </row>
     <row r="21">
@@ -8117,7 +8117,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>30558.5861440907</v>
+        <v>29081.5092415384</v>
       </c>
     </row>
     <row r="22">
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>44692.7966892184</v>
+        <v>42326.0308100961</v>
       </c>
     </row>
     <row r="5">
@@ -8337,7 +8337,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>15421.1566850977</v>
+        <v>14604.5090335156</v>
       </c>
     </row>
     <row r="6">
@@ -8345,7 +8345,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12088.3588806302</v>
+        <v>11158.4234418706</v>
       </c>
     </row>
     <row r="7">
@@ -8353,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8461.85121644111</v>
+        <v>7810.89640930945</v>
       </c>
     </row>
     <row r="8">
@@ -8361,7 +8361,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>29146.376412186</v>
+        <v>26904.198743177</v>
       </c>
     </row>
     <row r="9">
@@ -8369,7 +8369,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9424.04019644862</v>
+        <v>8924.97774270398</v>
       </c>
     </row>
     <row r="10">
@@ -8377,7 +8377,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14506.0306567562</v>
+        <v>13390.1081302448</v>
       </c>
     </row>
     <row r="11">
@@ -8385,7 +8385,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2014.72648010503</v>
+        <v>1859.73724031177</v>
       </c>
     </row>
     <row r="12">
@@ -8393,7 +8393,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>119712.485934754</v>
+        <v>115720.138762514</v>
       </c>
     </row>
     <row r="13">
@@ -8401,7 +8401,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>83636.6013471928</v>
+        <v>80847.3655688441</v>
       </c>
     </row>
     <row r="14">
@@ -8409,7 +8409,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>40037.6028861741</v>
+        <v>37862.5665681301</v>
       </c>
     </row>
     <row r="15">
@@ -8417,7 +8417,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>45863.9704703561</v>
+        <v>43372.4176731938</v>
       </c>
     </row>
     <row r="16">
@@ -8425,7 +8425,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>34808.8114644722</v>
+        <v>32917.8283969191</v>
       </c>
     </row>
     <row r="17">
@@ -8433,7 +8433,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>109655.225815119</v>
+        <v>103698.223361968</v>
       </c>
     </row>
     <row r="18">
@@ -8441,7 +8441,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28384.8677178099</v>
+        <v>26842.8643580026</v>
       </c>
     </row>
     <row r="19">
@@ -8449,7 +8449,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>90383.3945751317</v>
+        <v>85473.331245219</v>
       </c>
     </row>
     <row r="20">
@@ -8457,7 +8457,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15541.8145181563</v>
+        <v>14138.5309846882</v>
       </c>
     </row>
     <row r="21">
@@ -8465,7 +8465,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>27189.7153928496</v>
+        <v>25712.6384902973</v>
       </c>
     </row>
     <row r="22">
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>42399.4864607433</v>
+        <v>40032.720581621</v>
       </c>
     </row>
     <row r="5">
@@ -8511,7 +8511,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14629.8547532277</v>
+        <v>13813.2071016456</v>
       </c>
     </row>
     <row r="6">
@@ -8519,7 +8519,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11847.090360393</v>
+        <v>10917.1549216335</v>
       </c>
     </row>
     <row r="7">
@@ -8527,7 +8527,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8292.96325227511</v>
+        <v>7642.00844514344</v>
       </c>
     </row>
     <row r="8">
@@ -8535,7 +8535,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>28564.6512022809</v>
+        <v>26322.4735332719</v>
       </c>
     </row>
     <row r="9">
@@ -8543,7 +8543,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8940.46679363918</v>
+        <v>8441.40433989454</v>
       </c>
     </row>
     <row r="10">
@@ -8551,7 +8551,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14216.5084324716</v>
+        <v>13100.5859059602</v>
       </c>
     </row>
     <row r="11">
@@ -8559,7 +8559,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1974.5150600655</v>
+        <v>1819.52582027225</v>
       </c>
     </row>
     <row r="12">
@@ -8567,7 +8567,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>109853.572011989</v>
+        <v>105861.224839748</v>
       </c>
     </row>
     <row r="13">
@@ -8575,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>76748.7145320781</v>
+        <v>73959.4787537294</v>
       </c>
     </row>
     <row r="14">
@@ -8583,7 +8583,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>37930.3070741454</v>
+        <v>35755.2707561014</v>
       </c>
     </row>
     <row r="15">
@@ -8591,7 +8591,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>43450.0159394128</v>
+        <v>40958.4631422505</v>
       </c>
     </row>
     <row r="16">
@@ -8599,7 +8599,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>32976.7221950592</v>
+        <v>31085.7391275061</v>
       </c>
     </row>
     <row r="17">
@@ -8607,7 +8607,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>103883.751464264</v>
+        <v>97926.7490111135</v>
       </c>
     </row>
     <row r="18">
@@ -8615,7 +8615,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>26890.8893436105</v>
+        <v>25348.8859838032</v>
       </c>
     </row>
     <row r="19">
@@ -8623,7 +8623,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>85626.2529099177</v>
+        <v>80716.189580005</v>
       </c>
     </row>
     <row r="20">
@@ -8631,7 +8631,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15528.9565625811</v>
+        <v>14125.673029113</v>
       </c>
     </row>
     <row r="21">
@@ -8639,7 +8639,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>25758.641371248</v>
+        <v>24281.5644686957</v>
       </c>
     </row>
     <row r="22">
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>49793.118637347</v>
+        <v>47426.3527582247</v>
       </c>
     </row>
     <row r="5">
@@ -8685,7 +8685,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>17181.0121815766</v>
+        <v>16364.3645299945</v>
       </c>
     </row>
     <row r="6">
@@ -8693,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12772.1198736674</v>
+        <v>11842.1844349079</v>
       </c>
     </row>
     <row r="7">
@@ -8701,7 +8701,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8940.48391156718</v>
+        <v>8289.52910443551</v>
       </c>
     </row>
     <row r="8">
@@ -8709,7 +8709,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>30795.0001398425</v>
+        <v>28552.8224708335</v>
       </c>
     </row>
     <row r="9">
@@ -8717,7 +8717,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10499.5074442968</v>
+        <v>10000.4449905522</v>
       </c>
     </row>
     <row r="10">
@@ -8725,7 +8725,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>15326.5438484009</v>
+        <v>14210.6213218895</v>
       </c>
     </row>
     <row r="11">
@@ -8733,7 +8733,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2128.68664561123</v>
+        <v>1973.69740581798</v>
       </c>
     </row>
     <row r="12">
@@ -8741,7 +8741,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>147893.940732624</v>
+        <v>143901.593560383</v>
       </c>
     </row>
     <row r="13">
@@ -8749,7 +8749,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>103325.450692432</v>
+        <v>100536.214914083</v>
       </c>
     </row>
     <row r="14">
@@ -8757,7 +8757,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>46187.2988356742</v>
+        <v>44012.2625176302</v>
       </c>
     </row>
     <row r="15">
@@ -8765,7 +8765,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>52908.5848602685</v>
+        <v>50417.0320631062</v>
       </c>
     </row>
     <row r="16">
@@ -8773,7 +8773,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>40155.3754802689</v>
+        <v>38264.3924127158</v>
       </c>
     </row>
     <row r="17">
@@ -8781,7 +8781,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>126498.049796212</v>
+        <v>120541.047343062</v>
       </c>
     </row>
     <row r="18">
@@ -8789,7 +8789,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>32744.7267864854</v>
+        <v>31202.7234266781</v>
       </c>
     </row>
     <row r="19">
@@ -8797,7 +8797,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>104266.103714861</v>
+        <v>99356.0403849487</v>
       </c>
     </row>
     <row r="20">
@@ -8805,7 +8805,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15568.8759031392</v>
+        <v>14165.592369671</v>
       </c>
     </row>
     <row r="21">
@@ -8813,7 +8813,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>31366.0014481071</v>
+        <v>29888.9245455548</v>
       </c>
     </row>
     <row r="22">
@@ -8851,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>45237.6871995041</v>
+        <v>42870.9213203818</v>
       </c>
     </row>
     <row r="5">
@@ -8859,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>15609.17002411</v>
+        <v>14792.5223725279</v>
       </c>
     </row>
     <row r="6">
@@ -8867,7 +8867,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12174.2544782914</v>
+        <v>11244.3190395318</v>
       </c>
     </row>
     <row r="7">
@@ -8875,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8521.97813480395</v>
+        <v>7871.02332767228</v>
       </c>
     </row>
     <row r="8">
@@ -8883,7 +8883,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>29353.4802421025</v>
+        <v>27111.3025730934</v>
       </c>
     </row>
     <row r="9">
@@ -8891,7 +8891,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9538.93723695614</v>
+        <v>9039.8747832115</v>
       </c>
     </row>
     <row r="10">
@@ -8899,7 +8899,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14609.1053739496</v>
+        <v>13493.1828474382</v>
       </c>
     </row>
     <row r="11">
@@ -8907,7 +8907,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2029.04241304856</v>
+        <v>1874.05317325531</v>
       </c>
     </row>
     <row r="12">
@@ -8915,7 +8915,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>123269.214457569</v>
+        <v>119276.867285328</v>
       </c>
     </row>
     <row r="13">
@@ -8923,7 +8923,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>86121.4940736287</v>
+        <v>83332.25829528</v>
       </c>
     </row>
     <row r="14">
@@ -8931,7 +8931,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>40822.3040893303</v>
+        <v>38647.2677712863</v>
       </c>
     </row>
     <row r="15">
@@ -8939,7 +8939,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>46762.8632665089</v>
+        <v>44271.3104693466</v>
       </c>
     </row>
     <row r="16">
@@ -8947,7 +8947,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>35491.0330328878</v>
+        <v>33600.0499653347</v>
       </c>
     </row>
     <row r="17">
@@ -8955,7 +8955,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>111804.370155106</v>
+        <v>105847.367701956</v>
       </c>
     </row>
     <row r="18">
@@ -8963,7 +8963,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28941.1857349729</v>
+        <v>27399.1823751656</v>
       </c>
     </row>
     <row r="19">
@@ -8971,7 +8971,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>92154.8282613612</v>
+        <v>87244.7649314485</v>
       </c>
     </row>
     <row r="20">
@@ -8979,7 +8979,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15544.5716544531</v>
+        <v>14141.288120985</v>
       </c>
     </row>
     <row r="21">
@@ -8987,7 +8987,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>27722.6094935005</v>
+        <v>26245.5325909482</v>
       </c>
     </row>
     <row r="22">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>42861.8178028039</v>
+        <v>40495.0519236816</v>
       </c>
     </row>
     <row r="5">
@@ -9033,7 +9033,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14789.3812226927</v>
+        <v>13972.7335711106</v>
       </c>
     </row>
     <row r="6">
@@ -9041,7 +9041,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11919.9714735601</v>
+        <v>10990.0360348006</v>
       </c>
     </row>
     <row r="7">
@@ -9049,7 +9049,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8343.98003149206</v>
+        <v>7693.0252243604</v>
       </c>
     </row>
     <row r="8">
@@ -9057,7 +9057,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>28740.3756640282</v>
+        <v>26498.1979950191</v>
       </c>
     </row>
     <row r="9">
@@ -9065,7 +9065,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9037.95519164556</v>
+        <v>8538.89273790092</v>
       </c>
     </row>
     <row r="10">
@@ -9073,7 +9073,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14303.9657682721</v>
+        <v>13188.0432417607</v>
       </c>
     </row>
     <row r="11">
@@ -9081,7 +9081,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1986.66191226001</v>
+        <v>1831.67267246676</v>
       </c>
     </row>
     <row r="12">
@@ -9089,7 +9089,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>112871.402273771</v>
+        <v>108879.05510153</v>
       </c>
     </row>
     <row r="13">
@@ -9097,7 +9097,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>78857.1083605692</v>
+        <v>76067.8725822205</v>
       </c>
     </row>
     <row r="14">
@@ -9105,7 +9105,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>38596.1141556113</v>
+        <v>36421.0778375673</v>
       </c>
     </row>
     <row r="15">
@@ -9113,7 +9113,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>44212.7128573606</v>
+        <v>41721.1600601983</v>
       </c>
     </row>
     <row r="16">
@@ -9121,7 +9121,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>33555.5768591694</v>
+        <v>31664.5937916163</v>
       </c>
     </row>
     <row r="17">
@@ -9129,7 +9129,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>105707.26787395</v>
+        <v>99750.2654207999</v>
       </c>
     </row>
     <row r="18">
@@ -9137,7 +9137,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>27362.9167521124</v>
+        <v>25820.9133923051</v>
       </c>
     </row>
     <row r="19">
@@ -9145,7 +9145,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>87129.2875527791</v>
+        <v>82219.2242228664</v>
       </c>
     </row>
     <row r="20">
@@ -9153,7 +9153,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15531.2959509541</v>
+        <v>14128.012417486</v>
       </c>
     </row>
     <row r="21">
@@ -9161,7 +9161,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>26210.7939414972</v>
+        <v>24733.7170389449</v>
       </c>
     </row>
     <row r="22">
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>49462.8819644466</v>
+        <v>47096.1160853243</v>
       </c>
     </row>
     <row r="5">
@@ -9207,7 +9207,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>17067.0647033873</v>
+        <v>16250.4170518052</v>
       </c>
     </row>
     <row r="6">
@@ -9215,7 +9215,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12720.0619356909</v>
+        <v>11790.1264969314</v>
       </c>
     </row>
     <row r="7">
@@ -9223,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8904.04335498365</v>
+        <v>8253.08854785198</v>
       </c>
     </row>
     <row r="8">
@@ -9231,7 +9231,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>30669.4826671659</v>
+        <v>28427.3049981568</v>
       </c>
     </row>
     <row r="9">
@@ -9239,7 +9239,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10429.8728742923</v>
+        <v>9930.81042054762</v>
       </c>
     </row>
     <row r="10">
@@ -9247,7 +9247,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>15264.0743228291</v>
+        <v>14148.1517963177</v>
       </c>
     </row>
     <row r="11">
@@ -9255,7 +9255,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2120.01032261515</v>
+        <v>1965.0210828219</v>
       </c>
     </row>
     <row r="12">
@@ -9263,7 +9263,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>145738.347688494</v>
+        <v>141746.000516253</v>
       </c>
     </row>
     <row r="13">
@@ -9271,7 +9271,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>101819.455100652</v>
+        <v>99030.2193223037</v>
       </c>
     </row>
     <row r="14">
@@ -9279,7 +9279,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>45711.7223489128</v>
+        <v>43536.6860308688</v>
       </c>
     </row>
     <row r="15">
@@ -9287,7 +9287,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>52363.8013474486</v>
+        <v>49872.2485502863</v>
       </c>
     </row>
     <row r="16">
@@ -9295,7 +9295,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>39741.9078630473</v>
+        <v>37850.9247954942</v>
       </c>
     </row>
     <row r="17">
@@ -9303,7 +9303,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>125195.538075007</v>
+        <v>119238.535621857</v>
       </c>
     </row>
     <row r="18">
@@ -9311,7 +9311,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>32407.5643518411</v>
+        <v>30865.5609920338</v>
       </c>
     </row>
     <row r="19">
@@ -9319,7 +9319,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>103192.507541389</v>
+        <v>98282.4442114762</v>
       </c>
     </row>
     <row r="20">
@@ -9327,7 +9327,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15567.2049114441</v>
+        <v>14163.921377976</v>
       </c>
     </row>
     <row r="21">
@@ -9335,7 +9335,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>31043.0353265005</v>
+        <v>29565.9584239482</v>
       </c>
     </row>
     <row r="22">
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>45019.7309953898</v>
+        <v>42652.9651162675</v>
       </c>
     </row>
     <row r="5">
@@ -9381,7 +9381,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>15533.9646885051</v>
+        <v>14717.317036923</v>
       </c>
     </row>
     <row r="6">
@@ -9389,7 +9389,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12139.8962392269</v>
+        <v>11209.9608004674</v>
       </c>
     </row>
     <row r="7">
@@ -9397,7 +9397,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8497.92736745882</v>
+        <v>7846.97256032716</v>
       </c>
     </row>
     <row r="8">
@@ -9405,7 +9405,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>29270.6387101359</v>
+        <v>27028.4610411268</v>
       </c>
     </row>
     <row r="9">
@@ -9413,7 +9413,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9492.97842075313</v>
+        <v>8993.91596700849</v>
       </c>
     </row>
     <row r="10">
@@ -9421,7 +9421,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14567.8754870722</v>
+        <v>13451.9529605608</v>
       </c>
     </row>
     <row r="11">
@@ -9429,7 +9429,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2023.31603987115</v>
+        <v>1868.32680007789</v>
       </c>
     </row>
     <row r="12">
@@ -9437,7 +9437,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>121846.523048443</v>
+        <v>117854.175876202</v>
       </c>
     </row>
     <row r="13">
@@ -9445,7 +9445,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>85127.5369830543</v>
+        <v>82338.3012047056</v>
       </c>
     </row>
     <row r="14">
@@ -9453,7 +9453,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>40508.4236080678</v>
+        <v>38333.3872900238</v>
       </c>
     </row>
     <row r="15">
@@ -9461,7 +9461,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>46403.3061480478</v>
+        <v>43911.7533508855</v>
       </c>
     </row>
     <row r="16">
@@ -9469,7 +9469,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>35218.1444055216</v>
+        <v>33327.1613379685</v>
       </c>
     </row>
     <row r="17">
@@ -9477,7 +9477,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>110944.712419111</v>
+        <v>104987.709965961</v>
       </c>
     </row>
     <row r="18">
@@ -9485,7 +9485,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28718.6585281077</v>
+        <v>27176.6551683004</v>
       </c>
     </row>
     <row r="19">
@@ -9493,7 +9493,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>91446.2547868694</v>
+        <v>86536.1914569567</v>
       </c>
     </row>
     <row r="20">
@@ -9501,7 +9501,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15543.4687999344</v>
+        <v>14140.1852664663</v>
       </c>
     </row>
     <row r="21">
@@ -9509,7 +9509,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>27509.4518532401</v>
+        <v>26032.3749506878</v>
       </c>
     </row>
     <row r="22">
@@ -9547,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>42676.8852659797</v>
+        <v>40310.1193868574</v>
       </c>
     </row>
     <row r="5">
@@ -9555,7 +9555,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14725.5706349067</v>
+        <v>13908.9229833246</v>
       </c>
     </row>
     <row r="6">
@@ -9563,7 +9563,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11890.8190282932</v>
+        <v>10960.8835895337</v>
       </c>
     </row>
     <row r="7">
@@ -9571,7 +9571,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8323.57331980528</v>
+        <v>7672.61851267362</v>
       </c>
     </row>
     <row r="8">
@@ -9579,7 +9579,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>28670.0858793293</v>
+        <v>26427.9082103202</v>
       </c>
     </row>
     <row r="9">
@@ -9587,7 +9587,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8998.95983244301</v>
+        <v>8499.89737869837</v>
       </c>
     </row>
     <row r="10">
@@ -9595,7 +9595,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14268.9828339519</v>
+        <v>13153.0603074405</v>
       </c>
     </row>
     <row r="11">
@@ -9603,7 +9603,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1981.80317138221</v>
+        <v>1826.81393158896</v>
       </c>
     </row>
     <row r="12">
@@ -9611,7 +9611,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>111664.270169058</v>
+        <v>107671.922996818</v>
       </c>
     </row>
     <row r="13">
@@ -9619,7 +9619,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>78013.7508291727</v>
+        <v>75224.515050824</v>
       </c>
     </row>
     <row r="14">
@@ -9627,7 +9627,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>38329.7913230249</v>
+        <v>36154.7550049809</v>
       </c>
     </row>
     <row r="15">
@@ -9635,7 +9635,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>43907.6340901815</v>
+        <v>41416.0812930192</v>
       </c>
     </row>
     <row r="16">
@@ -9643,7 +9643,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>33324.0349935253</v>
+        <v>31433.0519259722</v>
       </c>
     </row>
     <row r="17">
@@ -9651,7 +9651,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>104977.861310076</v>
+        <v>99020.8588569253</v>
       </c>
     </row>
     <row r="18">
@@ -9659,7 +9659,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>27174.1057887116</v>
+        <v>25632.1024289043</v>
       </c>
     </row>
     <row r="19">
@@ -9667,7 +9667,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>86528.0736956345</v>
+        <v>81618.0103657218</v>
       </c>
     </row>
     <row r="20">
@@ -9675,7 +9675,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15530.3601956049</v>
+        <v>14127.0766621368</v>
       </c>
     </row>
     <row r="21">
@@ -9683,7 +9683,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>26029.9329133975</v>
+        <v>24552.8560108453</v>
       </c>
     </row>
     <row r="22">
@@ -9721,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>48554.7311139704</v>
+        <v>46187.9652348481</v>
       </c>
     </row>
     <row r="5">
@@ -9729,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>16753.7091383668</v>
+        <v>15937.0614867847</v>
       </c>
     </row>
     <row r="6">
@@ -9737,7 +9737,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12576.9026062556</v>
+        <v>11646.9671674961</v>
       </c>
     </row>
     <row r="7">
@@ -9745,7 +9745,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8803.83182437892</v>
+        <v>8152.87701724726</v>
       </c>
     </row>
     <row r="8">
@@ -9753,7 +9753,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>30324.3096173052</v>
+        <v>28082.1319482961</v>
       </c>
     </row>
     <row r="9">
@@ -9761,7 +9761,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10238.3778067797</v>
+        <v>9739.31535303508</v>
       </c>
     </row>
     <row r="10">
@@ -9769,7 +9769,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>15092.2831275067</v>
+        <v>13976.3606009953</v>
       </c>
     </row>
     <row r="11">
@@ -9777,7 +9777,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2096.15043437593</v>
+        <v>1941.16119458268</v>
       </c>
     </row>
     <row r="12">
@@ -9785,7 +9785,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>139810.466817137</v>
+        <v>135818.119644896</v>
       </c>
     </row>
     <row r="13">
@@ -9793,7 +9793,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>97677.9672232593</v>
+        <v>94888.7314449106</v>
       </c>
     </row>
     <row r="14">
@@ -9801,7 +9801,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>44403.8870103192</v>
+        <v>42228.8506922752</v>
       </c>
     </row>
     <row r="15">
@@ -9809,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>50865.6466871939</v>
+        <v>48374.0938900316</v>
       </c>
     </row>
     <row r="16">
@@ -9817,7 +9817,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>38604.8719156878</v>
+        <v>36713.8888481347</v>
       </c>
     </row>
     <row r="17">
@@ -9825,7 +9825,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>121613.630841695</v>
+        <v>115656.628388545</v>
       </c>
     </row>
     <row r="18">
@@ -9833,7 +9833,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>31480.3676565695</v>
+        <v>29938.3642967622</v>
       </c>
     </row>
     <row r="19">
@@ -9841,7 +9841,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>100240.11806434</v>
+        <v>95330.0547344271</v>
       </c>
     </row>
     <row r="20">
@@ -9849,7 +9849,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15562.6096842829</v>
+        <v>14159.3261508148</v>
       </c>
     </row>
     <row r="21">
@@ -9857,7 +9857,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>30154.8784920824</v>
+        <v>28677.8015895301</v>
       </c>
     </row>
     <row r="22">
@@ -9895,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>45237.6871995041</v>
+        <v>42870.9213203818</v>
       </c>
     </row>
     <row r="5">
@@ -9903,7 +9903,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>15609.17002411</v>
+        <v>14792.5223725279</v>
       </c>
     </row>
     <row r="6">
@@ -9911,7 +9911,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12174.2544782914</v>
+        <v>11244.3190395318</v>
       </c>
     </row>
     <row r="7">
@@ -9919,7 +9919,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8521.97813480395</v>
+        <v>7871.02332767228</v>
       </c>
     </row>
     <row r="8">
@@ -9927,7 +9927,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>29353.4802421025</v>
+        <v>27111.3025730934</v>
       </c>
     </row>
     <row r="9">
@@ -9935,7 +9935,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9538.93723695614</v>
+        <v>9039.8747832115</v>
       </c>
     </row>
     <row r="10">
@@ -9943,7 +9943,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14609.1053739496</v>
+        <v>13493.1828474382</v>
       </c>
     </row>
     <row r="11">
@@ -9951,7 +9951,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2029.04241304856</v>
+        <v>1874.05317325531</v>
       </c>
     </row>
     <row r="12">
@@ -9959,7 +9959,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>123269.214457569</v>
+        <v>119276.867285328</v>
       </c>
     </row>
     <row r="13">
@@ -9967,7 +9967,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>86121.4940736287</v>
+        <v>83332.25829528</v>
       </c>
     </row>
     <row r="14">
@@ -9975,7 +9975,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>40822.3040893303</v>
+        <v>38647.2677712863</v>
       </c>
     </row>
     <row r="15">
@@ -9983,7 +9983,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>46762.8632665089</v>
+        <v>44271.3104693466</v>
       </c>
     </row>
     <row r="16">
@@ -9991,7 +9991,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>35491.0330328878</v>
+        <v>33600.0499653347</v>
       </c>
     </row>
     <row r="17">
@@ -9999,7 +9999,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>111804.370155106</v>
+        <v>105847.367701956</v>
       </c>
     </row>
     <row r="18">
@@ -10007,7 +10007,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28941.1857349729</v>
+        <v>27399.1823751656</v>
       </c>
     </row>
     <row r="19">
@@ -10015,7 +10015,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>92154.8282613612</v>
+        <v>87244.7649314485</v>
       </c>
     </row>
     <row r="20">
@@ -10023,7 +10023,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15544.5716544531</v>
+        <v>14141.288120985</v>
       </c>
     </row>
     <row r="21">
@@ -10031,7 +10031,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>27722.6094935005</v>
+        <v>26245.5325909482</v>
       </c>
     </row>
     <row r="22">
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>42861.8178028039</v>
+        <v>40495.0519236816</v>
       </c>
     </row>
     <row r="5">
@@ -10251,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>14789.3812226927</v>
+        <v>13972.7335711106</v>
       </c>
     </row>
     <row r="6">
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11919.9714735601</v>
+        <v>10990.0360348006</v>
       </c>
     </row>
     <row r="7">
@@ -10267,7 +10267,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8343.98003149206</v>
+        <v>7693.0252243604</v>
       </c>
     </row>
     <row r="8">
@@ -10275,7 +10275,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>28740.3756640282</v>
+        <v>26498.1979950191</v>
       </c>
     </row>
     <row r="9">
@@ -10283,7 +10283,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>9037.95519164556</v>
+        <v>8538.89273790092</v>
       </c>
     </row>
     <row r="10">
@@ -10291,7 +10291,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14303.9657682721</v>
+        <v>13188.0432417607</v>
       </c>
     </row>
     <row r="11">
@@ -10299,7 +10299,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1986.66191226001</v>
+        <v>1831.67267246676</v>
       </c>
     </row>
     <row r="12">
@@ -10307,7 +10307,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>112871.402273771</v>
+        <v>108879.05510153</v>
       </c>
     </row>
     <row r="13">
@@ -10315,7 +10315,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>78857.1083605692</v>
+        <v>76067.8725822205</v>
       </c>
     </row>
     <row r="14">
@@ -10323,7 +10323,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>38596.1141556113</v>
+        <v>36421.0778375673</v>
       </c>
     </row>
     <row r="15">
@@ -10331,7 +10331,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>44212.7128573606</v>
+        <v>41721.1600601983</v>
       </c>
     </row>
     <row r="16">
@@ -10339,7 +10339,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>33555.5768591694</v>
+        <v>31664.5937916163</v>
       </c>
     </row>
     <row r="17">
@@ -10347,7 +10347,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>105707.26787395</v>
+        <v>99750.2654207999</v>
       </c>
     </row>
     <row r="18">
@@ -10355,7 +10355,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>27362.9167521124</v>
+        <v>25820.9133923051</v>
       </c>
     </row>
     <row r="19">
@@ -10363,7 +10363,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>87129.2875527791</v>
+        <v>82219.2242228664</v>
       </c>
     </row>
     <row r="20">
@@ -10371,7 +10371,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15531.2959509541</v>
+        <v>14128.012417486</v>
       </c>
     </row>
     <row r="21">
@@ -10379,7 +10379,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>26210.7939414972</v>
+        <v>24733.7170389449</v>
       </c>
     </row>
     <row r="22">
@@ -10417,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26558.4023989078</v>
+        <v>26228.8296612572</v>
       </c>
     </row>
     <row r="5">
@@ -10425,7 +10425,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9163.9215945113</v>
+        <v>9050.20320580118</v>
       </c>
     </row>
     <row r="6">
@@ -10433,7 +10433,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9460.79344953716</v>
+        <v>8820.05633615846</v>
       </c>
     </row>
     <row r="7">
@@ -10441,7 +10441,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6622.55541467601</v>
+        <v>6174.03943531093</v>
       </c>
     </row>
     <row r="8">
@@ -10449,7 +10449,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22811.0242061063</v>
+        <v>21266.1358327376</v>
       </c>
     </row>
     <row r="9">
@@ -10457,7 +10457,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5600.1743077569</v>
+        <v>5530.6797368785</v>
       </c>
     </row>
     <row r="10">
@@ -10465,7 +10465,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11352.9521394446</v>
+        <v>10584.0676033902</v>
       </c>
     </row>
     <row r="11">
@@ -10473,7 +10473,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1576.79890825619</v>
+        <v>1470.00938935974</v>
       </c>
     </row>
     <row r="12">
@@ -10545,7 +10545,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15418.6419019162</v>
+        <v>14028.6362340831</v>
       </c>
     </row>
     <row r="21">
@@ -10591,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22283.6721330303</v>
+        <v>21954.0993953796</v>
       </c>
     </row>
     <row r="5">
@@ -10599,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7688.93479350563</v>
+        <v>7575.21640479551</v>
       </c>
     </row>
     <row r="6">
@@ -10607,7 +10607,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8907.17730144112</v>
+        <v>8266.44018806242</v>
       </c>
     </row>
     <row r="7">
@@ -10615,7 +10615,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6235.02411100878</v>
+        <v>5786.5081316437</v>
       </c>
     </row>
     <row r="8">
@@ -10623,7 +10623,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21476.1941601414</v>
+        <v>19931.3057867727</v>
       </c>
     </row>
     <row r="9">
@@ -10631,7 +10631,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4698.7934849201</v>
+        <v>4629.2989140417</v>
       </c>
     </row>
     <row r="10">
@@ -10639,7 +10639,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10688.6127617293</v>
+        <v>9919.7282256749</v>
       </c>
     </row>
     <row r="11">
@@ -10647,7 +10647,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1484.52955024019</v>
+        <v>1377.74003134374</v>
       </c>
     </row>
     <row r="12">
@@ -10719,7 +10719,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15395.7579961709</v>
+        <v>14005.7523283378</v>
       </c>
     </row>
     <row r="21">
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19990.3619045552</v>
+        <v>19660.7891669045</v>
       </c>
     </row>
     <row r="5">
@@ -10773,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6897.63286163564</v>
+        <v>6783.91447292552</v>
       </c>
     </row>
     <row r="6">
@@ -10781,7 +10781,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8665.90878120397</v>
+        <v>8025.17166782527</v>
       </c>
     </row>
     <row r="7">
@@ -10789,7 +10789,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6066.13614684278</v>
+        <v>5617.6201674777</v>
       </c>
     </row>
     <row r="8">
@@ -10797,7 +10797,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20894.4689502362</v>
+        <v>19349.5805768676</v>
       </c>
     </row>
     <row r="9">
@@ -10805,7 +10805,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4215.22008211066</v>
+        <v>4145.72551123226</v>
       </c>
     </row>
     <row r="10">
@@ -10813,7 +10813,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10399.0905374448</v>
+        <v>9630.20600139032</v>
       </c>
     </row>
     <row r="11">
@@ -10821,7 +10821,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1444.31813020066</v>
+        <v>1337.52861130421</v>
       </c>
     </row>
     <row r="12">
@@ -10893,7 +10893,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15382.9000405957</v>
+        <v>13992.8943727626</v>
       </c>
     </row>
     <row r="21">
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27383.9940811589</v>
+        <v>27054.4213435082</v>
       </c>
     </row>
     <row r="5">
@@ -10947,7 +10947,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9448.7902899845</v>
+        <v>9335.07190127438</v>
       </c>
     </row>
     <row r="6">
@@ -10955,7 +10955,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9590.93829447836</v>
+        <v>8950.20118109966</v>
       </c>
     </row>
     <row r="7">
@@ -10963,7 +10963,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6713.65680613485</v>
+        <v>6265.14082676977</v>
       </c>
     </row>
     <row r="8">
@@ -10971,7 +10971,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>23124.8178877978</v>
+        <v>21579.9295144292</v>
       </c>
     </row>
     <row r="9">
@@ -10979,7 +10979,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5774.2607327683</v>
+        <v>5704.7661618899</v>
       </c>
     </row>
     <row r="10">
@@ -10987,7 +10987,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11509.125953374</v>
+        <v>10740.2414173196</v>
       </c>
     </row>
     <row r="11">
@@ -10995,7 +10995,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1598.48971574639</v>
+        <v>1491.70019684995</v>
       </c>
     </row>
     <row r="12">
@@ -11067,7 +11067,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15422.8193811537</v>
+        <v>14032.8137133207</v>
       </c>
     </row>
     <row r="21">
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22828.562643316</v>
+        <v>22498.9899056653</v>
       </c>
     </row>
     <row r="5">
@@ -11121,7 +11121,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7876.94813251794</v>
+        <v>7763.22974380782</v>
       </c>
     </row>
     <row r="6">
@@ -11129,7 +11129,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8993.07289910232</v>
+        <v>8352.33578572362</v>
       </c>
     </row>
     <row r="7">
@@ -11137,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6295.15102937162</v>
+        <v>5846.63505000654</v>
       </c>
     </row>
     <row r="8">
@@ -11145,7 +11145,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21683.2979900578</v>
+        <v>20138.4096166892</v>
       </c>
     </row>
     <row r="9">
@@ -11153,7 +11153,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4813.69052542762</v>
+        <v>4744.19595454922</v>
       </c>
     </row>
     <row r="10">
@@ -11161,7 +11161,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10791.6874789228</v>
+        <v>10022.8029428683</v>
       </c>
     </row>
     <row r="11">
@@ -11169,7 +11169,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1498.84548318372</v>
+        <v>1392.05596428727</v>
       </c>
     </row>
     <row r="12">
@@ -11241,7 +11241,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15398.5151324677</v>
+        <v>14008.5094646346</v>
       </c>
     </row>
     <row r="21">
@@ -11287,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20452.6932466158</v>
+        <v>20123.1205089651</v>
       </c>
     </row>
     <row r="5">
@@ -11295,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7057.15933110063</v>
+        <v>6943.44094239051</v>
       </c>
     </row>
     <row r="6">
@@ -11303,7 +11303,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8738.78989437104</v>
+        <v>8098.05278099234</v>
       </c>
     </row>
     <row r="7">
@@ -11311,7 +11311,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6117.15292605973</v>
+        <v>5668.63694669465</v>
       </c>
     </row>
     <row r="8">
@@ -11319,7 +11319,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21070.1934119835</v>
+        <v>19525.3050386149</v>
       </c>
     </row>
     <row r="9">
@@ -11327,7 +11327,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4312.70848011704</v>
+        <v>4243.21390923864</v>
       </c>
     </row>
     <row r="10">
@@ -11335,7 +11335,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10486.5478732452</v>
+        <v>9717.6633371908</v>
       </c>
     </row>
     <row r="11">
@@ -11343,7 +11343,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1456.46498239517</v>
+        <v>1349.67546349872</v>
       </c>
     </row>
     <row r="12">
@@ -11415,7 +11415,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15385.2394289687</v>
+        <v>13995.2337611356</v>
       </c>
     </row>
     <row r="21">
@@ -11461,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27053.7574082585</v>
+        <v>26724.1846706079</v>
       </c>
     </row>
     <row r="5">
@@ -11469,7 +11469,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9334.84281179522</v>
+        <v>9221.1244230851</v>
       </c>
     </row>
     <row r="6">
@@ -11477,7 +11477,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9538.88035650188</v>
+        <v>8898.14324312318</v>
       </c>
     </row>
     <row r="7">
@@ -11485,7 +11485,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6677.21624955132</v>
+        <v>6228.70027018624</v>
       </c>
     </row>
     <row r="8">
@@ -11493,7 +11493,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22999.3004151212</v>
+        <v>21454.4120417526</v>
       </c>
     </row>
     <row r="9">
@@ -11501,7 +11501,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5704.62616276374</v>
+        <v>5635.13159188534</v>
       </c>
     </row>
     <row r="10">
@@ -11509,7 +11509,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11446.6564278022</v>
+        <v>10677.7718917478</v>
       </c>
     </row>
     <row r="11">
@@ -11517,7 +11517,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1589.81339275031</v>
+        <v>1483.02387385387</v>
       </c>
     </row>
     <row r="12">
@@ -11589,7 +11589,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15421.1483894587</v>
+        <v>14031.1427216257</v>
       </c>
     </row>
     <row r="21">
@@ -11635,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22610.6064392017</v>
+        <v>22281.033701551</v>
       </c>
     </row>
     <row r="5">
@@ -11643,7 +11643,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7801.74279691302</v>
+        <v>7688.0244082029</v>
       </c>
     </row>
     <row r="6">
@@ -11651,7 +11651,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8958.71466003784</v>
+        <v>8317.97754665915</v>
       </c>
     </row>
     <row r="7">
@@ -11659,7 +11659,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6271.10026202649</v>
+        <v>5822.58428266141</v>
       </c>
     </row>
     <row r="8">
@@ -11667,7 +11667,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21600.4564580912</v>
+        <v>20055.5680847226</v>
       </c>
     </row>
     <row r="9">
@@ -11675,7 +11675,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4767.73170922461</v>
+        <v>4698.23713834621</v>
       </c>
     </row>
     <row r="10">
@@ -11683,7 +11683,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10750.4575920454</v>
+        <v>9981.57305599096</v>
       </c>
     </row>
     <row r="11">
@@ -11691,7 +11691,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1493.11911000631</v>
+        <v>1386.32959110986</v>
       </c>
     </row>
     <row r="12">
@@ -11763,7 +11763,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15397.412277949</v>
+        <v>14007.4066101159</v>
       </c>
     </row>
     <row r="21">
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20267.7607097916</v>
+        <v>19938.1879721409</v>
       </c>
     </row>
     <row r="5">
@@ -11817,7 +11817,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6993.34874331463</v>
+        <v>6879.63035460451</v>
       </c>
     </row>
     <row r="6">
@@ -11825,7 +11825,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8709.63744910421</v>
+        <v>8068.90033572551</v>
       </c>
     </row>
     <row r="7">
@@ -11833,7 +11833,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6096.74621437295</v>
+        <v>5648.23023500787</v>
       </c>
     </row>
     <row r="8">
@@ -11841,7 +11841,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20999.9036272846</v>
+        <v>19455.015253916</v>
       </c>
     </row>
     <row r="9">
@@ -11849,7 +11849,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4273.71312091449</v>
+        <v>4204.21855003609</v>
       </c>
     </row>
     <row r="10">
@@ -11857,7 +11857,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10451.564938925</v>
+        <v>9682.68040287061</v>
       </c>
     </row>
     <row r="11">
@@ -11865,7 +11865,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1451.60624151737</v>
+        <v>1344.81672262092</v>
       </c>
     </row>
     <row r="12">
@@ -11937,7 +11937,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15384.3036736195</v>
+        <v>13994.2980057864</v>
       </c>
     </row>
     <row r="21">
@@ -12157,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26145.6065577823</v>
+        <v>25816.0338201316</v>
       </c>
     </row>
     <row r="5">
@@ -12165,7 +12165,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9021.4872467747</v>
+        <v>8907.76885806458</v>
       </c>
     </row>
     <row r="6">
@@ -12173,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9395.72102706656</v>
+        <v>8754.98391368787</v>
       </c>
     </row>
     <row r="7">
@@ -12181,7 +12181,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6577.00471894659</v>
+        <v>6128.48873958151</v>
       </c>
     </row>
     <row r="8">
@@ -12189,7 +12189,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22654.1273652605</v>
+        <v>21109.2389918918</v>
       </c>
     </row>
     <row r="9">
@@ -12197,7 +12197,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5513.1310952512</v>
+        <v>5443.6365243728</v>
       </c>
     </row>
     <row r="10">
@@ -12205,7 +12205,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11274.8652324799</v>
+        <v>10505.9806964254</v>
       </c>
     </row>
     <row r="11">
@@ -12213,7 +12213,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1565.95350451109</v>
+        <v>1459.16398561464</v>
       </c>
     </row>
     <row r="12">
@@ -12285,7 +12285,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15416.5531622975</v>
+        <v>14026.5474944644</v>
       </c>
     </row>
     <row r="21">
@@ -12331,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22828.562643316</v>
+        <v>22498.9899056653</v>
       </c>
     </row>
     <row r="5">
@@ -12339,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7876.94813251794</v>
+        <v>7763.22974380782</v>
       </c>
     </row>
     <row r="6">
@@ -12347,7 +12347,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8993.07289910232</v>
+        <v>8352.33578572362</v>
       </c>
     </row>
     <row r="7">
@@ -12355,7 +12355,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6295.15102937162</v>
+        <v>5846.63505000654</v>
       </c>
     </row>
     <row r="8">
@@ -12363,7 +12363,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21683.2979900578</v>
+        <v>20138.4096166892</v>
       </c>
     </row>
     <row r="9">
@@ -12371,7 +12371,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4813.69052542762</v>
+        <v>4744.19595454922</v>
       </c>
     </row>
     <row r="10">
@@ -12379,7 +12379,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10791.6874789228</v>
+        <v>10022.8029428683</v>
       </c>
     </row>
     <row r="11">
@@ -12387,7 +12387,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1498.84548318372</v>
+        <v>1392.05596428727</v>
       </c>
     </row>
     <row r="12">
@@ -12459,7 +12459,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15398.5151324677</v>
+        <v>14008.5094646346</v>
       </c>
     </row>
     <row r="21">
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20452.6932466158</v>
+        <v>20123.1205089651</v>
       </c>
     </row>
     <row r="5">
@@ -12513,7 +12513,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7057.15933110063</v>
+        <v>6943.44094239051</v>
       </c>
     </row>
     <row r="6">
@@ -12521,7 +12521,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8738.78989437104</v>
+        <v>8098.05278099234</v>
       </c>
     </row>
     <row r="7">
@@ -12529,7 +12529,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6117.15292605973</v>
+        <v>5668.63694669465</v>
       </c>
     </row>
     <row r="8">
@@ -12537,7 +12537,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21070.1934119835</v>
+        <v>19525.3050386149</v>
       </c>
     </row>
     <row r="9">
@@ -12545,7 +12545,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4312.70848011704</v>
+        <v>4243.21390923864</v>
       </c>
     </row>
     <row r="10">
@@ -12553,7 +12553,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10486.5478732452</v>
+        <v>9717.6633371908</v>
       </c>
     </row>
     <row r="11">
@@ -12561,7 +12561,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1456.46498239517</v>
+        <v>1349.67546349872</v>
       </c>
     </row>
     <row r="12">
@@ -12633,7 +12633,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15385.2394289687</v>
+        <v>13995.2337611356</v>
       </c>
     </row>
     <row r="21">
@@ -12679,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>23712.7992806617</v>
+        <v>23641.9177355789</v>
       </c>
     </row>
     <row r="5">
@@ -12687,7 +12687,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8182.05214795993</v>
+        <v>8157.5946180272</v>
       </c>
     </row>
     <row r="6">
@@ -12695,7 +12695,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9056.83388392585</v>
+        <v>8452.82036742091</v>
       </c>
     </row>
     <row r="7">
@@ -12703,7 +12703,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6339.7837187481</v>
+        <v>5916.97425719464</v>
       </c>
     </row>
     <row r="8">
@@ -12711,7 +12711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21837.0328090212</v>
+        <v>20380.6891081149</v>
       </c>
     </row>
     <row r="9">
@@ -12719,7 +12719,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5000.14297930884</v>
+        <v>4985.19671101662</v>
       </c>
     </row>
     <row r="10">
@@ -12727,7 +12727,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10868.200660711</v>
+        <v>10143.3844409051</v>
       </c>
     </row>
     <row r="11">
@@ -12735,7 +12735,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1509.47231398764</v>
+        <v>1408.80339457015</v>
       </c>
     </row>
     <row r="12">
@@ -12807,7 +12807,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15400.0950419816</v>
+        <v>14011.7754523244</v>
       </c>
     </row>
     <row r="21">
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19438.0690147842</v>
+        <v>19367.1874697014</v>
       </c>
     </row>
     <row r="5">
@@ -12861,7 +12861,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6707.06534695426</v>
+        <v>6682.60781702153</v>
       </c>
     </row>
     <row r="6">
@@ -12869,7 +12869,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8503.21773582981</v>
+        <v>7899.20421932487</v>
       </c>
     </row>
     <row r="7">
@@ -12877,7 +12877,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5952.25241508087</v>
+        <v>5529.44295352741</v>
       </c>
     </row>
     <row r="8">
@@ -12885,7 +12885,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20502.2027630563</v>
+        <v>19045.85906215</v>
       </c>
     </row>
     <row r="9">
@@ -12893,7 +12893,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4098.76215647204</v>
+        <v>4083.81588817982</v>
       </c>
     </row>
     <row r="10">
@@ -12901,7 +12901,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10203.8612829958</v>
+        <v>9479.04506318984</v>
       </c>
     </row>
     <row r="11">
@@ -12909,7 +12909,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1417.20295597164</v>
+        <v>1316.53403655415</v>
       </c>
     </row>
     <row r="12">
@@ -12981,7 +12981,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15377.2111362363</v>
+        <v>13988.8915465791</v>
       </c>
     </row>
     <row r="21">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17144.7587863091</v>
+        <v>17073.8772412263</v>
       </c>
     </row>
     <row r="5">
@@ -13035,7 +13035,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5915.76341508427</v>
+        <v>5891.30588515154</v>
       </c>
     </row>
     <row r="6">
@@ -13043,7 +13043,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8261.94921559266</v>
+        <v>7657.93569908772</v>
       </c>
     </row>
     <row r="7">
@@ -13051,7 +13051,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5783.36445091487</v>
+        <v>5360.55498936141</v>
       </c>
     </row>
     <row r="8">
@@ -13059,7 +13059,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19920.4775531512</v>
+        <v>18464.1338522448</v>
       </c>
     </row>
     <row r="9">
@@ -13067,7 +13067,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3615.1887536626</v>
+        <v>3600.24248537038</v>
       </c>
     </row>
     <row r="10">
@@ -13075,7 +13075,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9914.33905871119</v>
+        <v>9189.52283890526</v>
       </c>
     </row>
     <row r="11">
@@ -13083,7 +13083,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1376.99153593211</v>
+        <v>1276.32261651462</v>
       </c>
     </row>
     <row r="12">
@@ -13155,7 +13155,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15364.353180661</v>
+        <v>13976.0335910038</v>
       </c>
     </row>
     <row r="21">
@@ -13201,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24538.3909629128</v>
+        <v>24467.50941783</v>
       </c>
     </row>
     <row r="5">
@@ -13209,7 +13209,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8466.92084343313</v>
+        <v>8442.4633135004</v>
       </c>
     </row>
     <row r="6">
@@ -13217,7 +13217,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9186.97872886705</v>
+        <v>8582.96521236211</v>
       </c>
     </row>
     <row r="7">
@@ -13225,7 +13225,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6430.88511020694</v>
+        <v>6008.07564865348</v>
       </c>
     </row>
     <row r="8">
@@ -13233,7 +13233,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22150.8264907128</v>
+        <v>20694.4827898064</v>
       </c>
     </row>
     <row r="9">
@@ -13241,7 +13241,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5174.22940432024</v>
+        <v>5159.28313602802</v>
       </c>
     </row>
     <row r="10">
@@ -13249,7 +13249,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11024.3744746405</v>
+        <v>10299.5582548345</v>
       </c>
     </row>
     <row r="11">
@@ -13257,7 +13257,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1531.16312147784</v>
+        <v>1430.49420206035</v>
       </c>
     </row>
     <row r="12">
@@ -13329,7 +13329,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15404.2725212191</v>
+        <v>14015.9529315619</v>
       </c>
     </row>
     <row r="21">
@@ -13375,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19982.9595250699</v>
+        <v>19912.0779799871</v>
       </c>
     </row>
     <row r="5">
@@ -13383,7 +13383,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6895.07868596657</v>
+        <v>6870.62115603384</v>
       </c>
     </row>
     <row r="6">
@@ -13391,7 +13391,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8589.11333349101</v>
+        <v>7985.09981698607</v>
       </c>
     </row>
     <row r="7">
@@ -13399,7 +13399,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6012.37933344371</v>
+        <v>5589.56987189025</v>
       </c>
     </row>
     <row r="8">
@@ -13407,7 +13407,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20709.3065929728</v>
+        <v>19252.9628920664</v>
       </c>
     </row>
     <row r="9">
@@ -13415,7 +13415,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4213.65919697956</v>
+        <v>4198.71292868734</v>
       </c>
     </row>
     <row r="10">
@@ -13423,7 +13423,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10306.9360001892</v>
+        <v>9582.11978038327</v>
       </c>
     </row>
     <row r="11">
@@ -13431,7 +13431,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1431.51888891517</v>
+        <v>1330.84996949768</v>
       </c>
     </row>
     <row r="12">
@@ -13503,7 +13503,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15379.968272533</v>
+        <v>13991.6486828758</v>
       </c>
     </row>
     <row r="21">
@@ -13549,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17607.0901283697</v>
+        <v>17536.2085832869</v>
       </c>
     </row>
     <row r="5">
@@ -13557,7 +13557,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6075.28988454926</v>
+        <v>6050.83235461653</v>
       </c>
     </row>
     <row r="6">
@@ -13565,7 +13565,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8334.83032875973</v>
+        <v>7730.81681225479</v>
       </c>
     </row>
     <row r="7">
@@ -13573,7 +13573,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5834.38123013182</v>
+        <v>5411.57176857836</v>
       </c>
     </row>
     <row r="8">
@@ -13581,7 +13581,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20096.2020148985</v>
+        <v>18639.8583139921</v>
       </c>
     </row>
     <row r="9">
@@ -13589,7 +13589,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3712.67715166898</v>
+        <v>3697.73088337676</v>
       </c>
     </row>
     <row r="10">
@@ -13597,7 +13597,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10001.7963945117</v>
+        <v>9276.98017470574</v>
       </c>
     </row>
     <row r="11">
@@ -13605,7 +13605,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1389.13838812662</v>
+        <v>1288.46946870913</v>
       </c>
     </row>
     <row r="12">
@@ -13677,7 +13677,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15366.692569034</v>
+        <v>13978.3729793768</v>
       </c>
     </row>
     <row r="21">
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24208.1542900124</v>
+        <v>24137.2727449296</v>
       </c>
     </row>
     <row r="5">
@@ -13731,7 +13731,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8352.97336524385</v>
+        <v>8328.51583531112</v>
       </c>
     </row>
     <row r="6">
@@ -13739,7 +13739,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9134.92079089057</v>
+        <v>8530.90727438563</v>
       </c>
     </row>
     <row r="7">
@@ -13747,7 +13747,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6394.44455362341</v>
+        <v>5971.63509206995</v>
       </c>
     </row>
     <row r="8">
@@ -13755,7 +13755,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22025.3090180362</v>
+        <v>20568.9653171298</v>
       </c>
     </row>
     <row r="9">
@@ -13763,7 +13763,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5104.59483431568</v>
+        <v>5089.64856602346</v>
       </c>
     </row>
     <row r="10">
@@ -13771,7 +13771,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10961.9049490687</v>
+        <v>10237.0887292628</v>
       </c>
     </row>
     <row r="11">
@@ -13779,7 +13779,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1522.48679848176</v>
+        <v>1421.81787906427</v>
       </c>
     </row>
     <row r="12">
@@ -13851,7 +13851,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15402.6015295241</v>
+        <v>14014.2819398669</v>
       </c>
     </row>
     <row r="21">
@@ -14071,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19765.0033209556</v>
+        <v>19694.1217758728</v>
       </c>
     </row>
     <row r="5">
@@ -14079,7 +14079,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6819.87335036165</v>
+        <v>6795.41582042892</v>
       </c>
     </row>
     <row r="6">
@@ -14087,7 +14087,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8554.75509442653</v>
+        <v>7950.74157792159</v>
       </c>
     </row>
     <row r="7">
@@ -14095,7 +14095,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5988.32856609858</v>
+        <v>5565.51910454512</v>
       </c>
     </row>
     <row r="8">
@@ -14103,7 +14103,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20626.4650610062</v>
+        <v>19170.1213600998</v>
       </c>
     </row>
     <row r="9">
@@ -14111,7 +14111,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4167.70038077655</v>
+        <v>4152.75411248433</v>
       </c>
     </row>
     <row r="10">
@@ -14119,7 +14119,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10265.7061133118</v>
+        <v>9540.8898935059</v>
       </c>
     </row>
     <row r="11">
@@ -14127,7 +14127,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1425.79251573776</v>
+        <v>1325.12359632027</v>
       </c>
     </row>
     <row r="12">
@@ -14199,7 +14199,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15378.8654180143</v>
+        <v>13990.5458283571</v>
       </c>
     </row>
     <row r="21">
@@ -14245,7 +14245,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17422.1575915455</v>
+        <v>17351.2760464627</v>
       </c>
     </row>
     <row r="5">
@@ -14253,7 +14253,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6011.47929676326</v>
+        <v>5987.02176683053</v>
       </c>
     </row>
     <row r="6">
@@ -14261,7 +14261,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8305.6778834929</v>
+        <v>7701.66436698796</v>
       </c>
     </row>
     <row r="7">
@@ -14269,7 +14269,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5813.97451844504</v>
+        <v>5391.16505689158</v>
       </c>
     </row>
     <row r="8">
@@ -14277,7 +14277,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20025.9122301995</v>
+        <v>18569.5685292932</v>
       </c>
     </row>
     <row r="9">
@@ -14285,7 +14285,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3673.68179246643</v>
+        <v>3658.73552417421</v>
       </c>
     </row>
     <row r="10">
@@ -14293,7 +14293,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9966.81346019148</v>
+        <v>9241.99724038555</v>
       </c>
     </row>
     <row r="11">
@@ -14301,7 +14301,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1384.27964724882</v>
+        <v>1283.61072783133</v>
       </c>
     </row>
     <row r="12">
@@ -14373,7 +14373,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15365.7568136848</v>
+        <v>13977.4372240276</v>
       </c>
     </row>
     <row r="21">
@@ -14419,7 +14419,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>23300.0034395362</v>
+        <v>23229.1218944534</v>
       </c>
     </row>
     <row r="5">
@@ -14427,7 +14427,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8039.61780022333</v>
+        <v>8015.1602702906</v>
       </c>
     </row>
     <row r="6">
@@ -14435,7 +14435,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8991.76146145525</v>
+        <v>8387.74794495032</v>
       </c>
     </row>
     <row r="7">
@@ -14443,7 +14443,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6294.23302301868</v>
+        <v>5871.42356146522</v>
       </c>
     </row>
     <row r="8">
@@ -14451,7 +14451,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21680.1359681754</v>
+        <v>20223.7922672691</v>
       </c>
     </row>
     <row r="9">
@@ -14459,7 +14459,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4913.09976680314</v>
+        <v>4898.15349851092</v>
       </c>
     </row>
     <row r="10">
@@ -14467,7 +14467,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10790.1137537463</v>
+        <v>10065.2975339404</v>
       </c>
     </row>
     <row r="11">
@@ -14475,7 +14475,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1498.62691024254</v>
+        <v>1397.95799082505</v>
       </c>
     </row>
     <row r="12">
@@ -14547,7 +14547,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15398.0063023628</v>
+        <v>14009.6867127056</v>
       </c>
     </row>
     <row r="21">
@@ -14593,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19982.9595250699</v>
+        <v>19912.0779799871</v>
       </c>
     </row>
     <row r="5">
@@ -14601,7 +14601,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6895.07868596657</v>
+        <v>6870.62115603384</v>
       </c>
     </row>
     <row r="6">
@@ -14609,7 +14609,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8589.11333349101</v>
+        <v>7985.09981698607</v>
       </c>
     </row>
     <row r="7">
@@ -14617,7 +14617,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6012.37933344371</v>
+        <v>5589.56987189025</v>
       </c>
     </row>
     <row r="8">
@@ -14625,7 +14625,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20709.3065929728</v>
+        <v>19252.9628920664</v>
       </c>
     </row>
     <row r="9">
@@ -14633,7 +14633,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4213.65919697956</v>
+        <v>4198.71292868734</v>
       </c>
     </row>
     <row r="10">
@@ -14641,7 +14641,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10306.9360001892</v>
+        <v>9582.11978038327</v>
       </c>
     </row>
     <row r="11">
@@ -14649,7 +14649,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1431.51888891517</v>
+        <v>1330.84996949768</v>
       </c>
     </row>
     <row r="12">
@@ -14721,7 +14721,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15379.968272533</v>
+        <v>13991.6486828758</v>
       </c>
     </row>
     <row r="21">
@@ -14767,7 +14767,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17607.0901283697</v>
+        <v>17536.2085832869</v>
       </c>
     </row>
     <row r="5">
@@ -14775,7 +14775,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6075.28988454926</v>
+        <v>6050.83235461653</v>
       </c>
     </row>
     <row r="6">
@@ -14783,7 +14783,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8334.83032875973</v>
+        <v>7730.81681225479</v>
       </c>
     </row>
     <row r="7">
@@ -14791,7 +14791,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5834.38123013182</v>
+        <v>5411.57176857836</v>
       </c>
     </row>
     <row r="8">
@@ -14799,7 +14799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20096.2020148985</v>
+        <v>18639.8583139921</v>
       </c>
     </row>
     <row r="9">
@@ -14807,7 +14807,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3712.67715166898</v>
+        <v>3697.73088337676</v>
       </c>
     </row>
     <row r="10">
@@ -14815,7 +14815,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10001.7963945117</v>
+        <v>9276.98017470574</v>
       </c>
     </row>
     <row r="11">
@@ -14823,7 +14823,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1389.13838812662</v>
+        <v>1288.46946870913</v>
       </c>
     </row>
     <row r="12">
@@ -14895,7 +14895,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15366.692569034</v>
+        <v>13978.3729793768</v>
       </c>
     </row>
     <row r="21">
